--- a/reddit_top_posts.xlsx
+++ b/reddit_top_posts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>Rewatching Big Lebowski as an adult and the film hits a little differently now…</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>So yes, Big Lebowski has been discussed as nauseam “what a cool film” and on and on. What’s left to say?
 But revisiting for the millionth time I have to say some things stood out that I don’t see really discussed.
@@ -460,9 +475,19 @@
 “Fuck it dude, let’s go bowling” just hits so insanely different , admission of total nihilism in the face of rampant corporate America and so on. It’s an admission of helplessness and this generations version of “Forget it Jack, it’s China town.”</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-07-25 16:17:31</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>I just rewatched Oppenheimer and was punched in the face by its mediocrity.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>I liked it the first time, but this time it exuded such emptiness, induced such boredom. I saw it in a theater both times by the way. It purely served as a visual (and auditory) spectacle.
 The writing was filled with corny one-liners and truisms, the performances were decent but nothing special. Murphy's was good (I liked Affleck's as well), but his character, for someone who is there the whole 3 hours, is neither particularly compelling nor fleshed out. The movie worships his genius while telling us how flawed he is but does little to demonstrate how these qualities actually coexist within the character. He's a prototype. It would have been nice to sit with him at points, see what he's like, though that would have gone against the nature of the film and Nolen's style.
@@ -470,17 +495,61 @@
 I'm curious to see what you think I've missed or how I'm wrong because I myself am surprised about how much this movie dulled on me the second around.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-02-02 15:15:40</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t xml:space="preserve">I'm sick of Ridley Scott's laziness. </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I recently watched *Gladiator II*, and while I didn’t completely love it, I have to admit that Ridley Scott still excels at crafting stunning action sequences, and the production design was phenomenal. That said, I think it’s one of Scott’s better films in recent years—which, unfortunately, isn’t saying much. It’s a shame how uneven his output has become.
+One of the major issues with Scott’s recent films is his approach to shooting. It’s well-known that he uses a million cameras on set, capturing every angle fathomable without consideration for direction. Even Gladiator II's cinematographer recently criticized this method in an interview:
+[https://www.worldofreel.com/blog/2024/11/27/gladiator-ii-cinematographer-says-ridley-scott-has-changed-is-now-lazy-and-rushes-to-get-things-done](https://www.worldofreel.com/blog/2024/11/27/gladiator-ii-cinematographer-says-ridley-scott-has-changed-is-now-lazy-and-rushes-to-get-things-done)
+While this method might save actors from giving multiple takes, it seems inefficient and costly. Balanced lighting across multiple setups often takes precedence over truly great lighting, and the editor is left to sift through mountains of footage. In this interview, the cinematographer even mentioned that they resorted to CGI-ing boom mics and other obstructions out of the shots in post-production. This approach feels like an expensive workaround for what should be a more deliberate and imaginative shooting process.
+What strikes me as odd is how this “laziness” manifests. Most directors, as they get older, simplify their shooting style—opting for fewer setups and longer takes, as seen with Clint Eastwood or Woody Allen. But Scott seems to do the opposite, opting for excess rather than focus. He’s been given massive budgets and creative freedom, but his recent films haven’t delivered at the box office. If *Gladiator II* struggles financially, it raises the question of whether studios will continue to bankroll his costly workflow considering this will be the fourth massive flop of his in a row.
+Perhaps it’s time for Scott to reconsider his approach and return to a more disciplined filmmaking style. It’s frustrating to see a director of his caliber rely on such scattershot methods, especially when they seem to result in uneven, bloated films.
+If you’re interested in a deeper dive, I shared my full thoughts on *Gladiator II* in my latest Substack post. I explore how Scott’s current filmmaking style affects the quality of this long-awaited sequel. Would love to hear your thoughts on this!
+[https://abhinavyerramreddy.substack.com/p/gladiator-ii-bigger-is-not-always?utm\_source=substack&amp;utm\_content=feed%3Arecommended%3Acopy\_link](https://abhinavyerramreddy.substack.com/p/gladiator-ii-bigger-is-not-always?utm_source=substack&amp;utm_content=feed%3Arecommended%3Acopy_link)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-11-27 23:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dune Part Two is a mess</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>The first one is better, and the first one isn’t that great. This one’s pacing is so rushed, and frankly messy, the texture of the books is completely flattened [or should I say sanded away (heh)], the structure doesn’t create any buy in emotionally with the arc of character relationships, the dialogue is corny as hell, somehow despite being rushed the movie still feels interminable as we are hammered over and over with the same points, telegraphed cliched foreshadowing, scenes that are given no time to land effectively, even the final battle is boring, there’s no build to it, and it goes by in a flash. 
 Hyperactive film-making, and all the plaudits speak volumes to the contemporary psyche/media-literacy/preference. A failure as both spectacle and storytelling. It’s proof that Villeneuve took a bite too big for him to chew. This deserved a defter touch, a touch that saw dune as more than just a spectacle, that could tease out the different thematic and emotional beats in a more tactful and coherent way.</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-03-04 19:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve: "Movies have been corrupted by Television"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>I am posting some key excerpts from Denis Villeneuve's interview with Times of London because I think this could be an interesting topic to have an discussion on. 
 https://www.thetimes.co.uk/article/denis-villeneuve-on-dune-part-two-young-people-want-films-to-be-longer-jd0q2rrwp
@@ -490,9 +559,39 @@
 Do you agree with Villeneuve in regards to movies being corrupted by Television? Or dialogue not being important in a film compared to an image? What are your thoughts on this?</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-02-26 19:38:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Just saw Alien Romulus and I think it exemplifies my problem with most modern prequels and soft reboots.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>One of the qualities that distinguished the Alien series, and in turn helped keep it fresh and interesting for over forty years, is that each of the filmmakers who sat in the director's chair strove to do something different with it: Ridley Scott laid the groundwork with his harrowing space horror film (Alien, 1979); James Cameron dazzled us with his spectacular emphasis on action (Aliens, 1986); David Fincher made his feature debut making the equivalent of a crude space prison drama exploring the harsh grieving process (Alien 3, 1992); and Jean-Pierre Jeunet concentrated on showing the horrors of cloning just as Dolly the sheep was making headlines (Alien: Resurrection, 1997). Even when Scott returned to the franchise with the underrated Prometheus (2012) and Alien: Covenant (2017)-the first two parts of the prequel trilogy that, sadly, he was never allowed to complete-the English artist was not content to repeat the formula, preferring to pursue God and existential questioning. Regardless of whether they were successful with their respective proposals( to a greater or lesser degree), none of them can be accused of recycling what the previous one did. 
+Practically everything that happens in this film happens because we saw it in another. From the dysfunctional androids, to the aberrant genetic mutations and climactic countdowns, Romulus is so reverent to the successes of the past - to the extent of shamelessly repeating the most famous line from “Ripley” - that it produces an experience akin to watching a tribute band play. This is where Romulus starts to skate, because to top it all off, it's not just a small cameo, but recurring appearances that interrupt the plot on multiple occasions to provide exposition and tie up the threads between Prometheus, Covenant and the rest of the tapes. 
+It would not be foolish to think that we could have Uruguayan director Fede Alvarez back in a sequel, but preferably stripped of the impulse to celebrate the work of his predecessors and ready to do exclusively what he does very well.
+Edit: A lot of people are misunderstanding my post. I do not believe Alien Romulus is a terrible movie, but I wish it had gone to places previously unexplored in the franchise. Someone suggested that they should've explored the slave-like conditions that Rain lived in with her adoptive brother, for example. It's almost as if the movie digs into its own history in this only passable installment that tries to revive the future of the series by looking exclusively and paradoxically to its past.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-12-07 17:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>I know, another Poor Things post... (why I did not see this movie as anti-feminist/creepy)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>I finally got to watch Poor Things this week, and prior to watching I had no idea the contention this movie caused. I actually kind of regret seeking out the discussions of Poor Things after viewing, but reading the many arguments did raise some questions for me, specifically why I (a woman) did not see this movie as anti-feminist/creepy when so many people disliked it (or even refused to watch it) for those reasons. At first I wondered, am I not viewing this critically enough? I fairly frequently dislike/reject movies due to their poor portrayal of women/misogynoir, and so I want to break down why Poor Things did not have this effect on me. 
 The movie is a fairytale, and an absurdist surreal satire. I think it aims to be entertaining and escapist rather than be a morality tale. While it is reflective of the real world, it also asks the audience to put away their logic and exist in the fantasy world of the film. However, I am going to discuss some of the more contentious parts of this story, and I will use the real world in my arguments.
@@ -504,9 +603,47 @@
 Obviously I didn’t touch on everything, and there's more I can say about this movie but I don’t want this to be any longer than it already is. I don’t think everything about the film is perfect, but it worked for me and I really enjoyed seeing Bella’s journey. It was impossible for me to be bothered by Bella's "mental age" because this movie is so absurd and fantastical; to me, she is clearly her own unique kind of mythical being and she is not characterized to be an innocent child being prayed upon. It is an interesting plot device to play out a thought experiment, and in my opinion, no more important than that. If you made it this far, thank you for reading, and I am interested to hear about your thoughts on the film.</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ALIEN is one of the funniest stories of studio meddling ever.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So in Hollywood and film making we’ve all heard of studio meddling and prying hands, entire projects driven into the dirt from notes and design  by committee and it inevitably it being bad.
+But ALIEN funnily is a rare case of it being good, a series of cumulative ideas put forth by both the studio, artists, editors, and director to make it what it became. and leads me to believe even maybe set a tone for studios having that hubris in the first place.
+Dan O Bannon originally wrote a draft of the script, some know- and while it had elements (like the face hugger) there wasn’t much about it that showed the promise of it being anything more than an average grade B Film with a really silly alien at the center of it. 
+Then you have the development, Scott gave his ideas, and helped. But there was still the alien problem. 
+Then, at one point Obannon discovered that the two studio heads were workshopping an alternative rework of his script BEHIND HIS BACK. At first he freaked out but they told him to calm down.
+He reads the script and they made an addition to the story: They added Ash.
+Then on comes H.R Giger who takes the look production and alien to a whole new level elevating the entire thing into something outside the realm of a B Movie.
+So suddenly the story has this crucial added layer of this bigger threat that ties the nefariousness of the entire mission and another threat to Ripleys life.
+Which is the last interesting addition. At a point the team had it all figured out. The droid, the alien, the main character but when they presented it to Alan Ladd Jr. the senior head of the company ( and original Star Wars producer) he came with notes as well, the main being: “change Ripley to be a woman.”
+Baffled at first they then agreed and boom we have alien. A bizarre hodge podge of ideas and decentralized collaboration that made one of the most iconic films in all of cinema.
+Sadly the downside being I think this gave the idea that the studios can function like this regularly and it being a good formula. 
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-08-29 17:12:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Civil War (2024) - The genius of this film will take time to digest</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>I'm aware of Garland's problematic "both-sides" statements but given how perfectly crafted this film is to not alienate liberals and right-wingers I think he's playing a metagame in order for this film's message to reach exactly who it needs to reach. The film is undoubtedly anti-war, anti-racism, anti-right-wing-extremism, and anti-insurrection.
 The film is too new for a structured review so I want to share some top level analysis from my first viewing:
@@ -519,17 +656,60 @@
 - The starkness and simplicity of &gt;!the sequence in the White House leaves the audience watching in horror, asking "This is how it happens? It's that easy?". The final words of the President, ignoble and pathetic: "please don't let them kill me"!&lt; is also a message to the audience and a grim reminder of how fragile democracy is.</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-15 17:05:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Why are Hollywood films not considered propaganda?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>We frequently hear Chinese films being propaganda/censored, eg. Hero 2002 in which the protagonist favored social stability over overthrowing the emperor/establishment, which is not an uncommon notion in Chinese culture/ideology.
 By the same measure, wouldn't many Hollywood classics (eg. Top Gun, Independence Day, Marvel stuff) be considered propaganda as they are directly inspired by and/or explicitly promoting American ideologies?</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-07-09 04:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Just watched "The Little Girl Who Lived Down The Lane". I have no idea how Jodie Foster survived the 70s.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Release a year after Taxi Driver "The Little Girl Who Lives Down The Lane" is another story in which a too-young Foster is sexualised by the men in her life.  
+Foster plays Rynn, 13 year old girl just wants to be left along but the various adults in her life (her landlord, her landlord's paedophile son, the local police) won't leave her alone. 
+On its release, reviews creepily branded Foster's character as a "murdering nymphet" and "a 13-year-old imp of maturing sexuality" painting her as a sexed of Damien from The Omen. 
+But really, she's just kid who is cornered by a slew terrible adults intent on bending her to their image of what a child should be. The crimes she covers up are not her own.
+Even the filmmakers can't leave the girl alone, including a nude scene by the 13 year old character (played by Foster's older sister who was 21 at the time.) They wanted Foster to do it but she stormed off the set.
+How she got through the production of films like this and came out a happy, well-adjusted adult, is a miracle.
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-09-08 23:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I didnt like saltburn at all</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">So I just watched Saltburn on Amazon Prime and I have to say I am extremely disappointed. So let's start with the few positives, I thought the performances were from OK to great, Elordi was good and so was Keogean, I also thought the movie was well shot and pretty to look at but that's about where the positives end for me.
 SPOILERS. (nothing very very major tho)
@@ -537,9 +717,19 @@
 So in conclusion, was I supposed to get something I didnt? Was there some deeper meaning that I missed? </t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-12-27 18:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Are people missing the point of Poor Things (2023) (or am I)?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>My initial impression of the movie was that it was a misguided attempt at exploring feminine empowerment, where the positive moments of sexual and emotional “agency” were tainted by the disturbing underlying premise. However, I’m starting to think the “inconsistencies” are deliberate satire. The film is being rightfully praised for its visuals, performances, and score, but what surprises me is that the majority of its proponents seem to take its empowering themes at face value. People celebrate the film as a feminist journey of self discovery, but every step in her journey is effectively dictated by others, typically men, and full of exploitation.
 Godwin reverses her choice to end her own life and essentially commandeers her body for his own experimental use, the ultimate violation of bodily autonomy. The movie doesn’t then condemn him for this, but rather encourages you to forgive him via a tragic backstory and Bella’s undying love. Her first encounter with masculinity outside of her “father” is the voyeuristic Max, who expresses sexual desire for her and proposes while she has the mind of a toddler. Her great journey into the world, while technically her own choice, was instigated and inspired by Duncan, a womanizer exploiting her childlike naïveté for his own sexual gratification. 
@@ -547,9 +737,19 @@
 So is the movie attempting to satirize modern sex-positivity and naive left-wing political idealism? Or is it simply a flawed male perspective on feminine agency? Lanthimos’ other works have a dark, sardonic wit, and so I tend to lean towards the former (not that I necessarily agree with his point). As a final piece of evidence, her ex husband Alfie, the comically overblown vision of patriarchy, literally shooting himself in the foot trying to conquer female sexuality is so on-the-nose it’s hard to believe it’s anything other than sarcasm straight out of a Verhoeven film. I could be totally wrong though, I would love to hear some thoughts.</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:02:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Scarface(1983) is a camp cinema for straight man</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">In 1964, Susan Sontag published an essay, Notes on Camp, and attempted to define the term ‘camp’. According to Sontag, “Camp is a certain mode of aestheticism. It is one way of seeing the world as an aesthetic phenomenon. That way, the way of camp is not in terms of beauty, but in terms of the degree of artifice, of stylization.” She adds, “It is not a natural mode of sensibility, if there be any such. Indeed, the essence of Camp is its love of the unnatural: of artifice and exaggeration.”
 In 1983, Brian De Palma directed Scarface. Based on 1932 Howard Hawks film with same name, it has lots of features of camp. On surface it's a classic rags-to-rich story of Cuban immigrant becoming Miami drug lord. But inside every aspect of film is exagerrated to 11, just as Sontag said about artifice and exaggeration. Al Pacino's acting, Oliver Stone's diaolgue, De Palma's cinematography, Giorgio Moroder's soundtrack, and of course its bizarre level of violence, all of them are How practical is it to bring chainsaw to motel? 
@@ -558,9 +758,19 @@
 Which brings to its fans. Scarface became cult film in 90s among hip hop artists. Mafias in Naples built their mansion like Tony Montana's one. Even Saddam Hussein liked this film so much he named his family trust Montana Management. What this diverse group of people have common is "Empowerment at all cost". To show their wealth and power to dominate others, figuratively or literally. I'm not saying this is a characteristics of straight men, but for straight boy who believes his pride is undermined by society, movies like Scarface can be very persuasive. </t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-23 14:14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Alex Garland has stated he no longer plans to direct another film because he's "fallen out of love with filmmaking" - let's discuss his legacy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Alex Garland has stated (right before the press tour for *Civil War*...) that he has fallen out of love with filmmaking and will [likely not direct another film.](https://www.worldofreel.com/blog/2024/3/31/1dsj5o7mwje1hki7riyvdtvhih6kxd)
 Novelist, screenwriter and director, Garland has been a pretty notable name in cinema for a little over 20 years now from his partnerships with Danny Boyle to his own sci-fi mysteries in recent years like *Annihilation* and the TV show *Devs*. 
@@ -571,9 +781,37 @@
 How does this bode for *Civil War*? The film hasn't even released yet! So far the reviews haven't been terrible, and seem to suggest it's at least a passable film. But if the director turns around and says "Lol filmmaking sucks" before it even releases, it does give pause.</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-01 11:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>There's a sort of dissonance between the quality of the Dune films and the actual experience of watching them</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>I really appreciate these films on a technical level and they told their story effectively enough, but looking back on the viewing experience it feels like a 5 hour assignment that left me with very little actual emotional connection to any of it, which is not how I felt for Villeneuve's Blade Runner 2049. I get the sense that he misjudged the balance of these movies, like he felt being extremely proper and even obtuse at times was an indication of filmmaking maturity, but for me it just lead to them feeling like chores with virtually non-existent replay value.
+What was your experience with these movies, and have you rewatched them since?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:20:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Aftersun: Depression Without A Cause</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>As someone who's suffered from clinical depression myself, one of the things I've noticed about on-screen depictions of it are that they always seem to be tied to some sort of cause, often times grief, which causes their external life to mirror their inner one. In "Manchester By The Sea", Lee is haunted by the death of his children; in "Inside Llewyn Davis", the titular Llewyn is struggling to get his music career off the ground, as well as dealing with the suicide of his musical partner; in "Synecdoche, New York", Caden is constantly battling his fear of death, as well as his inability to form close, intimate relationships with the people in his life. This makes sense, of course, because it’s much easier to build a narrative when there’s a reason why your characters feel the way they do; how do you tell a compelling story about someone who's sad for no good reason?
 "[Aftersun](https://letterboxd.com/glasshalftrue/film/aftersun/)" is the first movie I've seen that tackles that challenge. What makes it work, I think, is that it’s told through the eyes of Sophie: In light of her father’s suicide, the adult Sophie is attempting to recontextualize her memories of Calum, and we get glimpses of what he might’ve been like when no one was watching (the movie leaves it unclear whether these are objective depictions or merely her imagination, but the point stands either way), creating a sort of retrospective coming-of-age story, as Sophie’s naivete as a child is contrasted with her simultaneous confusion and understanding as an adult.
@@ -582,9 +820,80 @@
 All in all, it’s a really beautiful movie, and I really appreciate how it was able to capture something that I thought, by its very nature, wouldn’t be possible to capture compellingly in narrative form.</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-04 19:07:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Am I grumpy, or are there almost no good comedy movies anymore?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sometimes, after a stressful day at work, all I want is to sit in front of the TV and watch a good movie or series that can make me laugh a little.
+I usually spend a lot of time searching for movies with good recommendations, positive reviews, and all that, but even then, they often only manage to get a few small smiles out of me.
+I remember when I was younger, comedy movies used to be a lot more fun—they gave me hearty laughs and brightened my day. Comedy isn’t my first choice when I’m looking for a truly great film, but it’s a solid option when I just want to relax and not think too much.
+Recently, I started watching Shrinking. It got a few smiles out of me, but no real laughs, and I began to feel a bit bored with it.
+My question is: Am I becoming bitter, or have you also noticed a sharp decline in the quality of comedy movies over the past 15 years?
+Do you have any recommendations for recent movies that can genuinely make you laugh out loud?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-11-17 12:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>I just watched "The Apprentice" (2024), the movie about Donald Trump and Roy Cohn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Amazing movie. One of the best movies I watched this year. First, filming is awesome. You actually feel New York City and the movie gives you the feeling that we are in New York in the 70s/80s. As the movie progresses we see New York evolving alongside Trump.
+The acting is fantastic. If this movie replaced the name Trump with a fictional character, Sebastian Stan could have won an Oscar. The mannerisms, the way of talking, even the voice a bit. The history is also covered in a fantastic way which also foreshadows the future. Nixon's spirit (and later Reagan's) is felt throughout the whole movie, and there are cameos of a Young Rupert Murdoch and a Young Roger Ailes and Ed Koch. The fight between Trump and Koch, while short and wasn't in the spotlight, felt like the physical embodiment of what is yet to come. This movie feels like Wall Street (1987) meets American Psycho meets Scarface. For a moment I felt like I was watching an origin story of Gordon Gekko or Future Biff Tannen in Back to the Future 2.
+Even if you hate Trump and are sick of him, just pretend this is a movie about a fictional character and go watch it. Not watching this movie because you hate Trump is a shame because this movie is also fantastic from an artistic angle.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-10-24 18:47:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Modern Movies have a weird unattractive colour palette</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>I have no idea why there is a trend of very dark movies that make many movies nearly unwatchable. Our obsession with unsaturated/muted colours has also been heightened by the combination of orange and teal LUT. Most are completely unrealistic and for many that are pushed to the extreme, the look is just horrible.
+Despite not liking recent Wes Anderson movies, I can still appreciate his aesthetics. Every movie director seems to be trying to outdo each other by creating darker, more orange, and teal movies. Currently, TV series are replicating that trend.
+They appear to lack the understanding that a dark theme can be conveyed through a movie or series without the presence of a dark visual aspect. Although the British series Utopia has a dark theme, it is visually vibrant and over-saturated.
+In modern cinema,  I’m growing tired of the overly muted or graded style. Even things shot to be naturalistic seem consistently desaturated or colour-specific amplified. I struggle to think of a film where the sky is actually blue or the grass is green in the background.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-10-29 16:29:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Movies that have contempt for their audience.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">Was recently thinking about Directors their films and what their contract is with its audience namely around projects that are deemed contemptuous towards them.
 Personally I’ve watched several films that were such a turn off because it felt like the director was trying to put their finger in the audiences eye with little other reasons than to do it.
@@ -596,9 +905,19 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-05-20 15:10:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alasdair Gray Would Have Hated Poor Things, and I Think That Matters (Spoilers)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>I just today went to see Poor Things now that it’s out in the UK, in Glasgow, in fact. I can’t say I was particularly taken with the film, but most particularly for reasons that I’m not seeing be discussed much in the mainstream - how this is a pretty inexcusable adaptation of a man’s work who would probably weep if he saw it. Maybe that’s not too surprising however, seeing as Gray isn’t the biggest literary name outside of Scotland, and this film has already received far more notoriety than he most likely ever will.
 The first and most glaring change of the film is to erase all mention of Glasgow. This is sort of like setting Dubliners in London. For Gray, Glasgow as a setting wasn’t incidental or just writing what he knew. He had a deeply held belief that Glasgow as a cultural and literary city was suppressed by the British class elements who would never see it as such. Gray had a project of speaking the dignity of Glasgow and its working class into cultural existence. It was an earnest and deeply held political conviction to do so, and the erasure of that by the film boggles the mind. The book also touches on Scotland’s colonisation by the English, so to not only erase the Scottish element, but also effectively set it in England is certainly… something you could do.
@@ -608,9 +927,19 @@
 Without this context, I think a lot of people receive the film as an irreverent romp about a person discovering themself, but I think what has been erased on the way to doing that leaves a very sour taste in my mouth.</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-01-12 19:05:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dune 2 was strangely disappointing </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">This is probably an unpopular take, but I am not posting to be contrarian or edgy. Despite never reading or watching any of the previous Dune works, I really enjoyed part 1. I was looking forward to part 2, without having super high expextations or anything. And yet, the movie disappointed me and I really didn't enjoy it as much as I thought I would. 
 I haven't found many people online sharing this sentiment, so I am hoping for some input on the following criticism here.
@@ -623,9 +952,19 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-03-15 18:30:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Old movies look better than modern film</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">Does anyone else like the way movies from the previous decades over today's film? Everything looks too photo corrected and sharp. If you watch movies from the 70s/80s/90s you can see the difference in each era and like how movies back then weren't overly sharp in the stock, coloration, etc.
 It started to get like this in the 2000s but even then it was still tolerable.  
@@ -635,9 +974,19 @@
 I bring this up to everyone I know and none of them agree with me. The way older movies look is just so much easier on the eyes and I love the dated visual aesthetic. One of the main issues I have with appreciating today's film is that I don't like how it looks anymore. Same with TV. </t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-05-24 00:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>What do you think of Ebert's argument that cinema isn't the medium to make an intellectual argument?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 I recently came across the comment from Ebert.
@@ -647,9 +996,62 @@
 I think in a way it makes sense. There are lots of films that have a theme or a well argued message I agree with but it's like they're preaching to the choir. Does it matter if doesn't emotionally resonate even while making logical sense?</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-02-15 19:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>God help me, I loved Megalopolis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>I know. I’ll never judge someone for hating it. I might not even judge someone for thinking less of me for loving it. There’s a ton of valid criticism and stuff that I, actively, thought was insanely stupid while watching. Somehow that’s part of the appeal. Bear with me - I know there's a lot of posts on this film in the subreddit already, but I think it will help get my thoughts straight on it. I'd also love to find a kindred spirit, or at least explain my view to anyone understandably baffled at how anyone could love this film. I’m gonna just hit these main points (spoilers):
+**1: Every scene is always filmed in the most interesting way possible**
+If there’s a reason that I am ultimately so positive on this movie it’s this. I love indulgent flourishes in visual filmmaking. My two favorite films are Apocalypse Now and Mandy, for Christ’s sake. It’s part of why I especially adore Bram Stoker’s Dracula, as one of Coppola’s more visually unrestrained films. Megalopolis takes the kinds of bizarre fade-in/fade-out superimposed garishly lit transition scenes that were in that film and stretch them to what feels like at least a third of the runtime.
+This is where I come upon the first of many criticisms which I partially agree with but feel is partially unfair. Many people call this movie a disaster in editing, and there’s parts of it in which I feel that’s true, but parts where I do think people are unaccustomed to stranger directing choices like Coppola’s, and so call it bad editing. Like I saw the scene at the end of the Colosseum sequence, in which Caesar is being beaten while tripping balls, singled out without context as unintentionally funny, when I honestly thought that, if there was any part of the movie I unironically LOVED, it was that sequence. I can see how it may come off goofy with no context, but in context it’s powerful and surreally disturbing, and exactly the kind of off the wall filmmaking I adore. 
+**2: It has a real bad start**
+This, I think, is one of the main reasons the reception is SO bad. First impressions are everything and the first 15ish minutes of this movie I was thinking “oh wow. This is going to be dogshit.” Aside from the intriguing first scene (with effects I could see turning plenty of people off), the first succession of scenes felt blisteringly and confusingly edited, all with almost no time to breathe, incredibly disorienting and filled with bizarre acting and writing decisions. 
+It started to level out for me around the scene above the model city, and it took me until the apartment scene between Caesar and Wow Platinum to start appreciating the visual flourish and distinctly feeling “Oh. I think I’m starting to gel with this.” By the time “go back to the cluuuuub” came around - a hilarious meme-line that overshadows the genuinely excellently-directed scene it takes place within - I was completely locked in.
+But I think that first stretch got a lot of people already sick of the movie’s shit and I can’t even really blame anyone for that. I have the right kind of brain damage to have fallen into this film’s groove and I don’t think it makes me better than anyone, in fact, it probably makes me worse. But I will continue to scream out what I’ve taken away from it.
+**3: the campiness and comedy HAS to be intentional but maybe it isn’t?**
+I’ve seen a lot of reviews refer to unintentional comedy. It’s kind of like the weird editing - just like I agree there IS weird editing, but that some of it actually rocks, I similarly agree that there IS (maybe) unintentional comedy, but a lot of it is clearly very intentional camp, and even the stuff that isn’t might be layered so deep in irony that it is intentional too? (See the next point)
+In terms of the camp, it’s just so clear to me that so much was NOT meant to be serious. A character is named Wow Platinum and has a jingle at the end of her newscasts. The entire “Vestal Virgin” sequence was fucking hilarious. The political points are so incredibly unsubtle that they’re hilarious. Lines like the aforementioned club line, the anal/oral line, or the infamous boner are clearly meant to be goofy, and fit the distinct vibe of each of those characters well. Cause that’s the thing - I think many of these characters are intended to be completely cringeworthy and strange, but presented at such an alien height of cringeworthiness and strangeness that it becomes compelling to watch them. This didn’t work for everybody, and again, there’s no way it ever could, and it’s insane to expect it would.
+But there is a lot of what I found to be comedy in this film where the intentionality is much more ambiguous. I argue the intentionality doesn’t matter. And almost all of this comedy is completely caught up in the insanity of our protagonist Caesar, which brings me to my next point.
+**4: the Neil Breen comparisons are correct - and that’s a huge part of the appeal**
+Caesar is so fucking absurd. He’s cringe, he’s ridiculous, and Coppola seems so utterly enamored with him that it feels like that ridiculousness may not be on purpose.
+And it’s insane, because so much of this film’s entire conflict hinges on these scenes where he just explains his ridiculous, incoherent utopian philosophy in detail. And it reminds me so much of Neil Breen movies - [the moment](https://www.youtube.com/watch?v=dKohD_RLnFw) when the protagonist, who is just SO SMART and SO MISUNDERSTOOD, lays out in direct exposition how, exactly, the world can simply be made perfect if everyone just listened to his ideas. Many of Caesar’s speeches reminded me of these films; another thing that came to mind was [the incredible Connor O’Malley video Endorphin Port](https://www.youtube.com/watch?v=7cBiyWlYous), which is worth a watch for any unfamiliar - especially anyone who watched Megalopolis and wants to see it be perfectly parodied 3 years before.
+If the film didn’t manage to be genuinely atmospheric - and it is an atmosphere that takes a lot of buy-in on the part of the viewer - the Breenness is what would make it completely collapse even for me. As it is, to see Breenishness pulled off by an absolute master craftsman made me almost dizzy with joy, laughing in complete disbelief. Peak cinema? I can’t even fucking say.
+**5: do I love this the way Francis Ford Coppola wanted me to? Maybe**
+And the ultimate question the Neil Breen angle creates - is the joy I’m getting out of Megalopolis the joy Francis Ford Coppola would have wanted me to get? I think the real answer is that the only audience member he had in mind for this one was himself. But it’s worth wondering how Coppola feels about Caesar. For this, I’ll clarify that I’ve avoided any press work or interviews for this film, so if he’s shed light there I’m unaware. 
+The surface reading of this film is that Coppola is outlining his philosophy which seems, to me, to essentially be: “What if Elon Musk was like, an epic leftist wizard, and also just completely correct in his aims to better humanity?” Which is absolutely absurd. I will say I 100% believe this movie is essentially what Elon Musk, in his brain, believes his life is like.
+And therein lies the joy for me - that which Coppola probably didn’t but maybe did intend. I think Caesar is an utterly ridiculous character, an absolute blowhard asshole who’s only ever really seen out of his mind on drugs and/or spouting gibberish about his plans to fix the world. He stomps around dressed like Darth Vader while people insist out loud that he’s “not evil”. His actual technological breakthrough is incredibly vague, never seen actually helping the downtrodden in any way. His biggest innovation seems to be a really fancy-looking version of those floorbound escalators you see in airports, and the only person we see benefitting from it is the rich mayor’s wife (nice to see Kathryn Hunter just playing a kind old lady btw). In this he feels more reflective of how I feel someone like Elon Musk is in real life, except the film twists itself to make him seem larger than life and heroic. 
+And at least some of that absurdity HAS to be intentional. I don’t think Coppola is stupid enough to think that a character talking about his “Emersonian mind” would make him at all likable. And Coppola’s protagonists in all his great classics have never been likable - Michael Corleone is a monster, Willard is a paranoid sociopath freak destroyed by PTSD, Harry Caul is a pathetic slob who spies on people for a living. Maybe Caesar is in the same vein? Maybe the film’s veneration of him and neat, tied up ending reflects the slavish devotion and lack of consequences that these con men experience?
+Or maybe Coppola really thinks this guy is epic? It’s more than possible. I still think my reading of it is valid at least for my own personal enjoyment.
+**6. This will find its audience**
+People are talking about this movie like it will be forgotten except as an embarrassment. Like no one could POSSIBLY enjoy it.
+But I believe this is a cult classic in the making. There’s too much actual talent involved with all the ridiculousness for it not to be. I saw it in a theater of 5 total people: me, 2 friends of mine and 2 guys who were each there on their own. One of those guys left halfway through - I forget which scene but it honestly looked like he might’ve been having a bad trip? But there was another point in which the four remaining people in the theater were all laughing at one of those “maybe on purpose, maybe not” moments. As we chuckled, the guy who was there on his own said “This is fucking great, by the way.” And I understand why he felt the need to say that out loud, almost defensively, and I immediately verbally agreed with him. My two friends are also like minded on this.
+The audience for this is out there. It may be a genuine illness, but it’s out there, and I believe it’s going to spread. This is going to be a hell of a midnight movie, and there’s going to be people who think that it’s PURELY ironic, but I don’t think it will be. There’s too much to love, even if it makes you feel a little like you got hit in the head with a hammer when you say you love it.
+My last word is that this film absolutely deserves nominations for costume design and set design. The fits were all incredible, and the sets that weren’t CGI were stunning. After this reception I imagine it will get nothing, but so it goes.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-10-05 00:59:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Do filmmakers know they are making bad movies?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>I was in marathon watching Mel Brooks. While he has made one good movie after another, I hit a brake with 12 chairs.
 I had high expectation fron this but it felt off.
@@ -658,9 +1060,19 @@
 That got me thinking do filmmaker know when they are making bad movie or is the audience that decided when they see it?</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-03-18 13:15:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which filmmakers' reputations have fallen the most over the years? </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>To clarify, I'm not really thinking about a situation where a string of poorly received films drag down a filmmaker's reputation during his or her career. I'm really asking about situations involving a retrospective or even posthumous downgrading of a filmmaker's reputation/canonical status.
 A few names that come immediately to mind:
@@ -672,9 +1084,19 @@
 A few more recent names to consider might be Paul Greengrass, whose jittery, documentary-influenced handheld cinematography was once praised as innovative but now comes across as very dated, and Gus Van Sant, a popular and acclaimed indie filmmaker who doesn't seem to have quite made it to canonical status.</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-06-23 23:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oppenheimer: Why are biopics given leeway for underdeveloped writing?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>I enjoyed Oppenheimer, but it astounded me how many instances of writing in the movie would be completely shunned in any other movie, but are forgiven because this particular movie is a biopic. A few examples are:
 1. Kitty’s abrupt shift in character. She is pretty one note (frustrated and angsty) throughout 95% of the movie, and then becomes proactive in the final 5% when it becomes time to give her testimony.
@@ -683,9 +1105,19 @@
 These are just a few issues I had with the screenplay, in which it feels like Nolan expects that because of our knowledge of this movie as a biopic, we will project dimension and the to the characters where it doesn’t let exist. Should bad writing be given leeway in biopics?</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-03-05 05:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>The Creator (2023) Never has a film so impressive left me so frustrated.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">The Creator is a science fiction film set in a near dystopian future that depicts a war between the US led Western world and the newly formed country of  “New Asia” over their continued embrace of A.I.
 It follows an undercover operative played by John David Washington who embarks on a covert mission to uncover a secret weapon and perhaps locate his missing wife.
@@ -700,17 +1132,60 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-01-23 15:03:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The Substance - A brilliant, deeply sad film.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Just finished watching. Wow. I can't remember the last movie that smashed my brain to pieces quite this hard. It warms my heart to know that there are still filmmakers out there with this level of unrestrained imagination. Everything about this movie defied expectation and comparison, and I spent the entirety of the end credits just laughing to myself and going "what the fuck" over and over, instinctually.
+More than scary or gross, this was fundamentally a deeply _sad_ movie, especially towards the middle. Just an incredible bundle of visceral metaphors for body dysmorphia, self-loathing, and addiction. The part that hit me more than any of the body-horror was Elisabeth preparing for her date, constantly returning to the bathroom to "improve" her appearance until she snapped. The whole arc of that sequence - starting with her remembering the guy's compliment and giving herself a chance to be the way she is, then being hit with reminders of her perceived inadequacies, and feeling foolish and angry for believing her own positive self-talk - was such a potent illustration of the learned helplessness against low self-esteem that fuels addictions. And the constant shots of the clock felt so authentic to cases where our compulsive behaviors start to sabotage our plans. Think of every time you did something as simple as scroll through your phone for too long in bed, thinking "it's just a few more minutes", before an hour goes by and you're now worried you'll miss some commitment you made. 
+Demi Moore was perfectly cast for this. She's obviously still stunningly beautiful, which the movie made a point of showing, but she was 100% convincing in showing how her character _didn't_ believe herself to be, which only further drove home the tragedy of what Elisabeth was doing to herself. Progressively ruining and throwing away a "perfectly good" body in favor of an artificial one she thinks is better. And the way the rest of the world responded so enthusiastically to it - even if every other character in the movie was intentionally a giant caricature - drove home how systematically our society poisons women's self-esteem, especially in regards to appearance. This is one of the few movies I've seen where the _lack_ of subtlety actually made things more poignant.
+Massive round of applause to Margaret Qualley for the equally ferocious and committed performance. I've seen and loved her in so many things, and yet the scene where Sue was "born" did such a great job of making Qualley's face and body feel alien, foreign, and unrecognizable, even if I the viewer obviously recognized her. And she basically carried that entire final act, which was largely done using practical effects (which continue to surpass CGI in every contemporary project where I've seen them used.) It felt like a fuller embrace of the more unhinged, animalistic streak she brought to her roles in Once Upon a Time in Hollywood and Sanctuary.
+As a designer, I also just adored the _style_ of this film. For one, [that font they created](https://www.instagram.com/p/C7KMijnrHIv/?igsh=MXUwYnphYXNuaDgxNA%3D%3D) is fantastic, and even got a shoutout in the end credits. And I loved the vibrant yet minimalistic look of everything, from the sets to the costumes to the effects used to portray the actual Substance, such as those zooming strobe lights that ended with a heart-shaped burst of flames. Despite the abundance of grotesque imagery, the movie's presentation nonetheless looked and felt very sleek and elegant. The editing and sound design were also perfectly unnerving, especially every time we heard the "voice" of the Substance. On headphones, it was mixed like some ASMR narration, which felt brilliantly intrusive and uncanny. (The voice instantly made me think of [this glorious Jurgen Klopp clip](https://www.youtube.com/watch?v=4UtUnOareTo).)
+Only gripe is the middle section maybe went on a bit too long. The world of the movie also felt very sparsely populated for reasons beyond its intentionally heightened/metaphorical nature, as if they filmed during the peak of COVID. But seeing as the whole movie was deeply surreal, I assumed everything shown to us was by design.
+Easily one of the best films of the year.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-11-03 12:31:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Civil War (2024) is not about "both sides being bad" or politics for that matter, it is horror about voyeuristic nature of journalism</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">So, I finally had the chance to see the movie with family, wasn't too big on it since Americans can't really make war movies, they always go too soften on the topic, but this one stunned me because I realized, after watching it, and everyone had collective fucking meltdown and misunderstood the movie. So, there is this whole conversation about the movie being about "both sides of the conflict being equally evil", which is just fascist rhetoric since WF were obviously a lesser evil, and at the end, this movie is not about war...at all. Like, that is sorta the point - Civil War is just what America did in Vietnam and so on, but now in America. The only thing the movie says about the war is pointing out the hypocrisy of people that live in America and are okay with conflicts happening "there".   
 No, this is a movie about the horror, and the inherent voyersim, of being a journalist, especially war journalist. It is a movie about dehumanization inherent to the career, but also, it is about how pointless it is - at the end of the movie, there is a clear message of "none of this matters". War journalism just became porn for the masses - spoilers, but at first I thought that the ending should've been other way around, but as I sat on it, I realize that it works. The ending works because it is bleak - the girl? She learned nothing - she will repeat the life of the protagonist, only to realize the emptiness of it all when it is too late. This narrative is strickly about pains and inherent contradictions of war journalism, and how war journalism can never be fully selfless act, and the fact that people misread it as movie about "both sides being bad" or "political neutrality" is...I mean, that is why I said that the movie should've been darker, gorier, more open with it's themes, it was way too tame. For crying out loud, president is a Trump-like figure that did fascism in America. It is fairly obvious that WF are the "good guys" by the virtue of being lesser evil. Perhaps I am missing something, perhaps there was a bit that flew over my head, but man, this is just a psychological horror about war journalism, civil war is just a background. </t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-04-22 03:50:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The nitpick of the cgi in Furiosa is a frustrating example of the modern film audience</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">I find a lot of the negative discussion of the film tends to be from people who both haven’t seen the movie and still have an opinion of the CGI. I read a lot of this discourse before seeing the film today, which actually led to some tempered expectations. Luckily, in my opinion, the film was exceptional and I left the theater completely puzzled.
 Maybe it’s just reddit and its ability to create negative echo chambers, but it makes me really sad that even in film subreddits, people are bashing a film before seeing it. Not only that, but a film that’s so obviously a fully realized work of a madman that we won’t have for that much longer.
@@ -719,18 +1194,79 @@
 I recommend everyone see Furiosa. You may not like it as much as Fury Road, but I would be surprised if you didn’t find it worth the cost of the ticket. </t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-05-26 01:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>I'm almost starting to miss when studios didn't care about fan culture.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>It's weird having been around movie shit on the internet long enough to see it having gone from just random forum posts and occasional YouTube videos that blew up, because there was always this clearly defined separation between the 'fanboys', and the Big Evil Corporate SuitsTM, and never the two shall meet. 
+I'd say since about 2012-2018 was when there started to be a noticeable shift in the overall presence of "geek" culture; Comic-Con was an increasingly mainstream event for massive press tours for these films that increasingly were expected to make no less than a billion fucking dollars in order to be considered anything other than a dismal failure. 
+Not only were comic book movies quickly becoming the center of the industry, but the increase in reliance on early word-of-mouth forced these studios to start playing ball, which is why you now see these tweets from early screenings where these Funko Critics (aka, Youtubers who are sometimes literally getting under 100 views per video) just write free ad copy for the studio rather than a real review "SPECTACULAR! Shifts the franchise into high gear and leaves expectations in the dust, etc", because good quotes mean that the studio might retweet them and give them future access to additional press junkets, and that would mean more eyes on their videos. It's all complete and utter **bullshit**. 
+Right in the middle of those years is 2015, where *The Force Awakens* happened, and was probably the single worst thing to happen to studio filmmaking in the past ten years. A lot of people shit on Marvel exclusively, but I think TFA is a closer source of inspiration for a lot of these 'reboots' than it gets credit (or blame) for. The "dramatic reveal of a character from the franchise's past that's edited with an intentional applause break" has now been used in everything from *Saw* to *Ghostbusters*, and it just feels like there's this increasing sense of desperation where Hollywood is forced to appease the unending, monolithic desire for homogenized nostalgia that it feels like a multi-billion dollar equivalent of Stu being forced to make chocolate pudding at 4 in the morning. 
+It's not that I loved X-Men Origins: Wolverine, but in hindsight I think whatever studio executive that tried to save us from the consequences of a talking Deadpool is essentially a modern day Cassandra.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-11-26 20:49:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Why have we forgotten Roma (2018)?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Today I remembered Alfonso Cuaron's movie Roma, a film I enjoyed at the time and (probably) the first art film I've ever seen. And it just occurred to me that I have not seen it mentioned at all since its release, when I recall it made a big splash. I remember people talking about it all over the internet. Me and my partner have been racking our brains trying to understand how such a movie could disappear -- not because it was Too Good or Too Popular to disappear, but simply because it does not seem to fit the stereotypical profile of the kind of safe movie that is praised on release and then forgotten.  
 My first proper intuition is that it's an illusion that the best or most praised movies are the ones we (meaning both regular audiences and more artistically inclined ones) remember and cite as examples. Maybe movies are only talked about for years to come if they are influential rather than great. Which...might just tell us something but I am too tired at the moment to say exactly what.  
 I am simply very curious about people's thoughts on it.</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-03-22 18:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michael Mann's Collateral is more meaningful as an adult</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I just watched Michael Mann's 2004 film "Collateral" for the first time in about 15 years or so. When I was a teen, I viewed this mostly as just Cruise playing a charismatic psychotic hitman crossing names off his hit list and being gripped by the action pieces. Don't get me wrong, the film still holds up well if you just view it as pretty surface level - but upon rewatch with adult eyes, I've come to realize the hits and the action is backdrop for a large majority of the film and I was more captivated by the in between moments between Vincent and Max.
+What I immediately noticed is that breaking down Vincent as just a psychopath/sociopath is a disservice to his character, I mean he probably still exhibits those traits, but Vincent's dialogue shows that he's sensing a deep emptiness inside himself and craving some type of human connection. One of the first things he says to Max is that he hates LA and he talks about a story he read about a man passing away on a subway and nobody noticing this for hours as the corpse took trips around the city. Throughout the night Vincent also asks Max personal questions and even tries, in his own way, to motivate Max into taking initiative in his life - like telling him 12 years isn't a plan and how he should call that girl he likes and not wait. In Michael Mann fashion, he drives this home by using the quiet and empty streets of LA and even has a shot of a coyote (representing Vincent) wandering said empty streets alone. This leads into both Vincent and Max sitting quietly like they are having an introspective look at who they are and where they are at in life. While I do believe Vincent had plans on killing Max at the end of the night, which he did to another taxi driver before, this way of going about hits across LA gives Vincent an excuse to fill a void temporarily and satisfy that need for human connection that is lacking in his life and his job. 
+I think i have this right up there with Heat now as my favorite Mann film. I also think this might be Mann's best use of Urban landscapes and it enhancing the story. Cruise also does a lot with his facial expressions that takes away the need for exposition because it already tells you everything you need to know. A rare look at Cruise playing a villain character, but he and the script knocked it out of the park. 
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-12-06 02:58:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Perfect Days is not what it looks like</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Everyone thinks PD is  a hymn to simplicity and humility, an invitation to rediscover the value of small things and daily rituals. I disagree, that's not my interpretation. I wonder if they watched the whole movie or just the first part.
 WARNING: SPOILER!
@@ -749,9 +1285,19 @@
 He is a specter existing in stasis alongside the rest of the world as it marches onward.</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024-01-13 15:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>I find reddit's obsession with the scientific accuracy of science fiction films is a bit odd considering there has never been a sci-fi film that has the kind of scientific accuracy that a lot of redditors expect.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>One of the most frustrating things when discussing sci-fi films on reddit is the constant nitpicking of the scientific inaccuracies and how it makes them "irrationally mad" because they're a physicist, engineer, science lover or whatever. 
 Like which film lives up to these lofty expectations anyway? Even relatively grounded ones like Primer or 2001 aren't scientifically accurate and more importantly sci-fi film have never been primarily about the "science". They have generally been about philosophical questions like what it means to be human(Blade Runner), commentary on social issues (Children of men) and in general exploring the human condition. The sci-fi elements are only there to provide interesting premises to explore these ideas in ways that wouldn't be possible in grounded/realistic films.
@@ -759,9 +1305,19 @@
 Are sci-fi books more thorough with their scientific accuracy? Is this where those expectations come from? Genuine question here.</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-01-31 14:42:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12 Years a Slave: The Worst Part is the Raping</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Recently, I watched *12 Years a Slave*. The movie depicts several different slavers, each with very different attitudes and levels of animosity towards their slaves. Mr. Ford, portrayed by Benedict Cumberbatch, is the slaver who initially buys Solomon Northup (Chiwetel Ejiofor), the protagonist, and on the surface he's depicted as the "best" of them, relatively speaking. He respects Solomon's intelligence, does not display any kind of direct physical violence towards his slaves, and feels very bad about buying a female slave and separating her from her child (though he ultimately does so anyways). McQueen, however, has said that [he considers Ford to be the worst of them all](https://www.youtube.com/watch?v=1JqAsdlz_jw):
 &gt; The fact of the matter is that, I think he was the worst one of them all as far as a slave owner is concerned because he is saying one thing, but doing another. You know, he doesn't sort of... He knows Solomon is a free man. But what does he do? Nothing.
@@ -775,18 +1331,57 @@
 * Why does this matter? Well, I think it just goes to show that refusing to choose the lesser evil and instead simply condemning all evil is a bit of a privileged standpoint. To give a specific contemporary example, if Hilary Clinton had been president instead of Donald Trump in 2020, Roe V. Wade would not have been repealed. And you may not like either of them (I don't), you may think both of them are awful, but I think it does actually matter that one of them is worse. Basically, don't let perfect be the enemy of good, and don't let it be the enemy of bad-but-not-the-worst, either.</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-02-11 16:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>The Guardian: “The film fans who refuse to surrender to streaming: ‘One day you’ll barter bread for our DVDs’”</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>I'm a Guardian writer (and modest film buff and physical media fan) who recently posted on Reddit asking to speak to physical media collectors for an article I was working on. The article was published this morning and I thought people here might be interested in it: [https://www.theguardian.com/film/2024/mar/27/the-film-fans-who-refuse-to-surrender-to-streaming-one-day-youll-barter-bread-for-our-dvds](https://www.theguardian.com/film/2024/mar/27/the-film-fans-who-refuse-to-surrender-to-streaming-one-day-youll-barter-bread-for-our-dvds)
 I'm posting it here partly for self-interested reasons (I'm hoping people read my piece!) but also because I wanted to follow up to thank the many people who reached out and offered to speak to me or shared pictures of their collections. So many people, in fact, that I  wasn't able to talk to or even respond to all of them -- but please know that I truly  appreciate it.
 A  lot of readers have already weighed in on the article in its comments  section; I may  return to this topic at some point in the future, so if  you have any  comments, I'd be happy to hear them, whether there, here, or by email.  Again, I may not be able to respond to every message (or just be slow to  respond) but I always try to read them. Thanks again.</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-03-27 12:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tarantino's Cinema Speculation is Brilliant.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>I'm currently reading Cinema Speculation and I'm completely floored by just how brilliant it is. I was expecting the book to reflect Tarantino's usual encyclopedia knowledge of cinema; however, the chapters that revolve around selected film analyses are genuinely rich and highly enjoyable. 
+The way Tarantino looks at the intersection between his own personal experiences with the selected film, the cultural attitudes of the context in which it was produced; the cultural and political reactions to the film, while also layering over all these factors his own analysis creates quite possibly one of the most enjoyable 'film books' I've ever read.
+The 'Dirty Harry' and 'Taxi Driver' chapter are quite brilliant; I definitely recommend reading it!</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-12-05 03:29:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>One Way "Gen X" Writing &amp; Some Films From The 90's Have Aged Horribly</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>I recently just watched Noah Baumbach's debut "Kicking and Screaming" and it really dawned on me there was a certain style of Gen X writing in these types of "indie films" (or aesthetically "indie" even if it's not real indie) that I don't believe has aged very well. It's hard to explain but you see it in Reality Bites, Singles, My Own Private Idaho, Fight Club, most of Greg Araki &amp; Richard Linklator's output in the late-80's and throughout the 90's and in the aforementioned Kicking and Screaming; it was this idea that living a normal life, having a stable job, contributing to society, and being an upstanding citizen in any way is horrible and should be avoided at all costs. 
 I don't know if it was them rebelling against the perceived conformity of the 80's but it was like there was this central idea to all of these films that *"fitting in"*, owning IKEA furniture and living a comfortable middle-class existence was the worst of all possible fates. The reason I believe this kind of writing has aged horribly is because I think nowadays the average Zoomer will look at the Narrator's life before he met Tyler Durden, with his nice one bedroom apartment in the city and all his IKEA furniture, and think...He had it pretty damn good. His drab life, the one he was complaining about is pretty aspirational in this day &amp; age to the average college kid watching it. Even in Kicking and Screaming, it was a few dudes acting like they were destitute bums but all living in a house that is probably worth millions now. I mean how many people in their early-mid 20's can even afford that lifestyle nowadays that was so horrible to these Gen X characters?
@@ -794,9 +1389,19 @@
 Gen X problems all just seems so *quaint*</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-03-17 03:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>"The Zone of Interest" is a shocking psychological achievement</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>I wrote this review right after I left the theater earlier tonight. Beware, there are spoilers.
 The Zone of Interest is a deeply shaking and dark film. I don't know if I've ever left a theater feeling like I'm going to vomit, but I do now. The disturbing eerie whines from the score that thundered as the screen flipped to black are reverberating in my head. I hear the happy sounds of children chatting and laughing as I exit the theater, like I did in the film, and the echoes of the gunshots and screams that punctuated the entire runtime are simultaneously ringing in my ears. I knew the general idea of the film before I showed up, that it was following a Nazi family while the sounds of Auschwitz are played in the background, but I didn't expect it to affect me as much as it did. We are seeing ostensibly beautiful and opulent homes and wealthy people but everything is ugly and deliberately drained of life. I still need to read more to understand some of the stranger and more experimental moments, like the negative exposure shots of the mysterious girl at night. I don't know what she was doing, nor do I know what Hedwig's mother wrote in her note. I was concerned while watching that the film would be too focused on its one well-trodden note, the much-discussed banality of evil. But it not follow the path I expected, and I was shocked by the unsettling ending, fading to the cleaning crew at the Holocaust museum, the mountain of shoes showing the scale of the unseen horrors that would befall Hungary's Jews - with the most striking element being that the sounds of the cleaning were disturbing similar to and mirrored the everyday sounds that permeated the Nazi Rudolf Hoss's home. With this disjointed snap to the present day, Glazer tapped into a subliminal part of my brain that left me gasping for air as I stumbled out of the theater. I didn't even realize how much I was physically affected until it was over. This film, through its careful craft in both writing and audiovisual experience, is a masterful psychological achievement.
@@ -804,9 +1409,19 @@
 There is a striking moment when, for a second, a child playing with toy soldiers suddenly becomes aware of the sounds of massacres just outside his window, and he whispers, maybe to the killed Jew, more likely urgently to himself..."don't do that again." Don't allow the horrors to creep in. In the last shot, Rudolf Hoss descends the stairs to hell. The theater audience slowly regains their breath. This film is stunning.</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-02-04 06:17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Perfect Days (2023) - I don't understand the top critic reviews of this film</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>I really enjoyed this film. It's a bit slow and repetitive at times, but I also don't think you could have made this film any better without diluting the message behind it.
 However, what that message is seems to be of great debate with many top critics. The majority of critics seem to believe this film is about "living in the moment" or "finding beauty in the little things", which I guess is true to some extent, but that wasn’t my takeway at all. 
@@ -816,9 +1431,19 @@
 To me, it's actually a very sad (albeit beautiful) film. I saw a man hanging on by a thread, his routine and isolation being the only things keeping nightmares at bay. I certainly didn't see a film about "living in the moment"</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-02-26 03:51:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Are people missing one of the main points of Poor Things, or am I just hallucinating?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>My first thought when I watched the movie was that it was about questioning society and social norms. We as kids, are introduced to a way of thinking how things should be done. When we as kids do something that is frowned upon society, we get punished, an thought the "correct" way things work, but we never know why they are the "correct" ways. We just accept it as the truth with the time, and learn those ways to our kids, without questioning why we are doing it.
 Bella is basically a kid, therfore she dosent have those predefined "truths". Just like a child, she dosent understand the problems with what she is doing, but since she technically is an adult, there is nobody capable of stopping her. She is free to do as she thinks is correct.
@@ -826,9 +1451,19 @@
 One More thing. I didn't really understand the finale. Would thank you id you explained to me. And sorry if the text is badly written. I'm tired now, so that probably the cause.</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-03-24 22:42:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>998 Movies in 2023...</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>In 2021 [I saw 885 movies.](https://www.reddit.com/r/movies/comments/s2ffwy/i_watched_885_movies_in_2021/)..
 In 2022 [I saw 954 movies](https://www.reddit.com/r/movies/comments/1046cp8/the_954_movies_i_saw_in_2022/)...
@@ -866,9 +1501,19 @@
 ***Bye'.***</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-01-02 18:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Just finished The Passion of Joan of Arc (1928). I'm *actually* almost speechless. I had no idea that films of that kind of caliber were being made in the silent era.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>The acting and shots were so modern, I couldnt get past it. It's just uncanny. I'll be the first to admit Im no film historian or expert in anything related to the art of filmmaking but I really feel like this film is something very, very special. 
 First off, the narrative covers absolutely zero of the cliche things you would think a 20s film would want to cover. It doesnt show Joan in her shining armor, screaming at the soldiers of France to advance. None of that. It shows a young woman, with a flimsy grasp on sanity, meekly making her way through a torture session and the actress does it *perfectly*.
@@ -878,9 +1523,19 @@
 Rest in peace, Joan.</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-07-21 18:59:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>How Precious Killed the Hood Film (LONG POST)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">I remember seeing the trailer to Precious many moons ago at a screening for Madea Goes to Jail, which I was brought to against my will. Seemingly every Black person in Central Florida was there and many of them actually thought Precious was a straight up Tyler Perry production. You can't really blame them since on paper Precious is right up his alley thematically. I ended up seeing the film and while everyone else volleyed between sorrow and disgust, I thought it was one of the most brilliant comedies I had seen in a very long time. I did not get why people were crying. This is a satire right? I've seen enough of Lee Daniels' work to know that he greatly enjoys using camp to make a point. If you watch the first few seasons of Empire you'll get my point the exact nanosecond Cookie shows up. But at the time, most audiences took the film for face value and it pretty much killed any appetite for this film overnight. Urban dramas or Hood Films had been dwindling in both production and popularity but they hadn't entirely died yet by 2009. Precious in many respects was the last nail in the coffin for the Hood Film having any mainstream popularity or even much popularity in its own community. 
 One could argue that Tyler Perry took most of the same themes and just repackaged them in a more pious presentation. Precious definitely had an effect on how his work was perceived but I get more into that in his write-up which is here: https://www.reddit.com/r/TrueFilm/s/ySX51U85vL
@@ -896,9 +1551,38 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2024-03-27 12:37:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My analysis of Joker 2 </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>It is deliberately made to go against the fans of the first film, and it says so plainly, loud and clear: during one of the songs, the one where they sing as a couple and Harley Quinn instead emerges in all her egocentrism, they clearly say, “I don’t think this is what the audience wants,” and then she makes it all chaotic by shooting him, because everyone knows that the audience just wants the shooting. It’s a film that aims to criticize the Joker’s fan base, bringing them into the story as his supporters, only to expose them and show that they are exactly the same crap they claim to criticize, cheering for the Joker, disguising themselves as him, waving his banners and flags. The secondary characters—the guards, the lawyer, the judge, everyone—are deliberately caricatures, designed to make the audience hate them, to identify them as the bad guys, the jerks of the situation, because they don’t care about Arthur’s problems. They’re ready to bully him, condemn him, beat him up, mock him, belittle him, insult him, because they’re bad, because they’re jerks. But the fans don’t realize that they are jerks in exactly the same way, that they are part of the same sick system. They don’t care about Arthur; they’re only there to see him become the Joker, to see how he “loses it.”
+I was in the theater watching the film, during the scene where the dwarf enters the courtroom. There are Joker supporters on the benches watching him and chuckling, and I heard people in the theater laughing too. He shows his little hand with short fingers during the oath, and people laughed, the same fans who felt good about themselves cheering for a loser like Arthur, hoping he would get his violent revenge on the society that mocked and bullied him, and then they chuckle at another loser, another outcast, as if he were a joke. The film lays bare the average viewer and shows them that, deep down, they are just as bad as the characters they criticize, the ones they want to see killed by the Joker.
+In fact, just like everyone else, the fans don’t care about Arthur. They are disappointed when the loser, the outcast, becomes self-aware and says, “I am not the Joker.” The fans abandon Arthur at that moment, just like Harley Quinn does. She isn’t a shallow character; she is simply a superficial person, another jerk, just like all the others—a spoiled rich girl who wanted to shine in someone else’s light, a cosplayer, an influencer. That’s why Lady Gaga fits the role, not some underground singer or something else, because she’s a perfect example of someone from the upper class who feels like she’s fighting against the very system she represents by simply cosplaying as an outcast character. Harley Quinn was a fan of the first film, or of the “TV movie,” as they call it, who is disappointed when she sees that the sequel isn’t what she wanted it to be.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-10-07 05:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tarkvosky's misogyny - would you agree it prevented him from writing compelling and memorable women characters?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Tarkovsky had questionable views on women to say the least.
 &gt; A woman, for me, must remain a woman. I don't understand her when she pretends to be anything different or special; no longer a woman, but almost a man. Women call this 'equality'. A woman's beauty, her being unique, lies in her essence; which is not different - but only opposed to that of man. To preserve this essence is her main task. No, a woman is not just man's companion, she is something more. I don't find a woman appealing when she is deprived of her prerogatives; including weakness and femininity - her being the incarnation of love in this world. I have great respect for women, whom I have known often to be stronger and better than men; so long as they remain women.
@@ -908,9 +1592,19 @@
 Thoughts?</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024-02-12 15:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The Departed is misunderstood to this day by most people</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>I was a younger less savvy viewer when I first watched this movie.  I watched most movies on a very surface level at the time, and the way the film wrapped up never sat right with me, and this was true for most people.  It was only later in life that I came to understand the true meaning of this movie, and in understanding that the ending became great (besides the last shot with the rat, that was a bit too much).  This is a great movie and while it was overrated in its release year, as time has passed it has been slowly lowered down in the all time film rankings by just about everyone, and now is ranked too low IMO due to a fundamental lack of understanding of the movie by the general public.  So let's talk about what makes The Departed a great film.
 Before we can talk about the movie, we must understand it.  And no, it is not about 2 people undercover on different sides of the law attempting to unmask the other.  That is just the entertaining vehicle used to allow us to explore the movie's core theme.  And that can be summed up in a simple sentence.  What is Legacy?
@@ -925,9 +1619,50 @@
 It goes even deeper than this, but this post is already a bit long, and i'd like to hear thoughts from others</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024-02-05 18:41:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>I didn't see ambiguity in Tár, it's vague but not ambiguous about what went down before the movie.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Maybe there's an interview somewhere that completely disproves my point, but Tár isn't ambiguous on whether or not Lydia Tár was a groomer. It's vague so we don't immediately judge her.
+As the movie goes on we have a lot of evidence of what Lydia actually did to the woman she's groomed, Krista:
+* Her assistant Francesca mentions an episode between the Lydia, Krista and herself and how this event was important for what's going on. It doesn't say what happened but *something* happened.
+* We see emails of Lydia sabotaging Krista
+* We see emails of Krista desperate for her career, not for Lydia. Lydia accuses Krista of being obsessive or delusional but the real source of Krista's desperation is clear.
+* Lydia's wife actually knew about her affairs. Her wife says the affairs aren't the issue, so we can imagine what was the *something* that happened.
+* We see Lydia actually grooming the cellist. Uses her power to take her under her wing, nonsensically brings her to a trip, makes advances on her.
+Some reviews I've read said Tár is an attack/criticism of cancel culture. That view relies on stating the film doesn't give any easy answers about Lydia's character. I think this take is only true for the first half of the film, before everything I listed is shown.
+Tár is about power, not about cancel culture. Lydia wasn't a victim of cancel culture. She had it coming.
+The reason why the movie is about Lydia Tár a lesbian woman and not Linus Tár a straight white man is the same reason why the movie is vague in its first half. Also the reason why the movie is entirely Lydia's perspective.
+The movie must first sell us Lydia as the prestigious artist with a human side. It puts her on a pedestal above suspicion. If the movie weren't vague that would be ruined and if it was about a straight white man the movie would read too easily given the current cultural context and real cases of maestros accused of abuse like James Levine.
+Basically the movie was keeping its cards close to its chest. The starting scene where she confronts the student and is given the podium to make her points about cancel culture, that scene is once again meant to steer the viewer away from where the movie is going and also show how power is actually used.
+Lydia makes her points about identity politics, we never get to hear the opposing voice, so it seems like it's an attack on cancel culture. It's rather once again about power and how conversations on "cancelling" someone actually end up IRL outside the internet, when the one who's accused but powerful and prestigious gets to swing their weight around.
+The only ambiguity in the movie is about who took Lydia down. Was it Francesca? Everyone around her? A ghost? That's not important either because this ambiguity is also relevant to the power dynamics of the movie and the paranoia that comes with power.
+The real challenge the movie presents is if we given the chance to hear only the abuser's side of the story can we still see through the inconsistencies and see her for what she actually is.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-08-04 10:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>I finally saw The Zone of Interest yesterday. These are my thoughts. More importantly, I wanted to ask, especially those of you who saw it months ago and have had time to process it, what are your thoughts?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>I have long been a fan of Jonathan Glazer; his work has consistently left me with so much to think about. His films are challenging, and usually leave us with more questions than answers. He certainly has talent and vision, but which film was his magnum opus? Compelling cases could have been made for any of his three feature-length films. The Zone of Interest, however, firmly puts that question to rest. This film is a masterpiece and in my opinion, one of the most important films ever made. 5 stars, 10 out of 10. An all-timer.
 I walked out of the theater with the same feeling I have often had watching a Michael Haneke film. I felt complicit by the time it ended, having learned some dark truth about myself and humanity through the experience. It feels perverse saying I *liked* or *enjoyed* it. How can a film like this be a *favorite*? To say the film gave me similar feelings to Haneke may be an insult to the great director, considering his opinion on portraying this particular subject as a feature-film, something to be *entertained* by. Take a selfie to mark the occasion, and get a large soda in the commemorative cup! Extra butter on the popcorn is a must for this one.
@@ -958,9 +1693,43 @@
 So how did this film strike you all? As the title says, I want to ask those who were able to see it months ago about your initial impression, and if it has changed at all since? I am awestruck by it, and I imagine I will be for a very long time. I am almost certain I will notice things in subsequent viewings that I missed in the first viewing. Where do you think it will be in film discussions ten, twenty years from now? Thank you for your time, and for reading.</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024-03-05 18:05:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>"Gladiator II" - I am NOT entertained.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ridley Scott once again delivers stunning visual craftsmanship—excelling in cinematography, action set pieces, and art direction. However, the film falters in the essential foundation of storytelling: the script. The narrative feels like a rehash of the original *Gladiator*: the same character motivations, a very similar progression and plot, and even familiar supporting roles. The uninspired title, *Gladiator 2*, aptly reflects this repetition—it’s essentially a second telling of the first movie.
+The original *Gladiator* resonated as a classical tragedy, steeped in the moral and philosophical weight of ancient Greek and Roman narratives. While *Gladiator 2* retains these elements on a surface level, the execution falters. The transitions between key beats feel clumsy, and the dialogue lacks the gravitas of the first film. Where *Gladiator* offered lines that felt timeless and quotable, this sequel serves up pedestrian writing, delivered with questionable performances.
+Denzel Washington’s *Macrinus* fails to reach the depth, nuance, or complexity of Joaquin Phoenix’s *Commodus*. Instead of presenting a layered antagonist, Washington’s portrayal leans into exaggerated "loony" behavior, with frequent cutaways to him pulling faces or acting erratic during key moments. This choice makes him feel like a cartoonish villain, more akin to a 2010s superhero movie antagonist than a Roman schemer. He shares more similarities to Nolan's "Joker" than a roman slave owner.
+The emperors fare no better, coming across as caricatures—angry and one-dimensional tyrants making irrational demands. Lucilla, once a tragic and stoic figure masterfully portrayed in the first film, is now reduced to a melodramatic archetype. Her performance oscillates between overly emotional breakdowns and flat, on-the-nose delivery. By the film’s conclusion, she’s little more than a damsel tied to a pole, awaiting rescue.
+Paul Mescal takes center stage as Lucius but lacks the presence or gravitas of Russell Crowe in his prime. Paramount executive Daria Cercek described Mescal’s casting process, citing his electric shirtless moments in a west-end adaptation of *A Streetcar Named Desire* she attended. Unfortunately, while Mescal may have physical appeal, he doesn’t bring the rugged authenticity or commanding intensity that Crowe embodied. Mescal’s performance feels weightless—his feats of heroism fail to inspire, and as the lead, he commands little empathy.
+Pedro Pascal is also here, but his role is minimal. Beyond igniting the inciting incident, his character feels like a pale echo of Maximus had he remained a roman general under Commodus. His conflict is not explored enough and lacks emotional depth.
+The music further underscores the film’s shortcomings. The original *Gladiator* soundtrack by Hans Zimmer, with Lisa Gerrard’s haunting vocals, became iconic—one of the best-selling soundtracks of all time. By contrast, Harry Gregson-Williams’s score for *Gladiator 2* feels like filler, leaning heavily on cues from the original's “Honor Him” at key moments. Beyond these familiar motifs, the music is forgettable and uninspired.
+Ultimately, *Gladiator 2* leaves little impression. While it boasts technical polish, it’s a hollow, soulless product unworthy of its predecessor’s legacy.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024-11-17 10:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Anatomy of a fall</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>This is not a murder mystery.
 It is the criticism on dissection of human life to the point of absurdity. 
@@ -973,9 +1742,19 @@
 So which one is right? Who is the most 'moral' person? The answer is, none. Samuel and Sandra are just products of their life experiences and sufferings, they acted according to their values. Nobody can judge nobody even when they are closest to them, let alone strangers, a.k.a court.</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024-01-25 13:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>“The Taste of Things” is an extraordinary film, and its 38-minute long opening sequence is one for the ages</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>I just watched “The Taste of Things”, a remarkable film that hasn't been discussed much around here. It was France’s Oscar submission last year, picked over presumed frontrunner “Anatomy of a Fall” – both masterpieces in their own right. It's also an obvious instant classic for the realm of culinary movies.
 “The Taste of Things” is centered on the relationship of a cook (Juliette Binoche) and her gourmand employer (Benoit Magimel). They live in a French country house at the end of the 19th century. Both have worked together for 20 years, sharing their passion for food, experimenting with recipes, marveling at the era's gastronomic breakthroughs, and overall completing each other in the kitchen.
@@ -987,9 +1766,19 @@
 What did you guys think?</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024-04-15 00:58:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Thoughts on 'The Hateful Eight' (2016)?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Tarantino's 8th film is certainly not amongst his best ones as per popular consensus. And while he has been keen on revisiting specific eras in the second half of his filmography such as WW2 and 70s LA, I feel that he almost repeats the era in TH8 as in Django. Whereas in Django he clearly had a theme and story he wanted to tell, this time around one wonders what exactly was he trying to convey through TH8.
 I for one am a huge fan of the film. A 3hr film set in a single cabin for 80% of the movie (and in a carriage for the next 20%) and to turn out as entertaining as it is, that takes skill in the writing department. I don't think any other QT cast had as much fun as the actors in TH8. Kurt Russel, Walton Goggins, Tim Roth, Sam Jackson &amp; Jennifer Jason Leigh all seem to be having the time of their lives, making the most out of Tarantino's witty dialogues. Every single one of them is in their best form. 
@@ -999,16 +1788,36 @@
 What are your thoughts on this film?</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2023-12-31 12:56:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Just watched Salò, or the 120 Days of Sodom, What's the Message?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>So I just watched this movie and I'm not really sure what I just watched. the movie didn't necessarily disturb me very much, but most of the time I was just trying to figure out why this was made. I've heard people just say the movie is about how bad fascism was but im not sure. I'm not trying to put the movie down because I feel there has to be some overall message its trying to convey but I can't help but say "I just watched a movie about a whole bunch of teens get sexually abused for 2 hours." if anyone can give me a rundown on this. ive heard people call it a masterpiece and i heard people just call it a bad torture porn movie?</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:33:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Why Dune Part II shows the importance of weirdness</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">I rewatched the first Dune in anticipation of seeing the new one this past Sunday. Above all else, the most striking image to me was Baron Harkonnen. 
 His submergence into the healing oil, dark as petroleum, and then subsequent levitation above it, was so alien to anything I have seen before. The largest and most grotesque character in the film has the most graceful and effortless movement. This, combined with the “minimalist maximalism” of the production design, created an image that burned into my minds eye as something so uniquely foreign.
@@ -1024,9 +1833,19 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Dune part II was fantastic, however…</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The sound design and score, the set pieces and costumes, effects, acting, cinematography, all brilliant as one would expect.
@@ -1037,9 +1856,19 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-03-08 17:01:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Burning (2018) is as ambiguous as a movie can get</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>I just recently watched the Korean film Burning (2018) and I was blown away. The movie has easily got into my list of all-time favourites. I know the movie has many haters who disagree with how the movie progressed and ended, but it is just the ambiguity that scares off these people. I personally love movies that require a lot of personalized thoughts and theories. The cast and visuals are brilliant. I like Steven Yeun as an actor, and his performance was flawless. He is just so naturally charismatic. Here are some of my thoughts on the movie:-
 I think this is an interesting observation of how audiences perceive movies. In a thriller like this, foul play is expected, and therefore, Ben is "obviously" the killer. It's similar to how people criticize horror movie characters for doing silly things, but those actions only seem foolish because of the context of a horror movie where something dreadful is bound to happen in the dark basement.
@@ -1055,9 +1884,19 @@
 Edit: did not expect this post to get this much reception but since it did, please check out my letterboxd. I can't paste the link here, but the username is azzuuu. Thank you.</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-03-04 13:10:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sicario (2015) - The brilliance of making a side character the main character</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>(spoilers for the entire movie)
 In another universe, Sicario is a movie that begins with Benicio Del Toro's character's wife and daughter being murdered by a rival cartel, proceeds with him striking a deal with the CIA and Josh Brolin's character, capturing Guillermo, and ultimately hunting down the two jefes in a bittersweet ending. Emily Blunt's character would have been a minor antagonist presented as a naive government agent that gets in the way of real justice carried out by our beloved anti-hero Alejandro.
@@ -1074,17 +1913,103 @@
 * Kate is also faced with the choice of killing Alejandro. She chooses not to: both of them understand, after everything that's happened, that the choice makes literally no difference to the massive war being fought. She realizes that, at least some of the time, she can act according to her principles, and she chooses her principles. In the chess game of life the pieces aren't just pieces: they're the people and values we hold dear. And sometimes it makes sense to sacrifice them, but how can we ever know it's the right thing to do? This is the absurd joke of life.</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-05-16 20:16:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A quote from director Akira Kurosawa’s autobiography</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>This is from 1981, and I think it’s aged quite well.
  “This is one of the bad points about commercialism… These people continually remake films that were successful in the past. They don’t attempt to dream new dreams; only repeat the old ones. Even though it has been proved that a remake never outdoes the original, they persist in their foolishness. I would call it foolishness of the first order. A director filming a remake does so with great deference toward the original work, so it’s like cooking up something strange out of leftovers, and the audience who have to eat this concoction are in an unenviable position, too.”</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-02-23 06:34:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Is shooting films digitally having an effect on the actors' performances?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>I saw a [quote](https://www.thepopverse.com/movies-my-cousin-vinny-marisa-tomei-courtroom-scene) about *My Cousin Vinnie* from Marisa Tomei:
+&gt; Tomei then spoke about the memorable courtroom scene. "I don’t really remember how many times we did it. Now everything is shot on digital. That one was on film, so that takes longer in a good way, because you have more time to drop in. **The idea behind digital was that we would have more time as actors, but actually you’re just speeding along at the speed of the digital instead.** But at that time it was film, so it was probably a couple of days, because that was just the pace of how those things would happen."
+That's the first I've heard of that argument; that shooting digitally rushes the actors and their performances.
+Is that true? Anyone heard anything else of a similar nature?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-11-06 16:20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>The Batman (2022) fails to make an effective argument for the main ideology that it supports (Spoilers)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>To begin, I usually sort most superhero and comic book movies into the "dumb fun" category and don't look too deeply into their stories; however, The Batman is \~3 hours long and attempts to touch on some heavier issues, so I think it's fair to scrutinize the story and theme a bit more heavily than other movies in the genre.
+The Batman is an exploration of how to best deal with crime, injustice and corruption. The film shows two different methods of trying to solve this corruption and crime with vigilantism, through Batman and The Riddler. The Riddler is very much a foil to Batman - he's also an orphan, but an extremely poor one. He's a violent vigilante, but he goes all the way and kills those he finds guilty. He targets systemic corruption and crime, while Batman targets street crime.
+At its core, I think this can be an interesting dynamic - two vigilantes with opposing views on how acceptable they find it to kill for the greater good. We obviously know Batman believes it's wrong to kill no matter what; it's one of the core components of his character. However, that's not an ideology that's actually shared by the vast majority of people. If I had to guess, most people believe that killing is okay under some circumstances, whether it's self defense, to preemptively stop someone from killing other people, etc. I think one would be hard pressed to find someone who believes that there's not a single scenario where it's justified to take a life.
+However, it feels like the film expects the audience to just accept Batman's ideology at face value and doesn't make a real attempt at actually trying to prove that it's a valid ideology. The final sequence in the iceberg lounge really sums this up; Batman stops Catwoman from killing Falcone, saying that she "doesn't  have to pay with him" and that she's "paid enough" when she tries to kill him. Mind you, this is the guy that just tried to kill her, killed her mother, and the same guy she just listened to violently strangle her friend - but it's still shown as a moment of growth for her that she doesn't kill him and allows Batman and Gordon to arrest him.
+Even in the next scene, Falcone is bragging to Gordon about how he's going to be out of jail soon and makes a comment to Gordon about how the police work for him. This is just hand-waved away by Gordon, saying "I guess we all don't," revealing a bunch of cops ready to arrest him. Again, it's supposed to feel like a triumphant moment - the good guys caught the bad guy! Except I'm supposed to believe that Falcone is going to receive any justice from the legal system? The last person The Riddler killed up to that point was a corrupt District Attorney who was receiving bribes to not prosecute certain criminals. I'm supposed to believe that a wealthy mob boss, in a corrupt city, with a government and judicial system that the film has outright stated he controls, is going to receive an ounce of justice?
+It feels like the movie never made a real argument as to why The Riddler was wrong to do what he did. Every person he assassinated was an extremely powerful and corrupt person that was protected by a corrupt system and would never have received legal justice. The movie states that there's been a 20 year long conspiracy to use the Gotham Renewal fund as a corruption and criminal slush fund - nothing has been done about this for 20 years, and I'm supposed to believe that The Riddler is wrong for taking these people out? Batman and Gordon would never even have investigated Falcone or learned about the conspiracy if it wasn’t for The Riddler.
+It feels to me that the film wanted to delve into some heavier topics like systemic corruption and wealth inequality, and in doing so accidentally made The Riddler's motivations make a little too much sense. Then, they realized they needed him to unequivocally be the villain, so they had his character radicalize a bunch of his followers and have him orchestrate a terrorist attack, all while he hammed it up and moaned in his cell to show how crazy he is.
+I think The Batman attempts to pay lip service to some very heavy and important ideas, all while very much favoring a "work within the system to change the system" approach (further shown by the triumphant closing speech by Mayor Real) - however, I think it fails to make an effective argument for this ideology. And to be clear, I'm not trying to be a "hurr durr The Riddler was actually the good guy" edgelord (because I don't actually believe that). I just think other Batman films have explored Batman's ideology a lot better, and actually make an effective argument for why Batman's ideology is a valid one - the climaxes of Batman: Under the Red Hood and The Dark Knight are both really good examples of this.
+I would love to hear your guys' thoughts - this film gets a lot of praise, and I always feel like I'm going against the grain when I say I don't like it. I'd be very happy to be proven wrong or have any flaws in my writeup pointed out.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-08-19 20:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Making Sense of "The Substance." What does it mean to be a Mommy? (Spoilers Ahead)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>While I was watching this movie with my wife last night, there was something that continued to bother me that almost took me out of the film, at least until the carnage and bloodbath began in the final 30 minutes or so (then I just enjoyed the absurdity and gore). What kept bothering me was that I didn't see the appeal of taking the substance because it seemed to me that, once Elisabeth "split" into two bodies, that neither of the identities were conscious of what the other was doing. Elisabeth didn't get to experience living as Sue, she only was able to eke out any enjoyment from looking at a billboard, or watching "Pump it Up" on television. She didn't get to have sex as Sue, or enjoy her new perfect body. Now, Sue obviously appreciated her new form, as she retained Elisabeth's memories, but from the time of the split, Elisabeth didn't get to share in Sue's joy, at least not directly. And Sue was not experiencing the horror of Elisabeth, seeing her body quickly degrade. Any enjoyment Elisabeth gained from Sue's experience was gained merely vicariously and as an observer.
+These thought bothered me throughout the film, and especially once we learned that Elisabeth could terminate this Devil's bargain at any time. Elisabeth's statements to the voice on the phone, that "I don't know what she was thinking," the first time Sue overstayed her welcome was when it dawned on me that Elisabeth was not experiencing Sue-ness first-hand. This was buttressed when Sue awakened later to see the mess Elisabeth had made of the apartment, shouting "Control yourself," or something to that effect. The Substance instructions, that the two are one, seemed glaringly false at this point: There were clearly two separate consciousnesses with no shared thoughts or memories. This bothered me because this situation had no appeal to me, giving up whatever enjoyment you can wrest from life for the enjoyment of a newer, better You, which is essentially an "other." Once the film was over, and I was walking home and discussing it with my wife, I think I understood what the movie was trying to say.
+The substance is not subtle in its depiction of the Motherhood/Parenthood theme: Elisabeth "births" Sue from her own body. My observation is not simply that motherhood is a theme in "The Substance," along with criticisms of consumer culture, the worship of youth, misogyny inherent in society and the entertainment industry, etc. I'm pointing out what the movie is saying about motherhood. You give birth, damaging your body, in the hope of creating a newer, better you. But it is not you. it is something separate completely. This new entity cares for you, but only because of your continued sacrifice. In the best case scenario, you watch it succeed, but can only enjoy its accomplishments vicariously, as your own form continues to degrade. Ultimately you are forgotten and only engaged with when the entity needs you. The movie, to me, seems to be saying that having a child, or the desire to have a child, is at least in part, the desire to hold onto your own youth and can be a selfish act, one that ultimately can strip you of the very youth you were desperately trying to cling to. This is the real horror the movie is trying to portray. A bleak take, indeed.
+I'm sure others have reached similar conclusions, but I haven't seen them expressed so I am sharing my thought. I'd be interested in what the community thinks.
+Thanks.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024-10-02 15:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Civil War (2024) from the perspective of a war journalist</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>I saw Civil War a few days ago, and as someone who has reported on war up close it hit me hard and stuck with me. So I thought I'd share some thoughts. From listening to some of the conversations surrounding this film, it seems that some of the film's subtleties are not so subtle if you've been a war reporter before.
 First off, a little about me. I've been a journalist for just over a decade. Most of it hasn't been war journalism, and I don't plan to keep doing it (my wife would kill me herself for one thing). But when Russia invaded in Ukraine, I found myself in Ukraine shortly afterward for various reasons. Over the course of several trips, I've spent around six months reporting in Ukraine since the invasion started, most of it in and around active combat zones. So I'm not a seasoned war journalist like Lee jumping from war to war, but what I did experience was pretty damned intense. 
@@ -1101,9 +2026,19 @@
 &amp;#x200B;</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-04-29 23:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Past Lives, and My Indifference Towards Cinematic Love</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Yesterday I watched *Past Lives*, Celine Song's critically acclaimed directorial debut, and I... didn't like it very much ([my review](https://letterboxd.com/glasshalftrue/film/past-lives/), in case anyone is interested in my more detailed thoughts). Which disappointed me; I think over the years I've become more and more able to appreciate these sorts of slow-paced, gentle, meditative kinds of movies (a few I enjoyed recently include *Perfect Days*, *Aftersun*, and *First Cow*). But for some reason, *Past Lives* just didn't click with me. By the end of the film, when Nora finally cries for the first time in decades and Hae Sun drives away from the girl he's pined after for just as long, all I could think was: that was it?
 Looking back, I think I've noticed a personal trend where I have trouble enjoying movies about love, specifically romantic love; *In The Mood for Love* and *Portrait of a Lady on Fire* are two other highly rated films that I just didn't vibe with. And I'm trying to interrogate why exactly this is. I'm not inherently allergic to love as a thematic focus; there are plenty of stories in other mediums (e.g. books and television) about love that I really like. But as I browsed through my letterboxd film list, I realized that I could count on one hand the movies focused around love that I honestly could say I really enjoyed, and most of them I mostly enjoyed for reasons outside of their central romance.  One of the only movies centered around romantic love - and in which I was particularly captivated by the protagonists' relationship - that I really liked was *Phantom Thread*, which is definitely a much more twisted and atypical take on love than the other films I listed.
@@ -1111,9 +2046,36 @@
 Does anyone else feel like this? And does anyone have any good recommendations for films about love which they think might be able to change my mind?</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:35:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why does Michael Haneke think movie violence is a such a serious issue? </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I saw about a quote from Micheal Haneke that he was disgusted by people laughing when marvin got shot in the face in Pulp Fiction and I just really cant comprehend why? Does he really think that violence and death being treated in a non-serious way makes people more accepting of violence in the real world? I don't see any remote evidence for this and it seems pretty similar to agruements people make agaisnt video games and rap music.  </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2024-10-09 19:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Decoding 'I Saw the TV Glow': A Dive into Youth, Reality, and Existential Dread</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>I just watched "I Saw the TV Glow," and it's one of the weirdest and trippiest movie I've seen in a while. It's what you'd get if you took Beau is Afraid and bathed it in LED lights and 90s kid nostalgia. The visuals and atmosphere are hypnotic but I want to focus on the puzzling themes and messages and my personal interpretation. Beware, there will be spoilers.
 In the film, Owen and Maddy become obsessed with the fictional TV show "The Pink Opaque." The characters repeatedly indicate that The Pink Opaque feels more real to them than their everyday lives. When asked if he likes boys or girls, teenage Owen says he thinks he actually likes TV shows. The film is touching on the feeling that there is something more invigorating about the heightened reality in scripted dramas than the mundanity of our everyday lives. It is similar to people substituting p\*rn for sex, or watching travel vlogs from the comfort of their beds.
@@ -1122,9 +2084,19 @@
 (After I watched the film, I learned that the director had the trans experience in mind when creating the film. This post is not to detract from that original interpretation, but to offer an alternative perspective that I had while watching the film.)</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024-05-19 06:54:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sorry, another Civil War (2024) post - I think people are really missing the point of this movie, and its not what you think</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">Reading the discourse around this movie is, frankly, fascinating. Whether people liked it or not, its been really interesting to read the different takes on it. Some are bothered by "both sides-ism", while others correct that their missing the point, and instead its a reflection on how destructive our identities can be. I actually think this is missing the point, *this movie is about the death of journalism*.
 I think the background plot of a Civil War was chosen simply because its the most divided a nation can possibly be. But pay attention to our main characters, notably Lee, Joel, and how they influence Jessie.
@@ -1135,9 +2107,36 @@
 I def want to rewatch and think there are many other ways to interpret this, but I really do think the movie is supposed to be a focus on journalism and the whole "Civil War" angle was just a back drop simply because its the most divided a nation can be, which is why there's no real politics or reasons for it, as we aren't really meant to be focusing on that. </t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2024-04-16 14:54:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Filmmakers like Wong kar wai and Andrei Tarkovsky who explore time,loneliness and melancholy</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>I really love wong kar wai and Andrei tarkovsky(I know very controversial take). They both are definitely very distant. But one thing that runs common throughout their films(or atleast in some of them) is the theme of time throughout them. They both seem to be obsessed with the idea of capturing the essence of time through their films. They both do it very differently but they both seem to be interested in capturing time as it feels rather than how it works. They both also frequently explore the ideas of longing and loneliness. Their characters are always looking for something and many times even they couldn't understand what it is. It naturally gives their films a layer of melancholy. And to put it simply I have never really found any artist who makes me feel the same way they make me feel. I have tried to get into bella tar and ozu(two filmmakers who I heard could scratch that itch)but sadly I couldn't persevere. The closest thing I have ever came across is probably the books of Orhan pamuk and Virginia Woolf and the paintings of John singer Sargent. Is there any filmmaker(or writer or painter)who is even remotely like them?</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-03-31 11:33:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Eyes Wide Shut Is The Perfect Horror Movie</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Did you ever experience a moment when you realized that your reality wasn’t what you thought it was, when something that was supposed to be familiar ends up shocking you? It can be something small, like learning that your perception of someone or something was wrong, or finding out that there are things going on around you, parallel to your day-to-day life, you never had any idea about. Sometimes these realizations, no matter how insignificant, shake you up, make you doubt your own position in this world and replace your sense of safety with anxiety. 
 Most people probably did experience this on some smaller scale, and even if not, we are all aware that everything we perceive might be perceived differently by people around us. Our sense of social reality depends on the idea that we see and know the same things, that people we trust are on the same page. Otherwise, maybe we can never really know anyone, and the world around us is unfamiliar. Normal life has the constant potential to become a horror movie, people around us imposters, and our sense of self is destroyed the moment you look through someone else’s eyes and see that everything, including yourself, looks completely different. 
@@ -1158,33 +2157,56 @@
 Overall, a memorable and original movie that is also pure horror for me.</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>I really love wong kar wai and Andrei tarkovsky(I know very controversial take). They both are definitely very distant. But one thing that runs common throughout their films(or atleast in some of them) is the theme of time throughout them. They both seem to be obsessed with the idea of capturing the essence of time through their films. They both do it very differently but they both seem to be interested in capturing time as it feels rather than how it works. They both also frequently explore the ideas of longing and loneliness. Their characters are always looking for something and many times even they couldn't understand what it is. It naturally gives their films a layer of melancholy. And to put it simply I have never really found any artist who makes me feel the same way they make me feel. I have tried to get into bella tar and ozu(two filmmakers who I heard could scratch that itch)but sadly I couldn't persevere. The closest thing I have ever came across is probably the books of Orhan pamuk and Virginia Woolf and the paintings of John singer Sargent. Is there any filmmaker(or writer or painter)who is even remotely like them?</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024-04-11 07:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Has Leo ever spoken about Ray Liotta’s influence on his acting style?</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>I never realized it until I watched this clip from Something Wild. The way he holds his cigarette and his mannerisms/body language are unmistakably Leo’s trademarks he employs in his “tough guy” and grifter type roles.  
 I am also certain that Scorsese has helped mold these characteristics as he picked Liotta specifically for this performance. It all sort of came together for me when I watched this and I’m sort of surprised no one ever talks about it. I have a newfound respect and appreciation for Liotta now, he truly was a gifted and under appreciated actor who never really saw the success he probably should have. Fortunately he was immortalized by Goodfellas. RIP. 
 https://youtu.be/IrWJ3tuI4yo?si=yvWTIG3AH0CQEgQ6</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-03-01 01:42:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Am I missing something with Past Lives?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>I watched both All of Us Strangers and Past Lives yesterday (nothing is wrong with me, those just happened to be on my list), and I liked All of Us Strangers quite a bit, but Past Lives had me feel a little cold.
 I think Celine Song is clearly very talented and there are a lot of good parts there, but I’m not sure if “quiet indie” is the best way to showcase that talent. I found the characters too insipid to latch onto, which would cause it’s minimalist dialogue to do more heavy lifting than it should. I couldn’t help but think such a simple setup based on “what if” should have taken more creative risks, or contribute something that would introduce some real stakes or genuine tension. On paper, the idea of watching a movie based on a young NYC playwright caught in a love circle makes me kind of gag, but this definitely did not do that. I am wondering if there is something subtle that I just didn’t catch or didn’t understand that could maybe help me appreciate it more? What are your thoughts?</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024-02-24 16:35:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>What the death of physical media portends for the future of cinema</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Best Buy officially no longer carries DVDs and Blu-Rays. This wasn't a surprise (Kotaku r[eported on it in January](https://kotaku.com/best-buy-dvd-blu-ray-games-sales-stop-2024-1851136668), and others beforehand), but it was still sad to see the reports, the empty shelves, and to know that yet another location previously heralded for its physical media selection has decided to move on.
 This, after numerous films have failed to get physical releases despite box office success (Zach Cregger's *Barbarian* is the poster child of this reality). This, after Disney has made clear strides to discontinue physical media, including [killing all DVD and Blu-Ray sales](https://collider.com/disney-physical-media-release-discontinue-australia/) in Australia, not to mention their refusal to release Searchlight Picture films to physical media (including *All of Us Strangers*).
@@ -1202,9 +2224,19 @@
 I don't know, to be clear. But I worry about it, and I wonder about the films I'll never get to see, about the film's I'll never discover, because there was no way to watch them.</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-02-17 19:39:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Barbie and the Oscars</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>So, Oscar nominations were announced this morning. As usual, the online kerfuffle belies the pretty standard results (were there any nominations that truly surprised anyone? Not for me), but the curious thing I've seen crop up time and time again are *Barbie* fans angry that the film didn't get even more nominations.
 This tweet from Shannon Watts was what sparked this post initially:  
@@ -1220,25 +2252,170 @@
 My point is not that *Barbie* is a bad film (it isn't) or that it's not deserving of some award-season love (it is), but rather that the conversation around this film is so unusually antagonistic that, even when it succeeds beyond anyone's wildest dreams -- likely including Gerwig and Robbie's -- it *still* isn't enough.</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-01-23 16:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Why do some movies look soulless to me?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Like I was looking at the Wicked trailer, and there's just something about the set designs and overall look that doesn't seem right.
+Or not just wicked, other moviea I've seen where the set designs and look just look too clean or polished or too much.
+Maybe I'm going crazy and just speaking none sense. I'm not asking for every scene to have a thought provoking blue curtain, but just something to it.
+Another one was the snow white trailer, the wide shot where she sees the cottage. Something felt off.
+I don't think it's CGI, I think CGI can be used super well in movies. Maybe I think sometimes there's just way too much going in a scene visually it's distracting.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2024-08-15 16:30:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Anybody else find the discussion around "The Apprentice" sort of sad and cynical ??</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This looks like a really interesting movie, I've been interested to see it for a while since Jeremy Strong described Abassis directing as a "punk rock David Lynch" , plus they used the Barry Lyndon music in the trailer!! 
+Then I go on reddit (movies and fauxmoi specifically) and it's just mountains of hundreds of brainless comments saying the same exact thing, "who is this movie even FORR?" . Look I understand being burnt out on Trump, I get not wanting to see the movie, hating the guy, all of that. But just the attitude and weird entitled sort of comments I'm reading make me wonder if people have like a five year olds conception of how films are made. 
+For one thing it seems like people can't comprehend that an artist just felt like exploring a subject because they wanted to, that not every film needs a targeted demographic to pander to specifically. People saying the movie was "no coincidence" to be released around the election (it's been in production for like seven years and hit with tons of legal difficulties, release difficulties, and cease and desist orders..) . People asking why he isn't orange enough, "it doesn't even sound like him!" When it's abundantly obvious the movie is a period piece and there's whole video essays (i think Nerwriter was one) explaining how Trump's use of the English language drastically changed since the 1980s. 
+It's just baffling to me to hear so many people repeating the same dumb things. I would have thought the flood of stupidity would be coming from the MAGAS to be honest but it seems to be the opposite, I've actually seen barely any response from Republicans, except Ben Shapiro making a dumb snide remark about Cannes (because he's a spiteful failed screenwriter himself) .. The Trump team strategy seems to be ignoring the film hoping it'll just go away, probably because having a performance award contender that got a standing ovation at Cannes that includes a scene of Trump violently raping his first wife is pretty damning (hence the cease and desist orders).
+It honestly reminds me of when Id be so excited that movies like Hereditary or The Witch came out and try to talk to people about it and reccomend them and so many people would just be like "lol it was boring". As an artist myself I guess it just fills me with this really weird creeping dread, or some kind of cynical reminder that the people around me have no interest in or capacity to engage with art in good faith. </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Dissecting Megalopolis</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>On first viewing, I can confidently say Francis Ford Coppola's *Megalopolis* is a lot of things, but it is not "bad." In all fairness, it's not really "good," either. It is, nonetheless, a film that celebrates its own dissonance by way of ignoring that dichotomous notion altogether. It is also a wildly infuriating, inconsistent experience that hides its genius among a sea of eye-roll-worthy dialogue. There are mixed genres. Ignored guns. Masturbatory diatribes. Unnecessarily convoluted plot points. Self inserts. It is everything film students are told not to do. Which is exactly what makes *Megalopolis* so interesting. It is, despite its many flaws, a potential masterpiece.
+There are moments where *Megalopolis* shows Coppola's breathless genius, once again cementing his status as a classic™️ "teachable American filmmaker®️" for generations to come. There are other, many other, moments where we are instead forced to engage with Coppola's apparent inability to tie together a cohesive thread in his own philosophy, revealing nothing but the depths of his ignorance on that scene's given topic; only to lift the veil with the next line. Trite, outdated observations are woven together alongside moments of timeless brilliance without an inch of irony or the burden of self-awareness. Emerson and Shakespeare are quoted in the same film that birthed Aubrey Plaza reading the line "You're anal as hell, Caesar. But I'm oral as hell."
+This is very obviously a film made by someone who was not told "no" during its creation. It's also clear that, during the 30 years span it took to make *Megalopolis*, ideas had been restitched and resewn time and time again; with, certainly, some threads being thrown out in place for more robust materials. As a result, *Megalopolis* feels less like a "film" and more like an expansive memory quilt. Scenes do not build upon each other; characters aren't people inasmuch as they are archetypes used by Coppola to explore this moment's idea; sets exist almost exclusively as dream-logic stages, communicating tone and mood more than they do a physical space.
+The reason students are told not to do these things, a reason that is central to the modern writer's core education, is that these writing decisions do not sell. These habits are culled in the first few years of any writing-intensive schooling, weeding out those who do not comply — ushering forward only those who do. Choosing to reveal that a character has been faking a disability in Act III, with little foreshadowing, and then using that character as a maladroit deus ex machina can rightfully be written off as sophomoric if written by a freshman film major at a local university. Similarly, having that reveal be preceded by the line "What do you think about this boner I got?" reaches near offensive levels of "on-the-nose" that might get this straw-man student instantly expelled, breaking records held only by likes of *Satan's Guide to the Bible*.
+However, when a beloved American auteur makes amateurish decisions in their long-rumored, self-funded passion project, it poses a very interesting question: what does it mean for someone considered to be one of the great American filmmakers to release a film whose primary goal is not profit-motivated, and how does the lack of a fundamental limitation to the filmmaking process change the fabric of *Megalopolis*' narrative? In that same vein, what does it mean to create a film that intends to critique the American empire when it is not necessarily beholden to profit, by the director of some of the most beloved and successful films in that empire's history? "A movie" takes millions of dollars to make, creates hundreds of jobs, and generates millions-to-billions in returns; this being the case, a film is necessarily a business as much as an artistic medium, and as such, every classically successful project that directly matches a director's intent should be considered a miracle, if not an impossibility altogether. Funding lends only constricting hands, with the scale of a project deciding how much control is up for grabs.
+Due to the litany of points listed above, it's difficult to discuss *Megalopolis* in binary terms or sliding scale. Like one of the phrases used to advertise the (comparably received) *The Holy Mountain* by Alejandro Jodorowsky, *Megalopolis* stands outside the tradition of criticism and review. There are few examples of a director doing what Coppola has managed to do here: the most analogous might be something like David Lynch's film *Inland Empire*, which too was a self-funded passion project from a well-renowned American director, but even Lynch didn't sell a significant chunk of his global wine empire to fund a single project. Pointing again towards scale, I'm unsure there's a single director in Coppola's position, and consequently, a film quite like *Megalopolis*.
+Generally, there's a chain of command that attempts to save creatives from themselves; producers and department heads functioning as taste barriers to course-correct a director whenever they step outside of their creative bounds, making decisions on praxis instead of suggestions on direction. In other words, paid professionals who can confidently, and correctly, tell the auteur figure (and their purse) "absolutely not." These people are employed by the director, yes, but are unified by the studio's raison d'être: creating a financially successful movie. That is not to say that is the \*only\* thing that matters, but ultimately a studio's funding follows a successful movie, and that funding is what decides whether or not those same creative professionals will be hired for the next project. When that purse is fully controlled by the auteur, those lines become muddied, if not entirely invisible.
+No longer is the existential threat of financial failure looming over every aspect of the creative process, Coppola in *Megalopolis* is liberated from the shackles that hold most other directors to planet earth. This comes with some baggage that modern criticism, with its intent to opine in a way that tells you whether or not you should consume (read: purchase) the critiqued media, is simply not built to handle. At the end of the day, *Megalopolis* is too singular to recommend in that way; it's like asking someone if they should see a performance artist — the answer entirely depends on what you're willing to sign up for, less so on the necessary quality of the performance.
+So now we have *Megalopolis*: two hours and eighteen minutes of what can only be considered to be the culmination of one man's entire career, if not his entire internal life. To its credit, those moments where it begins to feel like something else function as a reminder of Coppola's outsized impact on the unconscious language of film; an impact whose silhouette was relevant enough to serve as a memorable plot point in another cultural touchstone, Gretta Gerwig's *Barbie*. The performances in *Megalopolis*, though camp, are each uniquely memorable and deeply quotable; Aubrey Plaza as "Wow Platinum" shines in all her scenes, stealing every moment of screentime with her very specific brand of syrupy, sardonic delivery that cannot be easily replicated. Nathalie Emmanuel, Jon Voight, Giancarlo Esposito, and Laurence Fishburne all deliver career highs, easily rising to the occasion (one of the friends with whom I went mentioned it reminding him of Wes Anderson's *Asteroid City* — no wonder). Adam Driver, who at this point has created a career on his inhuman ability to deliver even the worst writing with Oscar-worthy earnestness, stretches those skills to their absolute limit when dropping mansplainy lines like "Go back to the club!" at a scorned Emmanuel in an uncharacteristic display of sexism from Cesar, Driver's character.
+This leads to a, far more challenging, aspect of *Megalopolis*. There are moments where it's clear that Coppola is of the old guard. That is to say, while there is an obvious attempt to create something that is authentic to his lived experience and will last beyond him (an endeavor that I feel Coppola succeeded in), the implications of that assume a certain level of conservatism: ideas that would be squarely placed in the "slightly reactionary" category and would be considered wildly outdated by your run-of-the-mill TikTok user. There are aspects here, such as: Shia Labeouf's inclusion, the immediate dismissal of Cesar's assumed pedophilic affair with Grace VanderWaal's character *Vesta Sweetwater*, and the migrant/communist/fascist/maga amalgamation in the latter half of the film, that reveal Coppola as a man whose moral framework is not compatible with what would be considered acceptable today. Despite this, it also paints Coppola as someone who is deeply interested in understanding how to best implement good, willing to bear even the worst aspects of himself as if to shine a light on an oft-ignored corner.
+This does not always succeed: Shia Labeouf's inclusion, after being justifiably booted from Hollywood less than a decade ago for (and I just want to be deathly clear here) beating and abusing FKA Twigs so hard she ended up writing an industry-changing, award-winning album to heal from the trauma, never really uh... felt justified. Cesar's affair with the presumed underage (though, then corrected) Vesta was used as a transition between two pivotal sections, only to then be dismissed almost as soon as its usefulness as a transition ended — serving as one of the clumsiest explorations of cancel culture printed on film since Weinstein's arrest. The direct references to politics, and Coppola's habit of heavy-handedly combining different 24-hour cable news tropes, felt dismissive of the material struggles the audience members of those channels face, as well as those subjected to the stereotypes outlets like FOX News and CNN generate. He seems interested in exploring how the will of the majority feels like tyranny to those with power but doesn't quite recognize that a correction of a power imbalance would feel like theft to the oppressors. In spite of these problems, or maybe as a result of their frank explorations, it works. It fucking works. Coppola is a deeply flawed man in an imperfect world, operating every day on an imperfect philosophy in an era that is begging for perfect representation.
+The rest of the political imagery, like much of classic American architecture, clumsily borrows from Roman-inspired iconography: though there is no meaning lost in the metaphors here. This is an exploration of the real-life era of decadence, an era that pretends to have removed itself from barbarism while simultaneously manufacturing endless wars, infinite entertainment, and stone-faced propaganda as its main exports. One that shouts "peace" soundtracked to the screams of children showered in stolen oil, diving under trees grown to avoid bombs launched by purposefully subverted regimes in the global south. Nevertheless, in the hands of someone who seems ideologically stuck on a Gore vs Bush debate as part of a generation politically stunted by 9/11, the inclusion of Rome (as well as the fashion sensibilities from the roaring 20s that were likewise inspired by the Roman era) do not move much further than mere aesthetics, signaling understanding without doing the required work. Somehow, it is the perfect metaphor for Western engagement with their aesthetics: an apt description of a social system that rejects self-criticism in favor of ideologic chauvinism, decontextualizing imagery as it sees fit, and throwing the baggage out with the trash.
+To that end, Coppola crafts some arresting allegorical imagery, from the literal lens of someone who exists at the center of colonial power. Living stone statues crumble under the weight of a declining empire, timeless teachings fall to the ground as they are now too heavy a burden to carry; children caught at the gates, mere inches from survival and held back only as a result of bureaucratic decisions made far above them and well out of their control; the shadows of those whose names will be lost to time, projected on the walls of the capitol by the bright glow of geopolitical conflict — existence reduced to a part of a much larger number of casualties from a well-cited paper on the matter. Leaders move civilians like pawns, sacrificing certain groups in an effort to gain an advantage over their political and financial opposition. This, to Coppola, is not a society that can be fixed; civilization itself is a branch that might require trimming.
+Even here, ideas with fascistic underpinnings permeate through the narrative as two men vie for what should be decided democratically — but to quote Cesar, "When we ask these questions, when there's a dialogue about them, that basically is a Utopia." This is the thesis of *Megalopolis*, and I believe, the message that Coppola intends to impart. Nowhere is this clearer than in the most obvious self-insert, Driver's character *Cesar Catilina*, who has poised himself to be the architect for a new world. His trajectory throughout the film, as I understood it on my first viewing, is basically one of observing everything wrong with "New Rome;" initially intending to recreate it in his own image, positioning himself in opposition to Esposito's *Mayor Cicero* and his vision for the future. Through this competition, and all its connected schemes, the gravity of Cesar's impact on the world grows on him and, in a grand Shakespearian twist, he is forced to address his shadow. By the end, both men bury the hatchet as they come to understand this is just some weird psycho-sexual competition for a Pulitzer-adjacent Freudian achievement. However, conservative politics notwithstanding, Coppola still offers a story that searches for a world that exists beyond the constraints of the capitalist experiment; one that invites you to rethink the politics that rule art, and more specifically those resulting from the medium's "as-it-exists-today" inherent profit-motivation.
+As stated before, *Megalopolis* is not a perfect film. It might not even be a good one. But the question of whether or not it's good is far less interesting than the ideas that Coppola manages to stuff together into what turns out to be a measly 2 hours and 18 minutes. Ultimately, this film is a snapshot of a life those who have not lived it have deemed important. There is simply no way to critique *Megalopolis* in the traditional sense. What this film manages to do that feels so genuinely profound is that it takes a beloved American icon, considered a master of his craft, and removes all the mythology; what's left is a bundle of contradictions, splayed in such a way it creates the outline of an imperfect man.
+Here, there is no polish to make the film more accessible, no sheen that will make it easier to sell. *Megalopolis* is a challenging watch, especially for a culture that is quick to reject authentic gestures as contrived. But in this way, Coppola has crafted a perfect encapsulation of the American fable. The nature of *Megalopolis*, the fact that it is a self-funded and long-awaited passion project from a famed American celebrity, is woven into its very essence. It is the sole thing that sets it apart from other films that operate in this area; Coppola is considered to be one of the untouchable directors, a name that itself is a secret code amongst film bros that communicates "I have taste." Instead, in what is likely to be Coppola's last and most divisive project, we see the man himself pulling back the curtain to reveal that there is no grand director. Just an imperfect individual with a story to tell, and ideas to share. It seems as though the only correct takeaway is offered by Cesar in the last few minutes of the film — "We're in need of a great debate about the future."</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-09-29 07:18:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>What do people mean when say they've outgrown Tarintino films?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>I've heard several people say this online and I don't really understand what they mean, outgrown to what exactly? It seems to me the idea of outgrowing tarintino films comes from them being  playful and not taking themselves entirely seriously, but then you could say exactly the same of Hitchcock, Fellini, Kubrick, Lynch, Early Godard. I mean all there films are nor meant to be entirely taken seriously, none of there films attempt to replicate reality and they don't have obvious meanings and messages on the surface. The depth comes from the film itself not from its relation to reality, there films aren't about real life, there about filmmaking and art the same as Tarintino. So what exactly is there to outgrow with Tarintino, unless you think that good filmmaking should be realistic and about actual human issues like Cassavetes or Rosselini, but I don't really see how you can argue Tarintino films are bad because they don't take themselves seriously and turn around and tell me you like Hitchcock or Lynch. It seems to me its more of a perception issue people have with Tarintino then any actual concrete criticisms, even the stuff about him taking from other films has been done by great filmmakers since cinema started. Blue Velvet for example is absolutely a riff on a rear window but I guess less people have seen that compared to the films Tarintino has allegedly ripped off. I honestly think a lot of this comes from not actually having seen stuff by filmmakers like Hiitchock and Fellini and not realising that the kind of superficiality that Tarintino films have exists in there films too</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2024-03-14 06:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Daniel Plainview waking up in “There Will be Blood”</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>What’s your opinion on Daniel Plainview being so hard to wake up? I noticed that the director put a real emphasis on the fact that Daniel Plainview is nearly impossible to wake. What I immediately thought of was that he’s simply exhausted and needs his sleep, however, with the amount of times that we’re shown him being woken up, I feel like there’s a lot more meaning to this, particularly towards the end of his movie where it almost seems like he’s dead on the floor of his bowling alley before Eli arrives. One other interpretation I’ve thought of is that he simply hates life and that the only time he’s at peace is when he’s asleep. This would make him reluctant to wake up and return to his real life. I’m curious to see what other people think.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2024-10-13 09:58:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Why do directors insist on making their movies look so bland? (Napoleon, Ferrari etc)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>I watched Ferrari last night and couldn't believe how bland it looked. The movie was very boring but what also didn't help were the drab visuals. I would expect much better from Mann. Even his least favourite movie of mine previously, Ali looked great visually. I would blame it on Mann shooting Ferrari on digital but he made that format look fantastic in the past with Miami Vice and Collateral. 
 Additionally, it seems to me that Ridley Scott and Dariusz Wolski made a pact that states they have to make their movies as drab as possible. It only worked for the excellent Last Duel because it added to its bleak atmosphere. But Napoleon, Alien Covenant, House of Gucci and All the Money in the World were majorally dragged down by the washed out cinematography. Especially, Huse of Gucci which should've been a movie with a lot of flair.
 Even Fincher is guilty of this. People called the Killer stylish but to me it looked very visually uninteresting apart from some establishing shots. The digital cinematography was very bland to me and dragged the movie down. To me Truck Turner, a blaxploitation movie which I watched yesterday looked much better than all the movies I mentioned in this post. Or a movie that I watched the day before that, Cockfighter. These are exploitarion movies but they look much better than fairly big budget modern productions. Even stupid Chuck Norris movies like the Missing in Action trilogy look more interesting than Napoleon. A big part of this is all older movies being shot on film but many directors can make digital look good. So why don't they? Why do directors want their movies to look so uninteresting?</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2023-12-19 19:50:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>What is Civil War (2024) really about?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Just got done watching Civil War. I know the movie's been talked to death since its release lots of polarizing opinions all over and I just wanted to share my takeaway from the film.
+Personally, I think this movie is beautiful. The way it's filmed is absolutely incredible, especially the final assault on DC towards the end. I don't know if the military tactics displayed are accurate or not, but either way, it was filmed well enough to immerse me in it completely and take in the horror of having to be an in active warzone. The sadness and melancholy of seeing a once vibrant USA look so barren and hopeless is captured so well here.
+As for the story, I do think the politics is completely irrelevant here. It doesn't matter how the civil war came to being or what it's being fought over. All the film needed to do was convince you that what you see on screen is at least close to reality. The specifics of the war don't matter, because that's not what the story is about.
+To me, the story is about the dehumanising effect of war photography. Throughout the movie, we bear witness to countless moments of people losing their lives, their bodies being tossed into mass graves nonchalantly, protestors being blown to pieces, soldiers being executed and the film captures all these moments through our protagonists, who, for the most part do their job with almost no hesitation or qualms. These horrible atrocities are filmed with almost no remorse or pity and are glossed over almost instantly due to the nature of the job. War photography and journalism, by it's very nature, causes the viewers and journalists alike to become totally desensitised to what's being filmed, lessening the people within the pictures to the worst moment of their life.
+There's no space for love, friendship or mentorship. This dehumanisation is epitomized in the end of the film where Lee sacrifices her life to save Jessie, and in return Jessie doesn't say goodbye or shed a tear, she clicks a photo of her so called hero and mentor at the worst moment of her life: the moment she dies. Their entire relationship that was developing throughout the entire movie gets reduced to the actions taken in this moment and I also think shows us the primary difference between Jessie and Lee.
+Even if Lee was desensitised to a fault, in the end, it was individual lives that mattered to her, I think. The fact that she saved Jessie's life multiple times when it would've been infinitely easier to take a picture of her getting killed, the fact that she deleted the picture of Sammy's corpse, all these show to me that Lee's in this for the right reasons.
+Jessie on the other hand, is in it for glory or perhaps reputation, in order to get "the best scoop". It's not the people in the picture that matter in the end, it's just the picture that matters for her. It's a sad development of her character and I think the movie does it beautifully.
+What do you think of the movie? I think it was marvelous. I think I'd rate it a solid 8/10.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>“Almost Famous” feels more unsatisfying as the years go on for me, do you feel this?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">
 I first saw it back in 2007 and it became a quick favorite of mine for the reasons it likely has for many people in the years since 2000 (even though it’s box office turnout was low). It was enchanting, warm, funny, wistful, you name it. This was the theatrical version, it wasn’t until maybe a decade ago that I actually bought the Untitled directors cut.
@@ -1251,9 +2428,19 @@
 I wonder how fresh and richer I might find the movie had the early 00s gone differently and our world unfurled in another direction. I think anyone could still see issues, but they might feel more forgiving. What might the movie have felt like if Crowe wrote and started filming in 2002? Would we have felt the complexity and prescience in his 70s setting of today’s broad pessimism? Would he have reoriented his view of his time working for Rolling Stone, that William Miller is being set up only to later to have the world knock him down?</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:47:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>As a survivor of SA, I think Spotlight (2015) is a perfect film of accountability.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>I was SA'ed when I was a child and for years I felt absolutely powerless, or should I say, I felt like there was no sense of understanding from others or closure for me. It's a hard subject to tackle in film and it's often ham fisted. My experience was decades ago and there's no recourse for me. The "characters" in this film (based on the Boston Globe writers) are people who are not skeptical or cynical of the Catholic Church when they started investigating -  they're taking the information as it's coming to them. There are establishment folks who are trying to coerce them to stop their story/investigation because they don't want to upset the status quo, but the more the Spotlight writers discover the harder they push towards resolution. 
 I cannot tell you how invigorating it is to watch this film as an SA survivor - you feel like they are fighting for *you*, because you feel like no one has been fighting for you. I watch this film every six months and I'm always absolutely memorized by not only the performances and the pace, but the honesty and bravery of this film. I mean, to go against the Catholic Church in Boston is no small feat. It's not a tour-de-force for Mark Ruffalo or Michael Keaton, it's a kind of reckoning of the human spirit. You can tell all the actors involved feel strongly about this and are the embodiment of absolute good. Hard working journalists who just want to uncover the truth.
@@ -1261,9 +2448,19 @@
 Amazing film.</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2024-03-24 08:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>What happened to Tony Kaye, director of American History X?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>I watched his most recent film, Detachment. 13 years ago. One of his projects was shown at Cannes and then never released. 
 Another seemed to be full steam ahead 2 years ago, but there's no info about it's current status. 
@@ -1272,9 +2469,41 @@
 Anyone have further insight into what's going on here? Is it just the unseen unfortunate side of Hollywood? He makes great work and we'd benefit from seeing more.</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-04-12 22:40:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Climax(2018) makes you feel filthy</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+So i've watched this Noé movie yesterday with my girlfriend and wow.
+Everything i remember from Irreversible (which to me is an even more disturbing film) is here: long shots, floating camera, upside down angles, improvisation and all that technical stuff; but most of all, the thing that makes me like his movies: the complete and utter sense of madness.
+To me it felt like a slasher movie, but with no killer, just that imense sense of isolation as the villain; as the film progresses, the camerawork becomes shaky and we stay 42 MINUTES WITH NO CUTS, it becomes impossible for you to not feel stuck, sick and as if that night would never end.
+I feel like there is no two ways about this movie; either you jump head first and let yourself go or you're just gonna hate it.
+</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2024-09-13 14:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mamoru Oshii's review of 'Porco Rosso'</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t># A Hundred Percent Excuse Film
 Watanabe: This time, the theme is "Porco Rosso". It's a movie where Mr. Miyazaki himself transforms into a pig and flies a plane.
@@ -1344,9 +2573,58 @@
 Interviewer: Maki Watanabe</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2024-07-23 09:58:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>“Will the People Who Say They Love Cinema the Most Come Back to the Movies?”</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What are people’s thoughts on this article:
+https://variety.com/2024/film/columns/where-have-all-the-cinema-lovers-gone-deadpool-wolverine-tar-1236108202/
+Contrary to popular belief, the theatrical market for arthouse cinema of the Haneke/Tarr/von Trier/Weerasethakul variety has remained relatively static since the eighties.
+What’s plummeted is the market for “specialty” awards contending releases. Think Indiewood and Miramax films or the Sundance film that may not be a Best Picture front runner but scores an acting nod or two and grosses 25-30 million in North America(Monster, You Can Count On Me, Boys Don’t Cry, etc). An era where films like Driving Miss Daisy, Chicago, and Shakespeare In Love were blockbusters isn’t necessarily something that merits nostalgia. Now at the risk of having my cineaste card confiscated, if there’s one reviled Best Picture winner from the era that’s frankly not as bad as its reputation suggests it’s probably The English Patient. I’d also throw The Remains of the Day into the ring, although that was only a Best Picture nominee, not a winner. 
+That said, Tar most certainly would have grossed far more money in the late 90s or very early 2000s. It probably would have made 40-50 million in North America back then. 
+Also, a side of me thought the success of Parasite would usher in a new era of semi-mainstream interest in “auteur cinema” similar to what prevailed in the 60s and 70s, but things didn’t pan out that way. </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:13:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The court scenes in anatomy of a fall are taking me out of the movie. Is this how french courts really operate? </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm just paused after a little over an hour into anatomy of a fall, and the courtroom scenes are really pulling me out of the movie. The prosecutor (the subtitles label him the advocate general) is asking wildly speculative and leading questions, and the judge has said Sandra needs to answer the speculative and leading question. Is this how french courts actually work? Because the way this movies treats courts is the prosecution makes a plausible case, the courts treat it as true, and then asks the defense why the case couldn't be true. </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2024-10-10 07:08:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>How do you become film literate?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">I watch a lot of movies, often repeatedly. Some of my favourite movies I'll watch 5-10 times before I truly understand them. 
 What frustrates me is I'll watch a movie, make mental notes about all of the imagery, themes, and references and essentially boil it down to "what it all meant." I'll feel clever in the moment.
@@ -1355,9 +2633,19 @@
 Surely I can't be alone in feeling like a massive moron watching movies despite loving the craft more than anything else.  </t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2024-01-25 20:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>I watched "Ran" (1985) for the first time two nights ago...</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>...and wow, what an incredible experience.
 *Ran* might be the most overwhelming cinematic experience of my lifetime. Never before had I seen colors on display with such vividness and striking composition. Nothing can quite compare to the clashing yellow and red bannisters and uniforms as Taro's and Jiro's armies assaulted Hidetora's castle. And despite *Ran*'s visual beauty, it paints such a contrastingly brutal, bleak vision of the world. Definitely doesn't grant its audience a good time: turns out that nothing is sacrilege in the face of human greed.
@@ -1367,9 +2655,19 @@
 *Ran* was an especially welcomed viewing because I've recently been on a quest to come across a movie that will supplant my current number one favorite for the past four years: *Ordet*. *Ran* has come to closest by far. It now ranks as my fifth favorite movie ever, only behind *Ordet*, *Apocalypse Now*, *The Battle of Algiers*, and *Barry Lyndon*, and directly in front of *Parasite*, *Schindler's List*, *Badlands*, *Once Upon a Time in the West*, and *Dune: Part Two* (the only other time a movie entered within my top ten favorites over the past four years).</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2024-07-13 20:14:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Was Col. Kurtz the most rational character in Apocalypse Now?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>After watching "Apocalypse Now," I was struck by the irony that someone as "insane" as Kurtz was quite possibly the most rational (maybe honest is a better descriptor) character in the movie. Kurtz realizes he may deserve to die, which is why he accepts Willard's arrival and his own assassination. In his final monologue, he asserts that we are individuals filled with both love and hate, regardless of which side of the war we are on. The other side's military isn't filled with "monsters," as the North Vietnamese are depicted throughout the film. They are people with families and children, inspired by their cause. By humanizing them Kurtz does not shy away from the weight of what it means to kill and fight another human being.
 Kurtz speaks of his "perfect" soldier, one who retains his morality and remains conscious of the weight of his actions, yet still does what the situation requires. This contrasts with what is said multiple times in the movie by Willard and the French lady at the outpost: that soldiers have two sides, one that loves and one that kills. This is dishonest. They try to cope with killing others by splitting their sense of self into a side capable of violent murder and one capable of love, cheating themselves into remaining within their own moral boundaries. Kurtz's perfect soldier does not do this, understanding morality is deeply altered during war. Their retained morality is not a hindrance but a source of power, allowing the soldier to act with conviction and purpose, unclouded by the confusion that plague others in war.
@@ -1378,9 +2676,19 @@
 Kurtz is coldly conscious of all his actions, understanding that morality does not apply to war, an inherently immoral act, as it does to normal life. In contrast, Kilgore copes with this fact through false bravado, turning it into a sport, both figuratively and literally. As the other Americans can't bare the weight of their actions, Kurtz is the only rational character in the film, except for maybe Willard who we explore the film "with".</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2024-06-21 11:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Probably late to Saltburn hate-wagon.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Worst of all the film was disappointing. The cast was great. Cinematographer probably needs a back surgery from carrying the whole picture. But stunning images and "shocking" scenes, can't really carry storytelling issues.
 I think one of the problems is the narrative approach. We didn't follow Oliver from his perspective, the way we do in Talented Mr. Ripley, nor we discover Oliver objectively, nor he's an unreliable narrator. It's kind of an awkward mix of both - so as a viewer you are not surprised by any of the twists. Either show me the process how he did it or just leave me wondering. Don't go "aha - just as you expected - it was all a sick and twisted ploy to get the mansion.
@@ -1389,9 +2697,19 @@
 What I can't understand though - here the "provocative" scenes just didn't land. And I'm not bragging - I'm squeamish AF. Films by Lanthimos is basically horror cinema for me. Why this film seemed less impactful than it was supposed to be?</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2023-12-30 00:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Critical discussion of many of 2023's films is completely hampered by horrid distribution</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>This is sort of a rant/business observation, but 2023 was an absolutely astounding year for film, no doubt. It was astounding film after astounding film and discussions around awards have been diverse and pretty interesting (despite the few obvious front runners). 
 But trying to discuss many of these films with people (online or in person) has been nigh impossible because outside the few big films in the mix, most haven't been seen by anyone. Has anyone else noticed this? Do you feel (wherever you live) that you've been offered the chance to see many of the raved about films?
@@ -1401,25 +2719,100 @@
 I'm sure there's complex strategic and economic reasons behind these decisions. Or at least I really hope there is. But it is frustrating that an enormous part of our cultural discussion around film is restricted to a small handful of "blockbuster art", because only a select few elites (academics, film critics, or circuit pundits) ever get to see a bunch of the rest. I live in Edinburgh Scotland currently. A pretty notable city, with a major world-class University, enormous international tourism &amp; student body, and a huge arts scene. But most of these films haven't even had Edinburgh releases yet. It's just bizarre (or if they did, it's like... 2 and they're instantly booked out).</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2024-01-15 10:52:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>How does one distinguish between good acting and bad acting?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>I have been watching films since I was a kid, and though I have no problem in distinguishing good films from bad ones, I've always had a tough time concluding which actor is acting good and which one's not.
 So please enlighten me with what are the nuances one needs to keep in mind while watching an act and how to draw a line between a good acting and a bad one.</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-04-15 22:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environmentalists should watch Princess Mononoke </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**Princess Mononoke (1997)** is one of the few films that does justice to humanity’s struggle to coexist with nature. Most environmental films, especially documentaries, ( Ex: *food inc*, *Blackfish*) tend to set up a familiar conflict: a small, environmentally conscious figure standing against a powerful, polluting corporation. Other environmentally conscious films, such as National Geographic nature documentaries or *Planet Earth*, succeed only in installing a sense of hopelessness about the environment with their disheartening predictions that are usually phrased “the rare and beautiful spotted frog has had over 90% of its habitat destroyed by development and without your donation of $20.00 it will go extinct”.  *Princess Mononoke*, on the other hand, captures the complex, nuanced relationship that humans have with nature.
+The story follows Prince Ashitaka, who comes from a small village deep in the wilderness, seemingly untouched by the outside world. His peaceful life is disrupted when a diseased Boar God attacks and curses him with a mortal wound. This curse forces him to leave his village in search of answers and a cure for his mysterious affliction.
+As Ashitaka travels, he encounters a “civilized” world also plagued by anger and violence, reflecting the curse inflicted on him. Gradually, it’s revealed that this turmoil is driven by the tension between human industrialization and the natural world, which is being destroyed in humanity’s quest for resources.
+Throughout the film, Ashitaka advocates for harmony and peace among all living things. However, his perspective is misunderstood by both sides. Humans see him as an ally of nature’s defenders, obstructing their progress toward a better life. Those protecting nature view him as a sympathizer of humanity’s destruction of the environment. Each side is entrenched in its views, unable to imagine the peaceful coexistence that Ashitaka’s village has practiced for generations.
+This mirrors our current struggle with environmental sustainability. Today, environmentalists are often caricatured as “utopian primitivists” who wish everyone to lower their quality of life to save a few trees. Conversely, environmentalists often see industrial polluters as intent on destroying the planet for short-term profit.
+Such polarized views only serve to push each side further into its corner, lacking the nuance necessary for a productive conversation on how to coexist harmoniously with nature. To truly address this issue, we must shift our perspective. Instead of viewing the world as a game of resource acquisition, we could strive for a sustainable balance, taking only what we need and replenishing what we consume, as pre-agrarian cultures once did.
+It is challenging to imagine a society that does not prioritize maximum efficiency and convenience in resource access, as humanity has fought for centuries to secure resources for survival. However, now that we live in a world of overabundance, any suggestion that we must change our approach can feel like a threat to our very survival. On the other hand, continuing with unsustainable practices will lead to scarcity by necessity rather than choice.
+Prince Ashitaka provides a blueprint for environmental advocacy which balances the needs of humanity while simultaneously advocating for the respect of all living things. His lived experience and his desire to “see with eyes unclouded by hate” provides a convincing argument for the value of coexistence between humanity and nature. More people who wish to see increased adoption of environmental sustainability should follow his lead. 
+</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2024-11-12 06:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>For almost 2 years my friends and I have had a weekly movie night where on rotation we each choose a film or everyone to watch. The only rule is that most people there can't have seen the movie before.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>We are coming up on the 2 year anniversary of this weekly movie night commencing. There are 8 of us in the group and it's been a really great weekly ritual. We've all been exposed to some amazing (and some not so amazing) new films. Even the less loved ones have been interesting and worthwhile in their own way and have given us lots to talk about. It's consistently a highlight of my week.
+We finally compiled all the films into a list (in no particular order) and it's a pretty diverse and wide ranging encapsulation of our tastes. They range from beloved classics to really bizarre esoteric choices. The most loved and most disliked ones by the group have been quite surprising.
+Thoughts on our choices?
+[https://boxd.it/pgH8q](https://boxd.it/pgH8q)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2024-09-18 00:20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>What movies should I watch to get into less accessible movies?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">What should I watch to get into less accessible films?
 I want to watch things like The holy mountain (1973). Or Tarkovsky films or bergmans more complicated films. Is it simply just watching more movies to get used to them or are there certain movies I could watch to prepare me for less accessible films. Satantango is another one I want to watch. Jean dielman (1975). Persona (1966). </t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2024-05-03 11:48:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>"Rosemary's Baby" (1968) - the way pregnancy steals a woman's personhood</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>*Rosemary's Baby* asks provocative questions about pregnancy that you don't really expect from an American movie in the 60s. In it, Rosemary Woodhouse is newly married to Guy, and their new neighbors -- a very stereotypical upper west side older couple, who also happen to be Satanists --convince Guy to have Rosemary be impregnated by Satan without her knowledge. Rosemary is thrilled by the pregnancy until she starts realizing how strange they all act about her baby.
 That's a compelling concept on it's own. But if you take out the supernatural elements, you're still left with the terrifying ordeal of a non-Satanic pregnancy. People commandeering your body, offering you 'pregnancy smoothies' and health advice you didn't ask for, the way your long-time doctor suddenly doesn't trust you because now he's also responsible for the anonymous being growing inside you, and the growing divide between the pregnant woman and her her partner. Throughout the movie, people presume to know what's best about Rosemary as if she is a child herself and the only reason she (and the audience) don't know this is due to the Satanic neighbors is because *this is just how we treat pregnant women* (or at least back then.)
@@ -1428,9 +2821,19 @@
 &amp;#x200B;</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-01-09 10:28:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>High and Low (1963) - Japan's post-war class struggles in film</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>This might be the best Japanese film from all I've watched! I still have to watch *Throne of Blood* but *High and Low* is better than *Seven Samurai*. However, I need to revisit Mizoguchi's *The Crucified Lovers* and Naruse's late romances.
 It's a return from Kurosawa to his early police/detective films and a depart from the Samurai stuff he was doing in the 1960s. Philosophically is above all other Kurosawa films I've seen.
@@ -1443,9 +2846,38 @@
 P.S.: As always I've compiled my thoughts visually in a [video](https://www.youtube.com/watch?v=FUuaTtQaaLc) on my YT channel - if you don't mind the shameless advertising.</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-04-02 10:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Joker: Folie a Deux - Todd phillips falls for the self-awareness trap</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>The allure of fantasy. The jungian shadow only works in the presence of a personality. It already gave off a warning sign in the form of an obnoxious meta-narration that turns the film into a clumsy, dispassionate novel. The creativity starts and ends with the classic animation intro. Todd phillips, out of ideas, points the finger at the original's discourse and the media sensationalism in a self-aware swing for the fences but is nowhere competent or imaginative in dealing with heady themes.
+Every scene is an excuse to launch into a musical number to represent a pedestrian-level depth of reality and fantasy. All the negative reviews of the original become true - it's all just lip-service to concepts while having the depth of a swimming pool. This is made worse of the overly self-conscious perspective of the film - arthur fleck becomes aware of what we, as the audience want to see - the real joker and its no surprise that it kills itself in the end where it has nowhere to go and the biggest disrespect of all - The great heath ledger's joker was just an admirer of arthur fleck, a fanboy who got mad that his idol wasn't what he had imagined.
+Arthur fleck, as the film itself, breaks down and admits it doesn't live up to everyone's perfect image of the Joker.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-10-02 13:56:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Once Upon A Time in Hollywood is such a strange and interesting little film…</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>So it’s been some time and finally had a chance to revisit this film after all the dust settled.
 The film sticks out in so many interesting and different ways now.
@@ -1463,9 +2895,46 @@
 Looking at the film through this lens to me at least served as a reasoning behind every odd idiosyncratic choice we see in it. Its wishfullment, a fairy tale.</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2024-02-08 23:30:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Deliverance (2024)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>What in the grindhouse, tedious, just out of college indie, Walmart version of The Amityville Horror, poorly edited film did I just watch? How do you get the Dollar Tree version of The Exorcist? Get Lee Daniels to direct, apparently. When a film has a cast list that includes Glenn Close and Mo’Nique, you go in expecting good acting. The work of the adult actors in this piece is let down by the director, the script, and the editor.
+Our lead, Ebony Jackson. For starters that’s a character name you’d expect from a junior in high school doing a creative writing exercise. Ebony is a very angry person. They absolutely want to hit the viewer over the head with how angry she constantly is. She will snap at any moment, but we’re also expected to believe this person wants to be the head of a loving family and wants to keep her kids. Ok. How can she afford to rent this big house doing hair part time? So they’re admittedly broke, but can throw parties, Ebony can go out drinking, she pays for her mother’s chemotherapy out of pocket in America… did the writer not sit down with a calculator? The father is fighting in Iraq, pays child support (?), and he has hundreds of extra dollars each month to send to the eldest son to eventually escape from his mother?
+In one scene, her eldest son hides a bottle of vodka in the house from his mother because she’s not supposed to be drinking. Then the birthday party turns into a large friends and family drinking party, bottles everywhere, no one is concerned anymore about our lead character staying sober, let alone drinking at home whilst her children are at home. No one is afraid CPS might show up for a surprise visit on the night of the birthday of her daughter, whose birth date they have on file. 
+The film is plagued with so many, wait a minute, that doesn’t lead to that, this isn’t a well thought out next step for these characters, why are they doing that when we’ve already established x.
+The children all on the same day… one eats poop and throws it into his teacher’s mouth. One bleeds all over the floor after making disturbingly long eye contact with the choir director in front of the entire choir. One laughs uncontrollably about AIDS and falls onto the floor laughing. That’s an instant expulsion for all three. The social worker already saw before that day that the kids had bruises. Why are the kids allowed to go back to that home? So many major things in this film are treated like nothing burgers. The eldest son tries to murder the youngest son in the tub. This is just brushed off by Ebony, everyone treats it like it never happened.
+And the editing. They rush right into Mo’Nique’s epic monologue, causing it to seem disjointed, this sudden deep out of place emotion. We go straight from angry Ebony, to suddenly Mo’Nique is going hard for her second Oscar. 
+The film goes off the rails in Act II. The reverend shows up, but instead of the conversation in the park that Amityville gave us, we set that holy conversation type scene at a late 80’s McDonald’s for some reason. I’m sitting there thinking, is this nu-grindhouse? Why are we doing so many regressive things, when we have several great actors in this thing?
+The psych ward scene. Ebony has confessed to hearing voices, strange sounds, using alcohol, weed, her children have bruises and are having so many issues… they just let her out of the hospital? The director isn’t asking us to suspend disbelief, he’s trying to force us to do it or else.
+Ebony’s mother looked like she had been strangled, with the red marks on her neck. No detectives thought to question Ebony or arrest this woman who’s been in jail for anger in the past? They’re just going to leave her with the kids after hauling off Glenn Close?
+This film is a mess. It’s like something a 2004 Tyler Perry would have created. Why are two A listers in this B film playing it like they’re going for an Oscar, when everyone else is playing it like they know they’re in a Netflix Exorcist ripoff? 
+I would love to hear your views on this film.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2024-09-02 08:15:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Saw 2001 : A Space Odyssey in a Theatre and it finally clicked for me.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>I first watched 2001 : A Space Odyssey in 2019 and when I first watched it, I really wasn't a fan. I had come in expecting this big epic space fantasy movie with a lot of action and drama. I had seen Hal's death scene before when I was younger and enjoyed that. It made me excited for the movie even though it ended up failing to meet my expecations. I was 23. I didn't really have a large knowledge of classic film outside of blockbusters at the time. And this was so much unlike them.
 When I revisited the movie in 2022, when I was 26, I did so with a better understanding of how to not come into a movie with expectations of what it should be and just trying to understand and enjoy it for what it is was. And I understood it a little more. Especially because I was watching in 4k on an OLED TV. Visually it was stunning, very hypnotic and with some shots with a very epic scope in feeling.
@@ -1477,19 +2946,19 @@
 It's just crazy how much watching a movie in a different environment can change it for you. It's why I always try to see classics in theatres when I can.</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For starters, I get what Cord Jefferson was going for here. In a story about a Black writer protesting against stereotypical depictions of Black folk, he has an almost separate universal story about family involving a Black family. It's not a bad idea at all and I think it's a very clever subversion. The problem is neither the satire nor the family drama feel particularly fleshed out. The scenes with the family and his girlfriend are fine but I feel like they're getting held back by an overall premise that doesn't serve them. Get more into the gay brother and his journey and how he navigates things. Explore the romance more and give us some more insight into the love interest and where she's coming from. What kind of Black folk is Monk's family? They strike me as the Jack n Jill type and you could do a lot with that. The film does occasionally breach deeper waters but then the other 30 to 40 percent of the film is spent on the satire which brings me to my biggest problem. 
-This should've just been a period piece because the criticisms the film is bringing up aren't as relevant as they were. Hood films haven't been made en masse since the late 90's and the book this is based on came out in 2001. The type of book he's parodying, think the novel Push, ain't really being published like that either. Had the film been set in the early 2000's or even the 90's, I think it would've worked better. The type of film and books the source material is based on hasn't really held the Black community in a chokehold in a while. If anything we make fun of them. If you're Black you've definitely seen those memes making fun of books/films like 'I Got Pregnant by My Gay Grandaddy's Boyfriend' or 'I Slept With a Down Low Gangbanger'. Now if you wanted to talk about Black media consumption habits you could mention how we complain we want more Sci-fi and fantasy and what not but those projects don't make money. The fifteen different versions of Power do. You could talk about how themes of Black liberation and independence are often tempered by studios with subtle conservative themes to keep white audiences comfortable. You could even make fun of the current stream of Black horror films that are trying so hard to be the next Get Out. The list goes on of *modern* Black media tropes you could lampoon and pick apart. This is like someone making Not Another Teen Movie but in 2023. It's just not relevant anymore. 
-There are some good discussions between Sinatra and Monk towards the end and I do like how it's not wrapped up in a tight bow. But honestly, I could've lived without the family plotline which didn't add much for me. I much rather would've seen them really go deep about Black media depictions and how they shape preconceptions about us. There's a few digs here and there at Tyler Perry but they're about fifteen years too late on that front. Cord is primarily a writer so I can imagine he saw himself a lot in Monk. I imagine most Black writers do, I certainly do at times. But I don't think he has his finger on the pulse on what's actually going on in Black media today. I was kinda hoping with the gay brother somehow there'd be commentary on the reaction to gay inclusion in Black media but there wasn't. There were so many angles to approach this at especially when it's revealed most of what we were watching was in-universe a book itself. You had Tracee Ellis Ross, a woman who has been playing the career woman trying to have it all for 20 years, and you don't play with that at all? Why not have the characters in his family represent the different tropes in Black media we often mock ourselves? I kinda thought that's where he was going but no. I definitely think he was more focused on the subversion of expectations than the delivering of anything wholly satisfying. It felt like two movies and neither benefitted from being associated with the other. 
-The cast assembled is great. Jeffrey Wright in particular is great and it's lovely to see him in a lead role. The jokes really work when they do work. I enjoyed the concept behind it but the execution is sorely lacking. I think the source material held it back because you really could've done an original script with this concept and not really lost much. I don't think the family drama worked in regards to getting the message across. Either chuck it or blend it in better. Maybe have his family mirror characters from his book or Black literature in general. As is, this could've been two entirely separate movies. Overall, I didn't have a bad time but I very much was underwhelmed. 5/10. I hope his next movie is more cohesive. </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2024-05-13 07:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>For those that have seen Perfect Days (2023) - seeking views on the final scene (spoilers in post)..</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>Watched Perfect Days (new film by Wim Wenders) yesterday and i loved its simplicity, the softness and still the hint of darkness and sadness
 The last scene initially confused me, i wasnt sure if he was forcing the happiness but the sadness kept slipping through or something else.
@@ -1499,9 +2968,61 @@
 thank you    ...</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2024-02-25 09:41:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a Black Writer, I Really Wish I Liked 'American Fiction' More Than I Do </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For starters, I get what Cord Jefferson was going for here. In a story about a Black writer protesting against stereotypical depictions of Black folk, he has an almost separate universal story about family involving a Black family. It's not a bad idea at all and I think it's a very clever subversion. The problem is neither the satire nor the family drama feel particularly fleshed out. The scenes with the family and his girlfriend are fine but I feel like they're getting held back by an overall premise that doesn't serve them. Get more into the gay brother and his journey and how he navigates things. Explore the romance more and give us some more insight into the love interest and where she's coming from. What kind of Black folk is Monk's family? They strike me as the Jack n Jill type and you could do a lot with that. The film does occasionally breach deeper waters but then the other 30 to 40 percent of the film is spent on the satire which brings me to my biggest problem. 
+This should've just been a period piece because the criticisms the film is bringing up aren't as relevant as they were. Hood films haven't been made en masse since the late 90's and the book this is based on came out in 2001. The type of book he's parodying, think the novel Push, ain't really being published like that either. Had the film been set in the early 2000's or even the 90's, I think it would've worked better. The type of film and books the source material is based on hasn't really held the Black community in a chokehold in a while. If anything we make fun of them. If you're Black you've definitely seen those memes making fun of books/films like 'I Got Pregnant by My Gay Grandaddy's Boyfriend' or 'I Slept With a Down Low Gangbanger'. Now if you wanted to talk about Black media consumption habits you could mention how we complain we want more Sci-fi and fantasy and what not but those projects don't make money. The fifteen different versions of Power do. You could talk about how themes of Black liberation and independence are often tempered by studios with subtle conservative themes to keep white audiences comfortable. You could even make fun of the current stream of Black horror films that are trying so hard to be the next Get Out. The list goes on of *modern* Black media tropes you could lampoon and pick apart. This is like someone making Not Another Teen Movie but in 2023. It's just not relevant anymore. 
+There are some good discussions between Sinatra and Monk towards the end and I do like how it's not wrapped up in a tight bow. But honestly, I could've lived without the family plotline which didn't add much for me. I much rather would've seen them really go deep about Black media depictions and how they shape preconceptions about us. There's a few digs here and there at Tyler Perry but they're about fifteen years too late on that front. Cord is primarily a writer so I can imagine he saw himself a lot in Monk. I imagine most Black writers do, I certainly do at times. But I don't think he has his finger on the pulse on what's actually going on in Black media today. I was kinda hoping with the gay brother somehow there'd be commentary on the reaction to gay inclusion in Black media but there wasn't. There were so many angles to approach this at especially when it's revealed most of what we were watching was in-universe a book itself. You had Tracee Ellis Ross, a woman who has been playing the career woman trying to have it all for 20 years, and you don't play with that at all? Why not have the characters in his family represent the different tropes in Black media we often mock ourselves? I kinda thought that's where he was going but no. I definitely think he was more focused on the subversion of expectations than the delivering of anything wholly satisfying. It felt like two movies and neither benefitted from being associated with the other. 
+The cast assembled is great. Jeffrey Wright in particular is great and it's lovely to see him in a lead role. The jokes really work when they do work. I enjoyed the concept behind it but the execution is sorely lacking. I think the source material held it back because you really could've done an original script with this concept and not really lost much. I don't think the family drama worked in regards to getting the message across. Either chuck it or blend it in better. Maybe have his family mirror characters from his book or Black literature in general. As is, this could've been two entirely separate movies. Overall, I didn't have a bad time but I very much was underwhelmed. 5/10. I hope his next movie is more cohesive. </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2024-03-07 02:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Children of Men</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I saw the film yesterday after more than fifteen years and it deeply deeply touched me on this viewing. There’s a lot discussed already about the the technical aspects of the cinematography - the tones, the palette, complex long single shots and basically how Alfonso Cuarón and Emmanuel Lubezki pull you in and never let you ease. 
+What blew me away on this viewing were three aspects: 
+a) how thematically relevant the film is for our times - refugee camps, dictatorial leanings, societal collapse, uprisings and yet there’s some hope for all of us to continue whether we choose to ignore the reality or fight for a better future or are helpless in the midst of the ongoings. And yet that hope is only very brief - the fight continues after making the way for the baby to pass 
+b) the images are just so powerful, all through the film but especially towards the end when Theo and Kee walk out from the building with those women hands stretched out and their eyes hit me like a ton of bricks.  After all the action it was this image that encapsulated the entire film for me 
+c) the relationship between the foreground and the background - I watched the film after listening to Cuarón on Team Deakins podcast where this aspect of Cuarón’s work was discussed in relation to Y Tu Mama Tambien. I cannot think of another filmmaker who consistently does this across the film and in most of his work and never forces it upon the audience. It’s just part of the way he structures his storytelling. 
+Bravo! Definitely pushed me to watch Cuarón’s entire filmography again now </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2024-08-08 05:59:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>A dirge for the slow death of media literacy</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>I admit to a fair amount of my hyperbole in my title, but with each year that passes I can't help but recognize the slow march we make with media literacy, taking stories and art and pushing it ever closer to the same, formless gray gloop -- a cinematic form of Soylent Green. Or maybe it's better to liken it to "the stuff" in Larry Cohen's 1985 film of the same name.
 Someone reignites the debate about the veracity of sex scenes every other week, arguing that film should be a "never-nude" medium, cleansed of the slightest kiss, touch, or caress. To these folks, the Hays Code should never have gone away, and we should have remained in the nostalgia-smeared plasticity of Old Hollywood. Themes are increasingly spoon-fed to us through buzzword-laden monologues and voiceovers, and when there is even the slightest bit of tonal nuance (i.e. *May December*) people raise armies and lob pot-shots via quote tweets, criticizing the film for daring to exist in a liminal moral space, to ask of its audience nothing more than a little thought and some honest engagement.
@@ -1520,9 +3041,19 @@
 The dirge for Media Literacy is slow. She is wasting away. Sometimes I slide ice chips across her lips and keep hope that we will breathe new life into her lungs. But the wrinkles are clear, and all I can hear are people arguing that Todd Haynes shouldn't have made *May December* funny when the subject matter was so serious.</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2024-01-08 00:32:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>I think some people misinterpret the meaning of Eternal Sunshine of the Spotless Mind (2004)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>I think it's a great movie, and of course, art is subjective in general. But it's not entirely the case here. I've seen many people talking about some time loop, that Clem and Joel are going to repeat the cycle, erase each other all over again, etc.
 And I don't understand where this thing with cycle and time loop is coming from. I mean, I watched the movie, and there's this very particular storyline where Mary (Kirsten Dunst), who is at the beginning of the movie is charmed by the idea of erasing memory. But then we find out that she's in love with her boss, Dr. Mierzwiak. And pretty fast she finds out the truth that they've already had an affair and that she agreed to erase her memory.
@@ -1547,9 +3078,39 @@
 I still prefer the script that ended up in the movie though.</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2024-07-08 18:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just Saw the Film “The Substance” &amp; Discussions on the Impact of the Theater Experience </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So I just saw “The Substance” tonight on a whim, never watched a trailer for it or read anything about it. I just read that it was a sci-fi horror flick and was down to see it whether good or bad. I bought tickets only to find out it was almost completely sold out so I settled in in the second row from the screen not knowing what to expect.
+I have to say, hands down this was one of the best theater going experiences I’ve ever had watching a film. This film is so insane, especially going in blind. There were collective gasps at the horror and belly laughs at the absurdity which turned back into to gasps of horror. And I don’t mean that in a bad way. The film is great, when the end finally came about I turned to the guy next to me while still slightly laughing/grinning but also still shocked and asked “wtf did we just watch” and he was like “I know”. 
+I think It would be a great film on its own, but seeing it with a crowd of people also experiencing this wild ride for the first time made it so unique. Are there any movies out there for you that you found seeing it in a packed theater made the film even better?
+Also opening up discussions for those that have seen “The Substance”, I think it’s a true masterpiece of its genre. </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2024-09-19 08:09:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Other films like 'Perfect Days'?</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Found the Wim Wenders film pretty interesting . Maybe it's a little slow at times but it's one that kind of stays in my mind even days after seeing it. 
  Perhaps the relatability of having routines that maybe give you some escape in life and being in your own little world with little things that change over time. 
@@ -1557,17 +3118,82 @@
 Thanks</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2024-02-29 03:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Do you believe A24 is a major contributor to independent film, equivalent to Miramax in the 90s? </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t xml:space="preserve">I ask this question, because I believe a major part of film culture that's missing is an independent film scene. Which in the context of this streaming era, I don't know if there are any emerging group of films or filmmakers, that are emerging as a counter to mainstream film with the same impact of past decades. A lot of the Netflix exclusives, that get a huge marketing push are from established directors. There aren't filmmakers that have been discovered through these streaming services, or at least I don't know about, or have created a wider independent film culture. Which made me think about A24. I think A24 has done the best with giving newly discovered talent, a marketing budget to get their films some name recognition, within a cohort of film enthusiats and at times real mainstream success. However, I can't be certain that cinephiles who love A24 films is equivalent to an independent film scene or moment. It all could be the same love for a brand in the vein of "Disney Adults", I'm just not sure. This analysis brought me to my memories of Miramax and their contributions to emerging independent filmmakers in the 90s, the same way A24 is doing right now. Yet, there are degrees to which the comparison might fall flat, due to impact of 90s independent film. I just want to explore this comparison a little deeper. 
 </t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2024-08-05 13:11:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watching the Seven Samurai 4K Restoration in a packed cinema was one of the most magical experiences of my life.  </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laughing, crying and gripping our armrests together - unforgettable. It's the progenitor of multiple genres – the medieval epic, the 'band of brothers' trope, the heist narrative – yet it remains unsurpassed, just as rousing, thrilling, and deeply felt as ever. 
+This is largely due to the screenplay, where each new detail expands the emotional landscape and propels the narrative forward. Every action has a consequence, every life crossed off the battle plan felt deeply. 
+Toshiruo Mifune’s performance as Kikuchiyo must be seen to be believed. He lacks the discipline and elegance of a true samurai, but that’s what makes him essential to the cause. Through his courage and creativity he embodies the film’s message: we should embrace the outsider, even if (especially if?) they challenge social norms.
+What stuck with me was the mutual respect and warmth between the samurai, that of colleagues with a shared vocation. It reminded me of Dumas’ Three Musketeers, our heroes bound by camaraderie, duty, and sacrifice. There is a more tragic quality to this bond in Seven Samurai - they may be heroes on the battlefield, but the rigid class system keeps them on the outside, and no one else understands the burden they carry. The existentialist ending shows that they take on this burden because it is all they know, it defines their role as the noble warrior.
+I love how the compositions feature different character beats occurring in the foreground and background, which not only draws attention to the tensions between the characters but keeps the film in constant flow, a prototype for the Spielberg oner. Moreover, the camera is attuned to the environment: the deep shadows in the forest convey the looming threat of the bandits,  the flower-covered hillside captures the youthful joy of Katsushirō, and you know that if the camera pans past a window or a gap in the barricade it will be just as a character storms by (undoubtedly blocked to perfection). 
+If there is a flaw to the film, the set did not look very WHS compliant. I swear one of those bandits actually did get trampled by a horse…
+Has anyone else seen the 4K Restoration? Do you feel it remains as crowdpleasing today, and what makes it such an enduring classic? </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:50:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>As much as 'Uncut Gems' is known for being stressful, I also find it uniquely hilarious</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>A big part of the Safdie's style is their overlapping dialogue and real-sounding environments that don't feel excessively scripted or "movie-y", for lack of a better term. I think it gives their locations a real sense of feeling lived in and actualized, and also makes the experience of watching it stressful when the tension starts to rise.
+However, there's another angle to their realism which is something I feel has really grown on me on repeat viewing. I've seen it four times now, most recently at the IMAX re-release, and I find the more times I watch it, the funnier it gets. Not constantly, but enough that it had me laughing out loud a number of times.
+Probably the best example of what I'm thinking of comes from the scene at the high school play, where Howard goes to see his daughter perform, only to notice Arno's guys are watching him in the auditorium, eventually leading to him getting chased and roughed up.
+We've seen this scene happen in a million gangster/crime movies of course, where someone gets beat up/left behind/has everything taken from them, etc, but what makes this different is that we immediately are thrust back into the rest of Howard's mundane life; he can't just fade out to the next morning where the next story beat will happen, he's forced to call his wife, have her unlock the car, and awkwardly change into whatever he had available.
+The shot of him half-heartedly jogging back into the auditorium in a tacky store-branded jersey is, in my opinion, the absolute funniest moment in the entire thing. I don't know what it is about it, but that combination of the release of tension followed by something that 'real' looking just absolutely killed me. I get that's a pretty specific way to see something as funny, but I'm guessing I'm not totally alone in this.
+There's also other moments like the infamous "holy shit I'm gonna cum", or him seeing the gray-haired guy outside on the camera and yelling "OH THIS FFFUCKIN GUY", which are more traditionally funny just because of how absurd they are, but I just absolutely love the way the Safdie's can blend tension, drama, humor, sleaze and character development into such a unique experience.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2024-11-19 22:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>In his documentary, Brian DePalma says that he uses a lot of Hitchockian visuals because Hitchcock invented a visual language and nobody took advantage of it. What other directors do you think have a specific visual language that could be reused?</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>My answer to this is Sam Raimi.
 Every time I see a Sam Raimi film, I am blown away by the sheer creativity of his transitions, his angles, his zooms and the just the sheer commitment of making a film that, in every shot, seems to ask "How can I make a scene people have seen before look more interesting?" I still think about that shot of Ash waking up in the puddle and the camera does that insane pull out with all the spins. I don't know how they did it, I almost don't want to know, it was magic.
@@ -1576,9 +3202,19 @@
 So, what filmmaker do you think made tools that would be worth using by other filmmakers?</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2024-06-01 08:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>The Baffling Discourse around "Poor Things"</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>I've been away from film circles for a while, but after finally getting around to *Poor Things* last night (gotta be there for Yorgos), I decided to check out some of the discussion going around online about the film. Generally the kind of stuff I agree with or can see the perspective on, but one thing that I found sort of odd was the frequency of feminist criticism that boils down to "The film presents feminist ideas but doesn't go further with them and doesn't show Bella doing any meaningful societal changes to improve the lives of other women".
 This type of criticism has a point and speaks to some broader issues regarding feminism in American cinema (Yorgos is greek, yes, but his films are funded by Americans), but this criticism baffles me in the sense that it implies that every story that involves feminism should always be totally about dismounting the patriarchy and making sweeping societal changes.
@@ -1590,9 +3226,41 @@
 EDIT: It has been pointed out to me that Yorgos' films aren't made with a ton of American funding, so let's just say "western cinema that's a shade above being the much more obscure indie stuff". I felt compelled to say "mainstream western cinema", but I can't bring myself to call *Poor Things* mainstream. It's got a bunch of famous actors in it, it's Oscar Nominated, it made a decent amount of money, but calling it mainstream seems odd.</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2024-02-24 09:06:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>What's the best depiction of God you've seen in a film?</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">While religion/spirituality is prevalent throughout film history, there seems to be little in the way of overt depictions of God.  I think the typical way of expressing such an idea is through personification and cartoon, often both at the same time, typically with a veil of irony.  For instance, we've all seen in film a man who is at first plainly average but later revealed to be God.  This seems to be a byproduct of the zeitgeist that's been permeating throughout the world and gaining a firm footing around the same time as the invention of film itself, that being...the idea that perhaps God is a creation of man and nothing more.  He simply doesn't exist, so to depict God as literally 'just some guy' seems fitting and obvious and comes into being without any effort.  
+So I'd further the question by asking...where's a notable depiction of God in film that isn't 'just some guy'?  
+After all, and as an aside, it's the Enferno that is most relatable and popular rather than the Paradiso, because depictions of suffering are much more fitting with reality than any utopia or eternal bliss.  A world consisting of eternal bliss has no stories of overcoming, has no mountains to climb, nor Cyclops to flee from, and no problems to solve.  A world devoid of suffering isn't much of any world at all, at least to tell a relatable story about.  
+I'm looking for an overt an obvious depiction rather than an inferred feeling. Malick and Bergman come to mind, but examples don't other than a general feeling about their movies and the ethics of the characters that imply spirituality, particularly with Bergman who inferred God conceptually through things like love, brilliantly and beautifully.  
+And it could be a demiurgic God, so long as it's a depiction of what is the undeniable Creator. It could be a river, or clouds, or music, or tablecloth, or void, you name it.  The possibilities are endless, and it seems to me that the creative possibilities of this are mostly untapped, which is understandable given the era we live in paired with the daunting nature of such a task.  
+Please be respectful to eachother, I know how this topic can mutate.  </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2024-12-09 03:48:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>What movies feature loneliness and social isolation in elderly people?</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>I need to create a video for a university project about loneliness and social isolation among people older than ca. 65 years. I would like to feature some popular and famous movie scenes in my video. Some of my choices for this would be...
 * Up (2009)
@@ -1603,9 +3271,41 @@
 **Can you give me more ideas?** (The deadline to hand in a first brainstorm is in 3,5hrs 🥲)</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2024-05-02 18:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Women Directors who often struggle to get a second film to direct, even if their first movie was critically acclaimed.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Years ago, I read a Premiere Issue focusing on Women directors and how much of a struggle it was for them to make another movie after their first movie, and they pointed out a number of female directors who've either never done another movie after their first one or crossed over into TV where they have more opportunities.
+I think of Darnell Martin (I Like It Like That), the first African-American woman to release a studio picture. It got good reviews. Never directed another movie. 
+Nicole Kassell's "The Woodsman" got a ton of praise but she hasn't directed another feature film (that I know of). 
+Other female directors will get a second or third change and then will disappear from the scene. Kimberly Peirce did "Boys Don't Cry" and "Stop Loss" but after the "Carrie" remake, kaputt. 
+Jocelyn Moorhouse had great difficulty in getting any of her projects green-lit after "A Thousand Acres" tanked. It took her almost two decades to release "The Dressmaker". 
+Jodie Foster also never got to direct her dream project, "Flora Plum" with Claire Danes, though she did direct two movies after "Home for the Holidays": "The Beaver" and "Money Monster".</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the Mood for Love (2000) Ending Passage Mistranslation </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>The movie ends with a passage of Chinese, describing of the longing of the couple not meant to be. The English translation misses a decent amount of that heartache, which I didn’t realize until I read the original.
 The movie translation is:
@@ -1636,9 +3336,19 @@
 Hope someone finds this interesting!</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2024-05-28 22:34:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Looking at "Lost Highway" as a loose OJ Simpson biopic</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Recently saw David Lynch's fantastic movie Lost Highway. Absolutely fantastic film and instantly my favorite from Lynch. But going into the movie I knew nothing about it outside of Lynch stating that the film was partially inspired by OJ Simpson, and how he could live with that psychologically. So I went into the film sort of expecting a movie about a wife killer who can't deal with what he'd done and it worked wonderfully in this regard. There are many moments of the film I think can be interpreted as a jealous husband mentally justifying killing his wife.
 Assuming Pete is Fred's fantasy character, I noticed a number of elements in the film that line up with this. When Pete's girlfriend catches him cheating, she starts hitting *him* while he just takes it on the chin as if *he's* the victim. Great moment of delusion, I doubt it was intentional but I do remember OJ had a history of abuse. The multiple scenes in the dream world where she cheats on him, further "justification" for the act.
@@ -1646,9 +3356,19 @@
 Thoughts on this film though? What'd you get out of it?</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2024-04-18 16:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>On what level is Poor Things operating as a satire? Or: my take on Poor Things, which I really did not like—and I'm trying to figure out if I'm missing something or just disagree with the film. Can someone help me understand?</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>To preface, I thought Poor Films had great performances (my favorite Emma Stone performance to date) and absolutely fantastic production design. It looked fantastic. Also, my issue is not with the sexual content—if anything, I think Poor Things had a pretty shallow investigation into sex compared to what I was expecting after all of the buzz. Actually, when I first saw Poor Things, I kind of liked it, because I thought it was potentially a pretty vigorous satire of the naive bourgeoisie playing pretend at transcendentalist before returning unchanged to the safe confines of her life.
 But as time has gone on since seeing this movie, I keep seeing review after review taking it completely earnestly, and I've started to wonder: am I missing something, or do I just not like it after all? If Bella's story is not satirical, I really dislike the messaging.
@@ -1662,9 +3382,52 @@
 And yet, it seems like everyone I talk to and every review I read stops at the first part—that this is a movie about joy and discovery and rebellion. I *liked* it as a satire, critical of Bella's character. But is the film being earnest, and do I just not like what it's saying? Am I missing something here, am I misunderstanding what other people are saying (and it really is this dark), or do I just not like it?</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2024-05-02 15:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>The Thing's ending interpretation: It doesn't matter who is who</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Look, I know that even Carpenter doesn't know if Childs/MacReady is the Thing, and he intentionally prefers to keep the ending open. However, I have a small interpretation of my own based on everything we hear and see in the movie.  
+I think the final scenes of the movie aren't about who is the Thing, and who isn't. In the same way Inception's ending is not about the question if Cobb made it to the real world or not. Although in 2018 Michael Kaine confirmed that all the scenes he's in are in the real world.
+Someone could say The Thing is the best anti-war film. And I believe this statement isn't far from the truth.
+First things first, I don't believe in the endings where both of them are humans, or vice versa. I think it doesn't make sense narratively. Very basically it is a movie about good guys (humans) fighting bad guys (The Thing). And if there's no clear answer to which side won/lost, the dialogue and the whole ending scene of the film kind of don't make sense. I'll explain.
+The second thing is that MacReady is clearly the main protagonist of the movie. I think it would be a really strange twist if he would turn out to be the Thing at the last second of the movie. But then there's Childs. MacReady very understandably suspects him of being the thing.
+And the movie actually addresses it in the final dialogue and also gives the final meaning to the whole movie.
+C: How will we make it?
+M: *Maybe we shouldn't.*
+C: If you're worried about me...
+M: *If we got any surprises for each other, I don't think we're in much shape to do anything about it.*
+C: Well, what do we do?
+M: Why don't we just *wait* here for a little while... See what happens.
+\*The main theme of the movie starts playing as Childs drinks from that bottle
+The ending is connected with the beginning of the film where McReady loses the chess party to the computer and then pours alcohol into it. In the end, McReady can't win the battle with the Thing. But he can pour the battlefield with alcohol and go down with it. He can freeze this conflict.
+I think maybe the meaning of the movie lies in McReady's words: "If we got any surprises for each other, I don't think we're in much shape to do anything about it."
+Maybe the point of the movie is that in any war/battle/fight/conflict, there are no actual winners. Both sides of the conflict are fucked, one way or another. And even if there's a truce one day, it doesn't mean the war has ended.
+At the end of the movie, the Thing is back to square one. If McReady doesn't have a flamethrower under his ass, once the fire will die out, they both will be frozen, including the Thing. And it means the conflict hasn't ended. It's literally frozen, and the Thing will be able to try again in the future.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2024-09-22 21:36:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>I struggled with May December after learning more about the true story</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>I want to preface this post by saying that I thought May December was a nuanced, excellently acted, and engaging drama. The characters were fascinating: Joe (Melton) confused and forced as an adult to reevaluate the not-a-victim narrative he's clinging to, Gracie (Moore) choosing self-delusion to justify her actions, and Elizabeth (Portman) crossing boundaries while taking on the persona of a reviled character.
 The movie was a huge critical hit and landed on hundreds of critic top 10 lists. The script is winning awards for original screenplay and Melton's performance in particular is receiving massive praise. I noticed that a lot of critics point specifically to one part of the performance, which is the way in which Melton carries a very subtle slouch and immaturity in his posture, and a certain pleading childishness in the way he talks. The point is that because Joe's relationship began with Gracie when he was still a middle schooler, he never grew up and she had essentially infantilized him.
@@ -1674,9 +3437,19 @@
 Note that I later realized the above video is heavily and arguably misleadingly edited and here is the full unedited interview [https://www.youtube.com/watch?v=RezOEn0daNU](https://www.youtube.com/watch?v=RezOEn0daNU) The point of the post remains the same though.</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2024-01-10 03:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RIP Roger Corman</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve">[RIP to a legend of the industry and my sixth most-watched director.](https://www.indiewire.com/news/obituary/roger-corman-dead-1234741395/)
 **RANKED**    
@@ -1717,9 +3490,40 @@
 </t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2024-05-12 06:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>I just watched NOPE by jordan peele</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>The chapters were all horse names. As to why im not entirely sure, but they are a dwindling resource, a mean of survival and a legacy.
+Ive seen this film being said as being about animals, but i think its about humans as much as animals. Being about animals makes it easier to digest and relate to at times. Like how people prefer to love animals than humans. You can see that with how OJ has lived his whole life with animals, and is kind of cold and stoic. Not because he is a bad person but he has so much anxiety with people. This is portrayed really well at the hollywood studio where he was trying to remain calm as he was overwhelmed by so many people. And his horse was the one who snapped at the white folks around him kicking a womans bag startling her to tears. Because the horse wasnt being respected, given distance, consideration, etc. I saw a black man in pain who couldnt advocate for himself and his sister showed up, did a song and dance and made everyone feel comfortable for hopefully the promise of pay.
+I think its pretty easy to see how OJ is received by the people there its very disrespectful. The old actress comes onto set with a lot of fanfare and pandering. She is disappointed that Otis Junior introduces himself as OJ and her assistant asks for his father not knowing that he died. They act this way because OJ doesnt carry himself with a strong presence but more importantly he doesnt pander to the people there. His sister panders to everyone they are very much opposing forces because they have different responses to their situation and cope differently. **The family relationship between the siblings is so good!** I laughed out loud at every line between these two characters. They were so relatable when they were at home, in someones office, at a department store. They both wanted to be together but at the same time they had baggage and didnt want to really occupy the same space. Distance breeds resentment.
+There is alot of foreshadowing in this film, i think Jordan Peele knows that he is seen as a horror director, so this film is not expected to shock and jumpscare. So he allows us to just listen to audio playback of the live-action accident before the movie even started. We get to see the chimp, the blood, the spectacle. Because its not really about the spectacle i think its about everything that led to the violence. Also this foreshadowing works really well because we do get a jumpscare later in the film. We strangely also get foreshadowing from inside the ufo for some reason, i think its also about the audio mainly. We listen to something that sounds like wailing in agony to the ecstatic joy of being on a rollercoaster. Again i think this the violence of spectacle or the spectacle of violence, kind of the same thing an orchestration that we create ourselves whether with intention or ignorance, none the wiser.
+I think that all of the themes are already there in the first 15 minutes of the film. Its just the rest of the film that needs to be played out into quite honestly a fascinating portral of alien life. This film has so many great details that im sure i dont have the ability to make connections to. When Otis father died i cant say for certain if he was being hunted. But we did hear that uncomfortable silence, and he looked up and was shot down with money and debris. This is the same uncomfortable silence when Otis Junior was asked to give a safety meeting on set, he didnt look up once.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2024-10-25 18:17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Never Let me Go (2011), A masterpiece that everyone must watch</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>NB:spoiler in the 5th,6th and 7th paragraph
 Modern science fiction films tend to be big, brassy, noisy affairs, filled with bug-eyed aliens, intergalactic battle scenes, and sense-assaulting special effects. But "Never Let Me Go," based on a 2005 novel by Kazuo Ishiguro, is here to remind us of just how profound and thought-provoking the genre can be when played in a minor key.
@@ -1732,9 +3536,19 @@
 Filled with unforgettable performances, "Never Let Me Go" is, without a doubt, one of the finest films of the new century.</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2024-03-31 22:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>“Vanilla Sky” Deserves to Be Revisited</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">Spoilers for the movie. If you haven’t seen it yet, I highly recommend going in blind and watching it.
 I remember it being almost 6 years ago now that I first watched the movie. I had a lot on my plate at the time school-wise. I was studying nonstop, but while doing so, I would find enjoyment out of putting a movie on to turn to every 10 minutes or so to catch a break. I didn’t pay attention to them too much, but I’d catch glimpses of some good dialogue or scenes and it satisfied me. I’ve always loved watching movies, as it always helped me feel connected to the world at a time when I struggled to.
@@ -1748,17 +3562,37 @@
 Thank you for reading, just wanted to share my feelings about this movie and how much it means to me. </t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2024-03-23 00:29:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are there still dark and whimsical children’s films like those of the 80s and 90s? </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve">It seems like there were quite a few films from the period that had surprisingly unsettling elements - examples would include Return to Oz, A Little Princess, The Secret Garden, Labryinth and the 90s Matilda. They all seem to share a certain kind of quality - gothic overtones, themes of loss, romantic visuals and a portrayal of childhood as sometimes lonely and scary. Also they seem like films that adults could enjoy too. 
 Are there still films like this made for children now? I’m very out of touch with what children watch now, but the concept of a ‘family film’ that’s not action or a cartoon seems much less significant than in the 80s/90s. The closest recent  equivalent might be Studio Ghibli films - but I’m curious if these kinds of films are still being made and I just don’t hear of them? </t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2024-05-25 09:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Midnight in Paris (2011), Woody Allen's modern masterpiece</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve">  The successful Hollywood screenplay writer Gil Pender(Owen Wilson) is spending vacation in Paris with his fiancée Inez (Rachael McAdams) and her parents since his future father-in-law is doing a merging business with a French company. Gil is an aspirant writer that loves Paris, and dreams on living in the city after getting married with Inez. Further, the romantic Gil believes that the golden age of Paris was in the 20's and he loves to walk on the rain through the streets of the City of Light.
 When the shallow Inez meets her former boyfriend, the pseudo-intellectual Paul (Michael Sheen) with his girlfriend Carol (Nina Arianda), they spend sometime together visiting touristic places. In the night, they drink wine in a party and Paul invites the couple to go dancing with Carol and him. However, Gil prefers to return walking alone to the hotel. At midnight, an old car stops and the passengers invite him to go a party and sooner he realizes that he is back to the 20's, where he meets his favorite writers, musicians and artists and lives his dream.  
@@ -1767,9 +3601,19 @@
 The soundtrack with (1) Let's do it – Cole Porter; (2) Si tu vois ma mère – Sidney Bechet; (3) You do something to me – Cole Porter; (4) Ain't she sweet – Enoch Light and the Light Brigade (5) Charleston – Enoch Light and the Light Brigade; (6) La Conga Blicoti – Jospéhine Baker; (7) You've Got That Thing – Cole Porter (8) Cancan – Offenbach; and (9) Parlez moi d'Amour – Juliette Greco; is nostalgic and magnificent. There are many jokes and my favorite is Gil suggest Buñuel to think about a film with aristocrats trapped in a room without finding a way out. However, this film demands a minimum culture and sensitivity to be appreciated.</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-04-02 19:43:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Accessibility to the best of 2023 has been TERRIBLE</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve">What is up with the terrible distribution and release this year? Some people say that the film industry is still totally normal and there's something for everyone. A moviegoer can either go see a blockbuster or an original drama (as if they're not usually much lower-budget than they were before). That's not even taking into account how hard they are to see to begin with. Aside from the mainstream films, you can't find the rest of 2023's best films below anywhere: 
 Fallen Leaves
@@ -1784,9 +3628,48 @@
 What are the studios and distributors even doing? Do better... </t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2024-01-05 15:18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Joker: Folie à Deux : Subverting Expectations or Follow the Previous Film to it's Logical Conclusion?</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>A movie putting it's main character through hell does not mean they dislike them or just want to make them suffer. Sometimes that suffering is important as, through them, we can get a better look at a darker aspect of humanity that is often not explored and doesn't have a neat happy ending at the end.
+One thing Joaquin Phoenix and Todd Phillips made sure to point out multiple times in interviews and during the filming of this film was that this Joker wasn't the Comedy Crime Prince and never was going to be. Arthur Fleck was a pitiful mad who snapped one day and committed some atrocious crimes as a result of being let down by a society who didn't really understand to deal with him. From the ending of the first one, you can take what follows in two different ways. This man stays locked in Arkham and inspired the Joker movement years later, or maybe he escapes somehow and becomes the iconic Joker down the line. If you stop the story there either of those work.
+But the movie made a billion dollars. And people demanded to see more. And the only way to do the previous film justice was to continue it's themes and give them the downer ending they were always leading to. Arthur does not become the leader of a movement, he is shown to be out of his depth from beginning to end and never gets the support he really needs.
+In this way, the movie works less as a sequel and more as an Epilogue to the first film. Reflecting on it's themes of isolation, loneliness, and failures of the mental health system  and showing the only way they would end for Arthur, painfully.
+The movie's central question is not "Does Arthur deserve to be free? the central question of the film is "Does Arthur deserve to live, despite his terrible crimes, and is he allowed to empathize with himself and everything that led to the events of the first film?" I'd say all the events give the answer clearly as "Yes he does." but he's continued to be let down by the Government and their poor handling of mental health.
+In the first film we saw the failures of Social Services. In this film, we see the failures of Mental Health Facilities and the Judicial System in regards to Arthur. Arkham is a Hellhole where Arthur is abused and doesn't receive the proper help he needs to become a better person. The Law wants to put a man who's clearly mentally ill and not well to death, just because they feel they have the moral right to.
+That's why they focus on the failures of Dent's case against Arthur. How he hired a Psychiatrist who didn't ask the proper questions about how Joker was sexually abused as a child, how all the killings he did were clearly with provocation, and about his delusions which we clearly saw in the first film. How Arthur was no threat to anyone who didn't cause him pain themselves. Instead they allow Dent's flimsy case to be used against Arthur, and the Judge allow Arthur to drop his lawyer (someone who actually cares about him and only wants the uncomfortable details of his life to be out there so he can be empathized with as a person) and defend himself, knowing he isn't mentally fit to do so and would only make things worse for himself.
+Harley Quinn not being a devoted follower of The Joker isn't supposed to just subvert your expectations. It's to portray a troubling demographic of True Crime fans. The type who say they'd love to dine with Jeffery Dahmer, or have sex with Ted Bundy given the chance. Who admire psychopaths for having the courage to do the insane things they wish they could, but could never truly care for them as people. Lee didn't care about Arthur, she liked the idea of the Joker. And when he decides he no longer wants to be that, she's over him.
+This is why he renounces the Joker identity at the end of the film. He never wanted to be The Joker, he never wanted to inspire a movement, he wanted people who cared about him and loved him and never getting anything but abuse led to him doing a horrible thing, that he truly regrets. But instead of taking that into account the system still fails him and gets him sentenced to death.
+This movie was never going to be about Joker escaping from Arkham with Harley Quinn and becoming a Bonnie and Clyde or Natural Born Killers duo. That would be against the point of the first film which showed a man who gets completely let down by society, and continues to be let down by the sequel. As Harley says herself "It was all just a fantasy, and you stopped believing". The fantasy is that The Joker was ever going to be free after what he did, or they were going to become the crime couple people expected.
+Arthur deserved to be placed in a proper mental hospital and finally be surrounded by people who truly understand him and want to see him do better. Instead he's flung around by people who are either using him for their own gains, or don't understand him and just want to see him suffer. The movie allows the only person who truly cares about him to be discarded (his Lawyer) by another failure of the system and it ends badly for Arthur.
+When Arthur dies it highlights that his life was a pure tragedy from beginning to end. Never truly being loved or understood. And only inspiring future psychopaths ,like the man who kills him while cackling like a certain Monster Clown, an identity that might just get passed down from person to person until one day one of them faces a man who has decided to become a Bat.
+The movie knows this isn't what the audience wanted or expected. The point of the film is that this was never on the cards for this version of The Joker. He was a man let down by the world, and in the sequel the world continues to fail him up until the moment he dies. It's a bleak film but it's bleakness is a reflection of the genuine reality around us. And I thank them for going this route and taking this risk.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2024-10-06 20:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Thoughts on the ending of La Chimera (2024)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Just saw La Chimera and enjoyed it well enough, but that ending threw me for a loop and I'm wondering if other people feel the same way or if I'm perhaps misreading it. I'm gonna go into details below so if you haven't seen it, stop here.
 So as I'm sure you know if you're still reading this, Josh O'Connor's Arthur spends much of the movie periodically flashing back to a lost love, Beniamina, who we eventually find out has died. Toward the end of the film, he leaves his merry band of grave-robbing friends behind in favor of Italia, a woman who'd briefly become friendly with the group before witnessing them on one of their "digs" and criticizing their ways. This seems to be borne of a crisis of conscience, as he re-uses a line of hers ("You're not meant for human eyes") before tossing the statue head he and his crew found in the sea, after which he's basically dead to them. 
@@ -1796,18 +3679,38 @@
 Again, I may be taking it a bit too literally - this is magical realism, after all - but even symbolically, the film seems to end with Arthur embracing the past instead of the present, which is not where I thought things were pointing. An interesting ending for sure, one I'm gonna have to sit with. In the meantime, though, curious to get some other thoughts on it, or anything else in the movie as well.</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2024-04-17 03:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Why is Christopher Walken in Dune 2?</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>His appearance in the film felt extremely out of place. I feel like Dennis' only directing note to Christopher Walken was "Don't sound like Christopher Walken". But that clearly didn't work.
 It really took me out of the film, to have this weird, low brow American New York City Bronx Italian accent in a space opera about dynastic families set 10,000 years in the future.
 Anyone else feel like this?</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2024-03-02 11:10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2001: A Space Odyssey is a film that has no affection towards humanity.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>This isn't a criticism; it's an observation.
 The first segment, *Dawn of Man*, shows how our beginnings translate to who we become in the future, especially with the famous match cut from a bone, used by an ape to club a fellow ape to death, to a nuclear satellite in the future. All that Stanley Kubrick has to say about us as a species, he tells it in a few seconds without any dialogue, and with a simple cut. There's also how we've abused the knowledge the obelisk provided us. We used what it gave us and transformed (or devolved) from peaceful vegetarians into carnivorous murderers.
@@ -1815,18 +3718,57 @@
 It brings us the question: what does it mean to be human? Are we destined to be as violent as our ancestors were? Kubrick famously kept the film ambiguous but there's no denying the cynicism it has toward us and where we're going as a species.</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2024-02-04 14:03:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>The Third Man (1949) - A cinematic masterpiece that perfectly epitomizes the noir genre</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Carol Reed’s cinematic masterpiece, The Third Man, embodies the noir genre in its purest form, showcasing and capturing all its defining characteristics.
+Holly Martins (Joseph Cotten), an unemployed pulp novelist, travels to postwar Vienna, a city divided into four sectors by the victorious allies, at the behest of his childhood friend Harry Lime, who has promised him work. Upon his arrival, Holly learns that Harry is killed by a car while crossing the street. Following his conversations with Harry's friends, who were present at the crime scene, and the locals, Holly concludes that something's fishy and the details don't add up. As a result, he goes against the orders of the Military police officer, Major Calloway (Trevor Howard), and resolves to explore further into what happened to his friend Harry. While doing so, he falls in love with Harry's lover, Anna (Alida Valli), which does not result in the outcome he had anticipated.
+[Read the full review here](https://thegenrejunkie.com/the-third-man-1949-review/)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2024-10-31 17:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>How does running an independent theater actually work?</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Me and a friend have talked about owning a theater at some point in the future, just as a dream y’know? But we don’t actually know how a lot of it works. I’ve seen this YouTube [video](https://youtu.be/zNmkjL2os-o?si=lbvosPcD1vyTcfmP) but am still unclear about some things. Hopefully someone knowledgeable can answer some of these questions. 
 How do you get in contact with distributors to get/license films? How does showing older movies (as in ones not currently doing a theatrical run) work? A theater local to me will sometimes show movies and have them preceded by the Janus Films logo, is that who you’d get into contact with for the Criterion editions of certain movies? The same theater also shows 35mm prints sometimes, how does that work? Would those be leased from a distributor or borrowed from some kind of film archive or private collector? Can I show older movies whenever I want to program them or do distributors only want things shown at certain times? Are there certain distributors who don’t work with indie theaters? 
 I appreciate any responses</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2024-07-05 15:20:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>"Starship Troopers" and hostile adaptations</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>I find *Starship Troopers* really interesting because it's a (fairly) faithful adaptation of Heinlein's novel, and yet Paul Verhoeven and screenwriter Edward Neumeier have an evident dislike for Heinlein and the novel's themes and ideology, and they make zero attempt to disguise it. The movie is painfully unsubtle (and yet somehow when it was released, people still mistook it for brainless shlock. It's only *pretending* to be brainless).
 I'll explain this really quickly because "*Starship Troopers* is actually an anti-fascist movie!" has been discussed for like twenty years at this point and the movie has been thoroughly re-evaluated -
@@ -1836,9 +3778,19 @@
 Anyway, I find that very interesting -- the idea of a major studio financing millions of dollars to adapt a source text that the filmmaker hates (Verhoeven is quotes as finding the story/concept ridiculous). I can't think of any other examples quite like this (except maybe when biblical stories are adapted to criticize Christian themes etc).</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2024-04-28 02:19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Unforgiven (1992) - Everyone thinks they're the man...</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>I probably watched this 5 times when I was younger, but upon rewatching it at the age of 34 I felt like I'd just seen it for the first time. 
 Much has been said about how Unforgiven breaks down the time-worn myths of the western genre, but I found it be an exploration of the nature of myth in general. Something that kept ringing through my mind while watching it was the maxim: "Everyone thinks they're the man until the man walks in the room."
@@ -1851,9 +3803,94 @@
 I could ramble on and on... But let it be said that Unforgiven is one of the most well-written, powerful yet simple films I've ever seen. Now I know why my grandfather would always put this VHS on while I nagged him to put on Ace Ventura all those decades ago.</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2024-02-04 12:16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>'Under the Skin' is kind of like the photo negative of 'Poor Things'</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>I was thinking about both of these after seeing UTS last year for the first time and being incredibly impacted by it. In terms of the core concept of both of these films, they're both about a new form of life taking over the form of a fully-grown adult woman, and learning the extent to which they can control the influence they have by developing their sexuality, their physical appearance, and studying the world around them.
+In *Poor Things*, you have the protagonist replaced with the brain of an infant by a mad scientist, while in *Under the Skin*, you have a woman's physical appearance being co-opted by an alien to study/devour humans. In both cases, they essentially represent a "reset" or clean slate for our respective protagonists (though calling the alien in *Under the Skin* a protagonist definitely doesn't feel quite right lol). Both of these could also be seen as kind of a general amnesia metaphor, just done in much more high-concept fashion.
+The primary difference is, of course, the visual presentation; *Poor Things* goes for a garish, maximalist approach with bright vivid colors, ornate set design, wide angle lenses and bubbly music that keeps us as constantly stimulated as the childish mind its intending to replicate.
+With *Under the Skin*, we take the exact opposite approach; literally everything is stripped away into its most bare essence; literally just bodies against backgrounds of pure black and pure white, lit in a way that gives it an uncanny and otherworldly feel. The music here is sharp, violent, cold, uncaring. It's a process of true consumption in the most literal sense.
+While the men in *Poor Things* may have been the ones largely in control during the majority of Bella's sexual encounters, in *Under the Skin* the concept is twisted into a nightmare - the fact that it's also only men being killed in some ways feels like a twist on the conventions of the genre, which historically has a tendency to punish promiscuous women more than any other specific demographic.
+Additionally, both films feature a pivotal scene of the initial spark of empathy that turns their perspective into something more complicated, muddying the waters of their endless pursuit of consumption. In *Poor Things*, this comes when Bella is first introduced to the reality of the extreme poverty that contrasts her wealth, and suddenly finds herself unable to enjoy the sugary foods and sex that was so recently the only thing her heart cared about. In *Under the Skin*, this comes from the alien picking up a hitchhiker with a severe facial deformity, and realizing that this is the first form of real interaction he's experienced with another human in a very long time. After looking in the mirror, she lets the man go - the first discernable act of empathy from someone who very recently left an infant to die without a second thought. The first sign that a real act of change is taking place.
+I'm sure others will probably have interesting insights/comparisons on these two, and I'd love to hear anyone else's thoughts on this. I think they're both very quality films and I really love finding similarities like this.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2024-10-09 19:54:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>I watched and ranked every Buster Keaton film (88 total films)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Check out my full ranked list here* [*https://boxd.it/ymAXY*](https://boxd.it/ymAXY)
+I was rewatching a few Buster Keaton films I've already seen last December and it made me realize how much fun it was watching him that I figured it would be fun to dive deep into his entire filmography, from the 'Fatty' Arbuckle shorts starting in 1917 to the final industrial shorts ending in 1966. Most were easy to find on YouTube and [archive.org](http://archive.org) if anyone wants to do this as well. I'm hoping to provide this as an easy guide of what to check out and what to avoid (or at least prepare yourself for). Here's what my top 10 looks like:  
+1. [Sherlock Jr.](https://letterboxd.com/film/sherlock-jr/) 1924 - an absolute masterpiece
+2. [One Week](https://letterboxd.com/film/one-week/) 1920 - his best short film
+3. [The Goat](https://letterboxd.com/film/the-goat/) 1921 - so chaotic, filled with classic stunts/bits
+4. [Steamboat Bill, Jr.](https://letterboxd.com/film/steamboat-bill-jr/) 1928 - one of the greatest set pieces in the silent era (the hurricane sequence)
+5. [The Cameraman](https://letterboxd.com/film/the-cameraman/) 1928 - his last "great" film, first with MGM
+6. [Day Dreams](https://letterboxd.com/film/day-dreams/) 1922 - one I don't ever hear people talk about, but I had a blast with
+7. [Seven Chances](https://letterboxd.com/film/seven-chances/) 1925 - next to Cops, one of the best chase sequences of his career
+8. [Go West](https://letterboxd.com/film/go-west/) 1925 - co-starring a cow and, given his later career efforts, probably his best scene partner
+9. [The Haunted House](https://letterboxd.com/film/the-haunted-house/) 1921 - perfect to break out in October soon
+10. [The General](https://letterboxd.com/film/the-general/) 1926 - most would put this at the top, I think it's a solid film, but not as entertaining as the other 9.
+</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:56:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>The Grand Budapest Hotel as an Elegy for Liberal Humanism</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>*The Grand Budapest Hotel* is a tale of tragic love, a rags-to-riches story, a political satire, a reflection on the transitory nature of institutions. Recently, I watched it in another way, and wanted to share what I found. When things are going well, I look to challenging pieces written from different points of view but when things are dire and stressful, I reach for a few comforts I keep in reserve, to escape for a little while and remember that there’s good in the world. My favorite films all involve imagination in an immediate way. Additionally, I must admit that, running a hotel with a partner, I found the love of my life. A few days ago, I reached for *Budapest*, not only for comfort but because it represents a particular strain of liberal humanism that resonates with me. I’d anticipated blink-and-you'll-miss-it jokes and beautiful design, but I didn’t expect to find new depths in its storytelling. Beyond its miniature effects, and lateral tracking shots is a fierce commitment to its own premise, followed to its logical conclusion with fearless zeal.
+“Against what is stupid, nonsensical, erroneous, and evil, liberalism fights with the weapons of the mind, and not with brute force and repression,” says Ludwig von Mises in Liberalism: The Classical Tradition. Liberalism’s enemies are abundant, and not just in the forms of Nazis and Stalinists. They are all around us as stupidity, as nonsense, and in erroneous suggestions. Liberalism believes in the individual in whatever color or sex he comes in. Liberalism believes in systems, in factories and trains and certainly hotels. But most of all, Liberalism believes in Work. To be a liberal is to believe that anyone with a kind face and a natural talent can amass a great fortune if he’s willing to put in the hours.
+Our hero is just such a man. Gustave H. (played by Ralph Fiennes) is the concierge at the Grand Budapest Hotel whose attention to detail is only matched by his faithful devotion to the institution. We might ask what that means to be “devoted to a hotel.” Is it to the ideals of its founder? Its owner? Obviously, not. Gustave H.’s respect for the hotel is a respect for Liberalism, a belief that kindness and a small wage embiggens the smallest man. Gustave is, along with almost the entire world of the film, a creation of Moustafa (played by F. Murray Abraham), presented with all its contradictions. Like other unreliable narrator stories, it’s fun to piece together what might have happened. Did Gustave *really* make a convoluted prison break? Can you really fill a truck with his “artisan” pastries, or are they mass-manufactured?
+Moustafa idealizes his adolescence where, as Zero (starting from literally nothing), he wooed a damsel, was taken into an apprenticeship, and emerged a success. But it’s also an idealization of a place and time that fulfills the liberal dream. In the Moustafaverse, everyone is working all the time. Attorneys risk their lives to avoid appearances of impropriety. Cripples girls work as shoe-shiners. This isn’t in the spirit of competition, but out of a principled duty to truth, beauty, and free trade policy.
+What about our hero? Gustave H. enters as a larger-than-life figure, whose pronouncements over taste and ethics are beyond question. Even the very wealthy such as Madame D. fear the sharp tip of his opinions. Zero asks him if he was “ever a lobby boy”, as if he entered this world fully formed, an effete Napoleon. Upon a rewatch, you notice little cracks in the vision and see Gustave for what he really is—a lower-class pretender with little education and even less security. His grand plan is to go whoring in the French Riviera, and many times he’ll break character to make crass asides. My favorite moment is when he agrees to make Zero his sole heir where he says his assets amount to, “a set of ivory-backed hair brushes and my library of romantic poetry.” Consider what this signifies. In a world where everyone works all the time, Gustave is distinguished as the hardest and most devout worker. He shoulders the burden of a thriving hotel, lives in a squalid room, whose only vice is an affection for a particular perfume. If that’s not enough, he literally whores himself out. But after all of that, he has no property, and no one to count on (except his lobby boy). Throughout the film, Gustave is out of his depth, an exploited low-classed pervert, sickened with the worst kind of malady—a good heart.
+*Grand Budapest* is a rags-to-riches story where advancement through work is impossible. To the extent that Gustave achieves his fortune, it’s through “the second copy of a second will,” granting him a short-lived tenure of success. This is all passed on to Moustafa, but it doesn’t matter. Moustafa’s real inheritance is Gustave's humanism, his love of life and civilization. But when you love something, you must watch it die. As soon as you bring some good into the world, a Nazi will arise to stomp it out with hundreds cheering behind him. And there is a second problem: Moustafa’s version is completely manufactured. The real world is more like Office Space, people working only as hard as they need to avoid getting fired.
+The film is neither a critique nor an apology for liberalism. An apology would invite the audience into the ornate chambers of the wealthy, treat us to skiing and luxury dining. It doesn’t care for these things, but only delights in the operations of the aerial tramways and kitchens that make these luxuries possible. It doesn’t hide away the small indignities of capitalism, but asks us to weigh them against its beautiful constructions (the film itself, a prime example). *The Grand Budapest Hotel* only asks that, after we’ve defunded the arts and our streets are stormed by brutish people with tiki torches, we give a thought to a world that was beautiful for a brief moment, even if it never existed.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2024-11-11 21:50:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>"We engage with all kinds of art without requiring a clear single interpretation and meaning, but for some reason that's the way most people like to engage with film" - Thomas Flight (from his video on David Lynch)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>[Why Are David Lynch Movies So Weird?](https://www.youtube.com/watch?v=v0T2aE7QQSs)
 Why is it that we get so obsessed with finding the "right" interpretation of a film when we (or many of us) are open to multiple interpretations of music, painting, sculpture, dance and other art forms?  
@@ -1861,6 +3898,2462 @@
 Is this wrong?  Or is there a reason this happens?</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2023-12-27 03:48:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Some of Tarkovsky's films are a struggle of will and patience</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For the record, I love some of his films like Solaris, Stalker, and Ivan's Childhood. Even Andrei Rublev had incredible moments. However, his other films like Mirror and Nostalghia are just cinematic fog. Characters ramble on. Tarkovsky forces his father's poems in. What are they talking about? 
+Why am I aimlessly watching this? I get that Tarkovsky spoke of watching his films more spiritually than analytically, which is almost impossible for me because I'm a strictly analytical viewer/fan and far from religious or spiritual. It's okay. 
+I'm just curious of what others think when they watch these films without any knowledge of Tarkovsky or any prior research. Do you genuinely find the films engaging? Comprehensible? </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2024-02-21 05:15:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>How did Sweden go from a cinematic powerhouse country to pushing out relatively low quality of cinema as of 2000</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Even back in the 1920 and 30s there were a lot of great Swedish movies being released by talented directors (The Phantom Carriage etc) Gustaf Molander, Per lindberg and even the Bergman movies being released in the later part of the century along sith Jan Troell, Bo Widerburg, Vilgot Skoman, Mai Zetterling, Lasse Hallstrom.
+Yet it seems past 2000, there's been a low quality cinema output compared to before. With the only movies comparable being The Girl with the Dragon Tattoo series (The original one not the Hwood remakes)
+Even countries like Japan or the US that kept with their quality cinema outfit during the mid century have continued it. Yet why is it that Sweden has had very few movies since then that are of the same quality? Let's discuss.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2024-01-22 15:35:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Why did Steven Spielberg falter in the 2010s?</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Steven Spielberg is almost universally considered to be one of the greatest directors of all time. If we go decade by decade we can divide his career into six phases.
+The 1970s where in the first half Spielberg was just breaking into the industry and finding his voice. In the second half he immediately became one of the biggest filmmakers in the industry with Jaws and then Close Encounters.
+The 1980s and 1990s where he is the king of Hollywood. In the 80s he is putting out beloved blockbusters which will become generation defining classics liek E.T. and Indiana Jones trilogy while still figuring out how to work in a more mature prestigious genres with The Color Purple. In the 90s he has finally figured out prestigious films and is able to achieve a perfect balance between both of them with Schindler's List, Jurassic Park and Saving Private Ryan.
+The 2000s are bit of his underrated era. Yes Crystal Skull was a big misfire but everything other than that was from good to great. A.I., Catch me If you Can, Minority Report, Munich have all become beloved and respected films that show off Spielbergs versality and his willingness to go beyond his comfort zone. The Terminal while not a risky movie is still highly enjoyable and War of the Worlds even with all its flaws still has a lot of exceptional direction in its first two-thirds that seems to be gaining some re-evaluation in recent times.
+The 2020s seem to be a comeback of a sort for him. Both West Side Story and The Fabelmans have been critically acclaimed, got a load of awards nominations and seem to signal a return to form for him. He is also working on a Napoleon minseries for HBO based on Kubricks orignal screenplay. 
+It is the 2010s however that interests me right now . It is universally considered to be Spielbergs weakest decade. He still made well recieved films yes but it seems he lost a lot of his lustre in this decade due to underwhelming films like The BFG, Ready Player One, War Horse. Even the films that are well recieved like Lincoln, Tintin, Bridge of Spies and The Post seem to be seen as a tier below his biggest classics.
+Spielberg has always been an inconsistent director to be honest. Its not like there is a single decade where every film he has made has been a banger. And that seems impossible for him to do considering he averages about 5 to 7 films per decade. Yet it seems the 2010s seem to be decade where it hurt him the most. Why did Spielberg falter in this decade compared to previous decades?</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2023-12-20 16:52:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>An analysis of a moment from "Aftersun"</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There was one moment in this movie that I thought was interesting which I haven't seen many people comment on. I was wondering if anyone else interpreted it the same way that I did. It's the scene where Sophie is angry that her father didn't join her onstage for karaoke, and she ends up making a cutting comment about how he should stop offering to pay for things when she knows he doesn't have the money. We can see earlier in the movie that she's aware of his financial troubles and is sensitive to them (apologizing for dropping the diving mask that she knew was expensive, etc.), but in the scene I'm talking about she's upset with him, and so she uses that insecurity that she knows he has to hurt him. And  you can really see how that comment hurt him, even though he tries to suppress his pain. The comment is especially hurtful to him in that moment because he was feeling especially down that night (probably because it was the night before his birthday), and he was clearly feeling a sense of self loathing during the Karaoke scene because he couldn't will himself to go up on stage and sing with his daughter. This sense of self loathing stemmed from the fact that his limitations were preventing him from giving his daughter what she wanted, and Sophie unknowingly twisted the knife with her comment because it reminded him that he also can't financially provide for her. The comment presumably made him feel like a total failure as a father.
+Another thing to note is that Welles is very careful to delineate moments that are actual memories from moments that adult Sophie is imagining. Any time Sophie doesn't see something happen it seems like we're supposed to understand that the moment being depicted is imagined. Notably, it seems like Sophie isn't party to most of the moments where her father is most clearly suffering (Calum spitting into the mirror, Calum walking into the ocean, Calum crying on the bed, etc.) so it's almost like those scenes reflect the fact that adult Sophie is trying to imagine the side of him that she never saw.
+Anyway, having said all that, I was struck by the staging of [this shot.](https://imgur.com/a/NvIn1a3)
+After Sophie says that line to her father, she faces forward and he continues to look at her. In other words, the audience sees Calum's reaction to her comment, but young Sophie doesn't. This implies that adult Sophie is imagining what his reaction to her comment might have been, and how the comment must have hurt him. Adult Sophie then imagines that the comment sent her father into a depressive spiral which culminated in him walking into the ocean, which is how she imagines he might have ended up naked in bed. Again, none of that necessarily happened, but the point is that Sophie made a passive aggressive comment that she thought nothing of at the time, and given the fact that her father committed suicide shortly afterwards, that comment still haunts her decades later. She imagines how that comment might have added to his pain, and feels guilt about it.
+I really like this shot because it shows how much thought went into every little detail of this movie. Even the smallest, most seemingly insignificant detail (ie the decision to position the actors so that the audience sees Calum's reaction but Sophie doesn't) conveys so much about adult Sophie's character. It's also impressive how much the movie is able to develop adult Sophie's character despite the fact that she's barely onscreen. In fact, it seems to me like she's the main character; the audience is in her perspective the entire movie. We are seeing moments as she remembers them or imagines them and not as they actually happened, which means that every decision about how to depict a moment reflects something about her character and how she relates to that moment. Aftersun has a very unique way of conveying information which adds to its power; it's the epitome of showing and not telling. The movie doesn't *tell* us that adult Sophie feels guilt about that comment through ie dialogue, it *shows* us by showing us the reaction she imagines her father had to what she said.
+Did anyone interpret the scene similarly or am I stretching?
+</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2023-12-14 20:37:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Raising Arizona</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>I’ve been rewatching and catching up on some Coen Brothers’ films and one that I’ve missed out on until now was Raising Arizona. I was genuinely shocked at how funny and heartwarming it was and I thought Nicholas Cage gave the performance of his career (Wild at Heart is close). The cinematography was obviously fantastic, especially for a comedy. In my opinion it was one of the most touching romances I’ve seen on screen in awhile, and although some of the metaphors were pretty unsubtle like the biker representing HI’s irresponsible nature, I fucking loved it. I know it’s well regarded but I don’t see it considered among the best of the Coen Brothers, when I think it should be. Just wondering what people’s general thoughts are on this film. Is it one of their best?</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2024-03-16 05:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>I just watched Harakiri (1962) for the first time and...(SPOILERS)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am blown away. 
+What an absolute nail-biter of a story. Those opening 30 minutes retelling Chijiwa's death (and the grueling way in which he is made to kill himself) were so perfect as a tense, perfectly concentrated slice of cinematic narrative. I saw it in a sold-out theater and the audience was palpably tense and horrified at the brutal way the seppuku is depicted (the audience was also audibly irate at the disrespectful way Chijiwa's corpse is treated when it is delivered back to his family). I am glad I saw this for the first time in a theater.
+After this the film then changes to a more drawn-out revenge plot which (to me) doesn't quite live up to the tightly-coiled highs of the opening tale. While somewhat lacking in urgency, the excellently powerful performances from Tatsuya Nakadai and Shima Iwashita take this part of the film to emotional depths I have never witnessed before. Iwashita's pitiful look of hopelessness, shock, and anguish when she learns of Chijiwa's humiliating death is something I will never forget. Seeing the plight of poor little Kingo also brought tears to my eye. 
+The cinematography was fascinatingly subtle and controlled. There are no moments of visual over indulgence or flair. Everything is tightly shot and depicted, which lends focus, tension, and severity to a very oppressive-feeling film. I loved the close-ups of the characters as they encounter shocking or sudden revelations, you can read all their thoughts just with their facial expression...just brilliant performances and direction. 
+Overall, I think this might go into my Top 5 most perfect films I have ever seen. It has flaws surely, but this is a film that really moved me despite some nitpicks. Considering the overwhelmingly stressful economic conditions we're all in right now, the film struck an all too familiar timbre of hopelessness and desperation that I think modern audiences can relate to. 
+Truly, one of the best Japanese films I have ever seen. Some have said that this film even rivals Kurosawa's *Seven Samurai* as the best samurai film (though in this film's case, "*anti-samurai*" might be more fitting). 
+What do you think? Have you seen this movie? </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2024-04-17 22:16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can you reccomend me movies that feel genuinely very naturalistic, intimate and take their time to let you consume the scenery? </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>To let you understand what I am looking for, here are some beautiful examples:
+• Shiki-Jitsu/Ritual (My favorite)
+• Haru
+• Whisper Of The Heart 
+• Yi Yi
+• A Brighter Summer Day
+• Voices In The Wind
+• The Last Life On The Universe
+• Eureka (2000)
+• Nobody Knows
+• Love &amp; Pop
+• Bad Movie (1997)
+• When March Comes With A Lion (1991)
+• House of Hummingbird
+• 20th Century Nostalgia 
+I would really appreciate it! :&gt; I want something that touches me softly and hard. If you notice, a lot of these movies deal with loneliness, depression, trauma and other personal matters.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2024-08-10 18:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Anyone hear Wesley Morris' appearance on The Big Picture: "Wes Anderson is a COWARD! Everyone else is a FRAUD! What is "Talk To Me"?"</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>To hear a New York Times critic speak with the language of faux-populist hostility and grievance towards filmmakers was slightly disturbing.
+Previously, he appeared on a podcast about "May December" and didn't know who Michel Legrand was.
+&gt;**Wesley:** The music that we're stuck with for the entire film, the closest that we're, it's like, I can't tell, I mean it's by a composer.
+&gt;**Sean:** It's, like, portentous Max Steiner, 1940s noir music.
+Come on.
+To hear a Pulitzer Prize-winning critic so ignorant of cinema history is genuinely shocking.
+And his contributions towards contemporary film weren't edifying, either.
+He kept screaming that there was a lack of "passion" for "Oppenheimer". This is a partially-black-and-white, three-hour film about quantum physics that grossed nearly a billion dollars and did so ... out of a lack of "passion"? For a Pulitzer Prize winner to resort to "nobody I know likes this so therefore no one likes this" ... was strange to say the least.
+In other tangents, his main criticism of "Anatomy of a Fall" was that no one else could have killed the husband (ummm, how about the husband?).
+And this was his response to why he hadn't seen "Dune Part Two" (he saw the first film on a laptop).
+&gt;“I have not. I was gonna, you know, it’s funny, I don’t get invited to screenings anymore by the big studios, the, the, the smaller studios, they will … they would love to have me whenever – whenever I can come, I try to go as often as I can to their movies as well but, no I didn’t, I, and so, if I can’t, I mean, I don’t, if I can’t, it’s like, my moviegoing exercise – I’m ah I'm flabby, basically, um, and I go through these – and I’m bingey, also, like I will go through these sprees of movie going? Where like I spend a whole work week just doing nothing but going to movies, wherea- I mean movies that are already out, by the way, not hahaha not things that have been set up for me to see, like, I’m paying money to go to the movies all week, and I kind of like it, although when you do it during the work week it’s a little lonely, cos it really sometimes it’s just you… watching… you know… "How To Blow Up A… A… A… A…" you know, Oil Pipe. Or whatever that movie was.”
+Is this just what film criticism is now? The domain of Hot Take merchants with no affinity towards cinema and grievance towards filmmakers? Is it too much to ask that film critics care about cinema?</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2024-03-09 01:09:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>How did the old-school Hollywood filmmakers react to the French New Wave?</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>I'm talking about Alfred Hitchcock, Billy Wilder, Howard Hawks, John Ford, David Lean, Otto Preminger, Orson Welles, etc...
+Are there any existing records or interviews of their reactions to Godard and Truffaut's Nouvelle Vague films? Did they admire their rebellious creativity? They found it amateurish? 
+I'm aware that Hitchcock did an entire book with Truffaut, but anywhere in it does Hitchcock state, for example, his opinions on The 400 Blows, The Soft Skin, Shoot the Piano Player, etc???</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2023-12-22 19:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Let Me In has one of the most subtly horrifying moments I’ve seen in a horror film.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>I think this is a pretty underrated movie and in some ways it’s even it more disturbing than the Swedish film, and is actually telling a different story as it indicates that Abby is manipulating Owen and doesn’t truly love him (whereas in the original Eli really does seem to love Oskar). The most chilling scene for me is when Abby kills the policeman (who we’ve come to sympathize with) while Owen refuses to help the guy and leaves him to his fate. Until then I was conflicted about her character, but the way she tears this innocent man apart with no remorse while Owen just lets it happen made me realize she really is a monster and she’s basically brainwashed Owen to take her side.
+The most chilling part of the scene for me is when Abby comes back out and slowly creeps up behind Owen in the dark and then just wraps her arms around him without a word, still soaked in blood, while Owen just stands there helpless. There’s something really horrifying about that image because it cements the tragedy of what’s happened, that Owen has fallen completely under her spell and is trapped with her now, and she knows it. Here’s the image:
+[https://chloemoretzbrasil.com/galeria/albums/userpics/10001/CMBR\_2864229\~0.jpg](https://chloemoretzbrasil.com/galeria/albums/userpics/10001/CMBR_2864229~0.jpg)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2024-04-12 17:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Films that explore the Banality of Evil ...</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Hello there fellow cinephiles -
+I'd appreciate your collective knowledge for some film viewing suggestions. I'm writing a thesis on the Banality of Evil examined in modern cinema.
+Hannah Arendt came up with this term in a now infamous essay to address Eichmann at his trial. Long story short, she contested that Eichmann - a Nazi architect and implementer of the Holocaust - had an element of "thoughtlessness" to his actions, never felt true guilt as he was just doing his job / taking orders, etc despite the obscene and horrifying actions being ordered and implemented from his desk. This is only the the preliminary of a point she was making and the essay is both vastly comprehensive and vastly contested, but t's a start point for where I'm going...
+Think the most recent film The Zone of Interest. Now this is very close to home in the literal subject of the Arendt essay, but it masterfully portrayed the domestic life of a aspiring young German family whilst horrors were being enacted just over the wall. We saw glimpses of their dehumanising and evil behaviours but they were so subtly disguised by the flow of their daily lives.
+I'm looking for other films that explore / address this theme. I've taken a long look at Haenke - especially his early work.
+Any and all suggestions are greatly appreciated!</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2024-03-07 20:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Thoughts on 12 Angry Men (1957)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>I enjoy doing a personal write up after watching a good and thoughtful film. Here's my thoughts on the classic film *12 Angry Men*, starring Henry Fonda, from 1957.  I welcome any interaction with what follows, and thoughts from others on the question: what makes this film so great?
+**Human nature on trial in the jury room.** (5 stars)
+Most thrillers focus on the drama that happens in the course of a murder, or the drama that happens in the courtroom afterwards. In "12 Angry Men" (1957), all the action occurs in the closed doors of the jury room after the murder and after the court-room theatrics. It might be hard to imagine how a black and white movie shot virtually entirely in one jury room might be dramatic, but “12 Angry Men” certainly achieves a level of drama achieved by few other movies. There are no special effects, no elaborate settings, and yet it’s a movie with more power and passion than most contemporary multi-million dollar productions.
+Much of the initial drama revolves around the murder case that the twelve jurors have to decide on. Is the accused young man guilty or not-guilty of murdering his father with a knife? Eleven of the twelve men are firmly convinced that he is guilty, and only one has doubts. It is here that the real drama begins, as the jurors discuss the case, breeding personal conflicts as the lone juror (acted by Henry Fonda) pleads his case.
+This is the movie’s real strength, as it portrays vivid and brilliant characterization of the jurors. They become frustrated and angry, with varying emotions and temperaments. But one by one they begin to break under the burden of “reasonable doubt.” As the evidence is weighed in increasing tension, the jurors begin to change their guilty verdict to not-guilty. The tension is shared by the viewers, because we don’t know whether or not the accused is guilty, and like the jurors need to weigh the evidence as it is presented.
+Is the accused guilty or not-guilty? In the end, what happens in the jury room isn’t so much about murder mystery, but about personalities, personal pride and egos. The sweltering heat and enclosed jury room proves to kindle emotions of anger and rage. In fact, in the end we still don’t know the final answer about the accused’s guilt, who really did it and how. Nor does Fonda’s character argue that the defendant is innocent, but merely that there is not enough proof to determine his guilt.
+But the fact that the question about guilt remains an open question at the end of the movie really doesn’t matter. It is the conflict of personalities that makes the movie so powerful: the 12 angry men in many ways represent ourselves. Just as in the real world, these 12 men are composed of an assortment of personalities and people: such as the sports fan, the slum dweller, the mathematical thinker, the business man, the logician, the prejudiced emotional thinker, and the nerd. The emotions and personal interaction are brilliantly portrayed, and amongst these 12 angry men many viewers will recognize themselves.
+Not only is this movie a portrayal of logic in action, but ultimately it is a portrayal of aspects of our own human nature, including our own prejudices and personality flaws. This is especially evidenced in the concluding scenes, where two jurors shake hands and introduce themselves by name. It is only then that we realize that although the individual personalities of these 12 men are now so well-known to us, we don’t even know their names.
+If you are getting the idea that I was wowed by this movie, you’re absolutely right. Even though it is nearly seventy years old, it has to be one of the best movies I have ever seen. If there is a weakness, it would be that it seems rather remarkable that the jurors uncover things not found in six days of trial. But it is completely free of profanity and indecency, and is tremendously powerful in its portrayal of human emotions, personalities and conflicts. The acting is superb. It’s a masterpiece. Go watch it. And again.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2024-05-02 09:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>"Partlabor 2" is honestly one of the most overlooked animated movies I've ever seen.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>I just now finished this movie just yesterday and I actually really, really liked it. After a long while, I finally watched the first two Patlabor movies directed by Mamori Oshii and lemme tell you, they're both incredibly different from each other.
+The first movie is a rather conventional mecha anime about the police trying to stop like a terrorist attack where robots are hacked into and stuff and both the animation and general tone of the film are rather light-hearted despite this particular aspect. It's entertaining and I found myself kinda enjoying much of the drama in it but it's one of those films that I feel doesn't really go to deeply on anything and exists as basically as the futuristic police procedure film with no greater point to the nature about them.
+2nd one, on the other hand, is a genuinely very thought provoking and complex political drama on much of the political situation in not just Japan's specific history after the war but also on this idea that there is no such as a peaceful time in society and that this peace only exists for those who are privileged enough to not suffer much of the consequences of the wars and interventions performed by those who claim to be upholding peace. Not to mention how it seems to correlate the idea of the police and machinery with the military with this idea that the police are supposedly maintaining law and order in civilized society but in reality, are acting out of fear and paranoia and much of this behavior could lead civil outrages and doubts about the current status quo. It's genuinely a deeply introspective piece of art and I think it's very interesting that Mamori wanted to use this franchise as a way for commenting on all of these heavy subjects because as far I understand how the original series exists, it seems like a fairly normal mecha police series which doesn't really go too deeply on itself about what are the implications to this future about the police and also, how this basically implies that the police are essentially using weapons of great destructive energy just to catch some criminals in the city when these should be existing for the use of this big war where civilians shouldn't be around for their lives to be at risk. One interesting scene is when they take down like one of those balloon ships and they fuck up by shooting at it in a way where it crashes on the city ithat leads to unnecessary harm and as a result, releases this gas which covers all of Shinjuku but later, it turns out to be fake and not actual biological warfare being exposed to the population. I thought it was a very great form of storytelling to express how the police and military in their desperation to target and take down this enemy, they only end up causing even greater damage that would rightfully get them heavily criticized and lose forever the trust of the public if it turned out that they're responsible for essentially killing everyone for not being more careful about how they handle these situations. I also love the final scene where the female officer is about the handcuff the terrorist behind this false war. Instead of using it to handcuff both his hands, she handcuff herself along with him, which I think symbolically implies that yes, she is also culpable and that they're indeed both fighting within an illusion of war and peace. 
+Honestly, these are the kind of criticisms I would sort of imagine for a story being told by an American film with them being the greatest military power in the entire planet and having a disturbing history of interventionism which would cause so much damage to many countries which would last for a long time as they kept pretending to be a nation of liberty, equality and happiness as its title of honor. Surprisingly a radical and critical work to the nature of militarism and foreign involvements but it's told very intelligently and with such maturity that you almost never see with a lot of anime films.
+I could honestly rewatch it again. I think the whole political drama and expositions are incredibly engaging and interesting and the animation+cinematography is beautiful and atmospheric. I also thought it was a very interesting choice that it pays very little attention to the main characters who basically do all of the robot fighting and there's so few moments with the mechas being shown in action in nearly 2 hours. In this narrative, it's more about the behind-the-scenes talks which occur in context of these missions. In a way, it seems to kind of deglorified mechas as a popular appeal we often like to see with anime to get across the point that their creation exists in the inherent context of war and they should be aknowledged for the complicated politics behind such weapons.
+While it may not be my absolute favorite by Mamori Oshii, this is certainly the 2nd best film I've seen from him so far just behind "Angel's Egg" and definitely above "Ghost In The Shell" in my opinion.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2024-05-09 12:59:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Past lives (2023) and In-Yun</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>"This is where I ended up, this is where I am supposed to be."
+This is a quote from the movie I think encapsulates the movie's major theme, of accepting WHAT IS and not asking what if. The movie goes through a lot of instances we think it might go one way because that is what we are used to see in romance genre, but subverts our expectations and gives us a more beautiful love story.
+The characters in the story (specifically Arthur(husband) and Hae sung(childhood crush)) are troubled by their past life decisions and wonder whether they were the right ones to make. And they are in deep agony thinking what could have been. Nae Yung (Nora Moon) is someone who accepts her fate and loves it all the same. She doesn't question her decisions in life, she does not neither have fantasies about a fancy love story, nor have a regret of marrying someone whom she met by pure chance. She embraces her fate with all her heart.
+In-Yun is stated to be a korean belief of providence which is specifically between two people and every person who meets or even sit in the bench together has some In-Yun between them from their past lives. When the In-Yun is layered 8000 times the two people are destined to be married/or is to live happily ever after. This solves an important dilemma in the previous romance movies, one that of fate, where the love between two people is only special when their current love story is incredible. Now they have their 8000 past lives worth of stories in them (I am half joking). The story of Arthur and Nora began with one of the ordinary chance event and followed by more of them, in which any of them could have occurred with another man and Arthur and Nora would not be together. The movie tells us not to worry about what could have been, because you cannot change it and because it was destined to be and tells us to embrace the life we have, to love those who are near more dearly because this is fruition of desires of 7999 past lives and to not worry about the future.
+I really loved the movie, I feel like it has a thematic connection with Everything, Everywhere, All At Once of loving who and where you are now.
+This is a love story between Nora Moon and Arthur.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2024-01-27 20:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Masterpiece vs Magnum Opus: Thoughts on Megalopolis [No Spoilers]</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Megalopolis proclaims itself a fable on the title card. As the movie began to come to a close, I was asking myself, “What is the moral of this fable?”
+This was a joy to see on the big screen. One of cinema’s Masters exhausted his imagination to convey a paradoxical, forward-thinking homage to Hollywood’s golden era that is consistently compelling and at times breathtaking. The cinematography elicits a fantastical setting of a faux-New York (New Rome), illuminated as if the Sun is as close as our Moon. That is until you reach the depths of this urban civilization, which gives way to darkness, red and blue hues, and crumbling law and order. The latter conveyed via living statues falling to their knees. 
+That starts to get at what this is about. And Megalopolis is about a lot of things. Much has been made in the lead up to this film about Coppola’s expansive critique of American society. He shows America as an incestuous oligarchy. A civilization that idolizes wealth, in part because wealth idolizes itself, and coaxes this idolization from those not in power through the influence of politics and media. Cesar Catilina is a genius, time-stopping, Nobel prize winning architect. He debates with his father-in-law, the mayor, and his uncle, a billionaire banking baron, about how to best build a future worthy of the great civilization that brought them vast wealth and power. The prominence of a single family holding this conversation looms large over New Rome; in one early scene coalescing as the three men all stand on rickety wood planks hovering above a model of the city. As they walk above the city, the planks rattle and shake, showing they may come crashing down with any misstep. 
+The scope this film tries to cover is vast, and at times it falters for it. There’s not a lot of time to explain all the details and you fly by many of them. I’d add this to my list of movies that I’d love to see adapted as a television show one day. In another world, had this movie somehow perfected its vision, we’d be talking about a masterpiece. Instead, we received a Master Artist’s magnum opus.
+Francis Ford Coppola, in my opinion, has made 3 masterpieces. The name Coppola is synonymous with the notion of pinnacle filmmaking. He has not made the next Best Picture winner, though, he should clean house for awards to creativity. (I haven’t seen The Conversation FWIW)
+Megalopolis is a message from an old man, an old American, telling his audience to look around and see the obvious decay around us. Though, with imagination, he tells us not to dwell on our downfall. He wants us to think of the sheer miracle that is mankind, a literal freak of nature, separated in intelligence and creativity from other animals by a cosmic degree. Look at all that mankind has built and accomplished. With such context, consider the future and recognize the duty we have to each other to make it the best possible future. And never underestimate mankind’s capacity to manifest such a dream. The journey of this film scrapes some debris along the way but hits the target in the end.
+Coppola believes in America. It’s the first line of dialogue in his first masterpiece, “I believe in America”. He wants us to believe in America, which is really believing in ourselves. Believing in the potential for mankind.
+The moral of Megalopolis is you can’t stop the future, and we owe ourselves to make it great. An uplifting, powerful, and perhaps final message from a great artist.
+TL;DR I loved it. It’s not going to win Best Picture. But I don’t think that is Coppola’s intent, but he met his goal wholeheartedly. And it’s a gorgeous film.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2024-09-27 15:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Best way to study film</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>I like to just watch movies. Whichever ones interest me at the time. If I like them, I will watch a few more times to get fully immersed in the movie and start studying the little details. 
+Do you have a more interesting or even better way to go about studying movies? Like maybe watching a few movies at a time according to genre or era of film history? 
+I appreciate your responses 😊</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2024-09-06 06:12:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Civil War (2024) a forceful warning to those who presume they can help themselves to power </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>I've read commentary that Civil War does a good job of not demonizing any particular block of citizens. This may be true, however it is a strong denunciation of tyranny, in particular the type the USA has recently flirted with. The movie signals this message during the very first scene. As the president (well-played by Nick Offerman) practices his speech, he smirks, as if the civil war the USA is currently experiencing is just a fun prank he's playing. He then goes on to use very Trumpian language, bragging that he's won a great military victory, "some would say, the greatest military victory in history."
+I've also seen comments that the journalists who comprise the core ensemble in the movie behave in a neutral manner. I refute this viewpoint. Their entire motivation in embarking upon a harrowing and dangerous road trip is to confront the president forcefully about his excesses against the people of the USA. In particular there's a scene where the journalists are discussing the questions they'll ask the president if they do indeed score an interview. Their behavior and language during that scene clearly shows concern and indeed disgust towards the president for engaging in a campaign of violence against the citizens. In the final moments of the film, in one of the finest displays of dialogue I can recall seeing in a film, one of the journalists implies that the president is indeed a cowardly tyrant, as he'd known all along, and deserves the fate he's about to recieve.
+I can understand why the actor who plays the president, Nick Offerman would demure when asked if his character was modeled after Trump, he had no choice politically but to make this claim. However, his choices in approaching his character clearly refute this claim. The reality is that this movie is a clear rebuke and warning against the type of behavior displayed by Trump and his closest supporters after the failed election bid of 2020. The precise nature of the warning is that tyrants should not presume Americans will sit idly by as tyrants claim power. And that indeed, there are people, including members of the military who will stand up to them, even if it means direct, forceful revolt against their authoritarian excesses. That the response while perhaps not immediate, will lead to the downfall of anyone who believes they can take power without the consent of the voters, engaged in democratic norms. I found this message to be self-evident, indeed - telegraphed from the opening scene, and reinforced throughout the movie.
+This is the guy Offerman played: https://apnews.com/article/trump-military-border-civil-unrest-domestic-use-a136c69cc85184b07f161c4c09b46c50</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2024-05-26 15:56:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Making sense of Challengers (2024)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loved the film, especially the ending. It felt like I watched a 2 hour set up for a singular gag. So good! I think Guadagnino was hinting at it through out the movie, but that absurd ending really cemented to me that it was an entirely non-literal, parabalistic tale. 
+So, to me, the film is all about Tashi. Her internal struggle is represented by the final tennis match that anchors the plot. Even the poster, mirroring similar shots from the movie, shows her in the crowd, with sunglasses, one lens reflecting Art, and the other reflecting Patrick, as if we have a window into her mind.
+Given that, the film seems to be suggesting that Tashi has tapped into her inner masculinity to be a ruthlessly competitive and successful athlete. When she first meets Art and Patrick, her initial impulse is to further their bond rather than cause a rift, stating that she doesn't want to be a home-wrecker and tricking them both into kissing each other. Ultimately, their fawning, and her dog-eat-dog nature, compels her to set up a game where they compete for her. It's no coincidence that immediately after her career ending injury, Art and Patrick's friendship is broken.
+Tashi has caused a rift between the Ying and Yang of her masculinity. By choosing the compliant, dependant, insecure soft boy in Art, she finds material success, but very little in the way of true happiness, as their relationship presents as dispassionate. Her signing Art up to the Challengers tournament is not so she can see Patrick, but so Art and Patrick can be together again. Just like she tricked them into kissing each other, she is again tricking them into being one again. As the final tennis match becomes more and more intense they eventually cross over into what Tashi calls real tennis, where they are in compete lock step with one another. It is at this point that they transcend the game of tennis and hug, becoming one and making Tashi whole, to which she exclaims "Come on!".
+So for me the film operates as a satire of American capitalism from a female perspective. It asks the question, "what is required to be successful as a women in such a context?". The bifurcated timeline resembles how the mind, in a time of crisis, can jump around, tangentially searching for an explanation of how you got here. The tennis ball/racket POV camera shots simulate the chaos of an internal crisis. I've heard it said that the tennis matches stand in for sex, but I'm not totally sure about that. To me the film is intentionally hyper-sexualised, but ultimately sexless, and this is Guadagnino commenting on how American culture is at once commercially hyper-sexualised, but ultimately sexually repressed.  Brands, and their products, including a very desirable looking Dunkin' Donuts' bacon and egg bagel, are ever present throughout reinforcing the materialism of the American experience. For most of the film it seemed to be saying, if you want to be successful in America, you must tap into you inner masculinity and sideline your femininity, as represented by the peripheral mother and daughter characters. With the ending though, perhaps we can infer the film is saying that we must abandon ultra-competitive systems and rise above materialism to become fully realised human beings. The world wants you to play tennis and compete, but the only way to true completeness is to abandon the game, hug it out and let your inner masculinity find balance. 
+Thats the broadest reading I had of the film that maybe explains the ending, maybe not. What does everyone else think about this reading or that ending or the movie in general? </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2024-05-13 03:44:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Thematically, stylistically speaking, and perhaps story-wise what are your thoughts on cinema in the 2020s so far?</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>The question isn't so much how do you like movies so far this decade, what did you think was good or not bad. I want this discussion to be more about your thoughts and reflections on the films and how they've been so far in terms of styles and perhaps themes and messages. 
+Like how the cinematography is, the kinds of stories we're seeing and the writing style, maybe even the types of characters? In different genres? 
+From big blockbusters like Top Gun: Maverick, Oppenheimer, Barbie, to surprise hits like Everything Everywhere All At Once; noteworthy international films like The Worst Person in the World and Anatomy of a Fall; horror films such as Pearl and Talk To Me. 
+Every decade of films have a certain 'something' about them, that separate them from other decades and eras. 
+Thematically, cinematically, and story-wise, do you notice anything about the 2020s in particular so far that stand out, or maybe there's "more of" than before? Any patterns, however slight?</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2024-07-11 22:57:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>What are your thoughts on why Werner Herzog's "Aguirre, The Wrath of God" is so captivating all these years later?</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>I made this video essay to examine why we watch people do terrible things? What is so captivating about watching a person become a dictator, a killer, a monster corrupted by power? Do these characters reveal something hidden inside us? A raw, animal instinct?
+Werner Herzog’s 1972 cult classic "Aguirre, the Wrath of God" explores these questions. The film is based on the harrowing journey of Spanish conquistadors seeking El Dorado in 16th-century South America. As the lead character Aguirre spirals into madness, his descent is both horrifying and mesmerizing, embodying the seductive nature of power and its corrupting influence.
+What are your thoughts on why films and characters with such terrible morals are so enduring and exciting to watch?
+EDIT: Here's the video essay I just made about Aguirre btw: [https://www.youtube.com/watch?v=4eG-jidKR3M](https://www.youtube.com/watch?v=4eG-jidKR3M)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2024-06-22 15:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Where do you find obscure arthouse films to watch them?</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>When I hear or read about a film that's relatively obscure, it's a struggle to find it to watch. When I say obscure, I mean films in the vein of Love Exposure, 964 Pinocchio, Throw Away Your Books Rally in the Streets etc.
+(I chose the above examples knowing they're relatively "popular" examples of arthouse. But they would be obscure for most mainstream viewers, and probably the first titles to come across for someone who's getting into more obscure variety of arthouse films. I just mention them to make clear what I mean by obscure arthouse film. In fact, they're all available on Internet Archive.)
+Criterion Collection and MUBI are probably the most formal places to find and watch arthouse films. But they don't always have really obscure ones.
+Internet Archive have many films, some obscure ones too, but really deep dive types seem to be absent or sometimes in broken files.
+Torrenting sometimes helps, but even when you find the torrent link for an obscure film, the seeders are so few that it's unable to complete the download.
+Not to mention that most of these kind of films have never had DVD releases, or at least are not available anymore.
+So where do you find truly obscure films that you hear about on Letterboxd, blogs, magazines or from someone, when they're unavailable in the above mentioned sources?
+Do you have go-to places (websites, forums?) for films that have a few hundred or thousand logs on LB or IMDb at most, and only a few reviews if any? How do people who write about them online find and watch them?
+Here are some films that I wanted to see recently but couldn't find to exemplify what I mean by really obscure: A New Life (2002, Grandrieux), Timeless Bottomless Bad Movie (1997, Sun-woo)\*\*, Injured College Girl (1995, Slocombe).
+\*\*: This is on Internet Archive but the file was broken when I last checked. 
+PS: Maybe these are all not that hard to find and I'm just bad at searching for films. Guide me if you think so, I wanna know how to look for obscure titles.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2024-05-13 21:04:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Montgomery Clift was a phenomenal actor who deserves to be better remembered.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>I have been re-watching his 17 films he made during his brief film career and I continue to be blown away by just how great he was. He was never a showy actor and his subtlety was very realistic and moving. I also loved that he was never a scene stealer and he also never tried to make his characters more sympathetic and interesting than they were. He just focused on making them human and that was what continues to make his performances captivating today. 
+I feel sad that given what a huge and unique talent he was that he is not as well remembered today. He was the first method actor to debut in films and yet Marlon Brando is mistakenly credited by many people as the first likely for 2 reasons. Brando's performances were more loud and in your face whereas Clift was much more subtle in his work. Brando also got a huge revival in his career in The 1970's with iconic roles in The Godfather and Apocalypse Now that strengthened and cemented his reputation as an iconic actor. Clift died prematurely at the age of 45 in 1966 so he never lived to see the old age or the 1970's and receive that career revival that Brando enjoyed. It's a shame because I feel Clift would
+have thrived during the 1970's and not only been a bigger legend than Brando, but also he would have taken more chances with his acting roles and put more into them than Brando ever did.
+Anyone else here a fan of his work?</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2024-04-28 20:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>The Zone of Interest and benign totems</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Apologies if this exact angle has been discussed a lot, but having just seen *The Zone of Interest* for the first time 4 days ago, there's something quietly monumental that Glazer and his team pulled off here that I remain floored by.
+The horror of the film, for me, is in its use of commonplace objects and places- things familiar to just about anyone- to represent how atrocity stains and encroaches on everyday life. These small signifiers are present in the Höss home, innocent on their own, but in the context of this film are horrifying. 
+In the days since I've been haunted by images of flowers grown in soil powdered with the recently cremated, a fur coat stolen from a prisoner, a river flush with human remains, boots soaked with blood, a toy drum that sounds like gunfire, a greenhouse reappropriated for a sadistic children's game, the apples that are the lone beacon of hope in the dark... the list goes on and on. Again and again, Glazer gives these common things immense psychic weight. 
+I've seen some say that the cold, anthropological approach to viewing the Höss family undercuts our ability to identify with them as intended (I disagree!), but what was most effective to me here was the weaponization of things that are strikingly familiar to us *now*. In the days since watching, I can't walk through my house or past a garden without being brought right back to that emotional place I was in when I finished the film. Being always surrounded by these banal reminders it's allowed it to grow within me; to stick and fester and nag. 
+It's one of the many effective methods Glazer uses without explicit comment (the sound, the staging, and the use of blocky, rotating edits are sickening in and of themselves, and rightly praised). None of these characters take inventory. Their Eden is filled with stolen and sullied objects, and nothing in the film grounded it in the present tense as much as these flat shots of things I always have within arm's reach. 
+We know, intellectually, about the weight of the Holocaust and atrocities like it; we feel it and move along *or* perhaps relegate it to the past altogether, and any cinematic framing of these events tends to make that easier to do. Glazer making these banal objects totems of unspeakable suffering *made me truly feel it*, and continues to. It's so psychologically effective that in the accumulation of these details over the course of the runtime, I felt like I could smell what the Höss family could not. My stomach clenched at every plume of smoke in the distance. Its shocks were given no purchase to desensitize; rather the opposite was true. The horror mounted in such a gradual, invisible way that I felt genuinely sick by the time it was over.  
+I'll never look at an apple the same way again, and even if this isn't a new observation, I think that's a powerful achievement.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2024-03-13 18:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>The Lady from Shanghai blew me away</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>The film is often considered one of Welles' lesser works, if not an outright failure. It was meant to be an hour longer but Columbia cut it to pieces because they just wanted it to be a simple star vehicle for Hayworth. So many believe that it's just an empty shell of an unrealized vision.
+But somehow I feel it's part of what makes it brilliant, the entire film is Welles constantly fighting against the constraints of a straightforward mainstream suspense picture and so many beautiful eccentricities and contrasts come out of it as a result. 
+The whole beginning with the horse carriage among a sea of cars; the bizarre Caribbean cruise, where Welles' sweaty and paranoid glances are juxtaposed with studio-mandated ultra-glamorous inserts of Hayworth singing the title song; a hysterical scenery-chewing Glenn Anders baiting him into an increasingly implausible and convoluted murder plot that basically completely dissolves into dreamlike surreality at the end; the satirical court scenes that foreshadow Welles' own adaptation of The Trial. And then, of course, the funhouse and unforgettable hall of mirrors shootout, which is breathtaking to this day.
+It's absolutely insane and essentially plays like a high budget version of Detour, where instead of every shot being held together by duct tape the film has the full backing of a major studio with pristine on-location work and elaborate sets. It basically shouldn't exist but does. I'm sure Welles' intended version would have been great too but I still think it's very special in its current form.
+So many great lines too - "Everybody is somebody's fool", "I've always found it very sanitary to be broke", ...</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2024-03-13 03:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Is it even arguable that the sound design of pre 2000-ish was vastly superior?</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Anyone that makes a habit of watching older films knows what I’m talking about. The almost asmr inducing dialogue, the way you can very faintly hear almost radio static when they start to talk, they used adr a lot more, making the contrast of sounds even more pronounced. The stock sound of cities is always loud and booming, followed by a stark contrast of silent homes and the best foley work you could imagine, every foot step echoing through the house. You can feel every cigarette being lit. Every drink being poured. Every single action has its designated sound. And it’s wonderful. It’s cinema. 
+Somewhere along the way, it stopped. Maybe the change in fashion, more sneakers instead of dress shoes, no more matches for cigarettes, etc. I think the advances in technology has dramatically affected basic sound design. It all sounds too smooth. Too plastic. Too produced, which is ironic considering I think it’s less produced now.
+If you haven’t noticed, next time you watch an older film, listen to the door shut, the booming sound of dress shoes on a wood floor, the flick of the match and drag of the cigarette, and the way sounds change from disturbingly loud to calming silence. It’ll put you in a trance.
+Edit: Guys, there are TONS of movies over the last 20 years that have amazing sound design. Tons. My point is that the average movie in 1978 has a much better sound design, for my tastes, than the average movie in 2024. And I don’t think it’s particularly close.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2024-10-02 11:49:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Is Ernest Burkhart Scorsese’s first unsympathetic protagonist?</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>A reoccurring aspect in Scorsese’s films is the aim to make you sympathize with very deeply flawed, even monstrous men.
+Travis Bickle is a deeply unhinged and disturbed individual that’s also very strongly implied to be partially motivated by an underlying racism, pretty much the exact type you’d expect to end up as a mass shooter. Yet his loneliness and isolation is something easily relatable to many. Scorsese is utterly unflinching in his portrayal of Jake Lamotta as an abusive, violent, possessive mess of a man. Yet by depicting his life with such raw honesty, it’s a portrait of a sad and pitiful man that comes through whose inability to overcome his deep flaws can hit quite close to home for viewers. In his rise and fall movies like Goodfellas and Wolf of Wall Street, the sympathy comes from making the viewer get just as caught up in the allure of these lifestyles as their protagonist. Yet while these movies ultimately serve as a critique of these types of men, it’s also made very easy to see why someone would be seduced by that type of power in the first place. 
+There’s nothing sympathetic about Ernest Burkhartnor at least if there is, I found nothing. He has the basic human traits of loving his children and wife, and it’s questionable how much that’s even worth when he’s slowly poisoning her to death. There’s no rise and fall story for viewers to get caught in, the ugliness he’s depicted with is far too banal for it to ever be sympathetic, he’s just portrayed as an unadulterated scumbag. Is this the first time Scorsese has deemed his protagonist unworthy of sympathy? Are the historical injustices committed against the Osage people and other tribes so deplorable that he felt it wasn’t appropriate here?</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2024-03-26 20:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Challengers: The Corruption of Art</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>A quick thought on Challengers that I haven't quite seen voiced quite this way yet:
+So the whole movie is this psychosexual drama between Tashi, Patrick, and Art, and their desire for each other that keeps drawing them towards this toxic, complicated mess of a threesome. Clearly Tashi never got over her career-ending injury, and so constantly strives to live vicariously through Art and/or Patrick; and Patrick, having lost Tashi to Art, lives in a limbo state of self-imposed destitution as he pines for both his woman and his best friend. So at the beginning of the movie, both Tashi and Patrick are profoundly unsatisfied with their lives.
+But Art, at this point, has lost his drive for tennis - both the sport and what the sport represents. He's old and tired and just wants to rest on his laurels and raise his daughter. Which Tashi and Patrick both seem to see as an indication that he's "already dead" on the inside, but for any normal person, this would seem very healthy and reasonable! Art's already had a very successful career, and as he says himself, it's pathetic for him to still try to cling onto the glory of his youth into his 40's. Sports are a young man's game, and it's fine to want to move onto the next stage of his life. 
+Art, like Tashi and Patrick, is not particularly happy in 2019. But it's not because he's lost his drive for tennis, not directly - it's because he loves Tashi, and Tashi resents him for losing his drive, and it's painfully obvious. When Tashi comes back to the hotel after his affair with Patrick near the end of the film, she catches a glimpse of Art sleeping in their daughter's room; were it not for Tashi, this is the life he'd really want.
+So when the film ends with Art embracing Patrick, having been ironically reinvigorated by Patrick and Tashi's infidelity, it's not a triumph. For Tashi and Patrick, this game - this back and forth of constant conflict and tension - is the only thing that will ever make them happy. Art, though, could've been perfectly content with a simpler, calmer, less aggressive life; the tragedy is not that he'd lost his love for tennis, but that there was still enough left in him that he let himself get dragged right back into the mess he thought he'd left behind.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2024-05-14 09:53:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Desperately looking for a film podcast that isn't so vanilla.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>I love podcasts and I love movies, but I cannot find a good film podcast. No offense to anyone, but I've listened to the big podcasts like "Show Me the Meaning" (this one I kinda like) or "The Big Picture" and I find the humor and content to be really bland at times. They tiptoe around difficult subjects and generally just regurgitate what I've read in Rotten Tomatoes reviews. While they do have a lot of knowledge about film/the industry (which I totally respect), I just feel like I'm eavesdropping on a couple of 38 y.o. tech bro's at the local bar. I think I might just be a little young for their vibe.
+Any recommendations for film podcasts that are a little more provocative, funny, or colorful?</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2024-01-22 23:38:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>I've just finished a 2 month Alfred Hitchcock film festival. Here are my 3 main takeaways:</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Here's how the festival worked:
+Two movies would play back to back Thursday/Friday and two different movies would do the same Saturday/Sunday. So in essence I watched 4 Alfred Hitchcock movies every week. These were organized mostly chronologically (starting with 39 Steps from 1935 up to Marine from 1964) but also thematically (Strangers on a Train and Psycho were in the same day as "Psycopath" movies).
+In order I watched:
+The 39 Steps (1935) - The Lady Vanishes (1938) - Young and Innocent (1937) - Sabotage (1936) - Rebecca (1940) - Suspicion (1941) - Saboteur (1942) - Foreign Correspondent (1940) - Shadow of a Doubt (1943) - Notorious (1946) - Lifeboat (1944) - Spellbound (1945) - Dial M for Murder (1954) - Rear Window (1954) - The Man who knew too much (1956) - Vertigo (1958) - North by Northwest (1959) - To catch a Thief (1955) - I confess (1953) - The Wrong Man (1956) - Strangers on a train (1951) - Psycho (1960) - Rope (1948) - The Trouble with Harry (1955) - The Birds (1963) - Marnie (1964)
+**My 3 main takeaways from Alfred Hitchock which I found so curious:**
+**1) Alfred Hitchcock hates Cops**
+This sounds funny but is Alfred Hitchcock an ACAB? His filmography would say... probably? I couldn't help but notice that in every single one of these movies, with 3 exceptions, the cops are at best incompetent (almost always the case) and at worst corrupt (sometimes the case). Hitchcock's most common narrative device, the "wrong man" relies on the cops mistaking the protagonist for the killer/spy/etc and hunting him down based on terrible leads and assumptions. They're bad at that too. Often this comes with overt criticism of law enforcement and how they overlook details for quick convictions.
+The three exceptions are the Detective in the excellent Dial M For Murder, who demonstrates great deductive skills and solves the case (while still being a huge asshole), the protagonist of Vertigo, a retired cop whose mental condition hinders his work, and the cop in Rear Window, who is friendly to the protagonist but unhelpful until evidence of murder proves too overwhelming for even this lazy bum to deny. With the exception of the *retired* cop in Vertigo, these officers of the law are *Always* unfriendly and unhelpful to the protagonist(s). EDIT: Just remembered to mention "The Wrong Man" (1956). The only "true story" Alfred Hitchcock ever adapted was that of a man that was entrapped and wrongly accused by the police of theft. The entire movie is one of disillusionement with the American Justice System, which I think is quite telling.
+**2) Obsessed with the "Foreign Threat"**
+Going back all the way to the 1930s (The 39 Steps) and stretching into the 1950s (North by Northwest being incredibly similar to 39 steps), Hitchock often has antagonists representing a (most often undisclosed but pretty on the nose) foreign threat. These are his spy movies, one of his two main styles besides the murder thriller. The protagonist(s) uncovers a conspiracy by an spy organization working for a foreign power (The germans in the 1930s and 1940s and the Russians later), and has to figure out a way to stop them, often being framed as the "wrong man" along the way.
+It is very interesting how these invoke his patriotic sense. First for the UK with his earlier movies, and later for the US when he moved there. These spys are portrayed as *anathema* to proper british and American ideals. They're often overtly foreign as with the Hungarian terrorist for hire in "Sabotage" (bad movie) and the secret German spy in "Foreign Correspondent" (bad movie), and are very often mercenary, working for money as much as a sense of loyalty to the foreign power. Its very interesting how much the "Foreign Threat" is a trope in Hitchcock's movies.
+**3) Hitchcock is very funny!**
+Its crazy to think how much of a reputation Alfred Hitchcock has for being a "Horror director" when he essentially only ever made 2 horror movies (if that!). The Psychological thriller Psycho, and the admitedly very scary "The birds" (truly a masterpiece btw, insane how the concept works). In reality, most of his movies are thrillers, and most of them are *filled with comedy!*
+In particular I would highlight "The Lady Vanishes" and "The Trouble with Harry" as his two most overt comedies. The lady vanishes is officially a spy thriller but it has so many jokes and ridiculous bits in it that it span off a whole comedy franchise.
+Hitchcock often leans into absurdist or dark humor, and the results are often great, particularly when paired with tension. Watching Rear Window in a packed theater, I couldn't help but notice how people laughed just as much (if not more) than when they gasped.
+I have many different takeaways, but these are the main 3 that I couldn't stop thinking about, and that I haven't seen regurgitated to death before.
+[Here's the list organized from favorite to least favorite in my Letterboxd](https://letterboxd.com/olavops/list/hitchcock-ranked/)
+Hope you enjoy the read!</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2024-07-05 18:40:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>What's the most a film has ever been changed in post? (Studio interference, bad test screenings, etc)</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>I was watching the RedLetterMedia video about *Galaxy Quest*, and of course they mention how the film was heavily edited down from a raunchier PG-13/maybe light R to a PG on the grounds that the studio had a hit with the PG rated *Rugrats Movie* and wanted to go after that same crowd. This of course fails to consider that perhaps a Nickelodeon cartoon and a 1960's meta-comedy homage to a science fiction show might have slightly different crowds, but from everything I've read about studios in the 80s and 90s, it seems like there was much more of a 'dog chasing cars' element of literally just attempting to copy what the #1 movie of the last weekend was doing, regardless of how different it was from the film in question being produced.
+Of course, plenty of good films changed radically from their original screenplay, so that I wouldn't really count (*Beetlejuice* was originally about a winged dwarf who spoke AAVE, which I'm sure in no way was influenced by or the result of cocaine), but what I'm more interested in is **films that changed radically after a significant amount of it had already been made** (even if it was just principal photography and not necessarily a fully finished version). 
+The other best example of this I could think of was *Kangaroo Jack*, a Bruckheimer-produced comedy that began its life as an R rated crime comedy, before being shot as something a little less raunchy, tested poorly (with the only positives being a single scene with an animatronic kangaroo), leading the studio to re-edit it down into a PG rated "family" movie with a CGI, rapping kangaroo taking the place of its original animatronic counterpart, as well as being inserted into enough scenes to make it the centerpiece of the marketing campaign in an attempt to trick families into thinking they were getting another talking animal movie, inspired by the famously misleading *Snow Dogs* trailer. 
+Are there any other examples of this? I feel like this is the closest I can think of for a major production essentially being sold for parts and cleaned out like a game of Operation. I know *Alien 3* was originally going to be set on Earth, apparently so far into production that the original theatrical teaser said "In 1992, on Earth, *everyone* can hear you scream", which coincidentally is the premise of the upcoming TV show. From what I understand, they had spent several million dollars on sets that weren't used in the final product and generally had plenty of frustration and interference, but as far as I know I don't think they were actually shooting any footage on the unused sets. 
+Any good articles about these would be highly appreciated as well, I love reading stuff about difficult/chaotic film productions.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024-12-06 19:17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>I Watched Melancholia for the First Time</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I found it a fascinating exploration of two very different psychological dispositions. One characterised by meaningless, and one characterised by purpose. It was interesting that Trier used an existential crisis to explore the various reactions that such dispositions create, where Justine's outlook of meaningless allows her to accept death because the world has nothing of value, while Claire experiences paralyzing anxiety as she fears losing the world because she can see its value. 
+And damn some of those images had the power to conjure some serious anxiety from a sense of existential dread. The first 'pass by' sequence perfectly captured the terrifying reality of an existential catastrophe and how if these events occur, humans are at the complete mercy of forces beyond their control. 
+Anyway, great film. 
+</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2024-10-30 18:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>What The Heck Was Sofia Coppola Going For in The Bling Ring?</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 years late to this conversation, but I just watched The Bling Ring and it's been a long time since I''ve seen a movie that misses the mark for me by such a wide margin. 
+The direction and cinematography is exceptionally and aggressively bland, right down to the selection of opening credit font. The acting is atrociously stilted, and the narrative structure bizarre and off-putting, with non-sequitors devoid of character development.
+I respect and mostly enjoy Sofia Coppola's vision in her other films, and know what she's capable of, so I'm giving the movie the benefit of the doubt that all of this is purposeful...but I'm just not getting it. And this is even acknowledging that the characters are intended to be oblivious airhead. But this is the insipid filmmaking supposed to be juxtaposed to the soulessness of privileged adolescence? It's as if Coppola set out to make an anti-movie for purposes that is beyond my comprehension, and maybe she just took it too far.
+Or am I giving this too much credit and it's just not a very good movie? </t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2024-04-13 03:13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Pyaasa is a masterpiece and a good starting point to understand why bollywood films are the way they are.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Pyaasa restored in 4k with english subtitles: [https://www.youtube.com/watch?v=WJK45r-j6TU&amp;t=4207s](https://www.youtube.com/watch?v=WJK45r-j6TU&amp;t=4207s)
+Note: The subtitles are ok-okish (not as philosophically deep as the original hindi). The soul and beauty of the dialogues/songs are lost in the translation. Still, it's good enough for a foreign audience. 
+While the Apu trilogy is generally the first film brought up in a discussion about films of India, Pyaasa by Guru Dutt is the best entry point to understand the mainstream bollywood; why they are the the way they are, and how did we come to the current trend films with elaborate song/dance sequences.
+Pyaasa came out in 1957, 10 years after India's independence. Needless to say, it was a very poor country, and resources directed towards making films were scarce, e.g., Ray's Pather Panchali was produced and distributed by the govt. of West Bengal.  One positive of this otherwise sad times was that only the best and most passionate were drawn to/given an opportunity to make films. The songs would be written by actual poets, the dialogues by actual prose writers, and the camera would be handled by very experienced DPs. The result were films with such good songs that you can teach them as literature in schools, the dialogues so good that it can be made into classical storybooks/plays. 
+The protagonist in Pyaasa is a young college graduate who has taken into poetry. Classical Indian poets were usually found in the courts of kings and affluent people. But in a country struggling to feed it's citizen twice a day, how could anyone patronize an artist post-independence? Thus starts the struggle of the young poet, both physical and ideological. 
+The film starts with Vijay(the poet) composing poems with themes such as nature, romance, etc. But as he's met with resistance, unworthy criticisms, and betrayals his poems turn more and more into social commentary and critique of the Indian society of that time (which holds true even more so today). 
+First notable song in the film is '[Jaane woh kaise log the jinke pyaar ko pyaar mila](https://youtu.be/WJK45r-j6TU?t=1h3m1s)' (terrible translation- Who knows what kind of people were they, who got back love in return for their love). This, in a mehfil(an evening party of sort, where live music, generally ghazals, and dance is performed for the patron and his guests) organized by the husband of his college sweetheart, who has married the host for her materialistic ambitions.
+The second notable song is a direct criticism about the abuse/mistreatment of women in society at that time. "[Jinhe naaz hai hind par woh kahan hai](https://youtu.be/WJK45r-j6TU?t=1h29m3s)"(terrible trans.: Those who are proud of 'hind', where are they?). I highlighted 'Hind' because people easily think that the meaning of hind is India (derived from Hindustan). Despite the literal meaning, hind doesn't mean India in a geographical/political sense. It's the idea of India; the idea of a country rich in knowledge, wisdom, culture, spirituality, and history. But alas what has the society come to. 
+In the end, after a flurry of reproaches and betrayals, he sings, "[Ye duniya agar mil bi jaye toh kay hai?](https://youtu.be/WJK45r-j6TU?t=2h4m36s)"(terrible trans.: Even if I get/win this world(at my feet), so what?). In a world where friendships, love, and loyalties have all been sold, what's the point of winning/getting such a world? 
+As you can see, the purpose of songs in the films was to enhance story-telling and evoke emotions, which can only be done through the power of poetry by classically trained poets. 
+Now, as filmmaking became more mainstream, the need to commercialize and devise formulas that would ensure the producers' profit became evident. Hence, the meaningful poems started to be replaced by elaborate dance sequences(e.g, a Romeo-Julilet level poem being replaced by a Taylor Swift song and dialogues of Othello being replaced by Tarantino-esq dialogues). The item song was introduced. The hero-heroine-villain construct was created. And when these types of films gained popularity and started making money, films like Pyaasa were sidelined.
+Such a landmark film in World Cinema like Pyaasa never gets the attention it should get. Hence, if I was able to convince some members of this community to watch this film, then I would consider the purpose of this post has been fulfilled.
+After all this time, bollywood has become truly garbage. Unfortunately, some of these garbage make their way to an international audience, diminishing the overall perception of Indian cinema. Nowadays, It's place has been taken by Telugu(RRR)/Tamil/Kannada industries for their big budget mass masala movies..
+But all is not doom and gloom. Some regional film industries, notable the Malayali, Marathi, and Bengali film industries, have been producing high-quality mid budget films for some time now. So, Indian cinema will go to new heights; this time led by more regional film industries. Which is an absolutely amazing thing.
+&amp;#x200B;</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2024-02-09 17:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>The Deer Hunter just might be the best film about Vietnam, even better than Apocalypse Now</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Apocalypse now is superior in many respects, but thematically The Deer Hunter is a much more human story and thematically a much richer and more personal film. 
+It explores the most important and perhaps least addressed facet of the war, and that is the devastating psychological impact the conflict had on its participants. In Apocalypse Now, we see some of these effects in the brief interactions with Kurtz but as a whole The Deer Hunter covers this much more thoroughly and anchors its entire story on this phenomenon.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Just watched Nashville (1975) and I need someone to tell me I’m not crazy for adoring this movie.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felt like it was a warm blanket wrapped around me for most of the movie (obviously excluding the ending). But the way you just feel inserted directly into Nashville and into these people’s lives is astounding to me. Almost 3 hours wasn’t enough- I could have watched 10 hours of it. All the talking over each other, the cast-created songs, the political drama. Loved it all. 
+But my husband and I are watching IMDBs top 100 greatest movies of all time and we discuss with each other after each movie-and I was so shocked to find he hated it. Despised it!!! Now I just need someone to validate me and tell me how much they loved this movie so I feel less crazy!!! If you’ve seen Nashville, what did you think?
+Edit: a snippet of our argument [here](https://www.instagram.com/reel/C3QjK-YO9Gn/?igsh=MXFhamNmNHhhM2licw==)if you want to hear my poor husband’s side. </t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024-02-12 21:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Anatomy of a Fall - why doesn't the movie mention the only real motive?</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>I enjoyed this movie a lot, but I don't understand why it is presented as ambiguous. It was completely clear that she didn't do it. 
+Considering everything the movie chooses to focus on and represent, the physical evidence initially seemed incriminating but then seemed to support the suicide/fall version much better. 
+Psychologically, all the points the movie focuses on, including the recording, don't make her seem likely to have killed him in a violent fight. She is the stronger side and feels good about herself, so even if she's sick of the guy it doesn't seem like she'd be the one to lose her shit enough to kill him by accident, and as a planned act it just doesn't make sense. 
+Even the fact that she was openly cheating in the past just goes to say she doesn't give a shit, so why even bother to kill him. On the other hand these are all good reasons for him to kill himself
+I agree with the idea that he recorded the whole thing to help him write the book. I think that was the goal but then she snapped and told him things that made him kill himself later.  
+I think whether the kid lied or not in the end isn't as important as the fact that he did it because he decided to believe her. Even that might not mean much but it still works in her favor. 
+Her actions throughout the movie seemed that of an innocent person, e.g. not rushing to portray him as suicidal and even not believing that interpretation, without the movie ever indicating she is manipulative. She did lie about the fight, but that seems like a very reasonable course of action unless you  know it was recorded. 
+So my conclusion was, she had everything and could have just divorced him, there is no clear motive for her killing him. As a reaction purely out of anger it seems very extreme for her character, it's not the same as slapping him (which she probably did even before the recorded fight but ok, it's clear that she sometimes lies). I don't even think you can be in such a better position than someone else and get that angry. 
+But then I realized she might have had a motive, custody. What would really happen if they divorced? I don't know the EU laws and usually the courts would give the kid to the mom but they were already in France and her husband was homeschooling him, I can see an argument being made that moving would upset him. She didn't seem to like living there in the middle of nowhere or even in France in general at all, so if she decided to go back home to Germany, would she even be able to keep the kid?
+This could potentially be a great motive, but the DA didn't even mention this possibility. 
+This doesn't make me think she did it, because I think we need to stick with the data presented to us in the movie, but I wonder why this wasn't used to make a stronger case against her. From the moment that lady explained that a jump or fall could have lead to the crime scene after all, they had no case against her.
+EDIT: One more off topic thing, I'm with her about that point that using the idea to develop a totally different story across 300 pages isn't stealing. It's not hard to have good ideas, it's much harder to write a good story around them, he didn't have shit. I'm pretty sure she's right that he let her use it. At least that made something out of it, so he can always say he had potential.</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2024-02-08 07:29:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>A Personal Experience with Coralie Fargeat's The Substance.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>One of the films that generated a lot of buzz at this year’s Cannes Film Festival was Coralie Fargeat’s The Substance; it even won the Best Screenplay award. Words like provocative, gnarly, and Cronenbergian were used to describe the film, so naturally, I knew I had to watch it. Finally, last night, I got to see it, and honestly, more than being a gruesome and titillating affair, I found it surprisingly relatable.
+The Substance is about a middle-aged, has-been star named Elisabeth Sparkles (Demi Moore), who realizes she is soon going to be replaced by someone younger in the show she has been a part of. She decides to experiment with a mysterious substance that can generate a younger, more attractive version of herself. Without going into much detail, in case you haven’t seen the film and plan to, things go sideways for Elisabeth when she begins disobeying the rules of the experimental substance. The rest of the film explores what happens between Elisabeth and her new body (wonderfully played by Margaret Qualley).
+Thematically, the film is clearly about the entertainment industry’s obsession with youth and the objectification of women’s bodies. Demi Moore bravely bares it all in Fargeat’s darkly comical yet honest take on ageism. The director doesn’t shy away from displaying the female body in all its “glory,” as a slap in the face to viewers who are used to the normalization of its sexualization. So, when Sparkles begins to see herself as nothing but a derelict remnant of her past ‘sexy’ self, she quickly starts to enjoy and appreciate the young, new body the substance gives her. Even though they are supposed to be the same person, a cognitive dissonance arises as the two versions struggle with each other’s actions. This is where things got interesting for me—and extremely relatable.
+I am in my early 30s now, but since I was around 24, I began balding. The process continued for a couple of years, exacerbated by undisciplined use of hair recovery products, but it has finally stabilized. I am not completely bald, but I prefer to keep my head shaven or closely trimmed. Hair transplants are obviously an option, but I have consciously decided not to fall prey to societal insecurities and instead promote the normalization of baldness. Of course, there are days when I don’t feel my best because of how I look, but I usually manage to power through. Yet, on those very days, the dissonance is most prominent. Visions of my past self with a full head of hair become all the more vivid, and I start to disassociate from my current appearance. Clothes no longer look the same on me, photos I once liked of myself no longer feel usable, people who know me sometimes do a double-take before recognizing me—the list goes on. If I use my old photos on a dating app, women might accuse me of catfishing. I just feel like a completely different person now. This dissonance is wonderfully portrayed in The Substance, albeit in a different context. A scene where Demi Moore struggles to come to terms with how she looks before a date hits a little too close to home.
+Films like Ondu Motteya Kathe have tried to highlight the struggles of balding, but they’ve missed the mark in depicting the internal conflict. The twofold aspect—society’s obsession with traditional beauty standards and the personal struggle to fit within them—has been keenly observed in The Substance. Not only that, the film also serves as a warning against dwelling in the past. If you allow yourself to be consumed by former glories, you run the risk of losing focus on your present self. It’s not “now vs. then”; you are one.
+I highly recommend The Substance. Fargeat skillfully blends the styles of David Cronenberg and Baz Luhrmann while paying homage to Stanley Kubrick, all while maintaining her own vision. It’s fun, gruesome, titillating, but most importantly, thought-provoking.</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2024-10-15 09:38:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>(500) Days of Summer</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Summer’s final conversation with Tom underscores the essential difference between her relationship with Tom and her eventual husband.
+Authentic Connection: Summer’s relationship with her husband started with him showing genuine interest in her as a person. This initial connection, based on curiosity and mutual interests, set a good starting foundation for their relationship. In contrast, Tom’s connection with Summer was more about his own idealization and the fulfillment of his romantic fantasies.
+First Meeting Comparison: When Summer first shows interest in Tom by mentioning The Smiths, it suggests she was open to him based on shared interests. However, Tom did not reciprocate by exploring Summer’s interests or thoughts in a meaningful way throughout their relationship.
+Emotional Depth: The scene where Summer shares personal stories with Tom, and he fails to truly listen, highlights a missed opportunity for emotional depth. Tom’s focus on how lucky he was to be with Summer, rather than on what she was sharing, points to his inability to see her as a complete person with her own experiences and feelings.
+Summer’s Clarity: In her final conversation with Tom, Summer explains that she felt a certainty with her husband that she never felt with Tom. This certainty likely stemmed from feeling seen and understood on a deeper level, which was something Tom didn’t provide due to his preoccupation with his idealized version of her.
+Growth and Realization: Tom’s journey throughout the film involves coming to terms with the difference between infatuation and true love. Summer’s revelation about her husband serves as a pivotal moment for Tom, illustrating the importance of genuine emotional connection over superficial or idealized notions of love.</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2024-07-15 07:04:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Poor things - is there a deeper layer of discourse that I'm missing?</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obviously it's oriented around a melting pot of themes explicitly ranging from feminine empowerment and patriarchal oppression to human nature to moral agency to loss of innocence to science ethics to social customs but I came away from the cinema feeling as if i had to be missing a bigger picture. Perhaps I'm not? It was outré, visually captivating and surprisingly hilarious, with a good balance between viscerally impactful and superficially thought provoking, so it doesn't necessarily need to have a deeper layer.
+But I can't say it left me 100% satisfied. 
+What was your takeaway?
+Edit : on further thought it felt like there were no real stakes and the frenetic pacing and absurdity whilst engaging definitely impeded my ability to place myself in the characters shoes and immerse myself in the situations nor delve deeper into its themes, causing it to feel more like a wave that washed over me albeit one teeming with exotic sea creatures rather than a wave that swept me up with it and took me on a journey </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2024-01-22 13:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>An important mistranslation in The Boy and The Heron that impacts the interpretation of the story</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>The original title of the movie (君たちはどう生きるか）is often translated into English as "how do you live?" But it's actually not *quite* that, and unfortunately the slight error impacts the way a viewer might interpret the message of the movie. 
+The correct translation of the title is actually "how will you live?" If they had meant to say "how do you live?" the sentence would have been 君たちはどう生きているか (ie. with the present continuous tense of the verb "live")
+I'd raised this point with a Japanese friend when we were discussing the movie; for context, he teaches Japanese at a school in Tokyo so definitely knows his stuff. He confirmed that it was indeed a wrong translation and that the title should be "how will you live?" This also means that the 1930s book from which the movie draws its name is also translated wrongly as it often appears on English websites as "How Do You Live?" which may also explain why many think the movie's directly translated title is the same.
+The difference between the two is probably self-explanatory. Asking "how do you live?" is kind of like asking someone how they're getting by/getting on (perhaps with an implicit acknowledgement of their difficult circumstances), how they're managing in their situation, etc. 
+"How will you live?" is different because it's asking us to consider how we *intend* to live, to make a choice about the future/our life to come. This is also why at the conclusion of the 1930s book the protagonist first shares how he intends to live his life in the future and then poses the same question to us/the reader: how will you live? 
+I personally thought that the movie made this amply clear through its dialogue and plot, but I'm not sure if my knowing that the title is actually "how will you live" from the start coloured my viewing as there seems to be quite a bit of confusion online about what this movie is trying to say.
+For me, going in knowing 1) this is probably Miyazaki's actual last movie and 2) the title being what it is, the way the movie unfolded was beautiful and organic and left some important takeaways. **The central theme of The Boy and The Heron is grief** - not just the grief of a young boy, but also the grief of a man who had poured his life into his work but knows that the studio he co-created does not have a future (at least, a future with a successor he'd hoped for), and also the grief of Studio Ghibli's fans, who know that Miyazaki's life is nearing its end.
+I know it's said that the great granduncle represents Takahata, but Ghibli is a studio that's smart enough to know that once they put a movie out there in the world, the story is no longer entirely theirs, but the viewers', because everyone will interpret the story slightly differently, and so the story becomes a million different stories. Ghibli is presumably absolutely ok with that (if they just wanted their stories to be interpreted in one way, there'd be a lot less ambiguity in their work). 
+I personally saw a lot of Miyazaki himself in the great granduncle; his sadness for his beautiful world that he can no longer keep going was palpable, but so was his sense of peace during the climax of the film. Paraphrasing here, but with a smile he told Mahito to go and create his own world, to make it peaceful, beautiful, bountiful. Wrapped up in there for me was a message to us, the audience/all who have loved Studio Ghilbi over the years. It was his way of showing us that he was at peace with his impending end, and his parting message to us is one of hope. IMO it was also a message to his son, Goro. They have an infamously strained relationship, not helped by Miyazaki's workaholic nature and deeply exacting standards. I felt this scene was a blessing to Goro, as if Miyazaki (after years of trying to find a successor just like the uncle) had understood that Goro must go and live his own life, make his own decisions about how his world would be. Whomever the message was meant for, the question is the same: how **will** you live?</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2024-01-16 21:31:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Dreading the Star Child in 2001: A Space Odyssey</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>I cant think of a scifi film that’s been analyzed more often or more closely than 2001. But weirdly, most analyses of the ending seem to agree on a single point — the Star Child (a transformed David Bowman) is benevolent.
+I was talking with a friend a month ago and he disagreed. Aside from the fact that the scene scared him as a kid (me too, if Im being honest. That funky fetus is really surreal) he didn’t “trust” the ending. To him, the Star Child is hovering ominously above the Earth before choosing to ruthlessly alter it.
+Now I know about the novel and the sequels, but if you study the film on its own I can see where this interpretation is coming from.
+Whats the first sequence in the film? A group of animals gain intelligence and beat the other hominids into submission. They manage to evolve rapidly by conquering the unevolved hominids and presumably wiping / breeding them out of existence.
+Now whats the final sequence of the film? The Star Child, looming over humanity—his underevolved peers. Is history about to repeat itself? The whimsical classical score portrays this as a triumphant moment, but for whom? Is this a good moment for the future of humanity, or for the present? Surely those screeching apes at the watering hole weren’t happy about the sudden upheaval to their social order.
+Thats what we discussed any way. Personally I still think its an uplifting ending, its been praised by secular types and religious people all over the world. Maybe the Star Child will evolve mankind and have to use some amount of force / coercion to do it, but that doesn’t *seem* to be what Kubrick (and definitely not Clarke) was going for.
+Has this ever been discussed elsewhere? Or does anyone else feel a bit spooked by the ending?</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2024-01-04 16:01:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Megalopolis, or the Rise of Stupid Criticism</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Megalopolis premieres tonight. It's a wide release (around 1700 theaters, last I checked), nationwide, with a cast of stars and a famous director. It is not expected to make any money at all. Why is that?
+I recently came across a particular scathing review from SFGate (which Reddit, undoubtedly for some very important reason, will not let me link), written by a Mr. Drew Magary. Entitled "Megalopolis is a piece of s--t" (a classy title if there ever was one), it is a long-winded and loud tirade against this picture. The writer explains (after a long series of paragraphs detailing Mr. Coppola's various misdeeds, verified and falsified alike) that you should not watch this picture. No matter how good it sounds (and, rather hilariously, he cannot prevent it from sounding at least a tiny bit good), you should resist the urge. Stay away, he says, for something dreadful lies before you.
+It should be noted, first of all, that journalism has fallen (both through supply and demand) to the level of clickbait. With print publications on the wane, the only hope for this medium to stay afloat is through the ceaseless courting of clicks, at any price. Thus, it is perhaps not the fault of Mr. Magary that his piece relies so much on emotion, and so little on any real analysis of the picture. In his irritation, he seems to have forgotten the first rule of criticism, which is to have something interesting to say about the criticized object. Pompous sniping is amusing in small doses, but an entire essay of it produces the feeling of a cake made entirely of poisonous fondant; substanceless and indigestible.
+Now, Mr. Magary does not completely ignore the picture. After a rash of feverish ad hominems, he does, at long last, detail a few bits of Megalopolis. And the bits actually sound rather tantalizing: Adam Driver's eye, after being shot, explodes into a miniature galaxy. Elvis sings the National Anthem. Shia LeBeouf wears drag. Aubrey Plaza (as you have probably heard) plays a character named Wow Platinum. These things may be badly done, but Mr. Magary never bothers to tell us precisely how these things are badly done. He simply points, and snickers.
+This has been a consistent pattern in the trade publications. Rick Worley (who, once again, I cannot link) published a video that essentially alleges that the negative criticism is due to critics being stupid. I would not go that far, since calling people stupid is not a terribly convincing argument (though it may be true). However, it is true that the establishment critics are not fond of the picture. This is, of course, fair enough; from what I have seen, this is not a picture that is made for every person, or even most people. But to tell the audience to stay away, at all costs, from the picture, seems to be laying it on a bit thick. If people want to see it, let them see it. Let them form their own opinion. I'll be there opening night, and I may hate it, but at least I'll hate it for my own reasons. Mr. Magary can keep his reasons, for what they are worth. I hope he had fun, at least.
+NOTE: I have not seen the picture yet. I am seeing it tomorrow. Will update with my own thoughts (if they end up being worth anything), but this isn't about whether the picture is good or not. It's about the principle of the thing. Telling people to stay away from something at all costs (besides being a peculiarly narrowing way of looking at art) is a great way to make people want to see it. And Coppola possibly being a sex pest (which they're litigating, so we'll see what the outcome is) doesn't make the picture bad. Half of the bigwigs in Hollywood do this crap every day. If you won't look at a piece of art made by a bad person, then you won't have any art left to look at. Not excusing it, but powerful people are generally pretty corrupt. Shouldn't be, but there it is.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2024-09-26 18:18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>FIGHT CLUB (1999) The twist in Fight Club is pertinent to it's key message and by no means a "Cop out".</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>So, this applies to the book itself- but when I was younger, I saw, liked and appreciated Fight Club for a myriad of reasons. Later on when I finally encountered others who saw the film to hear a common take: "It's REALLY good until the twist at the end, then it falls apart." I was so suprised to hear this again and again and again. 
+The idea being that it's a really strong premise about alienation in modern day society and people, men namely, railing against it. But later in the story the author seems to run out of things to say and resorts to this insane paradigm shifts that serves as an out for the remainder of the story.
+To me, this is missing the story ENTIRELY. Okay so let's say the remainder of the story is just two real guys, Narrator and Tyler taking over the world through domestic terrorism. Ok. That's sort- something I guess.
+But the real crux of FIght Club isn't actually about fist fights and changing the world through explosive soap. It's actually all about the ID. It's a meditation around the idea of the human ego, what it actually is in it's purest form and how we should responsibly treat it.
+The story starts out with "Jack" aka "Narrator" aka Ed Norton who is a suit, working in a safe, predefined world that shaves off every hard edge and any sense of self or danger.
+Norton has fallen into a cookie cutter role of "Working man"  without any ability to indulge himself in any sort of original thought or identity.
+As the story progresses what we learn later, is Ed Norton's character is letting his Ego, his ID completely loose on society. The ID as it's described by philosphers is the purest, primal self. Sexual desires, core needs and wants as they pertain to the immediate mindset devoid of any other consequence is what comes out.
+Back in the day you could argue Genghis Khan was an ID maximalist, dominating, destroying, taking, having sex with everything and anything he ever wanted, eating, embibing with no other consideration. Now take that mindset and set it into modern day, where does that belong? Anywhere? To what extent? These are the questions fight club is asking.
+By the final act of Fight Club we realize the entire story is about Norton discovering his ID has gotten totally loose and is compleyley out of control. To me this is a much deeper, much more interesting premise than just guys who are anarchists. It's philsosophical thought experiment.
+Breaking Bad explored this to an extent- we learn it's not really about Meth with Walter White, but rather a man who has chosen to become an unstoppable object and plow past the word "No" by unleashing his ID on society.
+FIght clubs thesis is starting with the plaintiff complaint of "Why can't we just be ourselves? Why do we have to midigate who we are, truly?" and then slowly evolves it into "Wait- maybe that's a terrible idea. Maybe we are not great by nature and should curb certain parts of our deepest ID at all costs if we live within a modern society"
+The story also hilariously tackles the issue that we as a society actually seem to seek someone to tell us what to do- at least to a certain extent. The shee satirical irony that the followers of Tyler ultimately end up as nameless worker drones who have no identity is evidence of this and kind of hihglights the same thing we've seen in history where revolution leads to opression over and over again.
+All in all, I think the story is far deeper and superior for following this thread of the true driving forces of the inner self versus guys simply railing against a sytem.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2024-11-06 15:40:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Starship Troopers - The Battle of Klendathu is one of the most harrowing war sequences ever filmed</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For context, I’ve seen about every war/military movie under the sun. This is not a joke post.
+I watched Starship Troopers last night for the first time in at least 15 years, and part of its success in holding up as a really really good satire is its depiction of the brutality of war. 
+Paul Verhoeven’s direction is excellent in building this fascist-propagandist world up to the point where by the time the soldiers are sent to Klendathu to kill some bugs, we the viewers are fully expecting them to kick some ass. But what Verhoeven does especially well in this sequence is showcase the FEAR and horror of the reality these soldiers have not yet been faced with. Everyone, from the starfleet to the ground soldiers have been misled to believe this will be an easy fight, but the bugs are far bigger in numbers and intelligence than anyone ever expected - leading to an absolutely horrifying bloodblath. 
+The sequence in question begins with a grandiose “Ride-of-the-Valkyrie’s” type action where these soldiers we’ve gotten to know since bootcamp are finally being sent off to war, and the viewer can absolutely feel this nervousness and sense of anxiety as the ships make their way down to the planet. Once on the planet, suddenly characters we know and were expecting to be larger parts of the story are being picked off in brutal fashion. That’s war. No one is a main character. Everything leading up to this moment makes this sudden carnage so shocking and almost heartbreaking, as we see the fear of these young soldiers as they realize they’re dead-meat. 
+This whole sequence is very effective to me, and even if this is a pseudo-comedy satire about giant bugs, I find it to be one of the most effective battle sequences I’ve ever seen. 
+What are ya’lls thoughts on this sequence, or in Starship Troopers in general? I find it to be an excellent film </t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2024-05-15 14:34:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kingdom of the Planet of the Apes (2024) goes in a much more interesting direction than I expected. </t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorry if my thoughts are a little disorganized, haven't had the time to editorialize.
+The obvious direction to go after the Caesar trilogy would've been to make the movie about how the apes are now oppressing humans and then one lone ape realises humans have feelings too and so the ape teams u p with a human and together they take down the tyrannical monkey oppressing the humans and they live happily ever after (much like the marky mark tim burton remake). 
+Instead of taking the obvious route though, this movie went in a more interesting direction exploring questions like, "What is knowledge and what is the relationship between civilisations and knowledge?"
+At present, humans, at one time the dominant species due to their intellect, are living in squalor and are unable to cope with their new reality. On the other hand, apes, who know so little in comparison that they don't even know their own history, are thriving.
+So the movie asks, what is the point of knowing shit if you cannot apply the shit you know to do stuff? There's a really great scene that illustrates this idea. After proximus captures Noah and reunites him with his clan, his mother says that the eagle clan is gone but Noah replies that the eagle clan lives inside them, meaning, they still have the knowledge of how to domesticate eagles. Then his mother replies, "we're here" and says that proximus has no use for eagles, implying that they are not what makes eagle clan, it's their knowledge base and since their knowledge is worthless in proximus' kingdom, the eagle clan is still gone despite many members of clan surviving. 
+This conversation pays off in the climactic fight with proximus. The eagle clan, who were defeated and had their spirits broken, had a new fire light inside them when Noah demonstrated infront of everyone that their knowledge is still useful when Noah uses the eagles to defeat the proximus.
+However, the movie also explores how civilizations cannot grow without learning through Noah's arc (no pun intended) and his relationship with his clan, Rakka and Proximus. Noah comes from a culture of ignorance where whatever the elders say goes without question. They know little to nothing about anything outside their little community and anything about their past. 
+He then meets Rakka and Proximus and unlike him and his clan, both these apes have a lust for knowledge. Their curiosity and how they interpret and use the knowledge they acquire is what makes Noah realise the folly of ignorance and reconsider the ways of his clan. This leads to him embarking on a journey of enlightenment at the end of the movie.
+The human woman character, Maya turned out to be far more interesting than I had thought she would be based on the trailer. She also contributes to Noah's arc by showing him the perspective of humans who had vast knowledge that they used to be the dominant species but now that their civilization has collapsed, they are at the bottom of the totem pole because none of their skills are relevant in the world their currently in. 
+She and the other humans who were not affected by the simian flu represent the relationship between knowledge and power. Proximus wants more power by using Human's vast knowledge but Maya won't let him. She would rather destroy the last remnants of her civilization that allow what she considers an enemy to have it. 
+One way to look at her relationship with Noah is that they are two opposites sides of a coin. While noah represents the vast potential that lies ahead of him in his journey to learn all the things he doesn't know, she represents the inadequacy of knowing too much and not being able to do anything with that knowledge. 
+A really great scene illustrating this dynamic was early on when Noah looked through the telescope for the first time. He is amazed by what he sees and he notices that when Maya looks through the telescope she also has a reaction. He later tells Rakka that maya reacted the way an ape would, meaning he realises she's not a low iq animal like the other "echos" they've previously encountered. At the time, Noah's interpretation of Maya's reaction seems true because we don't know the extent to her sentience. However, as we learn more about her, it becomes clear that her reaction was completely different. 
+When Noah looks through the telescope, it is the first step in his journey to realising the extent of his ignorance which eventually leads to him deciding to take the journey of enlightenment at the end of the movie. For Maya on the other hand, it severs as a sobering reminder of how far humankind has fallen. Once, human's capacity for knowledge was so great and they curiosity so unbound that they had to look to the cosmos to satisfy it. Now, all that vast amounts of information means nothing. 
+Anyway, great movie. Hope this does well at the box office so we see the whole trilogy because the set up is really compelling. Word of mouth unfortunately doesn't seem to too great but fingers crossed. </t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2024-05-12 15:04:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Aguirre, the Wrath of God (1972)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>This film was my introduction to Werner Herzog's ouevre, and what an introduction! From the first scene with the conquistadors coming down the mountain, to the final scene of Aguirre finally confirming his madness alone on the raft, one thing comes to mind: this is absurd! Brilliantly absurd.
+Their quest is futile from the very start - there is no El Dorado. The ladies dressed in beautiful dresses, carried up and down mountains into and through the hostile jungle, the mutineers' letter to the King (that obviously no one will ever read), the mock trial, the "official" claiming of the land around the river... it's all so wonderfully absurd.
+Klaus Kinski's performance is great, his evil scheming and then his increasingly obvious madness is played very well.
+Some of my favourite scenes:
+* The mutiny
+* Aguirre speaks to his prisoner in the cage
+* The horse is left on land
+* The conquistadors find salt
+* The finale
+I finish the film thinking "what are they even doing there?", so out of their element, both literally and figuratively.
+What were your takeaways of *Aguirre, the Wrath of God*?</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2024-02-15 13:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Trap (2024) by M Night Shyamalan review</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's a Trap!
+On a rainy Saturday afternoon our group of friends agreed upon viewing the latest M Night Shyamalan movie, Trap.
+At the end of the film, the group unanimously agreed: it is perhaps one of the worst films we have seen recently. For my part, I was almost embarrassed by some scenes and caught myself hoping the movie would end soon.
+My chief reproach lies in the depiction of insanity. The film being preceded by the trailer of "Smile 2" probably led me to that sentiment. 
+In both films, we see some insane characters smile in a creepy way. I am no expert on the subject of serial killers, and please correct me if I am wrong here, but it seems to me that the "creepy smile" is more of a contemporary cinematographic topos to signify insanity rather than a real habit of serial killers, or at least not in this frequency.
+From there, I kind of felt like the butcher became a "fake" horror beast, a pure mythological creature which can never exist in reality. A sort of caricature of a serial killer in some way. Since the movie seems to operate in the "real world", I found it was a shame that the butcher was not a more real human. To me it would have been much scarier if I went out of the cinema and thought "Wow a guy like this could live in the same street as me". 
+It is a shame because it seemed to me that Josh Harnett put great energy in the depiction of his character, but to me, he was chasing the wrong vision. In some way, I find he is the "best badly acted serial killer" he could have been, if that makes any sense. However he remains a fictitious one, just as you will never ever meet one of the monsters of "Smile 2" in real life. 
+On a societal level, it makes me wonder: do we seek to protect ourselves from real insanity by hiding it behind the masquerade of it? As if the really insane should not be allowed to collide with the "sane" movie goers. The insane stand behind an unseen wall, and instead we interact with a simulacrum of insanity, but it is a pure image, as real as the wolf under the bed of course. We tell the story and have a good laugh. It was never real! I would prefer that we accept that the insane live among us, or perhaps, even scarier, in some ways within us. Here, Cooper is so gigantically crazy that he is an alien to our kind. I would be more unsettled by a movie that would lead me to question myself: "Could it be me? Could I ever become a serial killer?"
+All this makes me think that Trap almost lingers on the frontier of the supernatural, but does not quite fully go there. Cooper's extreme strength at the end of the movie could hint in that direction, as well as his changeling feats and high intelligence. However I found these elements to be still a bit lacking to make us fully enter the "fantastic" realm if such was the endeavor. I think the movie perhaps could have been much more entertaining if the script leaned towards that direction, as many of M night Shyamalan past movies do. 
+I also think that the fantastic synergises better with M night Shyamalan "twist heavy style", which is, let's say it, not always the most realistic, although I think it is one the great distinctive and entertaining qualities of the director. 
+Although this one missed the mark by quite a mile, I hope M Night Shyamalan can bring about new good movies in the future. He surely has the ability to. 
+</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2024-08-18 13:20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Paris, Texas - critique or earnest?</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I just rewatched Paris, Texas last night for the first time in a long, long time. I remember LOVING it when I was younger but this time, by the time Travis and Jane start their exposition, I was struggling and very, very uncomfortable. 
+Travis is a monster. In his selfish attempt at self-absolution he essentially kidnaps Hunter from a comfortable life with a loving family and hands him off to his mom who, though she loves him, does NOT have the capacity to raise him well. The ending, this time around, was not heartwarming as much as disgusting to me. 
+But it got me thinking- is that what Wenders / Shepard were saying? That the narrative of individualist self-actualization and redemption, common themes in movies and media, can be dangerous and dubious? That the archetype of the laconic drifter is incompatible with complexities of real life? And that if that person were to exist, they’d drift from circle to circle and disrupt everytjing like whirlwind that then moves on free from consequence?
+I’m not confident enough to think that this is what Wenders was going for - and the whole reading may be cope to reconcile a movie that I loved with my now-lukewarm reception to it, but I do think Wenders was very intentional to show the quiet, everyday, functional love that Walt and Anne had for Hunter- they raised him, enforced rules on him and loved him unconditionally,  as real parents do whereas Travis is like the cool uncle who we all KNOW cannot raise a kid. Additionally, Wenders seems to characterize Travis as a pathetic chickenshit coward, always unable to face his problems. He can’t face Anne in the phonebooth, he can’t face telling Hunter the truth so elects to do it via recording, he can’t face Jane in the club and he can’t face the aftermath of his actions at the end. 
+It just seemed like Wenders was condemning or judging Travis, in a way. So why then is he so commonly seen as such a sympathetic character? Is it just HDS’ je ne sais quoi? </t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2024-03-19 22:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Zadie Smith's Pulitzer finalist review of Tar</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Having heard that Zadie Smith's [review of Tar](https://www.nybooks.com/articles/2023/01/19/the-instrumentalist-tar-todd-field-zadie-smith/#fn-2) in The New York Review of Books was a finalist for the Pulitzer Prize, I read it with great curiosity, but kinda found myself wondering what the big deal was and why it merited such a grand honor.
+There is not much criticism in it, if any (Blanchett's performance comes in for praise and we can kinda generally tell she likes the way the film deals with the themes, but that's about it), though it is categorized as a review on the NYRB's site. It is perhaps more accurately described as an essay, but then it doesn't really make any point or argue for anything. It is essentially retells the film and explains how particular moments and beats relate to particular themes the film deals with.
+Am I just not understanding or appreciating what's great about this review/essay? What are your thoughts?</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2024-05-21 23:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Poor Things: A near-perfect film that felt like discovering life anew.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Simply blown away by this movie, may well be my favorite of 2023. Would've been more or less flawless if the third act wasn't as bloated and languidly paced, but it wasn't enough to ruin the film. I'm so glad I went in more or less blind to this movie - I knew the basic premise, but the details were all the most pleasant of surprises.
+Emma Stone deserves all the awards for this performance. Even within the opening minutes this clearly felt like a role that any actor would leap at the chance to play, but I can't imagine anyone else doing it now. Watching her evolve from a child pieced together with spare parts to a mature woman was enthralling, and both she and the movie immediately made you fall in love with her weirdness. Some part of me was slightly dismayed to see her become more "normal" (especially as she began to see the ugliness of the world), since her sweet naivete seemed to function as a mirror to deconstruct much of the pointless misery and cynicism we as a species trade in. Watching her felt like discovering life anew. I wish I could be a fly on the wall during her sessions crafting this character alongside Lanthimos and Tony McNamara. It was both spontaneous and specific to a degree only the most skillful of artists could conceive of.
+Nearly everyone else brought their A-game too. Dafoe was predictably marvelous, and his character had a lot more warmth and kindness than I expected. Watching him casually rationalize his father's deranged cruelty in the name of science provided some of the film's most quietly devastating moments. Ruffalo was an absolute revelation, taking a character that could've become a grating caricature and making him a hilariously watchable presence. It was the mix of primal rage and self-debasing comedy that his last few Hulk appearances have not properly afforded him. I loved Christopher Abbott in his brief scenes even though I feel his character's inclusion in the story was extraneous - he was equal parts charming and horrifying. Carmichael was the one miscast. Felt totally out of place, and his line readings were devoid of any personality.
+The art direction and visual style came as a complete surprise to me. I figured the black and white portions would take some aesthetic liberties, but that first shot of Lisbon with all the paper-cutout backgrounds and steampunk elements seriously took me aback, and I realized the world of this movie was 10x as imaginative as it already was. More or less every shot in this movie was a visual feast, making painterly use of vibrant colors to create gorgeous, surreal, magnificently weird worlds. Many of the establishing shots reminded me of the work of [Erik Johansson](https://www.erikjo.com/work/loyalmail). The movie's visual inventiveness extended beyond just the cinematography and set design but also the font choices, the way the credits were arranged onscreen (wrapping around the borders of the frame), and of course those incredible title cards which I couldn't get enough of. Worlds within worlds.
+I didn't want the movie to end during the first 2/3rds. I expected the movie to be at least somewhat funny, but it was fucking HILARIOUS, with me and my whole row in the theater laughing out loud at so many points. The humor in the movie worked mainly because it came from physical gags and inherently funny situations rather than just canned one-liners like you see in most Hollywood comedies. Dafoe burping those fucking bubbles for one, lost it every time. Most of the funniest moments were between Stone and Ruffalo (an incredible comic duo), especially the scene where she spits out her food during a dinner with another couple and the women joke about their partners' penises. It sounds so basic on paper and yet the script and actors made it uniquely brilliant. So much humor in Bella's many ingenious, adorable phrases for things. "Furious jumping" needs to become a meme.
+The movie did sag a fair bit once it hit the brothel section in Paris, though this felt intentional. Much of the movie was an allegory for the disappointments of adulthood, and we could see both Bella's eccentricities and the movie's visual flair tone down as she matured. Though there was something very inspiring (perhaps even zen) about seeing Bella treat her own misfortune and depression about the world as yet another thing to be experienced and explored rather than avoided. Her foray into philosophy could've easily become hamfisted and sermonlike, but it felt authentic and genuine in the hands of McNamara and Stone. Still, the movie spent so long in that brothel that it became visually monotonous after the varied cadence established during the first half. 
+The whole sequence with the first husband could've been cut out entirely - again, Abbott was magnificent and completely took command of the screen in the final stretch, but those scenes hammered home points that had already been thoroughly made by then, and fucked with the pace of the movie a lot. I understand Bella's curiosity about her "past" life, but her decision to simply ditch Max and Godwin to go with this guy felt reckless and out of character, and in either case I don't think the movie needed to "explain" Victoria's suicide. The film already examined its themes of men's possessiveness over women in far more elegant fashion during the first half, and didn't need an abusive maniac husband character to drive that point home any further. Still though, the bit with the goat was a fantastic way to end the movie.
+Hope this wins a bunch of major awards. I think it has Barbie beat not just thematically but even in the art direction/production design/cinematography department, and Stone handily deserves Best Actress. I loved her in The Favourite and La La Land, but this is far and away her best performance. It's always wonderful seeing a partnership between a director and an actor blossom like this, and the Lanthimos-Stone collaboration has the potential to go down in history as one of cinema's great creative pairings. They really bring out the best in each other, and this movie channeled their talents into one of the most vividly alive pieces of filmmaking I've watched.</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2024-02-04 10:27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What’s your take on Cronenberg’s Crash? </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think the film is incredibly well directed with a great score and really well done cinematography - whether it’s a build up to a literal crash scene or the camera being that voyeuristic audience. It’s lean, well acted for the subject matter. Elias Koteas was simultaneously creepy and hilarious.   
+Almost 30 years after the release, what’s your take on the themes of the film? I mean in today’s world, kink/fetish is relatively more accepted than say 70s or 80s or 90s. For me, the film (or rather the book upon which it’s based) - I didn’t understand or connect to what the author/ director wanted to say.   
+If I look at a film like Peter Strickland’s The Duke of Burgundy, as the film progresses it really goes deep and explores the D/s dynamic where one partner wants to play out extremes while the other is feeling forced to act as a tough Dom. There’s a psychological role reversal.   
+But Crash - yeah sure, there are seriously well done scenes but if it’s just a small group of people horned up by car accidents and it’s their story then it really isn’t interesting. What am I missing? </t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2024-07-02 18:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>What are your thoughts on Klaus Kinski?</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Question, What are your thoughts on Klaus Kinski?
+I said it before and I will say it again, Klaus Kinski is without a doubt on the craziest actors to have ever grazed the cinemas. This guy is probably more know for his violent temper tantrums, and proned to be violent in his outbursts directed by anyone who dared to come into his presence.
+Despite this, he was really a great actor, but one where he would do anything for a paycheck and was basically a prostitute for films. However, even in a film that is bad, Kinski will be the best thing in the film regardless if it was bad or not.
+His I think his best performances are when he is directed by Werner Herzog. Aguirre, Wrath of God, Nosferatu, Woyzeck, Fitzcarraldo, and Cobra Verde are genuinely great films, in large part because Werner knew exactly how to harness the beast that is Klaus Kinski and get him to give probably the best performances that he could of made in his career. I also think Werner is just as crazy as Klaus, but more subtle to neutral crazy and at least has good working relationships with his peers.
+However I also think Kinski is also great in The Great Silence, And God Said To Cain, Crawlspace Exc. I also recommend people to see Kinski in other Spaghetti Westerns.
+Overall, What are your thoughts on Klaus Kinski?</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2024-01-13 19:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I can't remember the last time a movie got such a purely emotional reaction out of me as 'The Iron Claw' </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>I feel like this film somewhat got swept under the rug last year amidst a *very* busy Oscar season, understandably as there was a lot going on that year, but I was still a little disappointed to see that it was basically completely ignored. A cursory glance at the poster or trailer probably lead most to thinking this would be a pretty standard sports biopic/'bro'-ish movie, which honestly I kind of thought it would be as well (although seeing that A24 was producing/distributing it obviously clued me in that it would probably be something different than that), but I was convinced after a friend of mine who was much more familiar with the Von Erich's told me to go in knowing as little as possible. 
+That being said, I wasn't expecting a goddamn Greek-epic-by-way-of-Americana-folklore complete with some of the most effecting moments I've seen in anything in a long time. 
+It was something that became immediately clear right from the opening shot, that this was really going to be something special. I saw it at a Dolby theater at an early screening, and the sound design was insane; the first time Kevin gets dropped and you hear an all-too-realistic 'cracking' sound made me jolt in my seat. The production design in the arenas, the hazy light and sweat on every surface, the houses that actually look lived in and real, everything about it just felt like it had so much love and so much care put into it and I just couldn't get enough of it.
+Pretty soon I started to get a more clear sense of the direction the story was headed, but wasn't really prepared for the extent of it at first. The scene of Kerry taking out the motorcycle while drunk was just *so* well done; the tension is built up so naturally that by the time we're charging headfirst into the night with the revving of the engine growing louder and louder, the cut to black followed by his newly limited mobility is a thousand times more gutting than any recreation of the incident that a lesser filmmaker would've capitalized on for a cheap 'trailer moment'.
+The moment that really sticks out in my mind, though, is the metaphorical 'crossing of the river styx', which is where I could really feel the film transcending into something genuinely special. I haven't often heard people actually crying while in the theater, but I swear to god a majority of the audience was legitimately sobbing by the time they revealed the youngest brother. I was a complete fucking mess lol, and I think I've maybe cried in the theater like four or five times *ever*. This was the most by a mile. 
+I think a lot of it may have been that during that time I had gotten so used to movies just feeling very 'in one ear, out the other', where we're all sitting in front of the most incredible technology and the best sound and images that the industry can pump out, and yet more often than not when the film ends everyone is just filing out and moving on with their lives, checking their phones, finishing their snacks. This time was totally different. 
+I'll admit I actually waited through at least part of the credits to get myself together a little bit lol, but when I was leaving the theater I could still see people sniffling and wiping tears away, which was just so fucking shocking. I've seen hundreds of movies in theaters over the years, and honestly I can't think of a single other one where the crowd reaction was anything even remotely close to this. 
+I've seen those old news reports of people walking out of movies like *Titanic* much more visibly emotional and it genuinely was the closest I've ever felt to experiencing something like that, which is why I was a little surprised when it didn't seem to pick up as much traction in general release as I might've expected. Either way, I really loved both this and Durkin's previous film, *Martha Marcy May Marlene*. I guess even though it might not be a completely Oscar-level technical execution in the same way as something like *Zone of Interest* or *Poor Things*, but I guess it just feels like one of the oldest debates in all of art, which is whether something is better for achievement in its ability to garner an emotional response versus the quality of the craftsmanship, and the things that can be measured somewhat more objectively. 
+Part of it is also knowing that the emotional aspect is infinitely more personal and subjective from one person to another, whereas it's a lot easier for most people to agree that something like *Anora* is, overall, a very well assembled film. Is it a 'better' film? Maybe. Did it get the same emotional response out of me? Not at all. Still an incredible film and one I really did think was really exceptional, but I guess I'm just surprised that any modern movie managed to elicit that kind of response from my crusty, swollen heart. Maybe this sounds a little overly dramatic or cheesy, but I'm just genuinely glad that I can still sometimes go to a movie and have an experience with a crowd that feels special, and not just 'Content Delivery System #243252'. Cheers to you, Sean Durkin.</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:41:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Where do you guys get your film recommendations?</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Nowadays, it seems harder than ever to get a hold of good movie recommendations. Everywhere I look online I find either people reccomending the usual Hollywood blockbuster movies (from Tarantino to the MCU) or more alternative "historical cinema" lists, which go over the timeless Hitchcock, Tarkovsky, Fellini, and all that.
+Yet I find it increasingly hard to find "deep dives" into more obscure stuff. Movies like Ape (Joel Potrykus), Close Up, Tropical Malady, or Black Metal Veins are just some examples of films that would probably *never* show up on any normal list — and the more movies I watch, the more I find that these deeper dives are needed. 
+All four of these movies came into my life by mere chance, but I'd love to have all my recommendations centralized in a few places, so any tips are appreciated!</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2024-05-05 23:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Park Chan-wook's Decision to Leave and how it embraces modern tech </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>This is my second time watching this movie and it was a whole new experience. This film excels in the art of subtle foreshadowing and communication with excellent directing. This is clearlyPark Chan-wook's most subtle film for sure. Among all the admirable qualities, I wanna talk about the use of technology in this film.
+Decision to Leaveis hardly the only film that embraces the use of modern technology such as smartphones, laptops, wireless headphones, and "smart" cars with touch screens. This film stands out because of how essential 2020s tech is, *despite* the fact that the relationship between humanity and technology is not the central theme of the narrative.
+This is unlike films like Her (2013), which does integrate the use of technology well, but it's the central theme. I would say that Decision to Leave is similar to Happy End (2017) in this regard, but the former takes it to the next level.
+1. The film in in touch with how people ACTUALLY use modern tech devices
+* The dementia grandma is the only one in the film that uses the flip wallet phone case, which is such an old person moment.
+* The characters mainly text to communicate, which is realistic because almost no one these days actually *calls* on their phone. Only urgent subjects have the privilege of being discussed over calls.
+* Google translate is **immediately** pulled out when talking to foreigners
+* Almost every video is watched on Youtube phone app
+* Almost every piece of evidence is displayed through the phone (Seo-rae's Chinese criminal record, her grandpa's award, etc.)
+* Seo-rae's x-rays and domestic violence bruises are displayed on a monitor (with the investigator hovering her cursor over the images to "point") instead of the traditional radiographic film and photo prints.
+* The "captain's log" dialogue is recorded in the voice memos app
+* This film takes advantage of the subtle convenience of having wireless earpieces, which allows two people to share without being tangled up
+* The scene where Hae-jun is struggling to modify his response cuz Seo-rae is responding rapidly on text is an experience we've all had lmao.
+1. Tech devices as plot devices, instead of plot hinderances. Most films tend to make periods pieces or just ignore technology entirely because they kinda fix a problem that a narrative wants the characters to face. This film not only embraces these devices, but it utilizes them for the plot.
+* The male buddy cop texted someone, and the other person he was texting clearly was not using an iphone cuz his imessage was green. It is interesting to see how the film assigns some people to have green or blue text bubbles whenever they are texting the iphone-owning protagonist.
+* The step tracker actually was the reason how Hae-jun figured out that Se-rae killed her husband
+* The recording of Hae-jun's confession led to Seo-rae killing her second husband
+1. The film stylistically complements these tech devices
+* I adore the shots where we get a POV of the phone facing the sky and the characters. I like how the phone screens are mirrored and transparent as well.
+* I like the "switch" of perspective to the phone camera's perspective, along with how beautiful it looks. I feel like Park chose the iphone because of its camera quality and how aesthetic its camera app looks
+* I love the part where the two leads look at each other longingly each with an airpod in one ear
+* Near the ending, Hae-jun and Seo-rae pause and rewind audio recordings. This is accompanied by how the visuals are paused and rewound accordingly
+Overall, I'm pretty sure people already noticed this; I just wanted to articulate my appreciation for this.</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2024-12-04 05:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Zone of Interest is not as challenging as it could be</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>First, I want to say that I liked *Zone of Interest*. It deserves the praise it got, especially with regard to the sound design.
+But the thing I kept hearing about the film was how it humanizes the characters.  Christian Friedel, the actor who played Rudolf Höss, said: "As soon as I met Jonathan [Glazer, the director], I was convinced of his vision, of his approach, to show him as a boring bureaucrat in everyday situations, to give this monstrous person a human face. The challenge is always the same: How do I transform myself to play the human behind the character and not the cliché?"
+The film *does* portray the Höss family (including his wife and children) as human beings with feet of clay. As Glazer puts it, they’re “non-thinking, bourgeois, aspirational-careerist horrors,” which gives the game away, I think.
+They’re not demons, but as characters, they’re uniformly and one-dimensionally awful. Rudolf is an overbearing boss, cold to his family, distant; he cheats on his wife, Hedwig. She’s a shrew, rude to the help, almost as uninterested in their children as he is. And those kids are annoying, to boot.
+Even if these people weren't Nazis participating in the Holocaust, they'd still be the worst family in your HoA.
+I don't think Höss smiles even once in the film. Even without showing anything inside the concentration camp, the movie makes it really easy to dislike everyone. Imagine if the character had been pleasant, charming, and funny. If his wife was warm and nurturing, if the kids were precocious. Imagine if they were likeable. Then we’d have to recognize that *they* could be *us*.
+It's natural to sympathize with the victims of the Holocaust, to worry that something like that could happen to you or your family. We *should* have that kind of sympathy.
+It's quite another thing to look at the perpetrators and think, “In the ~~right~~ wrong circumstances, *that* could be *me*.”
+As Solzhenitsyn wisely said, the line between good and evil cuts through every human heart, yours, mine, and Rudolf Höss’s, too.
+Glazer never dares approach that line. Sure, Rudolf Höss is human, but he's still an asshole. “The commandant of Auschwitz is a bad guy” isn’t much of a statement. We’re all on board with the fact that Nazis are evil. This isn’t news. (Yes, I know neo-Nazis and their ilk exist, but they’re not gonna watch this movie. And even if they did, it’s not gonna change their minds.)
+How much more challenging would it be to make the audience like the character, and his family. To empathize with mundane, daily struggles of homelife and childrearing, balancing work and family? To make evil appealing, but not in that fake, movie serial killer way.
+Millions of people were killed in the Holocaust, which is horrific. But the perpetrators weren’t “horrors,” as Glazer put it. Instead, as the title of Christopher Browning’s enlightening and shocking book puts it, most of them were *ordinary men*.
+---
+This is a condensed version of [a longer piece I wrote in my Substack](https://open.substack.com/pub/toomuchfilmschool/p/propaganda-and-the-banality-of-zone?r=2jxio&amp;utm_campaign=post&amp;utm_medium=web), where I also discuss Leni Riefenstahl's *Olympia*
+Both *Olympia* and *The Zone of Interest* portray Nazis. Riefenstahl tried to make them appear superhuman and extraordinary; with our historical perspective, we know that they’re not, certainly morally. Glazer wants them to appear “human,” but still not *ordinary*. Counterintuitively, this means the old propaganda film has more complexity (at least for modern viewers). *Zone* simply reaffirms our belief that Nazis=bad. It’s simple, banal, and let’s us off the hook.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024-08-14 14:32:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Why is the car scene in Denis Villeneuve's 'Prisoners' so captivating?</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>I just finished watching Prisoners for the first time yesterday and there's one scene in it that I've been watching on repeat since. 
+It's the scene when Detective Loki finally finds Anna and rushes her to the hospital. I can't quite grasp what it is about this scene that's so captivating to me. Somehow, a regular shot of an American highway suddenly looked so surreal to me in that moment. All those flashing lights, the blue lights of the car flashing on Loki's blood stained face. And the music, my God the music by Jóhann Jóhannsson (RIP), just elevates this scene beyond words for me. Just the sheer determinism of our protagonist to race against time in the end, combined with the visuals and music, has imprinted this scene in my mind.
+But why? Flashy well made car chases are not anything new to cinema, so why is this relatively simply made scene so enthralling?</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024-05-10 11:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Do we still have cult films?</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When I was a teenager I’d always hear Big Lebowski labeled a cult film. Even in 2008, when I first saw it, that didn’t seem like the case, the movie just seemed like a classic. I’d see guys in “The Dude Abides” shirts when I went downtown, my school’s bowling club had Lebowski references in all their flyers, and any time I’d quote the movie people would recognize it. Fast forward a few years and The Dude had become one of the most beloved movie protagonists. The other “cult films” I’d hear about included Blade Runner, Eraserhead, Donnie Darko, Dazed and Confused, Rocky Horror, etc. and those all seemed pretty ubiquitous. I began to doubt that cult films actually exist and feel that way more than ever. I sort of feel like Southland Tales is one of the last true cult films since its had a pretty devoted fanbase for 20 years but is still not widely discussed or regarded as a great film. Or even a good one.
+Nowadays, when anyone can watch anything at any time, do we still have cult movies? What are some examples in the streaming era?
+EDIT: I’m fine with the downvotes and appreciate the really good examples of modern cult films </t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024-01-02 03:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wife and I had disagreements about the themes surrounding the Devil Wears Prada (2006). I still feel that this movie has very similar theming to American Psycho (2000). Please tell me if I am looking too much into it. </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>My wife expected me to hate The Devil Wears Prada but after watching it I absolutely loved it. I think I took the completely wrong message from it though, making me very confused about why people like/dislike it.
+To me, we see multiple characters on 'the ladder' attempting to climb higher. Andy starts off as a nice girl who prioritizes her personal life over her career, and then begins to take traits off Miranda as she attempts to further her career. She begins to prioritize learning the business of fashion and sacrifices her personal life. I noticed that the people that seem to be closer to Miranda seem to emulate her. Andy sacrifices her ideals and  her morals because 'Everybody wants to be one of us' (and 'millions would kill for this job') much like how Patrick Bateman 'wants to fit in'. When Andy suggests that Miranda take 'personal time' immediately after the divorce, she replies with 'why?', as if the entire concept of personal time stops meaning anything when your identity becomes one with a corporation.
+This reminded me of the theming in American Psycho where every single banking associate seems like they are effectively just copies of Jamie Dimon. They get closer and closer to this image of a "perfect investment banker' as they lose more and more of their 'personal selves'. Patrick Bateman was running around as an axe murderer outside of work, but why would coworkers give a shit what happens in life outside of Investment Banking? It literally doesn't exist to them.
+Both movies also touch on the fact that this relationship of 'man becoming corporation' is a one way street. The corporation views you as completely disposable. Once you fully transition from 'man' to 'corporation', and the 'corporation' cuts you off, there is literally nothing left. There is no human left to be 'laying off'.
+My wife does not agree with this theming and thinks I am being nutty. I feel like the differences between investment banking and fashion are almost unimportant here. In my mind the theme is completely based around sacrificing ones humanity (and personal relationships) for success within corporatism. She (rightfully) points out that this film is based on a book (which is actually based on real people within the fashion industry), but I don't know if this necessarily disproves my point. The movies show similar individuals at different phases of this transition IMO; with Andy ultimately deciding not to destroy her 'personal' self before it is gone entirely.
+I just do not see that many differences between the Investment Bankers of NYC losing their humanity as they climb the ladder and the fashion moguls doing the same thing. I loved this movie. Am I looking too much into this? The film seems like it follows this theming beautifully but now I feel crazy lmao.
+The other thing that struck me was the parallel between the young girls I have met clearly attempting to be Miranda Priestly despite the warnings of this movie, similarly to how many young boys seem to be attempting to pull a Patrick Bateman lmao.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024-05-17 07:01:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Films portraying artists as normal people</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>I watched Kelly Reichardt's Showing Up this week and loved the film. In particular, I liked the fact that the film portrays the artist as a normal human being with normal problems (like her running out of hot water).
+It's a far cry from the depiction of the artist as an exuberant, drug-addled being who's unhappy because her talent is a curse. We're a long way from depicting the creative process as a moment of pure, indescribable magic, or as a macho, virilist process (as in Whiplash, a film that  I don't like very much). The other director I like for his portrayal of artists is Hong Sang Soo. "she forgives you because you're an artist." (Phrase derived from the film Right Now, Wrong Then) he insinuates that there isn't anything inherent in the artist pushing him to be extravagant but rather that it's because society expects and accepts this extravagance from the artist that he decides to be extravagant.
+So I'd like to ask you if you can recommend some filmmakers who have a similar representation of artists. And also what's your favorite film about an artist?</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2023-12-23 08:56:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perfectly Normal - The Devastating Reality of Patrick Bateman
+</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  
+[https://youtu.be/OFUbVsGKRaU?feature=shared](https://youtu.be/OFUbVsGKRaU?feature=shared)  
+I discovered this theory about five years ago when studying evolutionary psychology and neuroscience. The core idea is that consciousness evolved a split architecture to solve a fundamental survival problem: we need to belong to groups to survive, yet those same group members can harm us.
+The theory suggests two fundamental equations hardwired into human consciousness: CONTROL = SURVIVAL BELONGING = SURVIVAL
+When trauma occurs within attachment relationships (especially early ones), the consciousness system makes a devastating choice: hide the authentic self that wasn't receiving attention/love, and create a new self designed specifically for belonging. This 'mask' then needs constant maintenance, generating chronic anxiety.
+What's fascinating is that this anxiety can't be investigated internally - the system is specifically designed to prevent looking inward because that might expose what the mask was created to hide. Instead, the anxiety gets blamed on external targets. This explains why introspection is often impossible for people with personality disorders.
+I used American Psycho to demonstrate this theory because Patrick Bateman perfectly illustrates these mechanisms. His morning routine isn't vanity - it's identity construction. His violence isn't random - it's a desperate attempt to achieve homeostasis through control when belonging fails.
+The most compelling support for this theory came accidentally through research on the Autonomic Nervous System. The constant anxiety from maintaining the mask creates chronic sympathetic nervous system activation. Antisocial behavior or risk-taking can force parasympathetic activation, providing temporary relief - but ultimately increases the anxiety it was trying to resolve.
+This framework helps explain personality disorders, addiction patterns, trauma responses, and why traditional therapy often fails with these cases.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024-12-02 19:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Alien Romulus, why is nobody talking about the editing?</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>I saw the movie a few days ago after it was recommended very heavily by close friends of mine claiming it's very similar to the original. The original is the only in the franchise I've personally seen and I really couldn't disagree more, it's completely stylistically unrecognizable as a sequel to the movie Alien. I loved the visuals, aside from the very dark shot composition, and I really loved the horror elements especially in the final act, but I found it extraordinarily difficult to connect with the film just because of the unbearable breakneck pace of the editing. There were a plethora of moments I wanted to feel really tense but I couldn't because the editors refused to hold a shot for more than just a few seconds. The original film is recognized and praised for its very deliberate cinematic style, which includes lengthy minutes long single take shots, I feel like this could have been a really strong film for me if it followed in Alien's footsteps in this aspect.
+It's been a while since I've had such an overtly negative reaction to the film, and it wasn't the callbacks or the characters or anything else that is being criticized heavily by many (excluding CG Ian Holm, disgusting), I genuinely felt I would have loved it if it were an hour longer just because the editing was too fast. I also thought the movie was too dark, though a friend of mine works at the theater I saw it in and they said there may have been an issue with the projector because there were multiple moments where the screen was entirely black but the audio and score suggested that something should be happening on the screen.
+Did anybody else feel similarly about the editing? I genuinely would watch an extended cut that promised more deliberate pacing with an open mind and I think I'd have a ton of respect for it.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2024-08-28 19:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Writer Marina Tarkovskaya, sister of Andrei Tarkovsky, has died</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Here's a translation of the writeup on Russian blogger Ilya Varlamov's Telegram channel:
+Writer Marina Tarkovskaya, sister of Soviet director Andrei Tarkovsky, has died. She was 89 years old. 
+Marina Tarkovskaya was a memoirist and biographer of her father, the poet Arseny Tarkovsky, and her brother, and published several books about their lives and works.
+Tarkovskaya “played a huge role” in preserving the director’s archive around the world, and in the 1990s helped preserve the house in which her family lived and convert it into a museum. She also contributed to the creation and development of the Mirror film festival.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2024-06-12 07:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Longlegs — Leaving the Audience Stranded</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>What makes a good protagonist for a horror film?
+This question is deceptively complex, as there are so many characters and so many horror films that no single archetype will satisfy all films. Therefore, to specify for Longlegs, what makes a good protagonist for a police procedural / religious horror film?
+I think of both Silence of the Lambs and of Rosemary's Baby. In both, our protagonists act as an extension of the audience. They allow the viewer into these worlds, and we by proxy learn vital information as they do, feeling rewarded by the end for standing by their side. The protagonist's role is to guide the audience through the film, and their level of awareness dictates how much information we learn at each pivotal plot point.
+Simply put, a good horror protagonist is one the audience feels like they can empathize with. This is why Longlegs landed flat for me.
+The film starts very strong, and it's clear the level of craft-both in terms of filmmaking and performance- are on an expert level. It's beautifully shot, set designed, lit, etc. The film evokes a very consistent and strong sense of dread throughout, and for me the main highlight was the sound design.
+Our hero is smart, and has a seemingly supernatural awareness of what's to come. She's fastidious and reserved, dedicated to solving the case. Through her, the audience gets exposed to the case, the murders, and the likely culprit behind it. At this point in the film, she is an effective vehicle for the audience.
+The mother enters the film around the midpoint, which begins to shift the story away from the procedural setup and into the supernatural. At this point, I was still bought in, and found the set design of her mother's house particularly effective. Where the film lost me, however, was in the interrogation scene between Lee and Longlegs.
+This scene reveals that Lee had already met Longlegs (the opening scene of the movie) and that her mother was an acting agent of the devil, killing families by introducing a devil-infused doll into unsuspecting Christian homes. The mother does this to protect her daughter Lee.
+This plot development effectively undercuts Lee as a vehicle for the audience. She now is without agency, as all of her discoveries were planned for her ahead of time (why, I may ask?).
+Lee is no longer acting as a transmitter of information, as we learn that Lee is not neutral to the story. She did not discover this narrative like we did. This narrative is her story. She is not Clarece, entering a horrifying world and coming out as a protector of the audience, but rather a Trojan horse for the audience to be lured into the villains trap.
+This shift in character was disappointing for me. Maybe this is because I had false expectations-partially due to the marketing comparing the film to silence of the Lambs. But in any case, I did not find her effective as a protagonist, due to her loss of agency and lack of separation from the plot.</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2024-07-13 01:39:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>How many people lost their careers to vault fires?</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Recently I learned that many old films are lost forever because almost all major studio suffered a vault fire in the 30s.
+It is said the Fox Vault fire was the worst and someone said “entire careers don’t exist…” because of it.
+The most notable example is Valeska Suratt who made 11 films and all were lost in the fox vault fire.
+However, I am curious, are there any other examples like Valeska. Meaning not some films lost but all films lost. 
+My question is not simplified to only the fox vault fire. I mean….
+the Universal Pictures fire in 1924, 
+the Warner Bros. First National fire in 1933, the British and Dominions Imperial Studios fire in 1936, 
+the 1937 Fox vault fire, 
+the 1965 MGM vault fire,
+and
+the 1914 Lubin vault fire.
+Or any others I’ve missed.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2024-07-02 06:56:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Films dealing with the complex subject of (feelings of) male sexual inadequacy? </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good evening, 
+I'm wondering whether this sub can perhaps recommend any films tackling the very complex subject of (feelings of) sexual inadequacy among males? I know that's kind of vague, but with how porn-obsessed a society we live in, and knowing first hand how 'comparisons' can really make me feel rubbish, I wondered whether there was a film on precisely this. Not to fixate on the porn part, as such feelings of inadequacy can and do of course exist outside of that... and beyond just a 'measuring contest', there's sometimes also that infuriating disconnect between ones libido/desire and ability. 
+The only bit of cinema I can recall even just vaguely hinting at something even just loosely along these lines was the scene in Casino Royale where Bond (as played by Craig) is healing after the gruesome/infamous chair torture scene (where his 'bits' get crushed), and Vesper says to him "I just want you to know that if all that was left of you was your smile and your little finger, you'd still be more of a man than anyone I've ever met", some of the subsequent dialogue, and then when he utters "whatever is left of me, whatever I am, I'm yours". It's of course not exactly what I'm after, as 007 has since the characters debut been known as the utmost casanova, and here is only subjected to Vesper's statement due to a circumstance he suffered vs. something he long struggled with prior. 
+Thank you in advance- this is such a terrific sub, and I'm sure someone will come up with some entries! </t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2024-09-15 03:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saltburn and judging a movie based on your expectations </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>I think there’s plenty of things to criticise about Saltburn: whether it’s how derivative it is of The Talented Mr. Ripley, the rushed ending or the forced shock value of certain scenes. However, one thing that frustrated me with the discussion surrounding in the movie is how often the criticisms were centered around how the movie did not excel in portraying and exploring the themes people expected the movie to tackle, particularly around the class themes. 
+A prime example of this is the discussion around the twist half-way throughout the movie, in which it is revealed that Oliver’s patented are both alive and financially well off, with people claiming this “undermined the class themes” and that “it makes Oliver’s obsession with their wealth less impactful.” However, both of these criticisms feel based in audiences projecting their own expectations onto the film: a film which the director herself has described as being about obsession.
+For me, the reveal that Oliver’s parents are alive and financially well off added to the depth of the film, and was an interesting commentary about how people are always striving for more abundance and success, to the point where they will self-pathologies themselves into believing their life is missing more than it actually is. However, every bit of discussion around this twist is essentially people saying they don’t like this twist because they think it undermines the themes THEY wanted to explore. Is it fair to criticise a movie based on the themes you expect it to explore and the message you expected it to convey?</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024-03-04 11:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>"The Zone of Interest" Review - Nothing Learned, Something Gained</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>A holocaust film without a single jewish character?
+An expression in the banality of evil?
+The Nazi scenes from a marriage?
+The Zone of Interest is many things, but easy to quantify it is certainly not.
+That difficulty is due to many complicating factors.
+(1) **It is a mass appeal product made with arthouse conventions.**
+To call the holocaust mass appealing may seem callous, but it is one of the most frequently depicted atrocities in cinematic history. The countless themes and elucidations that can be drawn from the event have been reiterated to audiences time and time again.
+So there isn't much new to be gleaned from another viewing. Maybe more shock and awe, but nothing that we haven't seen countless times already. So much so that general audiences will leave with the same thoughts and themes as the arthouse shnobs.
+So that leaves the film to be an exercise in form. How do you depict this event in a way that hasn't been seen before? How do you impart familiar lessons into unfamiliar sequences? How do you make people feel again?
+Jonathan Glazer opts to lean on art house conventions. Cinematic ellipses, full frames of color drowned by sound, long takes to allow the actors to live in space. It feels unconventional for the subject matter, but familiar for anyone comfortable with a bit of avante-garde filmmaking.
+(2) **It's central theme has been readily explored in countless think pieces time and time again.**
+To dilute the entire framework and messaging of The Zone of Interest to "the banality of evil" would be reductive and dismissive. So get ready for me to be a little reductive and dismissive.
+Outside of the analytical work necessary to draw out more complex themes and motifs, the film can be boiled down to a simple statement on the atrocious villainy the nazi ideology allowed to flourish. The idea that a family can reside next to the endless screams of agony and describe their lives as, "everything we ever dreamed," is blatantly horrifying, but not new. In fact it is very familiar, ask Hannah Arendt.
+So you won't learn much new about yourself, the holocaust or the world by watching this film. Like a shock jock attempting to egg on the audience, the film seems to revel in the unfathomable horror to leave the viewers in awe and discomfort, but never really says much about that discomfort beyond the obvious.
+(3) **It is IMMENSELY effective.**
+Despite all my griping, the movie shook me like few holocaust films have. It may be the impeccable sound design or slow melodic pace, but I was contemplating specific aspects of the Holocaust that I had chosen to willfully ignore despite obviously understanding the circumstances.
+Because the film never lets you ignore it.
+Despite having no jewish prisoners on screen, the film never lets you forget the constant churn and burn of bodies as the machinery of evil keeps turning.
+And the one time you properly get a glimpse within the camp is one of the most silently horrible moments placed in film.
+So what to make of The Zone of Interest?
+It sets out to do everything it wanted to do. No there is nothing new to be gleaned from within the film, but maybe there is something to be gleaned from within you. Maybe you may choose to willfully ignore the more horrible aspects of this atrocity in favor of remembering the Private Ryans and the Oskar Schindlers.
+The Zone of Interest offers you no spielberg ending. It forces you to confront that, despite the few happy endings, there are a million more miserable stories we choose to ignore.
+[Review on Letterboxd](https://letterboxd.com/dylansanroman/film/the-zone-of-interest/)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024-01-17 17:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Movies where death is portrayed as someone or something benevolent, even helpful to those who are dying?</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>I just finished watching *Tuesday*, which portrays death as a parrot that travels to each dying person to usher them into the afterlife. Death is not portrayed as someone evil, whose intent is to harm or kill people outside of when it is there time to go, but more benevolent or somewhat apathetic to it, where it’s their job more so than anything. They are often self-described as inevitable and keepers of the order of things, a necessity for the rest of life to move onwards. 
+There are glimpses of an altruistic death in *Tuesday*, and it makes me wonder of other films that share similar themes. The idea is nowhere near new, and a pretty straight line could be drawn to *The Seventh Seal* as the be-all end-all cinematically, but I know there’s more out there and more I’ve seen that I am forgetting. The only one that comes to mind as I type this would be *Meet Joe Black*.
+I’m drawn to existentialism in film, and the use of death as a means of exploring where good and evil truly lie with humans. The detail of having death as a corporeal being, whose role is not to inflict pain and suffering, but remove those people from the world that caused it in the first place is a fascinating thought; that something we’ve been taught to fear above all else, that can come for you at any moment, will actually help us in the end. It is the cruelty of other people or the utter randomness, indifference, and chance of everyday life that poses the real threat. 
+What am I missing on my watch list?</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024-10-18 01:28:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Why I find Lynch's Dune much more special than Villeneuve's</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>I rewatched Lynch’s Dune. Compared to the new Dune, it's both better and worse, but broadly speaking it left a much bigger impact on me. 
+It starts very well. It has a lot of exposition, but I don’t believe in blindly repeating that “show don’t tell” line. I think it works great. Starting with Irulan frames the story very well and makes sense. This is the story that needs exposition, and I think Lynch’s movie does a much better job setting the scene and the wider universe from the start than both of the new Dunes did. 
+Another exposition tool the movie uses is inner monologue. I realized how this became an outdated technique and I haven’t seen it in movies in ages. But I loved it here. It completely fits the story where everything is happening in the characters’ minds and what is shown is not what they think. It also adds to this trippy, dreamy atmosphere that only increases as the movie progresses. 
+There are so many great lines in the movie, from “"It is by will alone I set my mind in motion. It is by the juice of Sapho that thoughts acquire speed, the lips acquire stains, the stains become a warning. It is by will alone I set my mind in motion" to “the sleeper must awaken” and "the spice must flow". 
+In comparison, Villeneuve is all about what’s happening, the action scenes, showing and not telling, the script is actually really bad, no one says one interesting thing in the whole two movies. To me, that will never be a better way of telling this story. 
+The visual comparison is hard. Like I said, the new Dune definitely is visual, it is technically of course much more advanced when compared to the old one. But really, I am not that into these “visually breathtaking” movies, I need them to be interesting. Really the most visually interesting new Dune gets for me is during Harkonnen scenes and  Sardaukar in Dune 1. I mean, the visuals are competently done, but I’m talking about 2 almost 3 hour long movies where a lot of it feels like watching a commercial.
+The old Dune is done by Lynch who in addition to a good script has his own crazy visual style, and although it suffers from some old computer graphic shit like the shields and some space scenes and scene transitions with laughable effects, most visuals are incredibly special. There’s so much that’s just bizarre and interesting that stayed in my head after watching, which I can’t say about the new Dunes 
+When it comes to characters, Lynch’s Dune in a much shorter running time produced many memorable characters. It’s a bit of a weird approach because I think a lot of people see a good character as someone who is very fleshed out and has a clear arc. A lot of characters in this movie don’t really have that, but instead are a mix of incredibly simple but with something very interesting to them. They feel like characters from a legend, where they’re determined by the role they play or a very specific trait. I can see why not everyone would like this, but to me, that’s fitting to the book where the themes surpass individuals.
+On the other hand, Villeneuve reduces his focus to a few characters and their relationships, in a way that benefits nothing. 
+For example, when reading the books, one thing I never thought to myself was “I’d really love to experience more of Chani and their romance. If only more focus was given to her character”. 
+Lynch seems to agree, Chani is there and they fall in love, it all happens very fast with a lot of mental monologue and that's great because there are so many other characters more interesting than Chani and plots more interesting than a romantic relationship. She’s not even a bad character, she totally has the feel of a lover from a legend whose story is told on some grander scale. 
+Villeneuve on the other hand keeps “announcing” her through visions in Dune 1 which is stupid since she’s the least interesting storyline, and then makes her a contrarian to be interesting in Dune 2 which also does nothing for the story except that she gets pissy about pretty dumb issues to create personal drama and I guess get an identifiable personality and aspirations, no matter how uninteresting. The acting is also very bad here. 
+I’m mixed up about the Harkonnens. Villeneuve is visually interesting and deserves a lot of credit for the atmosphere he created with them. Lynch is more grotesque, they are more bizarre and eccentric to the point of ridiculousness, which matches the books but it’s not my main criteria of judgment. New movies give them more dignity and mystery which isn’t necessarily a bad approach, but in my opinion, fails on a bigger level when you consider their entire story. The style and the build-up are there, but then their actual story feels incredibly flat and the endings very unsatisfying. Feyd only shows up in Dune 2, is more honorable, and dies in a pretty unimpressive fight without Paul ever even giving him a thought. The Baron is visually extremely cool but there’s very little interesting about his character, and he also dies in an underwhelming way. 
+I think this serious and mysterious approach led to some cool-looking scenes but no substance. Lynch’s approach was much grosser in a fun way, and that line between sadistically evil and ridiculous worked better for how their stories ended. 
+It’s interesting that in Lynch’s Dune Paul’s first vision is of Feyd Rautha, only then of Chani, each speaking directly to Paul (compare that with nonstop visions of Chani walking on sand in Dune 1, what is a more interesting buildup? The one that leads to the final confrontation, or the one leading to a relationship?).
+The movie builds up on his character from the start. Feyd maybe isn’t a very complex character but is more entertaining in this more corrupt version, and the final fight seems more consequential for these reasons.
+Baron’s death in Villeneuve’s movie felt also pretty lame, just a normal quick revenge. And not just that, for all the stylistic build-up he got and his more reserved character portrayal, the fact that Harkonnens spent the whole Dune 2 losing and his embarrassing ending just doesn’t work. Villeneuve wants to make him more formidable but then the plot makes him just incompetent and disappointing, whereas Lynch’s deprived and ridiculous portrayal makes both of these aspects make sense together.  
+ For a character who was so mysterious, it seemed like a more epic death was needed, whereas Dune’s baron’s murder by a toddler kind of really fits and with slightly better effects and some minor changes could have been even better. 
+I read countless comments that it’s good how Villeneuve handled Alia because an adult-brained killer toddler would look too ridiculous, but that just reinforces my point about his movie, it’s not able to places like that. Also, I completely disagree. 
+Alia is my favorite character in Dune and one of my favorite characters overall. Her life should be told correctly. I’m not saying  Lynch’s version couldn’t have been executed better, but ultimately Alia killing her grandpa is much more significant than Paul killing him (and then killing Feyd right after without any good build-up from his side). Lynch wasn’t perfect but the face down between Paul and Feyd, and Alia and the Baron, is what made much more narrative sense. Of course, if you don’t know what Alia’s story will be you may not get it, but it’s the beginning of the most interesting individual storyline. 
+It’s also a bit dumb because acting like Paul and Jessica were only there for a few months before the final events doesn’t make sense. 
+Overall the old Dune wasn’t exactly doing any crazy character development but it managed to have so many memorable characters, whereas in the new Dune I had to remind myself if they even mentioned some characters because they left little to no impression.
+Dune’s Lynch has a rushed second half, that isn’t all that bad, it feels dreamlike and like telling of a legend. But to be fair, a huge portion of the plot is skimmed through via narration which is a shame. 
+Then again the new Dunes put together had about 6h to tell the story and I don’t think they achieved much more with the time aside making it more tiring to watch. 
+As for the point of the books, I think Villeneuve didn’t do a bad job and the ending is relatively fitting since he clearly wants to follow with Messiah as pt 3. Lynch’s Dune has a comparatively happy ending.. At some point, Lynch goes on a personal trip and dismisses a lot of important points of the book. If I wasn’t judging based on the accuracy, it is a satisfying ending, but a lot was missed. I’d say Lynch’s Dune is great for people who read the books and aren’t looking to have the story explained to them, then there’s a lot in the movie that’s just Lynch and you can enjoy it.
+Villeneuve will give people who didn’t read the books a much better understanding of the story, still with many flaws, but didn't give me anything especially interesting to add to my already existing thoughts and impressions about it.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024-03-23 11:27:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>The similarities between Luca Guadagnino's "Challengers" and Alfonso Cuarón's "Y Tu Mamá También"</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>The approach to sexuality in the newly released “Challengers”, by director Luca Guadagnino, brought me right back to Alfonso Cuarón’s extraordinary “Y Tu Mamá También” (2002). I’m willing to bet that was a major reference for both Guadagnino and screenwriter Justin Kuritzkes (real-life husband of filmmaker Celine Song, from “Past Lives”).
+A basic description of the plot: as young tennis players, Patrick (Josh O’Connor) and Art (Mike Faist) were the closest of friends and used to partner up for doubles tournaments; in one of these events, they meet and immediately start lusting after Tashi (Zendaya), a tennis prodigy set for greatness. She toys around with them for a bit before settling on a relationship with Patrick, which ends just around the time as Tashi’s own tennis career is cut short due to a devastating injury. Tashi then gets together with (and eventually marries) Art, the most conservative player of the duo, whom she shapes into a champ and a star – while Patrick, whose tempestuous personality was always beyond Tashi’s control, keeps an inconsistent record that prevents him from rising in the ranks. The trio’s convoluted history gains a new chapter when all three characters reunite in a small country club tournament – the ones that Patrick is destined to play at, and that Art, enrolled by Tashi’s insistence, sees as an easy win to build up his confidence for a bigger championship down the line.
+Unlike “Y Tu Mamá También” – a straight-forward Mexican road movie where an older, experienced woman introduces the two male teenagers who fight for her attention to sexual experimentation –, “Challengers” presents a more subtle take on sensuality. Guadagnino, from “Call me by your name” fame, is just the right director to drop hints of arousal stemming from banal situations – from his fixation in showing the actors’ feet to having the cast constantly devour phallic-shaped foods (no one has ever enjoyed a churro more than Josh O’Connor); from the violent hits at the tennis ball to the moans the exhausted players let out. Indeed, tennis seems like the ideal sport to tap into unconscious eroticism.
+Here, the narrative goes back and forth between the characters’ shared past and the tense final match of the tournament taking place in present time, as Patrick and Art go head-to-head and Tashi, seated right between them, watches from the crowd. The whole match (set to a tremendous score by Trent Reznor and Atticus Ross) is a callback to a previous scene where young Tashi first joins the boys in their hotel room: positioning herself in the middle of them, she facilitates the physical contact between the guys, just as Verdu’s character did in one of “Y Tu Mamá También” most iconic sequences.
+Like Cuarón’s film, “Challengers” seems to make a point that every love triangle, in whatever configuration, will always cross the lines of heteronormativity, and when women are outnumbered in this geometry, they – being the primary object of male horniness – often serve as intermediaries for straight men to release themselves from the psychological walls built around their own libido. In both movies, the main female character is sexually liberated, confident, secure, in charge.
+The men in “Challengers” are not in their late teens like their counterpart Mexican youngsters, yet they still seem to be driven by the same pubescent instincts. They’re stuck in the confusing headspace of boys experiencing early manifestations of sexual impulses: viewing women as either mothers (Art at some point asks Tashi, now his wife, to cuddle him until he falls asleep) or whores (Patrick’s relationship with Tashi was defined by ferocious sex sessions). In other words: they can’t even fully comprehend their straight men identities, let alone contemplate breaking out of the box.
+“Y Tu Mamá También” ends with the suggestion that the characters' explorations were bottled up after that one adventurous summer. “Challengers”, on the other hand, closes on a more ambiguous note: we don’t get to see what comes next. The movie, in line with its previous metaphors, leaves us with a climax that’s also sexually charged. It’s as if the three characters are simultaneously awakening from a decade-long stupor and reaching a collective orgasm together.
+To wrap this up: “Challengers” is NOT a statement against monogamy or an advocate for multiple sexual partners (though some seem to be of this opinion). The way I see it, the movie - like "Y Tu Mamá También" - is about the complexities of sex and underlying desires, and the toll our sexual immaturities can take in other aspects of our lives.
+Any thoughts?</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024-04-29 00:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Nocturnal Animals and its ending continues to mesmerize</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>I watched this again and had a totally different interpretation than before, probably because I'm at an older age with a different perspective. While the film is in some ways... not really pretentious per se so much as portentous which detracts a wee bit (the opening credit sequence really has not much to do with the themes no matter how you slice them and are just there to be gothic and Lynchian), it's a really provocative work that might have been better served without so much window dressing distracting from the truly engaging plot and performances. Aaron Johnson is great and Jake Gyllenhaal has never been more perfectly cast than he is here. This and Nightcrawler are the kinds of movies he should be in, and I miss seeing Amy Adams on screen.
+The theme of the film seems to be, in my opinion, about how people's nature doesn't change, or perhaps the conflicting schools of thought on that notion. Susan does not really seem that different from beginning to end of the movie and seems to not undergo an arc (or does she) and Edward remains just as "weak" as she accused him of being, proving his true colors- that he's kind of a petty bitch who would plot a long form revenge by standing someone up rather than stand up like a man and confront her years earlier. So it would seem she was right about him. Let's put aside for a moment that most people on reddit think he was perfectly justified in what is, on the face of it, kind of a creepy and crazy scheme; I don't think Ford was intending normal audience members to see it as one sided as this, but it's definitely up for debate. But I do feel seeing it as a complex revenge plot that mirrors the book revenge (ie he wrote it JUST FOR HER) limits some of the themes that can be taken away from it.
+I did have a different interpretation of the ending where she's sitting alone in the restaurant; I think it's just as possible he was not trying to necessarily get revenge against her as he was, at worst, giving her a taste of her own medicine. As if to say "this is what you thought of me, so here's an empty chair. Think on that." At best, I think it could be possible that he's trying to shake her out of her apathy so that she considers her own life and makes some changes. He wouldn't know how miserable she currently is obviously, but the flashbacks show she was always unhappy, so he may have been either preying on or commenting on what he knows to be her nature. We don't see him in the present day for a reason; is he doing well without her or suffering? I think that would inform more whether his actions are good or bad. In the version where he actually is happy, matured with age, and thinks she ultimately did him some kind of a favor by not tying him down to her misery; then the ending is him communicating in language she'll understand to wake up and change her life too. The way he had to after she dumped him. After all, he couldn't write the book while he was with her, and now he's made what is apparently this great work of literature, so he may genuinely be grateful and have worked out his issues in it. She even has a slight smile at the end when she realizes she's been stood up as if to say "touche," so it's far more of an ambiguous ending than I think it immediately reads as. Either she learns something and chooses to make changes and it's a positive jolt, or people don't change. His intention is not as important as her takeaway ultimately.
+But I think what's even more likely than that is that he's utterly indifferent to her at this point, perhaps he intended to go but found standing her up at the last minute to be poetic or just didn't want to put himself through that. What made that click into place is how Andes/Michael Shannon disappears from the end of the "Tony" book story. Why does he do it? There is no reason because it's Edward's book so it's all coming from his own views. People have really gone down the rabbit hole trying to make sense of it (like he died of cancer), but ultimately I think it's supposed to mirror the actual end of the film where Susan is alone. The book exists entirely in Edward's mind and he's the one standing her up, so he's doing both things. I think it's his view of human nature; that people will leave you when you need them the most, like she left him. He feels abandoned so "Tony" is abandoned by Andes with explanation. People do this a lot irl, I've found that most people think it's more kind to ghost you to protect themselves from having to look like an asshole, instead of seeing how cruel and abusive that is. So Edward is just throwing it back at her essentially, the way we wish we could all tell an ex who ghosted us "Why did you do that? That was not nice." 
+A lot of people have avoidant or fearful avoidant attachment styles and I've found that many works of film unintentionally explore those themes, because it's such a bizarre and unknowable part of human nature. It's equally as likely that Ford was directly commenting on this as it is that he's trying to understand why it happens. Whatever you interpret the end of the film to mean is ultimately your view of how you perceive human nature. It's supposed to be hold a mirror up like a painting or rorschach test, that's why she's an art curator so that the film will purposely be viewed in this way, etc etc. And yes, I guess that is what the opening credits mean, do you find them tacky and crass or weirdly beautiful?
+Anyway, a very thoughtful and compelling film that has sadly been lost to time other than when it pops up on reddit every year or so. I have never met a single person in real life who has ever even heard of it, and that's a shame. It's one of those movies that just never quite hit the mainstream because some of its elements can come across as derivative of other directors or gauche I suppose. Place Beyond the Pines is another one of those; I think it's tremendous, but I can see it seeming like a try-hard version of a PT Anderson picture trying to force certain film styles for the sake of it. But I always have a soft spot for films with a seemingly mysterious ending that nonetheless plays fair with an audience. I wish Ford directed more but he's basically Todd Field or the dude who made Blonde.
+Edit: I had one final thought- that in-story, Andes leaves Tony alone to face Ray for the final showdown, because he's trying to help him be less weak/be a man, essentially redeem himself for not saving his family. Which would be muted if Andes shows up and does it for him. So this supports the idea that Edward worked this all out for himself in the book, is no longer weak irl, and stands Susan up as a positive message to change herself- and thinks there's no reason to spell it out for her because it was already all there in the book. It is Edward telling HER to be less weak and co-dependent.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>An Impression About Killers Of The Flower Moon</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>What an unsettling moment... Damn. Scorsese didn't produce a film that immoral since *Cape Fear*, but here, it adds a thick layer of commentary on racism and greed.
+I don't know if I'm correct, but the direction seemed very unusual for Scorsese. Usually, he is a film maker that produces original ideas in his own way, but here I couldn't help but notice a lot of parallels with classic movies (and even with his own). Maybe that's unavoidable when dealing with the Western genre and I'm overreading his intent, by I felt there were a lot of influences from movies such as *The Searchers*, *The Night Of The Hunter*, even a little *Taxi Driver* nod with the starting gig of Ernst and a possible reference to *There Will Be Blood* for the intro scene, when oil spills suddenly from the ground.
+Despite all those parallels, Scorsese really succeeded in creating a unique atmosphere. I felt like I was crowded during my watch, like a plot was happening behind my back. It was a form of kafkaesque where those invisible observers made *me* feel like bug they wanted to kill.
+I'm very surprised it was presented by the media as a love story, because that aspect is flooded by all the deception happening on screen. It's rare to have such a clear depiction of what real hate is on cinema, usually we just see bad guys and guys battling it out between two self-centered monologues, while KOTFM instead takes the viewer on a journey to the unknown, but in the bad sense.
+The acting was fantastic though. Lily Gladstone is amazing, Di Caprio is weird af, and De Niro was also very good (even a bit too good). And everyone, really.
+Jeez, I don't know if I liked it or if I hated it, but I think it was intended?</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2024-01-08 13:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Judging Megalopolis (2024)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Hey there all you feature creatures! I know, another *Megalopolis* post, isn't this fun! Spoilers will be blacked out, but anyone who has already seen it will probably tell you that spoiling the plot isn't really going to make a difference.
+I cannot remember a film in my lifetime that has had the same level of buildup, hype, history, dread, and expectations as this movie. No matter what you think of the film or Francis Ford Coppola, I think all of us here would agree that this is a unique moment for movie fans. I understand why reactions are so mixed and passionate.
+I want to say upfront I think *Megalopolis* is a mess. No matter what else you think of the film, I think everyone would have to admit that there is a gulf between what was intended and what was released. I would like to add that whatever else you think of the film's execution, everyone should also admit that *Megalopolis* is uncommonly bold and skillfully crafted (you can dislike or disagree with the choices, but there is clearly talent behind and in front of the camera, even if you think it is wasted).
+What is bothering me about the discourse around this movie is...sort of what I think of as the true gift of this movie: we need to reorient what we as the film-going public think of, expect from, and demand of film.
+There is a lot being made of what this film means, or if it means anything at all. What is the "moral", what philosophy is it critiquing/championing, what is the film's argument, why the fuck did this thing get made in the first place. Coppola is very bluntly stacking this thing with meaning by calling it a "fable" or by thinly painting over NYC with Roman names, aesthetics, and symbols. It is not subtle. There is intended meaning all over the place, and discussing that meaning (and its sophistication or lack there of) is merited. But I also think people are getting a little too hung up on "what is *Megalopolis* saying?"
+I have a lot of theories and interpretations as to what a lot of the choices are trying to do (just for an example, &gt;!imo the name "Caesar Catalina" is a ham-fisted way of saying this guy is both a successful tyrant and failed revolutionary, and I think his ability to "control" time is a manifestation of the conversation Caesar and Julia have about time as it relates to art, the future of people and civilization, and what is artistic/historic legacy and how do we preserve ideas/art/infrastructure/etc!&lt;). I doubt I understand most of the allusions after a single viewing (or even noticed a lot of them), but I also think that's kind of unimportant for a first viewing. I would recommend watching this movie without trying to analyze it (I know that's basically impossible, but I think it's a useful exercise when watching any film for the first time) and let it wash over you. If your initial reaction is "this sucks, I'm not enjoying myself, I never want to see this again", I very much understand your experience. I felt similar feelings for multiple stretches of this movie. However, I think a lot of the naysayers are throwing out the baby with the bathwater.
+I think it is fine to say this film doesn't work and is not worth your time. I think if you consider it in its entirety, *Megalopolis* doesn't really work. And if you watch movies to be entertained by cohesive narrative storytelling, it probably is a waste of your time. But I think some of the *very* ardent criticism that casts this film as basically immoral and a complete void of meaningless shit are more concerned about having an opinion about what a movie is supposed to be as opposed to letting a film affect you and challenge your thinking. I was delighted by how off-the-wall batshit gonzo this movie was. I had a lot of fun watching the discordant and mish-mashed acting. My favorite thing about *Megalopolis* is how head-on it tackles the idea of legacy as if to say "my name is Francis Ford Coppola and my legacy, for better or worse, is secure. This is what I want my final film to be and nobody is going to stop me." For myself and a lot of other people, there is a lot in this movie to enjoy, most of all how much work you have to do just to make sense of the goddamned mess of it all.
+I have a criticism of *Megalopolis* that I think sums up its flaws and misfires best, and it has nothing to do with *Megalopolis*: imo the theatrical cut of *Apocalypse Now* is vastly superior to all of the re-edits/cuts that have been released subsequently. When Coppola was limited in his resources (most importantly time) and he had to release what he was able to assemble, he made something truly remarkable. When Coppola has a blank check and all the time in the world, things go astray. Most films are made under oppressive constraints; there isn't enough time, money, or technological advances to pull the film out of the filmmaker's head and put it on screen exactly as they would like. They have to delegate, share, and compromise in order to get anything made. Part of why this almost always makes a film better is it forces it to consider multiple perspectives just to get off the ground; how does the cinematographer think something should look, how does an actor feel they should express something, what do the financial backers think other people would appreciate or want to see. *Megalopolis* was unconstrained in its creation and it suffers because of it. That is also what makes it so special. I think we all need to let go of what we wish *Megalopolis* was and accept it for what it is, because I can damn near guarantee we will never see anything like it again, and I for one adore it.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024-09-28 15:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>It's Such a Beautiful Day (Don Hertzfeldt, 2012): When the brain decomposes before the heart</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>I watched _It's Such a Beautiful Day_ for the first time in 2017 and was utterly devastated by it, leaving a lifelong emotional impact on me. It sparked a quest to find the key to unlock what it was that touched me so deeply, but I couldn't pinpoint it at the time due to a lack of words and self-awareness. Since then, I've been afraid to watch it again, lest my memory of it be tainted in case it didn't move me as much as it did. Seven years later, however, the film came up in a recent conversation with a friend, and I thought it would be an appropriate context to revisit it. To my surprise, not only was it even more moving than the first time, but after the first 30 minutes I couldn't utter a word without sobbing like a baby.
+_It's Such a Beautiful Day_ introduces us to Bill, a male stick figure with a generic name who suffers from a neurodegenerative disease. He is devoid of any voice, as his entire story is told by an omniscient narrator, a choice that proves highly effective. He acts as a proxy between the viewer and Bill, perfectly capturing Bill's dissociation and helping to construct his character in a more rounded form, thanks to the meticulously detailed third-person account of his often intrusive thoughts. It is as though the monstrous fish head from his dream, feeding upon his skull, was literally sucking them all up.
+His story is primarily illustrated with black and white hand-drawn animation, mostly depicting his mundane and anodyne life. At first, the visual style may seem deceptively simplistic, for beneath the seemingly plain and insipid style lies a much richer landscape. This includes bursts of color, experimental visual effects a la Stan Brakhage, and real-world imagery to intertwine the banality of Bill's life with a shifting perception of reality as he succumbs to his illness.
+Although the overarching narrative follows a linear structure with occasional flashbacks, it is split into painfully beautiful and heartbreaking fragments of his life that paint a fuller picture of his condition, past experiences, and ancestry. They often end abruptly in blackouts due to psychological malfunction or external conditions, such as the effects of anesthesia. The focus on his ancestry is especially latent in the second of the three shorts, _I'm So Proud of You_, which presents the _messed up_ genetics Bill inherited due to the prevalence of mental illness and unfortunate deaths in his family tree, ultimately leading to the devastating revelation of what a doctor advised his mother not to do.
+It would have been much easier for the mastermind behind this compilation, Don Hertzfeldt, to flood the story with the Appeal to Emotion fallacy and bolster it with cheap narrative tricks to make us fall for an emotionally fake story about such a dark and pitiful condition. Instead, he weaves in touches of black humor that accurately depict Bill's eroding condition without ridiculing him. Hertzfeldt does this so gracefully that we forget what a Herculean feat it is to portray such a delicate subject in a way that feels as if it is being narrated through the innocence of a gifted child. This adds an exquisite contrast that heightens the emotional impact of the film, as we swiftly sympathize with Bill, whose endearing and charming aura makes us feel as if we've known him our whole lives.
+The ontological philosophy of _It's Such a Beautiful Day_ gravitates toward a powerful reflection on the fragility of our physical existence, our deep-seated fear of death, and the constraints imposed by the deterministic nature of life. As noted above, genetics, which one character in the film describes as "pretty messed up", plays a crucial role in shaping much of our psyche, along with our life experiences. We cannot control the former, and the latter is a direct result of our mental-physical state as dictated by the former and our upbringing. Together, they profoundly affect our mental health, personality, behavior, and overall outlook on life. 
+Over time, life's events accumulate, leading to significant yet often unnoticed changes, reminiscent of a popular quote misattributed to C.S. Lewis: "Isn't it funny how day by day nothing changes, but when we look back everything is different". However, there is a point at which this no longer applies to Bill, and by extension to people suffering from a neurodegenerative disease. It's a state akin to the removal of the self in life, as memory becomes more corrupted with each new iteration until it no longer stores information and begins to blur the constitution of one's identity. It also shatters the notion of the future, since it is a concept constructed from the memories of the past, which become mere scattered fragments that, without the context of our entire being, are like pieces of a puzzle lost in the void.
+Instead of depicting such a tragic event on a low note, Don Hertfeldt takes the ethereal and beautiful reading of it and transforms it into a realization of how much unrealized beauty there is around us. Now that Bill has no choice but to live in the present, with no past to remember, no future to construct, and no fears or concerns to worry about, his shifting perception replaces his colorless life with the aforementioned real-world imagery that allows him to see things as they really are. What seemed so daunting at first becomes a bridge that allows him to constantly reexperience everything for the first time, and even to forgive people without knowing why.
+In fact, there is a turning point where Bill transcends the confines of our one-directional space-time to which we are physically bound and reaches eternity. There, we are no longer limited by our physical form or the passage of time, which can lead us to resonate with Rust Cohle's words: "Death created time to grow the things that it would kill". Although death is so certain of its triumph that it gives us a lifelong advantage, Hertzfeldt doesn't see it as an ominous end to our lives, as we commonly and fearfully perceive. All the people, experiences, and things we leave behind in life are a gateway for us to tune into the infinite, to reconnect with people long gone, and to endlessly explore all that life has to offer _until all the lights go out_.
+&gt;And as the sun continues to set, he finally comes to realize the dumb irony in how he'd been waiting for this moment his entire life, this stupid, awkward moment of death that had invaded and distracted so many days with stress and wasted time. If only he could travel back and impart some wisdom to his younger self; if only he could at least tell the young people in this room. He lifts an arm to speak but inexplicably says, "It smells like dust and moonlight."
+The eternal ending, paired with the breathtaking classical music soundtrack, results in one of the most powerful emotional climaxes I've ever experienced in my entire life. Such an overwhelming mix of sensory and profound messages, which I couldn't decipher at the time, now had a tangible meaning for me that I could articulate through further life experiences that have developed my personality, my knowledge, my goals, and my fears. I found in Bill's story a representation of virtually all my existential dreads, and Hertzfeldt embraces them all to show that we all have similar concerns, are sick in some way, and will eventually die. I realized a long time ago that I can't do everything I want to do in life because of time constraints. I'd love to know everything there is to know and explore everything life has to offer. I'm so afraid of knowing that I'll have to deal with the loss of loved ones. I'm fearful of not living up to my potential. I get sad thinking about how time is slipping away like water through my hands. Through it all, Hertzfeldt makes me feel like a mother cradling her baby, gently kissing his forehead and reassuring him that everything will be OK. 
+When we think of life-affirming experiences, we are prone to think of happy stories that lead us to conclude that the world is not such a screwed-up place after all. However, _It's Such a Beautiful Day_ shatters this concept to show that it is flawed at its core, because life is made of contrasts. To see the rainbow, one must endure the rain, which can be inferred to mean that without death, life would make no sense. Unfortunately, we tend to focus on the negative aspects of life, which are often caused by unavoidable external forces that make us forget such special privileges as having enough health to be alive or being able to talk to a loved one. In fact, we are inclined to dwell so much on the past and feel so nostalgic about it that we tend to ignore what the present has to offer. What we don't know is that we will be nostalgic for this present moment in the future, that it will soon be over, and that we will eventually die mourning the time we didn't fully appreciate while it was ours. In return, Hertzfeldt calls on viewers to taste all that life has to offer, to forgive, to embrace the beauty in impermanence, to cherish every fleeting moment with openness and love, and to come to terms with the universe.
+&gt;It's too bad people don't say how they feel until it's already too late
+With this new definition of "life-affirming", I can firmly state that _It's Such a Beautiful Day_ is not only the epitome of all the media I've consumed in my entire life, regardless of the medium, but also one of the best things I've ever experienced. I'm not hyperbolic when I say it's one of the finest human achievements in art. It is an ode to life that excels at delivering the most moving depiction of the concept _tempus fugit_. It is the process of coming to terms with death. It is the representation of when the past and the future become the present, and how everything is part of the same dream we call life.
+&gt;He'd been terrified of dying his entire life, and as much as he tried not to think about it, death was always in the back of his head, around every corner, and hovering on each horizon. He'd brushed shoulders with death on a few occasions, but in his carefree youth, it had almost seemed like an abstract, impossible thing to ever happen to him. But with each passing decade, he began to gauge the time he probably had left, and by his 40s, what he considered his halfway point, at best, he had come to know just one thing: you will only get older.
+I can't remember the last time I cried this much. The tears were both of joy and sadness. It makes me profoundly content to be able to live in the same space-time as Don Hertzfeldt and to have come across this film in my relatively short life. Yet, it also leaves me with a sense of emptiness, knowing that nothing else can bring back such strong feelings, except watching it again. But perhaps that's where the beauty lies—the contrast between these emotions is what makes me feel truly alive.
+Thanks from the bottom of my heart for the most life-affirming work of art I've ever had the pleasure of experiencing, Don Hertzfedlt.
+---
+Attribution: [https://enosiophobia.substack.com/p/its-such-a-beautiful-day-don-hertzfeldt](https://enosiophobia.substack.com/p/its-such-a-beautiful-day-don-hertzfeldt)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024-08-09 11:28:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Films that focus on beauty, simplicity and humanism set in stunning landscapes?</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Looking for more movies like this - a few works by Abbas Kiarostami come to mind (Friend’s House, Wind Will Carry Us and even Taste of Cherry) or Nuri Bilge Ceylan (Wild Pear Tree or even About Dry Grasses). A few Tarkovsky’s and the recent Perfect Days by Wim Wenders also come to mind. Suprisingly, Miyazaki’s movies also tend to capture this essence quite well (although in a different way). Any other ideas?</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024-07-01 20:06:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Inherent Vice and Under the Silver Lake as Pynchonesque Paranoid Stoner Noir</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Hi folks,
+I just completed an essay on stoner noir which focusses on LA, and particularly Polanski's ***Chinatown*** (1974) and the Cohens' ***The Big Lebowski*** (1998) as precursors of the films which are the main focus: ***Inherent Vice*** (2014) by Paul Thomas Anderson, based on the Pynchon novel of the same name, and ***UTSL***.
+The thesis is that ***UTSL*** is actually a far superior version of the Pynchonesque stoner paranoid noir story than ***Inherent Vice***, as it actually immerses itself in that worldview, however ironically. PTA's approach of ironic exteriority and detachment just doesn't suit the theme and makes his film deadly boring.
+EDIT: I consider the phrase "deadly boring" to be unfair in retrospect, but we'll leave it in for now. 
+Full text available here:
+[https://apmurphy.substack.com/p/back-to-back-18-this-is-my-happening](https://apmurphy.substack.com/p/back-to-back-18-this-is-my-happening)
+If you have any comments, either drop them on the Substack itself or post here. All respectful comments and criticisms are appreciated.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024-02-03 09:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>How are Spaghetti Western thematically different from American ones?</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>I'm trying to find out what defines the genre apart from stuff like the music, the production, etc. I want to find out how the stories differ from their American counterparts.
+Some people say Leone "demystified" the Western but John Wayne is clearly already a bad guy in Red River. American Western films are not all about glorifying a good hero.
+So what do you think?</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024-07-18 13:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Why is every 11th frame doubled in Buster Keaton’s “Our Hospitality”?</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>I just watched “Our Hospitality” and when going through a scene frame by frame afterwards I noticed that two frames were identical. Going through more frames I noticed that every 11th frame was doubled, i.e. every 12th frame was identical to the frame before it. Does anybody know why this was done? Was the movie originally shown like this, or were the frames doubled during the restoration? I watched the Kino Classics release. [Example](https://imgur.com/a/aBbrjmp)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024-07-10 19:53:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How did Ingmar Bergman pull this off? </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi - I was thinking about Ingmar Bergman today, and what really blew me away is how much he could pack into a relatively brief timeframe. 
+His films are full of *great* qualities - fantastic cinematography (to the point where merely pausing a scene could reveal exceptional usages of blocking, lighting, color, etc.), memorable characters, poetic/thought-provoking dialogue, tons and tons of depth - religion, aging, nostalgia, memories, death, family (specifically the troubled mother-daughter relationship in Autumn Sonata) and more…..Through a Glass Darkly, Winter Light &amp; The Silence alone formed a thematic trilogy that focused on the silence (excuse the pun haha) of God, while delving into mental illness, tragedy, sexuality, etc. 
+Watching one of his (many) classics is almost like reading a classic novel…..and yet, a bunch of his movies are under 100 minutes! Winter Light is only about 81 minutes long, but it is **such** a dark &amp; bleak experience…..you could actually watch Persona, Wild Strawberries, The Seventh Seal &amp; Cries and Whispers in a day (or a weekend), and yet there’s so much to talk about! 
+I’m amazed at how Bergman made so many great movies that are around 95 minutes long or less! How did he do that? </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:07:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Challengers analysis</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trying to figure out how I feel about the challengers. I really think the soundtrack’s closing track sort of sums it all up. Compress, Repress, and then just surrender. The whole story follows moments of repressed emotions, that we don’t really get a clear emotional resolution until the end, (art and patrick kissing, patrick and tashi’s fight during college, all of the mess in tashi’s and art relationship when they are older).
+ Every flashback ends up being about something missing in the relationship. We have art and Patrick kissing, the missing third here being Tashi, the conduit they need to explore their feelings for each other, and without her attention or direction they end up repressing the feelings they have for each other. Of course there's the other secret third thing in the relationship. Tennis. Honestly I’m not a sports person but I get what Tashi meant by talking about the conversational nature of tennis. For iv always had the best conversations where each person can bounce back off of each other. A good rhythm to follow. And it really is fascinating to go from the scene where they're playing for Tashi’s number and to their most recent match. Not really interesting but depressing. I mean this sort of context that we built in the movie has taken up a good chunk of the run time and so to go from this incredible game of tennis to something so flat is jarring (ofc intentionally jarring). But it forces the audience to wonder what happened between all three of them. Maybe what i'm saying is obvious, but as someone who didn't know much about tennis i thought the start of the match we see at the beginning of the movie was already pretty exciting, seeing that and then real tennis and then having to go back to something that's so lackluster makes you wanna stay in your seat just to see how the spark could die. 
+Also if we are talking about the need for the third to actually explore feelings. In the middle of the movie we get introduced to Patrick and Art when they were in highschool. I think about pacing a lot in movies, how you choose to take up time and why and I think showing them at their youngest, is trying to show them sort of at their most repressed right? Patrick isn't even trying (if you look at their stretches when they are talking in the beginning his form is a lot worse) he is just trying to rile up Art and try to get his attention. Art however still has these walls up, engaging with Patrick by trying to get him to talk about the girl, but Patrick punches through all of that by using the language of tennis, something that in this movie is a lot more intimate. Art doesn’t return the conversation here though and just lets the ball fly off. This also kinda builds up to their college relationship too. Art is the instigator but can’t actually make any active moves here. He implies things to throw off both Patrick and Tashi’s relationship so he can get with Tashi. Sort of adding on how for Art, tennis isn't his passion, he can't have that direct racket to ball to racket back and forth the way Tashi and Patrick can. The thing is though, we see how unhealthy and toxic it can be, this bouncing back and forth and hitting harder each time destroys Patrick and Tashi’s relationship. Not even their relationship but their relationship to tennis. Tashi breaks her knee and Patrick can never reach the heights he was destined to. Patrick doesn't have the stability nor the drive that Art and Tashi have respectively. This is Patrick's ultimate form of repression. That’s why even though there's a lot of reasons for Patrick to be so cocky and smiley in that final match we see, I really do think the biggest part is that he can finally surrender to Tashi and Art. Especially since he was about to throw the match for them, sure tennis is everything, but he knows what it’s like to be without Tashi and Art, it's hell for him. Constantly falling short. 
+There’s also Art and Tashi. I think we can all tell what’s missing there. No passion. If i'm being frank I’ve never been in a serious relationship so it's hard to talk about when I see it in movies. But it’s kinda clear as day, maybe I’ve been saying it too much, but Art loves Tashi, Tashi loves tennis. Art knows that Tashi can only love her if he can be a great player. Even then the wins fall short, everyone knows they were meant to be her wins and not his. And because of that everything about them is compressed. I think compressed is better fitting here, repression is about burying to spite yourself but compression is about the pressure you put on something to save it (like the way you compress a wound). Everything is indirect but somehow clean and the conversation never feels completely straightforward. (unlike a conversation in tennis) This is actually contrasted with how Tashi and Patrick interact after Tashi’s injury. They don’t flit about with their words but actually discuss what they want (tennis, sex, a relationship). Hell, the only thing that drove Art to Tashi at first was Patrick. He’s always been an outsider to them but they still need him. Tashi and Patrick essentially both bury their pride for him, to keep him playing tennis. It would be toxic but there is something magically about the spark Art gets when he’s really playing the game with someone he loves. 
+The final match is the surrender here right? They all finally let go of all of their baggage and play some good fucking tennis. Really Tashi here is more of a bystander but still all of her actions kinda led to this moment for both Art and Patrick. Patrick admits to sleeping with Tashi by doing Arts tick before he throws, a call back to when they were in highschool. This time though we see the conversation through. Art still lets the ball land in his court but eventually he does continue the conversation, sending one of the most bone rattling serves we’ve seen on screen. And then its just the back and forth of the ball, because they do understand each other. Art finally gets that Patrick needs him, Patrick can finally have Art without the pretense of another woman and Tashi can feel the love of her sport come through again. 
+</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024-05-04 05:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>"Past Lives" and social (dis)satisfaction</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[a recent episode of Derek Thompson's "Plain English"](https://www.theringer.com/2024/2/6/24063116/gen-z-gender-war-liberal-conservative-views) podcast focused on the growing gender divide among Gen Z over political outlook  - young women skew progressive while more and more young men gravitate  towards a conservative viewpoint. most of the discussion is about this  divide in the US but the last segment dives deep into South Korea.
+while  rewatching "Past Lives" recently, the episode popped back into my mind  cuz this is the dynamic that the movie explores with Hae Sung. during  his mandatory military service, he starts thinking more and more about  Seung Ah (Nora) and decides to look for her online. later, in NYC, he  mentions how military life resembles work life - it's tough physically  and mentally and - more importantly - it's unfair cuz those in charge  get to abuse their power. the podcast specifically mentions how  mandatory military service reinforces the notion of a hierarchy  (patriarchy) that young men expect from life. you get shit on as ur  young and powerless but later on, as u move up, you should expect the  chance to exercise that power.
+Hae  Sung also has anxiety about his current relationship, which is veering  towards marriage except he doesn't believe he is good enough for  marriage when compared to what society tells him "the qualifications"  for marriage need to be - especially since he is the only son in his  family. these views are what Nora refers to when he tells Arthur that  Hae Sung is "so Korean." and this is the outlook that Nora avoided when  she immigrated. she has Korean friends, but they're not Korean-Korean;  they don't think of life in this way.
+it's  an interesting way to look at this movie which contains multitudes: an  immigrant story, a love story, a story about cultural expectations...</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024-02-20 22:40:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>In search of more Christmas films like It's a Wonderful Life</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's a Wonderful Life is obviously usually considered the best Christmas film because it captures the very essence and meaning of Christmas; Community, familial love and being with the ones you love and knowing that the true meaning of Christmas comes from togetherness and being in each others lives.   
+I'm looking for more Christmas films that focus on the true meaning of Christmas that aren't complete drivel and soppy pandering to sentimentality but are genuinely thought provoking and compelling. </t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2023-12-18 22:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>The Vanishing (George Sluizer, 1988) illustrates that a hero is indeed capable of terrible deeds</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>&gt;Spoilers ahead. I strongly encourage you to watch it, as it's the best film I've ever seen about a kidnapping, and one of the most memorable portrayals of a criminal because of how realistic and well executed it is.
+There are films that prove that the scariest ones do not come with the "horror" label on the cover. _Funny Games_ (Michael Haneke, 1997) is the first of this group that comes to mind, along with _The Vanishing_ (also known as _Spoorloos_ in Dutch), based on the book _The Golden Egg_ by Tim Krabbé. Both feature the most clinical killers I've ever seen in the history of cinema, who have different underlying motives for their crimes. In the case of Raymond (Bernard-Pierre Donnadieu), the antagonist of _The Vanishing_, the urge to kill is born in contrast to the honorable act of saving a little girl from drowning. By his own account, his daughter was bursting with pride at such a heroic act, so he felt that her admiration was worthless unless he could prove himself capable of doing something evil, since black cannot exist without white.
+The title is an apt description of the entire plot, as it deals with the disappearance of Saskia (Johanna ter Steege), the girlfriend of Rex (Gene Bervoets). This terrible event has left such a mark on him that even 3 years after that fateful day, he's still hoping to find her. This scenario is the vehicle to introduce us to Raymond and, thanks to the naturalistic storytelling that George Sluizer employs, to delve into the mind of the most methodical killer I've ever seen in a film. No detail goes unnoticed by him as he does things like scream and then ask a neighbor if he heard anything to make sure that no one can hear screams from his cottage, the place where he plans to commit the crime, or apply somniferous to himself to make sure the victim remains asleep during the drive to the location. He's an intelligent, well-dressed, well-spoken man with a family and a home who works as a chemistry teacher. No one would think of him as a psychopath obsessed with kidnapping a woman. He doesn't even stain himself with blood for his crimes, but as intelligent as he is, he is not portrayed as an infallible criminal. He fails. A lot. In fact, the kidnapping of Saskia happened by chance just as Raymond was about to retire for another day without having caught his martyr for his cause. Everything is so believable and so well acted that it seems real and plausible, which makes the film all the more terrifying.
+There's no linear narration of the events, as the film is divided into two story arcs that eventually converge into one. On the one hand, we see the disappearance of Saskia from Rex's point of view, from which we can feel the increasingly anxious situation he has to endure. On the other hand, we see the frivolous and frustrated kidnapping attempts of Raymond, who finally achieves his goal, as if it were predestined by fate.
+&gt;The best plans can be wiped out at any moment by what we call fate.  
+&gt;— Raymond
+We also see time jumps into the future, where Rex is with his apparent new girlfriend Lieneke (Gwen Eckhaus), who is an irrelevant character in the plot, adding rather superfluous moments to the footage. At this point, however, both Rex's and Raymond's plots are finally brought together by the meeting of the two characters, where further details of the story are revealed through their conversations. Even though the murderer is revealed fairly soon, it isn't detrimental to the development of the plot, because the interesting aspect is the dismantling of Raymond's ruthless psyche and the reasoning behind his actions, which finally leads to the revelation of what he did to Saskia and how Rex finds out about it.
+_The Vanishing_ doesn't end happily with Saskia still alive, or at least with Raymond being punished for his crimes. Actually, that would spoil all the calculated blocks that make up the whole structure in which the plot lies, since there is not a single piece of evidence that could lead Rex to incriminate Raymond. There isn't a moment in the story that would make us think that Rex could have done more to catch the culprit. If anything, we might think he could have done more with the letters Raymond sent him to meet him at the cafe, but what could he have done? Call the police? Would they have changed anything at all? Raymond would still be safe on his balcony, laughing at Rex's futile efforts to catch him.
+In a delirious attempt to learn Saskia's fate, Rex volunteers to share her fate by going against what is predestined, accepting Raymond's offer to drink a sleeping pill dissolved in coffee in order to experience for himself what happened to Saskia. When he wakes up, he lights his lighter and realizes that he has been buried alive, causing him to laugh and scream hysterically. When the flame of Rex's lighter goes out, any glimmer of hope vanishes, fading into a faint memory of seeing the light at the end of the tunnel, where Saskia was still alive. What was once a comfortable reality now becomes a desperate, mute cry for hopeless hope.
+It's certainly difficult to make a film that manages to deal with such a recurring theme in film as kidnapping without feeling manipulative or presenting the antagonist as a figure who can only be defeated by the powerful, morally superior main protagonist who rescues the girl and makes the film end with a happy conclusion to the conflict. However, in this exercise of exploring a psychopathic mind, George Sluizer knows that the world is flawed and far removed from the perfect world that many films fraudulently try to portray.
+Simply put, _The Vanishing_ is the best and most realistic film I've ever seen on such a complicated subject. As frightening as it is, don't forget that there are real killers out there who, like Raymond, will never be caught for their terrible deeds.
+---
+Attribution: https://enosiophobia.substack.com/p/the-vanishing-george-sluizer-1988</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024-07-17 22:40:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Eternal Sunshine Of The Spotless Mind, How Cruel Love Can Be</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>I love this film so much it's become a tradition of mine to watch it every valentine's day. Overall this film is actually fairly simple but because of the way the story is structured it really seems more complicated than it is.
+I like the premise of if you could erase someone you had a bad break up with from your memory should you do it? Seeing early on in the film the interactions between Joel and Clementine seems fairly like a standard romantic drama and nothing all that special but with the nature of this film when we see their actual first encounter it makes it so weird. Skipping ahead a little after the visit to Dr Mierzwiak and the start of the procedure when we see how toxic Joel and Clementine's relationship has gotten and the beginning of the toxic memories breaking down is something I'm sure a lot of people would want. Some things are better to forget.
+It's interesting how this film turns from a story about romance into straight up psychological horror. The realisation that this was a mistake and Joel has no way to stop it no matter how much he tries, and he gets to see all of the pleasant memories he has with Clementine crumble. I also think child Joel being rescued by child Clementine is sweet but also adult Joel being bullied by children is quite funny.
+My favourite scene is at the beach house where it all started and Joel acquiescing to the fact that it's all going to disappear so he might as well enjoy it. That scene in my opinion is brutal. I also liked how the film led up to that scene with the interactions between Mary, Stan, Howard and his wife not to mention how much of a creep Patrick is. You really have to feel sorry for Mary. The ending is strange but imagine listening to a tape where you are saying absolutely awful things about someone you just met who you are interested in would be. Not having enough whiskey would be a problem.
+The ending is obviously up for debate but I like to think Joel and Clementine are important people in each other's lives but they aren't going to work out long term however they can grow from their relationship with one another.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024-02-21 17:40:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Megalopolis: Differences between the Original Script &amp; The Finished Film</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Here is am telling the difference between the script that is out online and what is in the finished film. There are some similarities between them and the plot beats are overall the same, but the script is very different then what is in the finished film. 
+* &gt;!The Names were different. Serge Catiline, Frank Cicero, Gene Hamilton, Claude Hamilton. The only names that stayed the same are Julia Cicero, Vesta Sweetwater, Fundi Romaine, Stanley Hart, Terry Cicero!&lt;
+* &gt;!Coppola also decided to cut some characters from the script, which are Davy Cato, Miriam Carteret, Tim &amp; Tom Boni, Rebecca Silver, Morgenthau, Anton Smith, &amp; Mead Milo.!&lt;
+* &gt;!In the finished film, we find out that Sex tape between Serge &amp; Vesta are fake and that Vesta is also much older than she appears to be. However in the script, The sex tape is in fact real, but Vesta being older is the same, and because of this, Serge is let off for Rape, but your left wondering if Serge would of still done it if he knew her age.!&lt;
+* &gt;!In the finished film, Wow Platinum enlists the help of Clodio Pulcher to help here seize control of Hamilton Crassus’s bank, however he figures it out and he kills her with the blow, but wounds Clodio. However in the Script, she insteads plots with Davy Cato, who also wants to take over the bank. However, Hamilton (who is Gene Hamilton in the script), figures it out, and like in the finished film, kills them both Cleopatra, Marc Antony Style.!&lt;
+* &gt;!In the original script, Clodio Pulcher was named Claude Hamilton and he had a friend named Anton Smith by his side. The intentions where that he wanted to be king of new rome, and decided, to achieve that goal, he decided through charm and charisma get together all the immigrants and their votes so when it comes election day, he has to votes to be elected and get those he hate out of power. However, his actions grab the attention of Mead Milo &amp; Nush Berman, who have concluded that Claude needed to be taken care of. However, when they go &amp; meet with Claude, Claude ambushed them and kills Nush and Mead only escapes with his life.!&lt;
+* &gt;!Claude’s end is also different, as Megalopolis is beginning its grand opening, Claude and his legion of supporters are ambushed by Mead Milo, and Mead, avenging Nush, shoots Claude in the back with his hunting rifle, only after giving Claude the chance to run.!&lt;
+* &gt;!The ending is also different, In the finished film, Cicero &amp; Catilina become allies after rioters attempt to storm City Hall, Pulcher and Wow taunt the bedridden Crassus, but Crassus kills Wow and injures Pulcher with a hidden bow and arrow disguised as his erection. Cesar confronts the rioters, pleading with them to believe in his vision of a better future. His speech wins over the crowd, whose members hang Pulcher upside down. With renewed financial support from Crassus, Cesar finally completes Megalopolis. Cicero, holding Julia and Cesar's baby daughter, Sunny Hope, promises to help Cesar build a better future.!&lt;
+* &gt;!However in the Original Script, Cicero &amp; Catilina do not become allies, as because of Mead Milo’s successful hit on Claude. It insteads turn him into a martyr for his supporters and with Anton Smith leading the charge, they successfully storm City Hall &amp; Because of extraordinary circumstances Serge unintentionally incites it. Because of this, Cicero believes that Serge is now leading an uprising, &amp; as Mead has return from the chaos, he and Frank have a talk.!&lt;
+* &gt;!As people get ready for the opening of Megalopolis, multiple cars, which Serge’s bodyguard Fundi recognized as not city cars. Mead Milo comes out his car and with other men &amp; begin shooting bullets. They successfully kill Fundi &amp; Serge, Julia see’s Mead and a gunman ask what should they do with her. Mead gives a signal, and Julia is shot dead. As the countdown begins, Frank is in his car with Commissioner Stanley Hart and he is made aware that they shot Serge, but is shock to find that they killed Julia as well. There is a closeup on Frank’s face as he realized what he has done, and there is the death of a soul.!&lt;
+* &gt;!When Megalopolis finally opened, we see Serge &amp; Julia descends to heaven and that is when the script ends!&lt;
+Overall, I think the script was better as I think Coppola forgot that the story at its core, is a Greek tragedy like Rome before it. I also think the character (especially Frank Cicero) where more 3 dimensional than in the final film.
+Do you think Coppola was right with these changes.
+Also here is the script- [Megalopolis | PDF](https://www.scribd.com/document/414098534/Megalopolis)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:10:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>I’m a film journalist who has been in Cannes for the full festival. AMA</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>I’m on a long train back from the riviera and thought this might be of interest to people.
+For further context I’m an editor at an international film magazine which has a focus on art house cinema. I’ve been attending Cannes since 2022.
+I think I might not have hit the word count required for a post yet so I’m just going to keep on typing some words here but feel free to ignore them.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024-05-26 13:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>"Ali" and "The Insider"; Michael Mann as a radical filmmaker</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Most people are disappointed by Michael Mann's "Ali" when first watching it, but I think subsequent viewings reveal it as an excellent film.
+I think what helps is the realization that it's a kind of religious movie. It begins with paintings of Jesus, and Ali resenting his father's submissiveness to a white God and white power. The film then watches as Ali seeks out a black God via the Nation of Islam. This, he thinks, constitutes a form of black empowerment markedly different from Christ and Christianity, which he associates with the submissiveness of African Americans.
+But of course the Nation of Islam quickly reveals itself to be similarly exploitative and dependent upon subjugation. It puts Ali in various straitjackets, leading to Ali slowly drifting away from it.
+The final act of the film then sees Ali come across paintings of himself on a wall in Africa. Echoing the depictions of Christ his father did for money at the start of the film, Ali realizes he's become a God in the eyes of his followers. More than this, he realizes he's become like all the Gods and icons he's grown to despise throughout the film. Like they've abused him, he's abused women and forced them to submit to him and venerate him as a God. 
+It is this realization that Ali takes with him into his final fight. Realizing he hates the aforementioned consequences of power, he submits - like the Christ images his father once painted - and takes abuse in his final fight like Christ did on the cross. He lets his opponent whip him and whip him, and then turns this to his advantage.
+I think a lot of the hate "Ali" received came down to people not really seeing what the film was doing. But it's quite single-minded in its intentions, intentions which become more clear with rewatches. It's also gorgeously scored and edited, and with hindsight Will Smith's performance as Ali is quite special.
+It's also worth comparing "Ali" to the Michael Mann masterpiece "The Insider". Most view "The Insider" as a film about Russell Crowe, a corporate insider who spills Big Tobacco secrets. But the film's chief insider is really a character played by Al Pacino, a newsman who leaks corporate secrets about his own news company and its owners. Both characters believe they are stealing secret truths from the "inside", and leaking them to the "outside". They believe they are smuggling information from inside Power, to the outside wider world.
+But what Pacino learns at the end of the film is that there is no longer an outside. Everything is owned. Every sphere is under corporate control; even the media that promises to speak truth to power is itself an arm of Power. Hence why the film ends with a long tracking shot of Pacino exiting a building; he's quit his job and beginning a search for an existence outside the system. This contrasts with the opening of the film, where a similar long shot tracks Pacino as he is brought inside a building. You see a stark dichotomy here; a belief in an ability to penetrate the inside, giving way to disillusionment and then a search for a mythical outside, a search for that elusive freedom which all Mann protagonists seem to seek out (often associated with long horizons or shots of the ocean).
+Note too that the film is book-ended by terrorists. It opens with Hezbollah terrorists who want to expel Americans from the Middle East, and ends with the terrorist acts (which pepper the film) of the Unabomber, whose anarchic manifesto ("Industrial Society and Its Future") espoused the belief that modern society was perverted (by a fusion of technology, corporations and money) and needed to be destroyed.
+Both terrorist "groups" are deemed outsiders by Power, and both in a sense seek the destruction of modern America. Fittingly, Pacino's character mentions being a student of Herbert Marcuse, a consummate outsider whose work critiqued capitalism (and the way it co-opts technology), and who is famous for writing "The One-Dimensional Man", a book about the totalitarian nature of our economic system, and how it shapes and limits human behavior, and removes autonomy.
+So in both "Ali" and "The Insider", you get the sense of male heroes becoming disillusions with the systems they find themselves in. They open their eyes to the ways Power traps and limits human beings, and make the decision to become outsiders.  In this way they bridge the gap between docile citizens and the outright criminals of Mann's other films ("Heat", "Thief", "Public Enemies" etc).
+Interestingly, Mann's obsession with "outside" and "inside" extends way back to the beginning of his career. Think his 1980s crime flick "Manhunter". That film mirrored two plot lines. In the first, a serial killer watches normal American families from outside the glass windows of the homes in which he eventually kills them. Gradually, however, he becomes an "insider"; he builds a relationship with a woman, invites her into his own house, and becomes less of a monster and more of a "normal" guy.
+The film's second plotline does the opposite. It watches as a criminal profiler leaves his happy, big-windowed family home behind and enters the mind-space of a criminal. By the film's end, he will begin to act like the serial killer he's tracking. He will become a monster stalking outside the serial killer's house, watching his prey through glass that separates both worlds. The film climaxes with this glass being broken, inside and outside briefly becoming one. 
+In "Manhunter", the delineations between inside and outside are fairly simple; cops are good and criminals are bad. By the time we get to "Insider" and "Ali", however, Mann's films have become a bit more sophisticated. Ali and Crowe may commit crimes, but they're more heroes than criminals. And where state power is unquestioningly good in "Manhunter", in "Ali" its oppressive and at times outright criminal. The Inside/Outside, Law/Order dichotomy of his early films break down entirely in his later career, though his heroes always retain a romantic yearning for escape.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2024-02-14 21:11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>I think people really over-analyze Perfect Days</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>First of all, I would like to give kudos to the creators for making a film that can be understood in different ways while still being appreciated by everyone. Some films get polarizing reactions, with some people hating them and others loving them, but in this case, everyone seems to like the movie, even if they interpret it differently. That’s what art is supposed to do.
+That said, I’ve read a lot about this movie, mainly on Reddit, with opinions ranging from "he chose a life of solitude, intentionally staying away from others and is happy" to "he is a miserable man, deluding himself into thinking he's happy and one change away from completely breaking." I think the film is simpler than we make it out to be.
+Hirayama does NOT keep himself away from others. I think he’s a bit introverted and shy. If he were truly forcing himself into solitude, he would probably avoid others completely, but we see that he doesn’t. For example, he regularly goes to the restaurant, and he doesn’t isolate himself from friendships. He’s just shy and introverted, perhaps lacking some social skills—that’s all. When he eats his meal during work, he nods at the same woman every day. It’s clear throughout the film that he enjoys the company of others as much as he enjoys being alone. He just doesn’t talk much with many people, that’s all. He enjoys his work, his routine, and the small things in life. The movie is calming, and at no point did I really feel like he was lonely. He has routines and hobbies he enjoys. The 80s-style music and his reading habits are just him being a boomer, nothing more.
+However, there are some contradictions to what I’m saying. I think if we didn’t know he came from a wealthy family and had a strained relationship with his father, this interpretation would be clearer. But in none of his dreams do we see him longing for anything he doesn’t already have, so I don’t think he’s missing a lifestyle he once had.
+In the first half of the movie, we barely see him speak at all. But as soon as his niece enters the picture, this changes. I was a little taken aback by the tonal shift, but this part is also the most wholesome moment in the film. The fact that his spoiled, wealthy niece isn’t repulsed by his job and even offers to help is heartwarming. After she leaves, we see him break down. Soon after, he loses his temper when his coworker suddenly quits. Later, after seeing the restaurant owner, he gets drunk and tries to smoke. He forms a bond with a dying man—something we hadn’t seen him do before. And then, in the final scene, he breaks down again. These moments likely contribute to the various interpretations of the film, and rightly so.
+However, I feel the film is simply showing that he experiences joy and sorrow like anyone else. He’s not overwhelmed by either. He’s not someone who deludes himself with false happiness to avoid his sorrows. Again, he’s never truly lonely. People like him, and he enjoys their company, as well as his hobbies. Ironically, in a melancholy way, I felt that his life seemed more joyful than mine, simply because he enjoys the things he does—his hobbies and his time with others. I’m Indian, so while I don’t know much about Japanese culture, in Asian religions like Buddhism and Hinduism, there’s a strong emphasis on accepting both pleasure and pain, sorrow and happiness equally. This film seems to reflect that.
+So, when he doesn’t speak much but engages with his niece, it doesn’t mean he subconsciously longs for human companionship but chooses solitude. It simply means she’s family, and he treats her as such. You can’t have a 1-on-1 situation with family and not speak to them. Introverted or “unsocial” people don’t avoid everyone entirely. When he bonds with the dying man, it’s because he’s already having a bad day and is under the influence of alcohol. The man also approaches him first. When he’s upset about the coworker leaving, it’s because it means more work for him. Once the replacement arrives, he’s back to his usual self—genuine human reactions. He’s not forcing anything. There’s no need to overanalyze.
+As for the final scene, I admit I didn’t fully understand it at first, mainly because I wanted to see more since there wasn’t an overarching plot or clear ending. But after reading some discussions, it’s clear the film is simply showing that you can experience both joy and sadness without being overwhelmed by either.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Papillon (1973) is a great film that contains Steve McQueen's best performance of his career and one of my personal favourite scenes ever shot</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>I'm not saying anything new by stating that the original 1973 Papillon is a great film. It is, in my opinion Steve McQueen's best performance and his best overall movie. I'm a huge McQueen fan and I've seen all of his movies apart from a couple and I really think this was his magnum opus. Some other great, less seen performances of his that I recommend are in an Enemy of the People in which he plays against type and in Tom Horn which was his second to last film. His performance in Papillon, however was the one that should've at least been nominated for an academy award, in my opinion. 
+I love how Papillon is a continuation of themes McQueen was associated with in his previous movies. He is no stranger to quests for freedom and escaping captivity as he's done that in his most famous film which was of course the Great Escape. In-between the Great Escape and Papillon he also made Nevada Smith in which breaking out of prison is a major plot point. I love the Great Escape and Papillon can sort of be seen as a gritty, grimy version of that film. Of course, Papillon is more about the pursuit of freedom and purpose in general rather than about staging a prison break and the thrill of the escape.
+In Papillon, we as the viewers are really immeresed in to how hellish the conditions were for the prisoners in the French Guyana. The scenes of Papillon being locked away in solitary truly get across how horrific it was. It is during this time when the scene that I mentioned in the title of the post happens. That scene is the one where Papillon has a surreal dream of himself walking through the desert and being confronted by a judge and jury. Papillon claims that he is innocent of murder but the judge tells him that his crime is larger than that, the biggest crime a man can commit which is that of a wasted life to which Papillon admits his guilt multiple times like a penance. That scene, in my opinion is very well shot and scored but I wouldn't rank it as one of my favourites scenes because of that as there are certainly many more scenes which I can say have better composition. Instead, it's because of how poignant it is and how much it speaks to me personally. It makes me contemplate whether I lived my life well and to what extent I'm guilty of the same verdict. I'm sure most people feel that way about their life to some extent sometimes and I'm not saying I feel that always but there are times when my mind brings that scene up and makes me ponder. The ability of this scene to linger on my mind and recall it from time to time truly makes it special. 
+Finally it goes without saying that Dustin Hoffman is absolutely fantastic in the movie too. Also, I am not at all bothered about how much of this movie is true and whether the whole story is fiction. What matters to me, and this is a case with most films is how much I enjoy it and how well it gets it's themes across. To me, Papillon does all that exceptionally well and it deserves its status as a great film.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024-09-10 22:51:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Princess Mononoke (1997) and the nature of existence</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>I re-watched Princess Mononoke in theaters for Ghibli Fest last week and the experience left me with a lot of feelings that I now feel like I can articulate into words.
+Princess Mononoke resolves the paradoxical conflict of nature vs. humanity. A conservationist points to a beautiful forest and says “it deserves to survive”, vowing to protect it with their life. A pioneer points to the huddled masses who yearn to build a town over the forest and says “they deserve to survive too”. Who’s right?
+The movie tells us that that life is not a noun, but a verb. Death is no less a part of life than birth in the same way that in order to inhale you must also exhale: both are breath. Conflict is inevitable and part of the process in the same way that storms give way to clear skies. All of nature — all of reality — is like this. Waves break against shores only to pull back and rejoin the sea but in the process it leaves the land ever so slightly changed. In the final shot of the movie we watch verdant grass growing back over the scars of war.
+Some thoughts:
+* For me, the most emotionally salient shot of the film — even when I watched it a long time ago, much younger with no idea how to make sense of it — was when we first see the God of the Forest. We see it take a few slow steps and with each one we watch life be birthed, grow, die, and decompose. Miyazaki’s choice to make the viewer’s first impression of the God of the Forest this strikingly beautiful and surprising shot was my window into understanding what the movie’s trying to tell us.
+* The God of the Forest does not provide any favorable treatment to trees or animals, nor does it put up any special resistance against humanity. Such blind justice is awe-inspiring and allowed me to understand that viewing ourselves as separate from animals and plants is absurd, the conflict — and even the entire boundary — is imaginary. No more are we at war with the forest when we build a town than we are with our own skin when we exfoliate.
+* Another scene that stood out to me was when the conniving Jiko-bô talked about a town that was abandoned after a landslide killed many of the people living there. Humanity’s exploitation of its surroundings is a push and pull with nature. If we are subject to nature’s inscrutable whims then it’s incumbent upon us to act according to our nature and fight to thrive, not just survive.
+* By the time Lady Eboshi says "Watch closely everyone. I'm going to show you how to kill a god.” I no longer found her to be possessed by evil or championing a righteous cause. The line struck me with the same kind of resignation to destiny and immutable nature as I feel when I think of a white blood cell rallying the immune system to attack perceived threats, not able to understand that in doing so it’s killing its host and its home.
+* While the movie does not venerate either side of the conflict between nature and humans (because it’s trying to tell us the conflict is imaginary) it does venerate moments of empathy and acts of compassion: Ashitaka risking himself to save two townspeople, Lady Eboshi’s genuine respect of the lepers and their adoration of her, Yakul and Ashitaka’s bond. The God of the Forest rewards Ashitaka’s sacrifice for San with a second chance at life.
+* The film shows us that it’s possible to go too far and upset the balance within nature and that by doing so everything inside of it suffers. If Lady Eboshi was successful in her quest then both her people and the forest would have been wiped out. 
+* The film takes great care to spend time on the tender acts of kindness between and among animals and humans: Ashitaka pulling the covers over San, San’s devotion to Moro, Moro’s camaraderie with Okkoto, Yakul’s loyalty to Ashitaka, Toki’s adorable love of her husband Kohroku. By letting the emotional warmth of these moments wash over me I gained an intuitive understanding that compassion for all living beings is the answer to thriving and maintaining balance with the rest of nature.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024-07-22 19:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Thoughts on Stalker (1979) directed by Andrei Tarkovsky</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>I enjoy doing some reading, thinking, and writing after watching a thoughtful film.  A friend who enjoys arthouse cinema introduced me to Tarkovsky's work, and **"Stalker" (1979)** was the first of his films I ever watched.  It proved to be enigmatic and thought-provoking, and I've now watched it three times.  I'd love to get some interaction from others on my thoughts below about the film, or any key aspects I missed.
+First, a brief introduction to Tarkovsky himself.  Russian director and screenwriter Andrei Tarkovsky is highly regarded by fans of arthouse cinema, and is widely considered one of the most influential directors in the history of cinema. His greatness is evident from what famous director Ingmar Bergman said about him: "*Tarkovsky for me is the greatest \[director\], the one who invented a new language, true to the nature of film, as it captures life as a reflection, life as a dream*". He received critical praise for films like Andrei Rublev (1966), Solaris (1972), Mirror (1975), Stalker (1979), Nostalghia (1983), and The Sacrifice (1986). Unlike all his other films the latter two were filmed outside the Soviet Union.
+"Stalker" was my introduction to Tarkovsky’s work.  It’s a Russian language film that runs for three hours. It’s been described as combining elements of science fiction and fantasy with dramatic, philosophical, psychological and theological themes. Critical reviews of the film have been very positive, and it has been listed among the greatest films of all time, and has also won awards.
+So what’s it about? It is loosely based on a novel from 1972 written by the brothers Arkady and Boris Strugatsky, entitled "Roadside Picnic," which describes what happens following an extraterrestrial visit. In the book, a Zone of a few square kilometers remains after the aliens leave. This area exhibits strange phenomena and contains artifacts with unexplained properties, including a magical wish-granting “Golden Sphere”. But entering this dangerous and forbidden area requires the assistance of a professional guide known as a “stalker”.
+The movie takes this basic concept from the book, which accounts for the title. Stalker is the main character of the film, which is held together by a narrative that departs from the novel in a lot of significant ways, and becomes its own story. Stalker’s role is to guide people into and through the mysterious and hazardous area called the Zone, which has been sealed off from the public by the government. Getting there requires going with him on a risky journey, and navigating it will prove difficult because apparently the normal laws of physics don’t apply there, and there may even be remnants of extraterrestrial or supernatural activity. At the center of the Zone is a place called the Room, which holds the promise of granting a person's innermost desires. The two men who join Stalker on his mission as part of their quest to get to the Room are a Writer and a Professor (never named), each with their own motives for entering the Room.
+The first part of the movie is quite accessible for the most part. First we meet Stalker at home with his wife and child, and his wife unsuccessfully begs him not to go into the Zone. Next we meet his two clients. There are even some exciting moments as they begin their expedition, because entering the dangerous terrain of the Zone requires breaking through the military blockade of government security. Stalker has given them strict instructions that once they are inside the Zone, they must do exactly what he says to survive the dangers of this forbidden area. The shortest path to their destination is not necessarily the best one, and to navigate the potential hazards and traps, he throws metal nuts tied to cloth strips.
+As the expedition continues, gradually we discover the reasons why the Writer and the Professor want to visit the Room. It also turns out that completing their quest won’t prove easy. The Room is located in a rundown industrial building, and they must make it through what is called the “Meat Grinder”, which requires someone to die in order to enable another person to enter the Room. The corresponding novel is helpful in explaining how this works: to get to the place where wishes are granted, one of the individuals has to die in order to temporarily deactivate an invisible phenomenon known as the "Meat Grinder".
+But that’s not the only challenge that arises here. The Professor actually wants to destroy the Room to prevent anyone using it for evil. At this point a spiritual, psychological, and physical conflict between the characters ensues. After some climactic scenes around the notion of entering the Room, all three characters make the journey home. The film closes with some scenes between Stalker and his wife, followed by a contemplative monologue from Stalker’s wife, and a glimpse of their daughter’s telekinetic powers.
+Viewers will be immediately struck by the artistic aspects of Tarkovsky’s creative film-making. Tarkovsky has a unique style, with a special fondness for very long shots without cutting away. Stalker uses slow camera movement, and lengthy takes that average at least a minute each, with many shots even running for more than four minutes. This technique is something Tarkovsky believed to be important, and had to do with his view of bringing his viewers into the time of the moment. His fondness for slow pacing and dreamlike visual imagery is very much on display throughout the film. Colour was also important to Tarkovsky, and it is only when we enter the Zone that we merge out of the black and white sepia that the movie starts with. Extended dialogue and monologues are also typical of his style, at least in this film.
+But what is all this art trying to communicate? At times one might wonder whether Stalker is reliable, and whether the dangers of the Zone are real, or whether the Room is just a superstitious fallacy. Sceptics might want to view the film rationally and scientifically, and explain away the Zone as the site of a nuclear accident like Chernobyl. Taken as a whole, especially in light of Tarkovsky’s own rejection of a purely materialistic view of life, I’m convinced the film wants us to accept that the threats in the Zone are real, along with the Room and the reward it promises to all who are prepared to complete the religious quest needed to reach it.
+This interpretation is supported by the fact that we see a wind arise when The Professor tries taking a shortcut, and also the impact that the Zone has had on Stalker’s daughter and her apparently telekinetic powers. It’s also supported by what happened with Porcupine, a previous Stalker who committed suicide after obtaining his inner desires upon entering the Room. Additional evidence in favour of this interpretation is the main premise of “The Roadside Picnic”, the novel that the movie is based on. Reading a synopsis of the book’s plot can be helpful to discard wrong interpretations of the film that were clearly not intended. So even if there are parts of the film hard to explain, it seems clear that the character of Stalker needs to be accepted as a trustworthy character, and that what he says about the Zone is true, even if Stalker’s own journey of faith has flaws and imperfections.
+But what makes Tarkovsky’s contribution to cinema all the more important for me personally are the religious themes that he works with. He has the same Russian Orthodox Church background as literary greats like Dostoevsky, so it should come as no surprise that he employs similar themes. Like Dostoevsky, Tarkovsky rejected the idea of a materialistic, disbelieving world. So it seems plausible to interpret the film with Stalker representing the “holy fool” that is a common motif in Russian literature. His role typifies the importance of following a spiritual guide rather than following our own path, and the importance of viewing life through the eyes of faith. Navigating the Zone is like a religious quest or trial that requires believing and following a guide. For me as a Christian, this suggests something about the essence of faith, where we are led by God's Word, and follow what He says.
+The Writer and The Professor are never named, and are presented as two intellectuals, possibly representing arts and science respectively. The Professor is a sceptic and unbeliever, while the Writer is an agnostic, and both struggle to accept the apparent powers and dangers of the Zone. In the end, both end up following Stalker, who is a man of faith, but this is only after their own personal failures to accomplish what they came to do in the Zone. This also explains the closing scenes, where Stalker laments humanity’s loss of the faith needed for going through the Zone and for living the good life. In a world of increasing secularism, materialism, rationalism, and scientific thought, Tarkovsky wants us to hold on to the importance of faith and religious thinking.
+Another important theme is about human desire. While the Room holds the promise of tremendous power, it is also very dangerous. An account of a previous Stalker named Porcupine is offered as a cautionary tale in this regard. He took his brother into the Zone, but sacrificed him at the Meat Grinder in order to enter the Room himself. Porcupine later won the lottery and became very rich, but subsequently hanged himself. His stated desire might have been to restore his brother back to life, but what if his greatest secret desire was actually different from what he thought, and was just a materialistic craving for money? Realizing this afterwards made Porcupine realize he wasn’t a very good man, and brought him to suicide, perhaps in part to expiate himself for his guilt.
+Could Tarkovsky be saying something similar to the message of Ecclesiastes, that if you look for your deepest desires to come true (apart from God), in the end it leads only to disappointment? Wisdom is to come to the same realization that the Writer and the Professor eventually arrive at: because of the corruption and depravity in our hearts, entering a Room which grants our greatest secret desire would only result in something that will haunt us. We don’t have the spiritual goodness to enter such a place, and the conclusion of the film grieves over fallen humanity’s inability to live the good life.
+In contrast, Stalker’s daughter (Monkey) seems to be presented as a Miracle Child who does have a noble heart, as evidenced by her mind being filled with works of poetic greatness. On the one hand she bears the marks of Stalker’s frequent visits to the Zone, because being a stalker comes with the risk of genetic mutations in your children, which is evident in Monkey’s visible handicaps and imperfections. Yet her demonstration of telekinesis suggests she has the power of miracles which the Room promises. This also explains why she is the only object in colour, because the power of the Zone is embodied in her. Perhaps redemption is possible after all, even for those who are wretched and otherwise without hope.
+Modern viewers won’t be the first to find themselves wondering if too much is made of this film, and cynics may even suggest that part of the obsession with and admiration of this film is just a case of the Emperor’s New Clothes. I’m convinced it has a plausible story and deep themes, as I’ve explained above. But I’ll also concede that a great deal of the film eludes the ready grasp of the viewer, and remains perplexing. I often found myself wondering about the importance of the obscure images the film constantly throws at us.
+For instance, what are we to make of the lengthy dream sequence, where we are get a series of images of debris and flotsam in water: fish, a religious icon, money, a rusted gun, a lock, barbed wire, a spring, a human hand? And what is the significance of the dog that roams freely in the Zone, and follows the trio back out? At times the imagery is deeply religious, such as a moment when the Writer has a crown of thorns on his head, but what does it all mean? Without an interpreter, I often found myself baffled, but also intrigued and deeply curious. It’s certainly a demanding film, and the fact that it is somewhat inaccessible and that its meaning is somewhat hidden is also somewhat frustrating.
+At the same time we should be careful not to allegorize the film too quickly, and want to interpret all its details as symbols. Tarkovsky himself shied away from the concept of symbols and preferred to speak about metaphors. In interviews, he said that while a symbol contains within itself a definite meaning, a metaphor is an image and is indefinite in meaning, and cannot be fully deciphered. He wanted his films to be works of art, but not in the sense that everything can be explained, because he believed that there were aspects of his films that are abstractions that transmit truth which can only be comprehended in one’s own heart. If we’re going to take his own vision for his films seriously, we must be cautious not to analyze everything, but also allow the images to touch our soul.
+On the other hand, some viewers insist that this movie should just be enjoyed as a story without trying to interpret anything at all. I wouldn’t go that far, because clearly it is intended as a metaphysical fable that has something to say about faith, and about the nature of human desire. Tarkovsky has also stated that he wants his films to create a certain spiritual state in his viewers, even if they encounter fragments they don’t understand. So clearly there are deeper themes behind the story that we have to draw out. That requires effort on the part of the viewer, and a modern audience brought up on Hollywood action films and needing a suspenseful plot will find a film like Stalker disappointing, and perhaps even stupid and anti-climactic. Tarkovsky would dismiss such critics as unbelieving materialists, and might even see his film-maker role functioning like a stalker to help bring them back to an awareness of the need for religious faith.
+I’ve also watched Tarkovsky’s film “Mirror” (1979), which is considered by many to be his *magnus opus.* That is a much more enigmatic film with a non-linear structure and unconventional structure that jumps between three different timelines, and a stream-of-consciousness feel with dreamlike images. While critically acclaimed by some, others consider it completely incomprehensible. In contrast, “Stalker” is much more accessible, much like his sci-fi film “Solaris” (1972), which is also more narrative driven, while still raising deep questions.
+Stalker is an excellent place to get introduced to Tarkovsky’s creative, artistic, and thoughtful genius. While parts of it will remain perplexing, it has enough narrative to keep you interested, and it’s not so opaque that it defies comprehension on first viewing. As has well be said: "*Only in the hands of a genius like Tarkovsky can the simple narrative structure of three men on a journey be transformed to a complicated moral and spiritual examination of humanity, anchored to references of classical poetry, literature, music and art*."</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024-05-23 09:39:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>wow Johnny Mnemonic in Black &amp; White is kind-of a revelation!</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>It's been mentioned a few times in old interview that the film was intended to be black and white, then pumped up as a colour mini-blockbuster after Keanu hit big with Speed.
+On seeing the 2021 black and white version, ***I think the film was actually designed for black and white*** and the shift to colour came really late in pre-production.
+I have always wondered how the director, who came from high-end (mostly B&amp;W) art photography, could have shot such a cheap, tepid-looking film. On the original version, the colours are wan and the sets look crummy and outdated.
+In black and white, the sets look universally better, and the most of the costumes are conspicuously contrasty (which means they look much better monochrome). ***The visual design finally makes sense.***
+And so like 25+ years later, we see that Johnny Mnemonic was/is one of that crop of indie-chic '90s black and whites like Dead Man, La Haine, Twenty Four Seven etc... and it was the cyberpunk wannabe action flick one of that group!</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024-01-31 06:05:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Appreciation for Wong Kar-wai, after watching In the Mood for Love (2000)</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>I've not yet gone through his entire filmography, but watching **In the Mood for Love** has certainly left me with a newfound admiration for WKW's cinematic style, as I previously jostled to figure out what made Fallen Angels so great.
+There's no semblance of a definite narrative structure or even a proper, drawn-out story. Neither do you get any rich or layered writing, nor are you treated to any kind of character exploration. But the movie works regardless, as the colors, music, aesthetics, and even the pervading silences slowly let you soak in the mood and atmosphere of the world created.
+The minimalistic artistic expression, heavily drenched in sorrow and melancholia, subtly captures the characters' effervescing inner feelings and their unrequited love, which is underpinned by yearning and longing. The movie by itself doesn't have much to think about, but the way it masterfully conveys the emotions strangely has me still thinking about it nonetheless.
+&amp;#x200B;
+Another thing I find noteworthy is the *aftertaste* you experience long after you've seen the movie. One might not like it when the credits start rolling but once the initial thoughts subside, this lingering aftertaste takes over and leaves you with a desire to go back and rewatch the movie. This, for me, is the case with Fallen Angels too, given that I'm keen on revisiting it someday in the future despite knowing that I wasn't really a big fan when I watched it.
+The idea that 'people don't remember what you said but remember how you made them feel' is what the essence of WKW's cinematic genius is all about, in my opinion. What do you think, is the magic dust that somehow manages to make his work so alluring?</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024-01-26 21:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Appreciation for Mishima: A Life in Four Chapters</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>With the Criterion Channel recently highlighting a collection of the films of Paul Schrader, I decided to revisit this film. I remember watching it a year or so ago and it leaving me cold - it's (purposely) surrealist imagery leaving a sense of tackiness, instead of the hightened emotions I was *supposed* to be feeling. However, this re-watch hit me like a sledgehammer. Perhaps it might be because I am now more acutely aware of the political divide in my country (the US) and the role that fanaticism plays in our current politics. Perhaps I was simply just in a better and more open mood this time around, with no deeper reasoning. All I can say is by the end of the film, I was transfixed and could not stop thinking about it for days.
+I now consider it among the greatest films I've ever seen, and am currently on my third viewing. Yes, the Philip Glass score is incredible and adds a lot to the movie, but the writing and incongruent narrative is so hypnotic. I honestly believe the film demands 2 viewings to fully take in everything it is saying. What do you think of the film, appreciation or otherwise, and how it has stood the test of time? With First Reformed and Mishima alone, Schrader has shown me personally he is more than just a scribe who is not an interesting director -- a critique I see often. This is a total masterpiece.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024-06-03 02:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>“Blow Out” (1981) Review. Let’s discuss!</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brian De Palma *hates* boring openings. He’s gone on record saying as much. De Palma thinks that opening shots consisting of either a) aerials of a city or b) a car driving somewhere are creatively bankrupt. How does he solve this?
+He creates a devastating, electric opening—that’s how. The opening to *Blow Out* is nothing short of attention-grabbing. Two things make it so: a downright deadly Steadicam and De Palma playing into the sexist stereotypes of his filmography. Sleazy, total horror in prelude to a much more subtle, much more sophisticated horror.
+For this scene, De Palma went to camera operator and Steadicam inventor [Garrett Brown](https://youtu.be/vskdKnVZiqw?si=MFGZMuNbncIfVnHl). He had just come off of doing the extensive Steadicam for Kubrick’s The Shining, so he was prepped for anything. Anything except for what De Palma had in mind. Brown wasn’t expecting Brian to request him to track a “crappy slasher parody”. And so, Brown unlearned most of what he did on The Shining and went into meticulously planning and memorizing the shot with De Palma. That’s something that often goes under-appreciated in Steadicam shots, especially more complex ones like this: they have to be memorized by the operator. It’s some truly inventive Steadicam work, as is the, at the time original, running tracking shots at the end of the movie.
+One of the most effective aspects of this cold open is the immediate sense of mistrust it creates between the filmmaker and the audience. If the opening can’t be trusted, what else can’t be? It’s a clever way of establishing immediate tension without having to change the story. It’s also a smart way of holding tension without having to extend it scene-by-scene.
+Heavy themes of obsession, paranoia, and the idea of accidentally finding something bigger than yourself run amok throughout *Blow Out’s* 103 minute runtime. In large part, this comes from De Palma’s own obsession with the Kennedy assassination. In an [interview conducted by Noah Baumbach](https://youtu.be/2WLJTPnL8ZA?si=LK64mkyYRAw1HquM) (found on the Criterion blu), De Palma mentions that part of the feeling he hoped to get across with the film was the same ones he experienced as he dove further into the conspiracy himself. 
+The heavy use—borderline abuse—of split-screen and split diopter shots adds to the paranoiac feel of the film by creating an information overload for the audience. The eye is unsure where to land, forcing the viewer to take all the information in frame in at once. The rest of the film, when the camera can only focus on what’s directly in front of it, is achieved through the use of shallow lenses.
+This inability to let the audience focus on any one given subject at once also allows for much stronger usage of close-ups. They are few and far between here, so the ones that do happen are that much more impactful—even voyeuristic.
+Another effective building block of this conspiratorial filmmaking comes from De Palma’s obsession with Hitchcock. He’s a big believer in part of what he [De Palma] calls “the grammar of cinema”: it’s the only medium in which you can show the audience and the character the same amount of information in any given moment. As such, the audience is taken on the same ride as Travolta’s character and led to the same near-delusions. However, by carefully controlling this flow of information, the director also lets the audience in just enough to create further suspense. Again, a trick picked up from Hitch.
+I’ve used the word “obsession” a lot throughout this review. That’s because, at its core, that’s what *Blow Out* is all about. It’s both about the obsession of conspiracy and about its director’s own tendencies towards obsession. It’s an effective example of anxiety and suspense building, cementing De Palma as a master alongside Hitchcock. Any scene of Travolta in the editing room, meticulously going through every millimeter of tape to piece together his evidence is especially striking. It’s a careful exercise in both lens and audio trickery. The gear porn is an appreciated touch as well. There’s one editing room scene that stands out above the rest; when Travolta is checking the audio on a number of tapes, the camera slowly rotates in place, covering every bit of the room in one continuous, hypnotic motion; mimicking the reels on the tape machines. As Travolta’s character becomes more frantic, so too does the camera start to move faster and the audio becomes louder.
+Present throughout are also a number of impressive indoor aerials. These were achieved through the use to carefully crafted sets with cranes overhead used to achieve the shot. This creates a surreal, dreamlike look to these scenes that separate them from the normal reality of the film. This is a look that’ll be explored multiple times throughout the runtime, culminating in the firework finale.
+Cinematography is more than just camerawork, though. It’s also the department responsible for directing the electrical, lighting, and grips. The lighting of *Blow Out* in all of its technicolor noir glory is exquisite, especially on the 4k Criterion print. There’s enough colored lighting here to make Dario Argento blush. It’s striking and visually interesting to see bright reds, whites, and blues used in a chiaroscuro manner; bright colors contrasting with the film’s ideologies to create a dark, moody atmosphere.
+Another factor to take into consideration when discussing cinematography is shot length. Here, De Palma opts for longer takes with a tight, controlled level of shot efficiency. If the story can be told effectively with only 1-2 shots in a given sequence, then it’s going to be told in 1-2 shots. There’s little wasted movement or placement, making for a perceived obsession regarding shot economy; De Palma admits to as much in the previously mentioned Baumbach interview.
+A movie is more than just lighting and camerawork, though. For any narrative feature to work, it needs actors. The primary cast of Travolta, Allen, Franz, and Lithgow (but mostly Travolta and Allen) play up their noir tropes well. Travolta in the “wrong man” narrative fits like a glove. It’s the classic film-noir trope of someone stumbling into something bigger than themselves. On the other hand is Nancy Allen’s Sally; she’s sexy, naïve, and still dangerous—the perfect blend of femme fatale and damsel on distress. Franz is such a sleaze in so many different ways, that it manages to make my skin crawl. Seedy, secretive, and conniving; a grifter of the highest order. Lithgow, on the flip-side is cold and calculated. His killer is exacting and predatory; watching his character hunt down others is as tense as anything else.
+Using actresses that were similar in appearance to Nancy Allen for the string of cover-up serial killings also lends to the general feeling of unreality. It makes the viewer double take each time, needing to confirm if the character is Sally or not. The most extreme example of this is actually a piece of stunt-work. In the opening scene of the movie, when the car takes a dive into the drink and Travolta pulls Allen out of the car, it’s actually a body double. Nancy Allen is very claustrophobic, so sticking her in a car filling up with water was nigh impossible for De Palma (who was also her husband at the time). Although it’s a bit of a goof onscreen, it does happen to lend itself well to the dreamier qualities of the movie.
+The costuming in *Blow Out* does a surprising amount of heavy lifting as well. From those coordinating the conspiracy dressing in suits and ties: the uniform of politicians, bankers, and high society to Travolta’s plain, red shirts and working man looks—another type of uniform. In this way, De Palma is able to play visually with ideas of classism and how it often relates with conspiracy. It’s a subtle, but interesting way of conveying power dynamics.
+In *Blow Out*, De Palma shows a rigorous attention to detail that pays off in spades by the end. From the news reports given onscreen throughout to the allusions to the revisiting of his previous works. At one point, there’s a movie that plays in Dennis Franz’ apartment that provides some diegetic audio; it’s actually De Palma’s debut feature, *Murder à la Mod*. For film fans, the movie also complements other movies like Antonioni’s *Blowup* and Coppola’s *The Conversation*; each of them involving obsessive characters reconstructing recordings.
+*Blow Out* is one of De Palma’s best and easily one of his most technically impressive films. Through themes of obsession, paranoia, and the blurred line between reality and illusion, *Blow Out* engages audiences on multiple levels, inviting them into a world where nothing is as it seems. On every rewatch, another layer of the film reveals itself, only deepening its hidden, labyrinthine nature. This will always be an easy recommendation for me to give, especially to other fans of noir and genre filmmaking. The Criterion 4k release is worth every penny.
+[review on letterboxd](https://boxd.it/6qFrgT)
+</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024-05-07 12:16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The main driving force in every Ari Aster film is the absence of someone, rather than a protagonist. </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>I noticed this when I was watching the IMAX re-release of *Hereditary* last week, a film I've seen a number of times, as well as *Midsommar* (only seen *Beau is Afraid* twice, but so far that's enough lol). I've been a big fan of his since *Hereditary* first came out, and this theme totally stuck out to me watching it last week that the driving force in all of these films is essentially the absence of a character that dies early on, while the actual choices and decisions made by our on-screen protagonists are essentially meaningless to the overall inevitability the stories build towards.
+With *Hereditary*, we open with the obituary and always feel the looming presence of the grandmother, a character who's never actually on screen outside of as an apparition or a corpse. (EDIT: and of course, for the remaining 3/4ths of the film, the entire tone is set by/the result of Charlie's absence.)
+With *Midsommar*, we open with Dani's family imploding due to her sister's unraveling, a decision that will ultimately guide her to join the cult and sacrifice Christian.
+With *Beau is Afraid*, the entire film is based on the ticking-clock element that Beau is already too late for the funeral, and every second being added is more guilt for him to endure. Of course, this one subverts it by revealing that Monna was actually alive the entire time, but the point still stands; rather than a force that drives the story forward, we begin with a vacuum that essentially caves in the rest of the story around it like a slowly growing sinkhole. I just found this interesting, and definitely adds a layer of context to the overall powerlessness/inaction that I think *Beau* is really about. Curious to hear if others have interpreted this at all in a similar manner or if anyone has a different take on the material. I know all of these films are ripe for discussion and this is a very broad, general overview of this idea but I thought it was interesting as a throughline for these films I've thought about a lot over the years.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024-04-29 19:17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>it feels like critics are complete bullshitters after i watched poor things</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yes i did go in almost blind i knew there was going to be sexual content but i was not prepared to how much pedophelia i witnessed during this film as a woman it made me very uncomfortable the effects were gorgeous but mid way through the film i almost walked out of the theatre
+the themes of a baby being inside of its own mothers head and how she basically followed the path the men in her life wanted her to follow made me uneasy how she was having relationships with men who knew that she was a baby technically i don’t want people being like oh she matured quickly but that’s not the point it felt like honest to god pedophilia because i for one grew up very mature for my age but that didn’t mean i deserved all the creepy men in my life
+ i found it weird how people where hyping up how “bad” saltburn was but when i watched that film i loved it in all honesty it was genuinely well written funny  and people online kept talking about how disturbing it was they’ve clearly not seen the shit show that is poor things 
+i don’t want anyone being like i don’t see your point this is just the perspective of a woman who’s experienced the patriarchy 
+plus the music made me very uneasy the whole time 2/10 at best loved the effects but the plot did not deliver i wanted to vomit at the end </t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2024-03-02 17:59:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>All of Us Strangers was an amazing film</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>My friend told me that he and his wife went to see this movie and he described it as a "super gay paranormal film".
+I didn't think anything of it, but a few weeks later I was downloading random new films and "All of Us Strangers" was one of them. I started watching and realized that this was the "super gay paranormal film" my friend was talking about.
+Honestly, it's one of the most beautiful films I've seen in a very long time. There's a softness and tenderness to it which is hard to describe, and it works very well with the paranormal backdrop and comes off as pretty original.
+Curious to know what others thought of this film.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2024-03-02 13:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2023 films that you may have missed</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Hey ya'll
+I'd like to share some of the releases of the past year that people missed their chances of seeing due to some of it being limited to the festival circuit and having poor release schedules. Also to highlight small films that didn't get a chance to be showcased in mainstream theaters.
+**About Dry Grasses (Nuri Bilge Ceylan)** \- Having seen *Winter Sleep* before this, you think I'd had come to get weary of Ceylan's style but no he still manages to beat my expectations when watching this film. This is a tale of cynicism in the perspective of a school teacher. It's slow but the dialogue is thought provoking enough that you're compelled to watch, conversations about morality and the human condition is instantly glued to your subconscious as you reach the final minutes of the film. The teacher played greatly by *Deniz Celiloğlu* is falsely accused of having inappropriate relations with a student and goes through a journey of harsh self-reflection of his place in the world. Highly recommend this film.
+**Tótem (Lila Avilés)** \- A personal story of seven year old girl and his family celebrating his sick father's maybe final birthday. I feel bad watching this film, it's like I'm going to a person's diary and reading it. This film is so private and intimate but you can't help but watch as you become one with the family you spend time with in the film. The most indie out of my selection as it is filmed verite style in a 4:3 aspect ratio.
+**The Old Oak (Ken Loach)** \- an underappreciated gem that slipped under our radars. Ken Loach's supposed "final film" is a story about a pub owner who helps Syrian refugees settle in their new homes in Northeast England. A lot of commentary on Britain's socio-economic issues and the Syrian Civil War. It ham-fists you on the refugee crisis, not saying that it's bad to make a film about it, but it's just too on the nose for me. However, I do like the sentimental nature of the film, Loach's sensibilities always make you root for the underdog and no matter how bad it gets, it's never too late to hope.
+Might make a second post about this or a blog post as I watch more films of the past year. You're welcome to suggest some more if you have any recommendations.
+Letterboxd: [https://boxd.it/2Kvw9](https://boxd.it/2Kvw9)
+Substack: [Just Cinema](https://jlsanchez.substack.com/)
+&amp;#x200B;
+&amp;#x200B;</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024-01-29 17:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>New wave of French Female Directors?</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Seeing the universal acclaim Coralie Fargeat is getting for her satirical body horror The Substance, I can't help but wonder if we're witnessing a new movement in cinema, driven by female french auteurs.
+Over the last couple of years french directors like Julia Ducournau, Justine Triet, Céline Sciamma and now Coralie Fargeat have delivered provocative, refreshing, and thematically focused films, that have been met with much critical acclaim. With both Triet and Docurnau winning the Palme D´Or at Cannes, and Fargeat seemingly poised for a successful awards race, I can't help but wonder where this surge of female french talent is coming from. Of course France has had great female directors in the past (Agnes Varda, and the great, great Claire Denis) but I don't think there's been a time in French cinema when you had this many  female critical darlings, also capable of making box office returns.
+Given how historically male dominant and sexist the film industry is, you'd think this is some sign of progress? Has France taken steps to foster greater female representation in it's film industry? Is this simply France's newest lineup of directorial talent?
+Hopefully this trend will continue in other countries as well.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024-10-23 21:52:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>What exactly is it about Herzog’s work?</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>What defines his oeuvre? He is kind of hard for me to figure out; I’m speaking particularly about his work as a documentarian. 
+I’m especially curious about his visual style and techniques. Though it generally seems rather subtle, there is something that *feels* distinctive, but I can’t seem to put into words. 
+Thematically, I know he often explores the indifference of nature and the “ecstatic truth.”</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024-10-02 18:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sight and Sound Magazine - The 50 best films of 2024 </t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://www.bfi.org.uk/sight-and-sound/polls/50-best-films-2024](https://www.bfi.org.uk/sight-and-sound/polls/50-best-films-2024)
+As always, an interesting and eclectic list that features titles that have typically received scant media attention and/or are unlikely (or yet) to be released in theatres. 
+I can only assume film festivals and/or word of mouth are the main way voters - and people like us - are invariably exposed to (m)any of these films.
+It is also interesting to read the complaints about this list on the movies subreddit - their comments confirm that the 'average' - yet seemingly dedicated - movie goer will remain blissfully unaware of (let alone interested in) any of these films. Indeed, they appear angry that the list doesn't valorise their interest in mainstream films, and they appear to have little interest in seeking out films without widespread media attention or wide release (indicating the nature of a negatively reinforcing feedback loop amongst supposed film lovers/goers). 
+So unless a film has already been 'sanctioned' by the marketplace most of these films will remain relatively obscure or unseen. 
+[https://sh.reddit.com/r/movies/comments/1h81b3w/sight\_and\_sound\_magazine\_the\_50\_best\_films\_of\_2024/](https://sh.reddit.com/r/movies/comments/1h81b3w/sight_and_sound_magazine_the_50_best_films_of_2024/)
+</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024-12-06 23:58:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>My thoughts on Melancholia; Its excellent, authentic portrayal of depression and my disagreements with the worldview presented in the film by Von Trier.</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>I had posted a version of this article on this sub a few years back and in the past week decided to update the article with a few more information that I've learned since then.
+https://www.highonfilms.com/melancholia-2011-and-the-end-of-everything-exploring-depression-despair-and-the-human-condition/
+In it, I talk about,
+1) Melancholia's authentic portrayal of depression especially some of its symptoms like Anhedonia(the inability to enjoy things that you previously enjoyed).
+2) The concept of **depressive realism** (the idea that depressed people see reality for what it is) and how melancholia endorses this worldview. And also my disagreements with said worldview.
+3) A metaphorical interpretation of Melancholia that Von Trier may or may not have intended but is interesting nonetheless.
+Tell me what you guys think.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024-10-02 11:50:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Burn After Reading</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>I just watched **Burn After Reading** last night. This is around my fourth or fifth time watching it, and I was struck by the idea that the whole film is about change and how it affects our lives, whether random or not. There's also a component about desire and how it creates or catalyzes that change in our lives.
+All of the central characters are going through massive changes in their lives or have the desire to change or alter their lives in some way. We have characters who desire to make physical changes to their appearance (Frances McDormand), jump into the fantasy of being a CIA agent (Brad Pitt), or have their lives fall apart due to their actions (John Malkovich). These central characters illustrate that people have a desire to be anything other than themselves. Half of the movie is even based in a gym (Hard Bodies), where people go to become different versions of themselves.
+From here, I feel the CIA represents some type of universal character, where they parse out why things happen to people. Throughout the film, everything happens very randomly, with dire consequences for the film's central characters from the perspective of our all-knowing agency. It’s a tally of actions and results via the reports David Rasche's character delivers to J.K. Simmons, who represents this all-knowing figure, yet doesn't know why any of this is happening or what they learn from it. To me, this represents the randomness of life and the universe we live in.
+The other two main characters, played by George Clooney and Richard Jenkins, are catalysts or agents of change in the universe with contrasting points of view.
+George Clooney's character is like the devil on your shoulder. He takes what he can get and disrupts people's lives with his constant desire to sleep around. He has a past that seems shady but could also be exaggerated. He appears to have everything under control; he calls the shots and decides what happens. He embodies desire throughout the film, and his whole purpose in life seems to be satisfaction. You see this in his sleeping around, his constant need to go for runs, and the sex chair he constructs in his basement. Everything falls apart for him in the last act of the movie when he kills Brad Pitt and learns of his divorce.
+Richard Jenkins' character, the manager at Hard Bodies, is a constant force throughout the movie of not getting involved and stopping meddling—a voice of trepidation, stability, and acceptance. You see this in how he doesn’t want Brad messing with the files; he just keeps saying he wants that out of Hard Bodies. He assures Frances McDormand that she doesn’t need any cosmetic surgeries and that this whole idea is pointless and she’s fine as she is. He was previously a priest and now the manager of a gym, two institutions based around helping people find some type of peace. As a priest, he guided people towards acceptance in spirituality, and as a gym manager, he helps people put in the work to accept themselves. His character breaks down around the same time George Clooney's does, as his desire for Frances McDormand leads him to act completely out of character and break into John Malkovich's home. He represents control in a different way and is killed randomly for following desire.
+Our main characters desire to be anything but themselves, and in their pursuit, the most unlikely of scenarios happen.
+John Malkovich is the recipient of change brought on by his own actions. He loses his job due to being an alcoholic and gets divorced. He wants to keep the illusion of being a Princeton graduate CIA agent intact. He never seems more out of place than when he is at the Princeton dinner. At this dinner, we also see he’s not unique; all of his peers appear to be completely drunk. It just so happens that he unfairly and randomly gets fired from his job. He hits rock bottom when he is forced to live on his boat, and what does he start doing? He starts working out and tells himself he's back and better. He tries to recreate himself, changing into a better version of himself. He ends up killing Richard Jenkins, our gym manager, as he is "one of the morons" he’s been fighting his whole life. The thing is, Richard Jenkins is acting completely out of character here; he isn’t one of those morons always chasing something else. There's something here where our ex-agent of the all-knowing entity thinks he knows exactly who this person is, but he's completely wrong and destroys the film’s representation of acceptance and stability.
+Brad Pitt's character has everything most of the people in the film want. He’s fit and happy; he is the result of what the people in the gym are seeking. I don’t get the feeling that he's bored or unsatisfied with his life at all, but when the opportunity randomly comes along for him to escape into something else, be someone else, he jumps in with both feet. He can’t wait to not be who he is. When John Malkovich calls Richard Jenkins a moron, I feel like, as the viewer, you’re thinking, "No, he’s not the moron, it’s Brad Pitt! Brad’s the moron!" John Malkovich is an ex-agent of our all-knowing entity that's trying to sort through the events of the universe and add order and reasons to these events. He has constantly been fighting this randomness, which Brad Pitt represents—someone who doesn’t seek or desire anything rational but jumps at the opportunity to be chaotic and extract personal gain from the situation. Brad is then killed by George, our character that represents the perils of desire.
+Frances McDormand’s character, right from the start of the film, isn’t satisfied with herself. She wants to completely change, as we see in the scene where she lists off all the surgeries she wants to have with her plastic surgeon. She wants to find a partner, and the obvious match in the film is George Clooney, the character of desire, who sees nothing wrong with her and makes comments about how he likes her physical appearance. She has this irrational desire to change into a version of herself that she sees in her mind. She partners with our moron, Brad Pitt, to take advantage of the situation in hopes it gets her closer to her goal of changing herself with plastic surgery. She’s much more calculated than any other character in the movie. She goes to the Russians when things aren’t working out with John Malkovich. She runs all the operations and schemes she gets into with Brad Pitt. Despite all the misfortune brought onto the other characters, she’s the only one who gets what she wants in the end, as the CIA rewards her for her involvement. She took advantage of Richard Jenkins, Brad Pitt, and even George Clooney to some extent to satisfy her irrational desire to be something else. In fact, she is so good at controlling her destiny that George Clooney even confronts her in the park about being a CIA agent—a member of our all-knowing, all-controlling entity. I think Frances McDormand’s character represents how random events work out for some people and how it truly seems the universe is on their side, even though they are the most selfish.
+Throughout the film, there's a constant sense of men in cars that all of our characters notice. This, to me, is the idea that there’s a constant force watching over you, dictating what can and should happen based on your actions and choices. These men are always perceived as a threat and as members of the CIA (the universe). Our characters, in their pursuit of change, are always monitoring and watching for these figures, as all of their actions seem to constantly question what they will be allowed to get away with.
+The Coen brothers’ films, to me, always have this air of something larger, sometimes cosmic. I feel this film is one of their most ambitious artistic projects, depicting the randomness of the universe and how desires and wants get lost in the mess of life, all packaged into this tight little film. I think it's a cautionary tale of how reinvention or the lack of acceptance of oneself can cause unexpected changes in our lives, as the universe is random and doesn’t care what you want.
+I totally left out the Tilda Swinton character, as I feel she represents the "hammering" pressure of life, and I didn’t have too many additional thoughts there.
+I'd love to hear any thoughts on this movie in general. If you think I’m totally off base, I’d love to hear that too. I’ve never posted before on this sub, so I hope this is the kind of thing you do here.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024-06-21 19:40:24</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reddit_top_posts.xlsx
+++ b/reddit_top_posts.xlsx
@@ -726,30 +726,10 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Are people missing the point of Poor Things (2023) (or am I)?</t>
+          <t>Scarface(1983) is a camp cinema for straight man</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>My initial impression of the movie was that it was a misguided attempt at exploring feminine empowerment, where the positive moments of sexual and emotional “agency” were tainted by the disturbing underlying premise. However, I’m starting to think the “inconsistencies” are deliberate satire. The film is being rightfully praised for its visuals, performances, and score, but what surprises me is that the majority of its proponents seem to take its empowering themes at face value. People celebrate the film as a feminist journey of self discovery, but every step in her journey is effectively dictated by others, typically men, and full of exploitation.
-Godwin reverses her choice to end her own life and essentially commandeers her body for his own experimental use, the ultimate violation of bodily autonomy. The movie doesn’t then condemn him for this, but rather encourages you to forgive him via a tragic backstory and Bella’s undying love. Her first encounter with masculinity outside of her “father” is the voyeuristic Max, who expresses sexual desire for her and proposes while she has the mind of a toddler. Her great journey into the world, while technically her own choice, was instigated and inspired by Duncan, a womanizer exploiting her childlike naïveté for his own sexual gratification. 
-In the latter half of the film she experiences emotional and intellectual development. She cries for the poor after Harry shows her the darker aspects of the world, but her naive attempt at contributing to their plight is impotent, and ends up benefiting a pair of grifters. Her idealism is taken advantage of once again by the Madame Swiney, who profits off of her destitution and even sexually harasses her. The extended sequence of sexual encounters in the brothel were presented as her exploration of sexuality, but the reality is that the men were the ones choosing what she experiences. Ultimately she finds herself back in the house she was imprisoned in as an “infant”, doing the same work as Godwin, married to the man she was betrothed to as a “child”, having made no contribution to the poor she so desperately lamented for. 
-So is the movie attempting to satirize modern sex-positivity and naive left-wing political idealism? Or is it simply a flawed male perspective on feminine agency? Lanthimos’ other works have a dark, sardonic wit, and so I tend to lean towards the former (not that I necessarily agree with his point). As a final piece of evidence, her ex husband Alfie, the comically overblown vision of patriarchy, literally shooting himself in the foot trying to conquer female sexuality is so on-the-nose it’s hard to believe it’s anything other than sarcasm straight out of a Verhoeven film. I could be totally wrong though, I would love to hear some thoughts.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2023-12-21 20:02:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Scarface(1983) is a camp cinema for straight man</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">In 1964, Susan Sontag published an essay, Notes on Camp, and attempted to define the term ‘camp’. According to Sontag, “Camp is a certain mode of aestheticism. It is one way of seeing the world as an aesthetic phenomenon. That way, the way of camp is not in terms of beauty, but in terms of the degree of artifice, of stylization.” She adds, “It is not a natural mode of sensibility, if there be any such. Indeed, the essence of Camp is its love of the unnatural: of artifice and exaggeration.”
 In 1983, Brian De Palma directed Scarface. Based on 1932 Howard Hawks film with same name, it has lots of features of camp. On surface it's a classic rags-to-rich story of Cuban immigrant becoming Miami drug lord. But inside every aspect of film is exagerrated to 11, just as Sontag said about artifice and exaggeration. Al Pacino's acting, Oliver Stone's diaolgue, De Palma's cinematography, Giorgio Moroder's soundtrack, and of course its bizarre level of violence, all of them are How practical is it to bring chainsaw to motel? 
@@ -758,19 +738,19 @@
 Which brings to its fans. Scarface became cult film in 90s among hip hop artists. Mafias in Naples built their mansion like Tony Montana's one. Even Saddam Hussein liked this film so much he named his family trust Montana Management. What this diverse group of people have common is "Empowerment at all cost". To show their wealth and power to dominate others, figuratively or literally. I'm not saying this is a characteristics of straight men, but for straight boy who believes his pride is undermined by society, movies like Scarface can be very persuasive. </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>2024-04-23 14:14:53</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Alex Garland has stated he no longer plans to direct another film because he's "fallen out of love with filmmaking" - let's discuss his legacy</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Alex Garland has stated (right before the press tour for *Civil War*...) that he has fallen out of love with filmmaking and will [likely not direct another film.](https://www.worldofreel.com/blog/2024/3/31/1dsj5o7mwje1hki7riyvdtvhih6kxd)
 Novelist, screenwriter and director, Garland has been a pretty notable name in cinema for a little over 20 years now from his partnerships with Danny Boyle to his own sci-fi mysteries in recent years like *Annihilation* and the TV show *Devs*. 
@@ -781,37 +761,37 @@
 How does this bode for *Civil War*? The film hasn't even released yet! So far the reviews haven't been terrible, and seem to suggest it's at least a passable film. But if the director turns around and says "Lol filmmaking sucks" before it even releases, it does give pause.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-01 11:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>There's a sort of dissonance between the quality of the Dune films and the actual experience of watching them</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>I really appreciate these films on a technical level and they told their story effectively enough, but looking back on the viewing experience it feels like a 5 hour assignment that left me with very little actual emotional connection to any of it, which is not how I felt for Villeneuve's Blade Runner 2049. I get the sense that he misjudged the balance of these movies, like he felt being extremely proper and even obtuse at times was an indication of filmmaking maturity, but for me it just lead to them feeling like chores with virtually non-existent replay value.
+What was your experience with these movies, and have you rewatched them since?</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-04-01 11:26:02</t>
+          <t>2024-10-13 17:20:47</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>There's a sort of dissonance between the quality of the Dune films and the actual experience of watching them</t>
+          <t>Aftersun: Depression Without A Cause</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>I really appreciate these films on a technical level and they told their story effectively enough, but looking back on the viewing experience it feels like a 5 hour assignment that left me with very little actual emotional connection to any of it, which is not how I felt for Villeneuve's Blade Runner 2049. I get the sense that he misjudged the balance of these movies, like he felt being extremely proper and even obtuse at times was an indication of filmmaking maturity, but for me it just lead to them feeling like chores with virtually non-existent replay value.
-What was your experience with these movies, and have you rewatched them since?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2024-10-13 17:20:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Aftersun: Depression Without A Cause</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
         <is>
           <t>As someone who's suffered from clinical depression myself, one of the things I've noticed about on-screen depictions of it are that they always seem to be tied to some sort of cause, often times grief, which causes their external life to mirror their inner one. In "Manchester By The Sea", Lee is haunted by the death of his children; in "Inside Llewyn Davis", the titular Llewyn is struggling to get his music career off the ground, as well as dealing with the suicide of his musical partner; in "Synecdoche, New York", Caden is constantly battling his fear of death, as well as his inability to form close, intimate relationships with the people in his life. This makes sense, of course, because it’s much easier to build a narrative when there’s a reason why your characters feel the way they do; how do you tell a compelling story about someone who's sad for no good reason?
 "[Aftersun](https://letterboxd.com/glasshalftrue/film/aftersun/)" is the first movie I've seen that tackles that challenge. What makes it work, I think, is that it’s told through the eyes of Sophie: In light of her father’s suicide, the adult Sophie is attempting to recontextualize her memories of Calum, and we get glimpses of what he might’ve been like when no one was watching (the movie leaves it unclear whether these are objective depictions or merely her imagination, but the point stands either way), creating a sort of retrospective coming-of-age story, as Sophie’s naivete as a child is contrasted with her simultaneous confusion and understanding as an adult.
@@ -820,19 +800,19 @@
 All in all, it’s a really beautiful movie, and I really appreciate how it was able to capture something that I thought, by its very nature, wouldn’t be possible to capture compellingly in narrative form.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2024-04-04 19:07:25</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Am I grumpy, or are there almost no good comedy movies anymore?</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sometimes, after a stressful day at work, all I want is to sit in front of the TV and watch a good movie or series that can make me laugh a little.
 I usually spend a lot of time searching for movies with good recommendations, positive reviews, and all that, but even then, they often only manage to get a few small smiles out of me.
@@ -842,38 +822,38 @@
 Do you have any recommendations for recent movies that can genuinely make you laugh out loud?</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>2024-11-17 12:06:13</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>I just watched "The Apprentice" (2024), the movie about Donald Trump and Roy Cohn</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Amazing movie. One of the best movies I watched this year. First, filming is awesome. You actually feel New York City and the movie gives you the feeling that we are in New York in the 70s/80s. As the movie progresses we see New York evolving alongside Trump.
 The acting is fantastic. If this movie replaced the name Trump with a fictional character, Sebastian Stan could have won an Oscar. The mannerisms, the way of talking, even the voice a bit. The history is also covered in a fantastic way which also foreshadows the future. Nixon's spirit (and later Reagan's) is felt throughout the whole movie, and there are cameos of a Young Rupert Murdoch and a Young Roger Ailes and Ed Koch. The fight between Trump and Koch, while short and wasn't in the spotlight, felt like the physical embodiment of what is yet to come. This movie feels like Wall Street (1987) meets American Psycho meets Scarface. For a moment I felt like I was watching an origin story of Gordon Gekko or Future Biff Tannen in Back to the Future 2.
 Even if you hate Trump and are sick of him, just pretend this is a movie about a fictional character and go watch it. Not watching this movie because you hate Trump is a shame because this movie is also fantastic from an artistic angle.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2024-10-24 18:47:01</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Modern Movies have a weird unattractive colour palette</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>I have no idea why there is a trend of very dark movies that make many movies nearly unwatchable. Our obsession with unsaturated/muted colours has also been heightened by the combination of orange and teal LUT. Most are completely unrealistic and for many that are pushed to the extreme, the look is just horrible.
 Despite not liking recent Wes Anderson movies, I can still appreciate his aesthetics. Every movie director seems to be trying to outdo each other by creating darker, more orange, and teal movies. Currently, TV series are replicating that trend.
@@ -881,19 +861,19 @@
 In modern cinema,  I’m growing tired of the overly muted or graded style. Even things shot to be naturalistic seem consistently desaturated or colour-specific amplified. I struggle to think of a film where the sky is actually blue or the grass is green in the background.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>2024-10-29 16:29:08</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Movies that have contempt for their audience.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">Was recently thinking about Directors their films and what their contract is with its audience namely around projects that are deemed contemptuous towards them.
 Personally I’ve watched several films that were such a turn off because it felt like the director was trying to put their finger in the audiences eye with little other reasons than to do it.
@@ -905,19 +885,19 @@
 </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>2024-05-20 15:10:07</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Alasdair Gray Would Have Hated Poor Things, and I Think That Matters (Spoilers)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>I just today went to see Poor Things now that it’s out in the UK, in Glasgow, in fact. I can’t say I was particularly taken with the film, but most particularly for reasons that I’m not seeing be discussed much in the mainstream - how this is a pretty inexcusable adaptation of a man’s work who would probably weep if he saw it. Maybe that’s not too surprising however, seeing as Gray isn’t the biggest literary name outside of Scotland, and this film has already received far more notoriety than he most likely ever will.
 The first and most glaring change of the film is to erase all mention of Glasgow. This is sort of like setting Dubliners in London. For Gray, Glasgow as a setting wasn’t incidental or just writing what he knew. He had a deeply held belief that Glasgow as a cultural and literary city was suppressed by the British class elements who would never see it as such. Gray had a project of speaking the dignity of Glasgow and its working class into cultural existence. It was an earnest and deeply held political conviction to do so, and the erasure of that by the film boggles the mind. The book also touches on Scotland’s colonisation by the English, so to not only erase the Scottish element, but also effectively set it in England is certainly… something you could do.
@@ -927,19 +907,19 @@
 Without this context, I think a lot of people receive the film as an irreverent romp about a person discovering themself, but I think what has been erased on the way to doing that leaves a very sour taste in my mouth.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>2024-01-12 19:05:33</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">Dune 2 was strangely disappointing </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">This is probably an unpopular take, but I am not posting to be contrarian or edgy. Despite never reading or watching any of the previous Dune works, I really enjoyed part 1. I was looking forward to part 2, without having super high expextations or anything. And yet, the movie disappointed me and I really didn't enjoy it as much as I thought I would. 
 I haven't found many people online sharing this sentiment, so I am hoping for some input on the following criticism here.
@@ -952,19 +932,19 @@
 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>2024-03-15 18:30:11</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Old movies look better than modern film</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">Does anyone else like the way movies from the previous decades over today's film? Everything looks too photo corrected and sharp. If you watch movies from the 70s/80s/90s you can see the difference in each era and like how movies back then weren't overly sharp in the stock, coloration, etc.
 It started to get like this in the 2000s but even then it was still tolerable.  
@@ -974,9 +954,32 @@
 I bring this up to everyone I know and none of them agree with me. The way older movies look is just so much easier on the eyes and I love the dated visual aesthetic. One of the main issues I have with appreciating today's film is that I don't like how it looks anymore. Same with TV. </t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-05-24 00:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The Substance - A brilliant, deeply sad film.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Just finished watching. Wow. I can't remember the last movie that smashed my brain to pieces quite this hard. It warms my heart to know that there are still filmmakers out there with this level of unrestrained imagination. Everything about this movie defied expectation and comparison, and I spent the entirety of the end credits just laughing to myself and going "what the fuck" over and over, instinctually.
+More than scary or gross, this was fundamentally a deeply _sad_ movie, especially towards the middle. Just an incredible bundle of visceral metaphors for body dysmorphia, self-loathing, and addiction. The part that hit me more than any of the body-horror was Elisabeth preparing for her date, constantly returning to the bathroom to "improve" her appearance until she snapped. The whole arc of that sequence - starting with her remembering the guy's compliment and giving herself a chance to be the way she is, then being hit with reminders of her perceived inadequacies, and feeling foolish and angry for believing her own positive self-talk - was such a potent illustration of the learned helplessness against low self-esteem that fuels addictions. And the constant shots of the clock felt so authentic to cases where our compulsive behaviors start to sabotage our plans. Think of every time you did something as simple as scroll through your phone for too long in bed, thinking "it's just a few more minutes", before an hour goes by and you're now worried you'll miss some commitment you made. 
+Demi Moore was perfectly cast for this. She's obviously still stunningly beautiful, which the movie made a point of showing, but she was 100% convincing in showing how her character _didn't_ believe herself to be, which only further drove home the tragedy of what Elisabeth was doing to herself. Progressively ruining and throwing away a "perfectly good" body in favor of an artificial one she thinks is better. And the way the rest of the world responded so enthusiastically to it - even if every other character in the movie was intentionally a giant caricature - drove home how systematically our society poisons women's self-esteem, especially in regards to appearance. This is one of the few movies I've seen where the _lack_ of subtlety actually made things more poignant.
+Massive round of applause to Margaret Qualley for the equally ferocious and committed performance. I've seen and loved her in so many things, and yet the scene where Sue was "born" did such a great job of making Qualley's face and body feel alien, foreign, and unrecognizable, even if I the viewer obviously recognized her. And she basically carried that entire final act, which was largely done using practical effects (which continue to surpass CGI in every contemporary project where I've seen them used.) It felt like a fuller embrace of the more unhinged, animalistic streak she brought to her roles in Once Upon a Time in Hollywood and Sanctuary.
+As a designer, I also just adored the _style_ of this film. For one, [that font they created](https://www.instagram.com/p/C7KMijnrHIv/?igsh=MXUwYnphYXNuaDgxNA%3D%3D) is fantastic, and even got a shoutout in the end credits. And I loved the vibrant yet minimalistic look of everything, from the sets to the costumes to the effects used to portray the actual Substance, such as those zooming strobe lights that ended with a heart-shaped burst of flames. Despite the abundance of grotesque imagery, the movie's presentation nonetheless looked and felt very sleek and elegant. The editing and sound design were also perfectly unnerving, especially every time we heard the "voice" of the Substance. On headphones, it was mixed like some ASMR narration, which felt brilliantly intrusive and uncanny. (The voice instantly made me think of [this glorious Jurgen Klopp clip](https://www.youtube.com/watch?v=4UtUnOareTo).)
+Only gripe is the middle section maybe went on a bit too long. The world of the movie also felt very sparsely populated for reasons beyond its intentionally heightened/metaphorical nature, as if they filmed during the peak of COVID. But seeing as the whole movie was deeply surreal, I assumed everything shown to us was by design.
+Easily one of the best films of the year.</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-24 00:11:08</t>
+          <t>2024-11-03 12:31:47</t>
         </is>
       </c>
     </row>
@@ -1093,31 +1096,10 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Oppenheimer: Why are biopics given leeway for underdeveloped writing?</t>
+          <t>The Creator (2023) Never has a film so impressive left me so frustrated.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>I enjoyed Oppenheimer, but it astounded me how many instances of writing in the movie would be completely shunned in any other movie, but are forgiven because this particular movie is a biopic. A few examples are:
-1. Kitty’s abrupt shift in character. She is pretty one note (frustrated and angsty) throughout 95% of the movie, and then becomes proactive in the final 5% when it becomes time to give her testimony.
-2. Rami Malek’s character, who doesn’t say a single line for most of the movie, and then suddenly plays a huge part in the outcome of the characters in the final 10 minutes. Can you imagine if an original movie had a nameless, voiceless character show up to drastically alter the plot out of nowhere?
-3. The MCU-style reference to JFK.
-These are just a few issues I had with the screenplay, in which it feels like Nolan expects that because of our knowledge of this movie as a biopic, we will project dimension and the to the characters where it doesn’t let exist. Should bad writing be given leeway in biopics?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2024-03-05 05:49:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>The Creator (2023) Never has a film so impressive left me so frustrated.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">The Creator is a science fiction film set in a near dystopian future that depicts a war between the US led Western world and the newly formed country of  “New Asia” over their continued embrace of A.I.
 It follows an undercover operative played by John David Washington who embarks on a covert mission to uncover a secret weapon and perhaps locate his missing wife.
@@ -1132,60 +1114,58 @@
 </t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-01-23 15:03:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oppenheimer: Why are biopics given leeway for underdeveloped writing?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>I enjoyed Oppenheimer, but it astounded me how many instances of writing in the movie would be completely shunned in any other movie, but are forgiven because this particular movie is a biopic. A few examples are:
+1. Kitty’s abrupt shift in character. She is pretty one note (frustrated and angsty) throughout 95% of the movie, and then becomes proactive in the final 5% when it becomes time to give her testimony.
+2. Rami Malek’s character, who doesn’t say a single line for most of the movie, and then suddenly plays a huge part in the outcome of the characters in the final 10 minutes. Can you imagine if an original movie had a nameless, voiceless character show up to drastically alter the plot out of nowhere?
+3. The MCU-style reference to JFK.
+These are just a few issues I had with the screenplay, in which it feels like Nolan expects that because of our knowledge of this movie as a biopic, we will project dimension and the to the characters where it doesn’t let exist. Should bad writing be given leeway in biopics?</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-01-23 15:03:09</t>
+          <t>2024-03-05 05:49:33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>The Substance - A brilliant, deeply sad film.</t>
+          <t>Civil War (2024) is not about "both sides being bad" or politics for that matter, it is horror about voyeuristic nature of journalism</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Just finished watching. Wow. I can't remember the last movie that smashed my brain to pieces quite this hard. It warms my heart to know that there are still filmmakers out there with this level of unrestrained imagination. Everything about this movie defied expectation and comparison, and I spent the entirety of the end credits just laughing to myself and going "what the fuck" over and over, instinctually.
-More than scary or gross, this was fundamentally a deeply _sad_ movie, especially towards the middle. Just an incredible bundle of visceral metaphors for body dysmorphia, self-loathing, and addiction. The part that hit me more than any of the body-horror was Elisabeth preparing for her date, constantly returning to the bathroom to "improve" her appearance until she snapped. The whole arc of that sequence - starting with her remembering the guy's compliment and giving herself a chance to be the way she is, then being hit with reminders of her perceived inadequacies, and feeling foolish and angry for believing her own positive self-talk - was such a potent illustration of the learned helplessness against low self-esteem that fuels addictions. And the constant shots of the clock felt so authentic to cases where our compulsive behaviors start to sabotage our plans. Think of every time you did something as simple as scroll through your phone for too long in bed, thinking "it's just a few more minutes", before an hour goes by and you're now worried you'll miss some commitment you made. 
-Demi Moore was perfectly cast for this. She's obviously still stunningly beautiful, which the movie made a point of showing, but she was 100% convincing in showing how her character _didn't_ believe herself to be, which only further drove home the tragedy of what Elisabeth was doing to herself. Progressively ruining and throwing away a "perfectly good" body in favor of an artificial one she thinks is better. And the way the rest of the world responded so enthusiastically to it - even if every other character in the movie was intentionally a giant caricature - drove home how systematically our society poisons women's self-esteem, especially in regards to appearance. This is one of the few movies I've seen where the _lack_ of subtlety actually made things more poignant.
-Massive round of applause to Margaret Qualley for the equally ferocious and committed performance. I've seen and loved her in so many things, and yet the scene where Sue was "born" did such a great job of making Qualley's face and body feel alien, foreign, and unrecognizable, even if I the viewer obviously recognized her. And she basically carried that entire final act, which was largely done using practical effects (which continue to surpass CGI in every contemporary project where I've seen them used.) It felt like a fuller embrace of the more unhinged, animalistic streak she brought to her roles in Once Upon a Time in Hollywood and Sanctuary.
-As a designer, I also just adored the _style_ of this film. For one, [that font they created](https://www.instagram.com/p/C7KMijnrHIv/?igsh=MXUwYnphYXNuaDgxNA%3D%3D) is fantastic, and even got a shoutout in the end credits. And I loved the vibrant yet minimalistic look of everything, from the sets to the costumes to the effects used to portray the actual Substance, such as those zooming strobe lights that ended with a heart-shaped burst of flames. Despite the abundance of grotesque imagery, the movie's presentation nonetheless looked and felt very sleek and elegant. The editing and sound design were also perfectly unnerving, especially every time we heard the "voice" of the Substance. On headphones, it was mixed like some ASMR narration, which felt brilliantly intrusive and uncanny. (The voice instantly made me think of [this glorious Jurgen Klopp clip](https://www.youtube.com/watch?v=4UtUnOareTo).)
-Only gripe is the middle section maybe went on a bit too long. The world of the movie also felt very sparsely populated for reasons beyond its intentionally heightened/metaphorical nature, as if they filmed during the peak of COVID. But seeing as the whole movie was deeply surreal, I assumed everything shown to us was by design.
-Easily one of the best films of the year.</t>
+          <t xml:space="preserve">So, I finally had the chance to see the movie with family, wasn't too big on it since Americans can't really make war movies, they always go too soften on the topic, but this one stunned me because I realized, after watching it, and everyone had collective fucking meltdown and misunderstood the movie. So, there is this whole conversation about the movie being about "both sides of the conflict being equally evil", which is just fascist rhetoric since WF were obviously a lesser evil, and at the end, this movie is not about war...at all. Like, that is sorta the point - Civil War is just what America did in Vietnam and so on, but now in America. The only thing the movie says about the war is pointing out the hypocrisy of people that live in America and are okay with conflicts happening "there".   
+No, this is a movie about the horror, and the inherent voyersim, of being a journalist, especially war journalist. It is a movie about dehumanization inherent to the career, but also, it is about how pointless it is - at the end of the movie, there is a clear message of "none of this matters". War journalism just became porn for the masses - spoilers, but at first I thought that the ending should've been other way around, but as I sat on it, I realize that it works. The ending works because it is bleak - the girl? She learned nothing - she will repeat the life of the protagonist, only to realize the emptiness of it all when it is too late. This narrative is strickly about pains and inherent contradictions of war journalism, and how war journalism can never be fully selfless act, and the fact that people misread it as movie about "both sides being bad" or "political neutrality" is...I mean, that is why I said that the movie should've been darker, gorier, more open with it's themes, it was way too tame. For crying out loud, president is a Trump-like figure that did fascism in America. It is fairly obvious that WF are the "good guys" by the virtue of being lesser evil. Perhaps I am missing something, perhaps there was a bit that flew over my head, but man, this is just a psychological horror about war journalism, civil war is just a background. </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-11-03 12:31:47</t>
+          <t>2024-04-22 03:50:58</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Civil War (2024) is not about "both sides being bad" or politics for that matter, it is horror about voyeuristic nature of journalism</t>
+          <t>The nitpick of the cgi in Furiosa is a frustrating example of the modern film audience</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">So, I finally had the chance to see the movie with family, wasn't too big on it since Americans can't really make war movies, they always go too soften on the topic, but this one stunned me because I realized, after watching it, and everyone had collective fucking meltdown and misunderstood the movie. So, there is this whole conversation about the movie being about "both sides of the conflict being equally evil", which is just fascist rhetoric since WF were obviously a lesser evil, and at the end, this movie is not about war...at all. Like, that is sorta the point - Civil War is just what America did in Vietnam and so on, but now in America. The only thing the movie says about the war is pointing out the hypocrisy of people that live in America and are okay with conflicts happening "there".   
-No, this is a movie about the horror, and the inherent voyersim, of being a journalist, especially war journalist. It is a movie about dehumanization inherent to the career, but also, it is about how pointless it is - at the end of the movie, there is a clear message of "none of this matters". War journalism just became porn for the masses - spoilers, but at first I thought that the ending should've been other way around, but as I sat on it, I realize that it works. The ending works because it is bleak - the girl? She learned nothing - she will repeat the life of the protagonist, only to realize the emptiness of it all when it is too late. This narrative is strickly about pains and inherent contradictions of war journalism, and how war journalism can never be fully selfless act, and the fact that people misread it as movie about "both sides being bad" or "political neutrality" is...I mean, that is why I said that the movie should've been darker, gorier, more open with it's themes, it was way too tame. For crying out loud, president is a Trump-like figure that did fascism in America. It is fairly obvious that WF are the "good guys" by the virtue of being lesser evil. Perhaps I am missing something, perhaps there was a bit that flew over my head, but man, this is just a psychological horror about war journalism, civil war is just a background. </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2024-04-22 03:50:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>The nitpick of the cgi in Furiosa is a frustrating example of the modern film audience</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">I find a lot of the negative discussion of the film tends to be from people who both haven’t seen the movie and still have an opinion of the CGI. I read a lot of this discourse before seeing the film today, which actually led to some tempered expectations. Luckily, in my opinion, the film was exceptional and I left the theater completely puzzled.
 Maybe it’s just reddit and its ability to create negative echo chambers, but it makes me really sad that even in film subreddits, people are bashing a film before seeing it. Not only that, but a film that’s so obviously a fully realized work of a madman that we won’t have for that much longer.
@@ -1194,19 +1174,19 @@
 I recommend everyone see Furiosa. You may not like it as much as Fury Road, but I would be surprised if you didn’t find it worth the cost of the ticket. </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>2024-05-26 01:23:49</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>I'm almost starting to miss when studios didn't care about fan culture.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>It's weird having been around movie shit on the internet long enough to see it having gone from just random forum posts and occasional YouTube videos that blew up, because there was always this clearly defined separation between the 'fanboys', and the Big Evil Corporate SuitsTM, and never the two shall meet. 
 I'd say since about 2012-2018 was when there started to be a noticeable shift in the overall presence of "geek" culture; Comic-Con was an increasingly mainstream event for massive press tours for these films that increasingly were expected to make no less than a billion fucking dollars in order to be considered anything other than a dismal failure. 
@@ -1215,38 +1195,19 @@
 It's not that I loved X-Men Origins: Wolverine, but in hindsight I think whatever studio executive that tried to save us from the consequences of a talking Deadpool is essentially a modern day Cassandra.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>2024-11-26 20:49:35</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Why have we forgotten Roma (2018)?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Today I remembered Alfonso Cuaron's movie Roma, a film I enjoyed at the time and (probably) the first art film I've ever seen. And it just occurred to me that I have not seen it mentioned at all since its release, when I recall it made a big splash. I remember people talking about it all over the internet. Me and my partner have been racking our brains trying to understand how such a movie could disappear -- not because it was Too Good or Too Popular to disappear, but simply because it does not seem to fit the stereotypical profile of the kind of safe movie that is praised on release and then forgotten.  
-My first proper intuition is that it's an illusion that the best or most praised movies are the ones we (meaning both regular audiences and more artistically inclined ones) remember and cite as examples. Maybe movies are only talked about for years to come if they are influential rather than great. Which...might just tell us something but I am too tired at the moment to say exactly what.  
-I am simply very curious about people's thoughts on it.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2024-03-22 18:23:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Michael Mann's Collateral is more meaningful as an adult</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">I just watched Michael Mann's 2004 film "Collateral" for the first time in about 15 years or so. When I was a teen, I viewed this mostly as just Cruise playing a charismatic psychotic hitman crossing names off his hit list and being gripped by the action pieces. Don't get me wrong, the film still holds up well if you just view it as pretty surface level - but upon rewatch with adult eyes, I've come to realize the hits and the action is backdrop for a large majority of the film and I was more captivated by the in between moments between Vincent and Max.
 What I immediately noticed is that breaking down Vincent as just a psychopath/sociopath is a disservice to his character, I mean he probably still exhibits those traits, but Vincent's dialogue shows that he's sensing a deep emptiness inside himself and craving some type of human connection. One of the first things he says to Max is that he hates LA and he talks about a story he read about a man passing away on a subway and nobody noticing this for hours as the corpse took trips around the city. Throughout the night Vincent also asks Max personal questions and even tries, in his own way, to motivate Max into taking initiative in his life - like telling him 12 years isn't a plan and how he should call that girl he likes and not wait. In Michael Mann fashion, he drives this home by using the quiet and empty streets of LA and even has a shot of a coyote (representing Vincent) wandering said empty streets alone. This leads into both Vincent and Max sitting quietly like they are having an introspective look at who they are and where they are at in life. While I do believe Vincent had plans on killing Max at the end of the night, which he did to another taxi driver before, this way of going about hits across LA gives Vincent an excuse to fill a void temporarily and satisfy that need for human connection that is lacking in his life and his job. 
@@ -1254,19 +1215,19 @@
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>2024-12-06 02:58:38</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Perfect Days is not what it looks like</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Everyone thinks PD is  a hymn to simplicity and humility, an invitation to rediscover the value of small things and daily rituals. I disagree, that's not my interpretation. I wonder if they watched the whole movie or just the first part.
 WARNING: SPOILER!
@@ -1285,39 +1246,62 @@
 He is a specter existing in stasis alongside the rest of the world as it marches onward.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-01-13 15:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Why have we forgotten Roma (2018)?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Today I remembered Alfonso Cuaron's movie Roma, a film I enjoyed at the time and (probably) the first art film I've ever seen. And it just occurred to me that I have not seen it mentioned at all since its release, when I recall it made a big splash. I remember people talking about it all over the internet. Me and my partner have been racking our brains trying to understand how such a movie could disappear -- not because it was Too Good or Too Popular to disappear, but simply because it does not seem to fit the stereotypical profile of the kind of safe movie that is praised on release and then forgotten.  
+My first proper intuition is that it's an illusion that the best or most praised movies are the ones we (meaning both regular audiences and more artistically inclined ones) remember and cite as examples. Maybe movies are only talked about for years to come if they are influential rather than great. Which...might just tell us something but I am too tired at the moment to say exactly what.  
+I am simply very curious about people's thoughts on it.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-03-22 18:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>"Carry On" and the Lowered Bar of Streaming Culture</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I just finished watching Carry On, the new Netflix action movie, after seeing it had a 67 on Metacritic, and I’m genuinely baffled. It’s… nothing. Just a generic, plot-hole-riddled film with one standout two-minute action sequence that feels like it was produced with a completely different budget and team. Everything else is pure mediocrity. No fresh ideas, no compelling characters, not even “fun bad” popcorn moments. It just sits there—forgettable, unimpressive, and totally skippable.
+(And don’t get me started on its aggressive insistence that it’s a Christmas movie, like it’s trying to be the next Die Hard. The disconnect between the forced holiday backdrop, the constant Christmas music, and the sheer joylessness of the characters is almost comical.)
+And yet… it’s getting positive reviews from reputable places like The New Yorker and The AV Club. Some critics even call out that one good two-minute scene like it’s the best thing you’ll see all year.
+What the hell is happening to our standards?
+Now, I hesitated before posting this—I don’t want to assume everyone here feels the same way. But honestly, this movie is so glaringly uninspired that I think this goes beyond “people just have different tastes.” Carry On isn’t ambitious, polarizing, or divisive—it’s just… blah.
+I know critics sometimes get it wrong, but to get it this wrong is baffling. So what’s going on here? I can’t help but feel like we’ve collectively lowered the bar thanks to streaming services flooding us with so much middling “content.” Is this just the natural consequence of streaming culture? Or is it the critics themselves? Are they grading on a curve because streaming has made “meh” the new normal?
+Or are they afraid to call out the mediocrity? I’m not saying critics are being paid off, necessarily, but hey, streamers control early access, invite-only screenings, and have all kinds of financial stakes, so you’ve got to wonder about incentives.
+So what do you think? Are we being gaslit by critics, or is this just the new normal in a post-theatrical world?</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-01-13 15:51:17</t>
+          <t>2024-12-15 20:46:26</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I find reddit's obsession with the scientific accuracy of science fiction films is a bit odd considering there has never been a sci-fi film that has the kind of scientific accuracy that a lot of redditors expect.</t>
+          <t>12 Years a Slave: The Worst Part is the Raping</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>One of the most frustrating things when discussing sci-fi films on reddit is the constant nitpicking of the scientific inaccuracies and how it makes them "irrationally mad" because they're a physicist, engineer, science lover or whatever. 
-Like which film lives up to these lofty expectations anyway? Even relatively grounded ones like Primer or 2001 aren't scientifically accurate and more importantly sci-fi film have never been primarily about the "science". They have generally been about philosophical questions like what it means to be human(Blade Runner), commentary on social issues (Children of men) and in general exploring the human condition. The sci-fi elements are only there to provide interesting premises to explore these ideas in ways that wouldn't be possible in grounded/realistic films.
-So why focus on petty stuff like how humans are an inefficient source of power in The Matrix or how Sapir–Whorf is pseudoscience? I mean can you even enjoy the genre with that mentality?
-Are sci-fi books more thorough with their scientific accuracy? Is this where those expectations come from? Genuine question here.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2024-01-31 14:42:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>12 Years a Slave: The Worst Part is the Raping</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
         <is>
           <t>Recently, I watched *12 Years a Slave*. The movie depicts several different slavers, each with very different attitudes and levels of animosity towards their slaves. Mr. Ford, portrayed by Benedict Cumberbatch, is the slaver who initially buys Solomon Northup (Chiwetel Ejiofor), the protagonist, and on the surface he's depicted as the "best" of them, relatively speaking. He respects Solomon's intelligence, does not display any kind of direct physical violence towards his slaves, and feels very bad about buying a female slave and separating her from her child (though he ultimately does so anyways). McQueen, however, has said that [he considers Ford to be the worst of them all](https://www.youtube.com/watch?v=1JqAsdlz_jw):
 &gt; The fact of the matter is that, I think he was the worst one of them all as far as a slave owner is concerned because he is saying one thing, but doing another. You know, he doesn't sort of... He knows Solomon is a free man. But what does he do? Nothing.
@@ -1331,9 +1315,29 @@
 * Why does this matter? Well, I think it just goes to show that refusing to choose the lesser evil and instead simply condemning all evil is a bit of a privileged standpoint. To give a specific contemporary example, if Hilary Clinton had been president instead of Donald Trump in 2020, Roe V. Wade would not have been repealed. And you may not like either of them (I don't), you may think both of them are awful, but I think it does actually matter that one of them is worse. Basically, don't let perfect be the enemy of good, and don't let it be the enemy of bad-but-not-the-worst, either.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-02-11 16:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>I find reddit's obsession with the scientific accuracy of science fiction films is a bit odd considering there has never been a sci-fi film that has the kind of scientific accuracy that a lot of redditors expect.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>One of the most frustrating things when discussing sci-fi films on reddit is the constant nitpicking of the scientific inaccuracies and how it makes them "irrationally mad" because they're a physicist, engineer, science lover or whatever. 
+Like which film lives up to these lofty expectations anyway? Even relatively grounded ones like Primer or 2001 aren't scientifically accurate and more importantly sci-fi film have never been primarily about the "science". They have generally been about philosophical questions like what it means to be human(Blade Runner), commentary on social issues (Children of men) and in general exploring the human condition. The sci-fi elements are only there to provide interesting premises to explore these ideas in ways that wouldn't be possible in grounded/realistic films.
+So why focus on petty stuff like how humans are an inefficient source of power in The Matrix or how Sapir–Whorf is pseudoscience? I mean can you even enjoy the genre with that mentality?
+Are sci-fi books more thorough with their scientific accuracy? Is this where those expectations come from? Genuine question here.</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-02-11 16:13:34</t>
+          <t>2024-01-31 14:42:32</t>
         </is>
       </c>
     </row>
@@ -1418,10 +1422,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Has Interstellar's reputation improved over the years? Asking since it is selling out theaters in recent weeks with its re-release.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Interstellar is one of Nolan's least acclaimed films at least critically (73% at Rotten Tomatoes) and when it was released it didn't make as big of a splash as many expected compared to Nolan's success with his Batman films and Inception. Over the years, I feel like it has gotten more talk than his other, more popular films. From what I can see Interstellar's re-release in just 165 Imax theaters is doing bigger numbers than Inception or TDK's re-releases have done globally. I remember reading a while back (I think it was in this sub) that it gained traction amongst Gen-Z during the pandemic. Anyone have any insights on the matter?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-12-16 19:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Perfect Days (2023) - I don't understand the top critic reviews of this film</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>I really enjoyed this film. It's a bit slow and repetitive at times, but I also don't think you could have made this film any better without diluting the message behind it.
 However, what that message is seems to be of great debate with many top critics. The majority of critics seem to believe this film is about "living in the moment" or "finding beauty in the little things", which I guess is true to some extent, but that wasn’t my takeway at all. 
@@ -1431,19 +1452,19 @@
 To me, it's actually a very sad (albeit beautiful) film. I saw a man hanging on by a thread, his routine and isolation being the only things keeping nightmares at bay. I certainly didn't see a film about "living in the moment"</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>2024-02-26 03:51:56</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Are people missing one of the main points of Poor Things, or am I just hallucinating?</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>My first thought when I watched the movie was that it was about questioning society and social norms. We as kids, are introduced to a way of thinking how things should be done. When we as kids do something that is frowned upon society, we get punished, an thought the "correct" way things work, but we never know why they are the "correct" ways. We just accept it as the truth with the time, and learn those ways to our kids, without questioning why we are doing it.
 Bella is basically a kid, therfore she dosent have those predefined "truths". Just like a child, she dosent understand the problems with what she is doing, but since she technically is an adult, there is nobody capable of stopping her. She is free to do as she thinks is correct.
@@ -1451,19 +1472,19 @@
 One More thing. I didn't really understand the finale. Would thank you id you explained to me. And sorry if the text is badly written. I'm tired now, so that probably the cause.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>2024-03-24 22:42:19</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>998 Movies in 2023...</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>In 2021 [I saw 885 movies.](https://www.reddit.com/r/movies/comments/s2ffwy/i_watched_885_movies_in_2021/)..
 In 2022 [I saw 954 movies](https://www.reddit.com/r/movies/comments/1046cp8/the_954_movies_i_saw_in_2022/)...
@@ -1501,19 +1522,19 @@
 ***Bye'.***</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>2024-01-02 18:52:08</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Just finished The Passion of Joan of Arc (1928). I'm *actually* almost speechless. I had no idea that films of that kind of caliber were being made in the silent era.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>The acting and shots were so modern, I couldnt get past it. It's just uncanny. I'll be the first to admit Im no film historian or expert in anything related to the art of filmmaking but I really feel like this film is something very, very special. 
 First off, the narrative covers absolutely zero of the cliche things you would think a 20s film would want to cover. It doesnt show Joan in her shining armor, screaming at the soldiers of France to advance. None of that. It shows a young woman, with a flimsy grasp on sanity, meekly making her way through a torture session and the actress does it *perfectly*.
@@ -1523,19 +1544,19 @@
 Rest in peace, Joan.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2024-07-21 18:59:30</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>How Precious Killed the Hood Film (LONG POST)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">I remember seeing the trailer to Precious many moons ago at a screening for Madea Goes to Jail, which I was brought to against my will. Seemingly every Black person in Central Florida was there and many of them actually thought Precious was a straight up Tyler Perry production. You can't really blame them since on paper Precious is right up his alley thematically. I ended up seeing the film and while everyone else volleyed between sorrow and disgust, I thought it was one of the most brilliant comedies I had seen in a very long time. I did not get why people were crying. This is a satire right? I've seen enough of Lee Daniels' work to know that he greatly enjoys using camp to make a point. If you watch the first few seasons of Empire you'll get my point the exact nanosecond Cookie shows up. But at the time, most audiences took the film for face value and it pretty much killed any appetite for this film overnight. Urban dramas or Hood Films had been dwindling in both production and popularity but they hadn't entirely died yet by 2009. Precious in many respects was the last nail in the coffin for the Hood Film having any mainstream popularity or even much popularity in its own community. 
 One could argue that Tyler Perry took most of the same themes and just repackaged them in a more pious presentation. Precious definitely had an effect on how his work was perceived but I get more into that in his write-up which is here: https://www.reddit.com/r/TrueFilm/s/ySX51U85vL
@@ -1551,38 +1572,38 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>2024-03-27 12:37:13</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">My analysis of Joker 2 </t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>It is deliberately made to go against the fans of the first film, and it says so plainly, loud and clear: during one of the songs, the one where they sing as a couple and Harley Quinn instead emerges in all her egocentrism, they clearly say, “I don’t think this is what the audience wants,” and then she makes it all chaotic by shooting him, because everyone knows that the audience just wants the shooting. It’s a film that aims to criticize the Joker’s fan base, bringing them into the story as his supporters, only to expose them and show that they are exactly the same crap they claim to criticize, cheering for the Joker, disguising themselves as him, waving his banners and flags. The secondary characters—the guards, the lawyer, the judge, everyone—are deliberately caricatures, designed to make the audience hate them, to identify them as the bad guys, the jerks of the situation, because they don’t care about Arthur’s problems. They’re ready to bully him, condemn him, beat him up, mock him, belittle him, insult him, because they’re bad, because they’re jerks. But the fans don’t realize that they are jerks in exactly the same way, that they are part of the same sick system. They don’t care about Arthur; they’re only there to see him become the Joker, to see how he “loses it.”
 I was in the theater watching the film, during the scene where the dwarf enters the courtroom. There are Joker supporters on the benches watching him and chuckling, and I heard people in the theater laughing too. He shows his little hand with short fingers during the oath, and people laughed, the same fans who felt good about themselves cheering for a loser like Arthur, hoping he would get his violent revenge on the society that mocked and bullied him, and then they chuckle at another loser, another outcast, as if he were a joke. The film lays bare the average viewer and shows them that, deep down, they are just as bad as the characters they criticize, the ones they want to see killed by the Joker.
 In fact, just like everyone else, the fans don’t care about Arthur. They are disappointed when the loser, the outcast, becomes self-aware and says, “I am not the Joker.” The fans abandon Arthur at that moment, just like Harley Quinn does. She isn’t a shallow character; she is simply a superficial person, another jerk, just like all the others—a spoiled rich girl who wanted to shine in someone else’s light, a cosplayer, an influencer. That’s why Lady Gaga fits the role, not some underground singer or something else, because she’s a perfect example of someone from the upper class who feels like she’s fighting against the very system she represents by simply cosplaying as an outcast character. Harley Quinn was a fan of the first film, or of the “TV movie,” as they call it, who is disappointed when she sees that the sequel isn’t what she wanted it to be.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>2024-10-07 05:25:50</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Tarkvosky's misogyny - would you agree it prevented him from writing compelling and memorable women characters?</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Tarkovsky had questionable views on women to say the least.
 &gt; A woman, for me, must remain a woman. I don't understand her when she pretends to be anything different or special; no longer a woman, but almost a man. Women call this 'equality'. A woman's beauty, her being unique, lies in her essence; which is not different - but only opposed to that of man. To preserve this essence is her main task. No, a woman is not just man's companion, she is something more. I don't find a woman appealing when she is deprived of her prerogatives; including weakness and femininity - her being the incarnation of love in this world. I have great respect for women, whom I have known often to be stronger and better than men; so long as they remain women.
@@ -1592,19 +1613,43 @@
 Thoughts?</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>2024-02-12 15:27:56</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>"Gladiator II" - I am NOT entertained.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ridley Scott once again delivers stunning visual craftsmanship—excelling in cinematography, action set pieces, and art direction. However, the film falters in the essential foundation of storytelling: the script. The narrative feels like a rehash of the original *Gladiator*: the same character motivations, a very similar progression and plot, and even familiar supporting roles. The uninspired title, *Gladiator 2*, aptly reflects this repetition—it’s essentially a second telling of the first movie.
+The original *Gladiator* resonated as a classical tragedy, steeped in the moral and philosophical weight of ancient Greek and Roman narratives. While *Gladiator 2* retains these elements on a surface level, the execution falters. The transitions between key beats feel clumsy, and the dialogue lacks the gravitas of the first film. Where *Gladiator* offered lines that felt timeless and quotable, this sequel serves up pedestrian writing, delivered with questionable performances.
+Denzel Washington’s *Macrinus* fails to reach the depth, nuance, or complexity of Joaquin Phoenix’s *Commodus*. Instead of presenting a layered antagonist, Washington’s portrayal leans into exaggerated "loony" behavior, with frequent cutaways to him pulling faces or acting erratic during key moments. This choice makes him feel like a cartoonish villain, more akin to a 2010s superhero movie antagonist than a Roman schemer. He shares more similarities to Nolan's "Joker" than a roman slave owner.
+The emperors fare no better, coming across as caricatures—angry and one-dimensional tyrants making irrational demands. Lucilla, once a tragic and stoic figure masterfully portrayed in the first film, is now reduced to a melodramatic archetype. Her performance oscillates between overly emotional breakdowns and flat, on-the-nose delivery. By the film’s conclusion, she’s little more than a damsel tied to a pole, awaiting rescue.
+Paul Mescal takes center stage as Lucius but lacks the presence or gravitas of Russell Crowe in his prime. Paramount executive Daria Cercek described Mescal’s casting process, citing his electric shirtless moments in a west-end adaptation of *A Streetcar Named Desire* she attended. Unfortunately, while Mescal may have physical appeal, he doesn’t bring the rugged authenticity or commanding intensity that Crowe embodied. Mescal’s performance feels weightless—his feats of heroism fail to inspire, and as the lead, he commands little empathy.
+Pedro Pascal is also here, but his role is minimal. Beyond igniting the inciting incident, his character feels like a pale echo of Maximus had he remained a roman general under Commodus. His conflict is not explored enough and lacks emotional depth.
+The music further underscores the film’s shortcomings. The original *Gladiator* soundtrack by Hans Zimmer, with Lisa Gerrard’s haunting vocals, became iconic—one of the best-selling soundtracks of all time. By contrast, Harry Gregson-Williams’s score for *Gladiator 2* feels like filler, leaning heavily on cues from the original's “Honor Him” at key moments. Beyond these familiar motifs, the music is forgettable and uninspired.
+Ultimately, *Gladiator 2* leaves little impression. While it boasts technical polish, it’s a hollow, soulless product unworthy of its predecessor’s legacy.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-11-17 10:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>The Departed is misunderstood to this day by most people</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>I was a younger less savvy viewer when I first watched this movie.  I watched most movies on a very surface level at the time, and the way the film wrapped up never sat right with me, and this was true for most people.  It was only later in life that I came to understand the true meaning of this movie, and in understanding that the ending became great (besides the last shot with the rat, that was a bit too much).  This is a great movie and while it was overrated in its release year, as time has passed it has been slowly lowered down in the all time film rankings by just about everyone, and now is ranked too low IMO due to a fundamental lack of understanding of the movie by the general public.  So let's talk about what makes The Departed a great film.
 Before we can talk about the movie, we must understand it.  And no, it is not about 2 people undercover on different sides of the law attempting to unmask the other.  That is just the entertaining vehicle used to allow us to explore the movie's core theme.  And that can be summed up in a simple sentence.  What is Legacy?
@@ -1619,19 +1664,19 @@
 It goes even deeper than this, but this post is already a bit long, and i'd like to hear thoughts from others</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>2024-02-05 18:41:56</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>I didn't see ambiguity in Tár, it's vague but not ambiguous about what went down before the movie.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Maybe there's an interview somewhere that completely disproves my point, but Tár isn't ambiguous on whether or not Lydia Tár was a groomer. It's vague so we don't immediately judge her.
 As the movie goes on we have a lot of evidence of what Lydia actually did to the woman she's groomed, Krista:
@@ -1650,19 +1695,19 @@
 The real challenge the movie presents is if we given the chance to hear only the abuser's side of the story can we still see through the inconsistencies and see her for what she actually is.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>2024-08-04 10:50:46</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>I finally saw The Zone of Interest yesterday. These are my thoughts. More importantly, I wanted to ask, especially those of you who saw it months ago and have had time to process it, what are your thoughts?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>I have long been a fan of Jonathan Glazer; his work has consistently left me with so much to think about. His films are challenging, and usually leave us with more questions than answers. He certainly has talent and vision, but which film was his magnum opus? Compelling cases could have been made for any of his three feature-length films. The Zone of Interest, however, firmly puts that question to rest. This film is a masterpiece and in my opinion, one of the most important films ever made. 5 stars, 10 out of 10. An all-timer.
 I walked out of the theater with the same feeling I have often had watching a Michael Haneke film. I felt complicit by the time it ended, having learned some dark truth about myself and humanity through the experience. It feels perverse saying I *liked* or *enjoyed* it. How can a film like this be a *favorite*? To say the film gave me similar feelings to Haneke may be an insult to the great director, considering his opinion on portraying this particular subject as a feature-film, something to be *entertained* by. Take a selfie to mark the occasion, and get a large soda in the commemorative cup! Extra butter on the popcorn is a must for this one.
@@ -1693,43 +1738,19 @@
 So how did this film strike you all? As the title says, I want to ask those who were able to see it months ago about your initial impression, and if it has changed at all since? I am awestruck by it, and I imagine I will be for a very long time. I am almost certain I will notice things in subsequent viewings that I missed in the first viewing. Where do you think it will be in film discussions ten, twenty years from now? Thank you for your time, and for reading.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>2024-03-05 18:05:18</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>"Gladiator II" - I am NOT entertained.</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Ridley Scott once again delivers stunning visual craftsmanship—excelling in cinematography, action set pieces, and art direction. However, the film falters in the essential foundation of storytelling: the script. The narrative feels like a rehash of the original *Gladiator*: the same character motivations, a very similar progression and plot, and even familiar supporting roles. The uninspired title, *Gladiator 2*, aptly reflects this repetition—it’s essentially a second telling of the first movie.
-The original *Gladiator* resonated as a classical tragedy, steeped in the moral and philosophical weight of ancient Greek and Roman narratives. While *Gladiator 2* retains these elements on a surface level, the execution falters. The transitions between key beats feel clumsy, and the dialogue lacks the gravitas of the first film. Where *Gladiator* offered lines that felt timeless and quotable, this sequel serves up pedestrian writing, delivered with questionable performances.
-Denzel Washington’s *Macrinus* fails to reach the depth, nuance, or complexity of Joaquin Phoenix’s *Commodus*. Instead of presenting a layered antagonist, Washington’s portrayal leans into exaggerated "loony" behavior, with frequent cutaways to him pulling faces or acting erratic during key moments. This choice makes him feel like a cartoonish villain, more akin to a 2010s superhero movie antagonist than a Roman schemer. He shares more similarities to Nolan's "Joker" than a roman slave owner.
-The emperors fare no better, coming across as caricatures—angry and one-dimensional tyrants making irrational demands. Lucilla, once a tragic and stoic figure masterfully portrayed in the first film, is now reduced to a melodramatic archetype. Her performance oscillates between overly emotional breakdowns and flat, on-the-nose delivery. By the film’s conclusion, she’s little more than a damsel tied to a pole, awaiting rescue.
-Paul Mescal takes center stage as Lucius but lacks the presence or gravitas of Russell Crowe in his prime. Paramount executive Daria Cercek described Mescal’s casting process, citing his electric shirtless moments in a west-end adaptation of *A Streetcar Named Desire* she attended. Unfortunately, while Mescal may have physical appeal, he doesn’t bring the rugged authenticity or commanding intensity that Crowe embodied. Mescal’s performance feels weightless—his feats of heroism fail to inspire, and as the lead, he commands little empathy.
-Pedro Pascal is also here, but his role is minimal. Beyond igniting the inciting incident, his character feels like a pale echo of Maximus had he remained a roman general under Commodus. His conflict is not explored enough and lacks emotional depth.
-The music further underscores the film’s shortcomings. The original *Gladiator* soundtrack by Hans Zimmer, with Lisa Gerrard’s haunting vocals, became iconic—one of the best-selling soundtracks of all time. By contrast, Harry Gregson-Williams’s score for *Gladiator 2* feels like filler, leaning heavily on cues from the original's “Honor Him” at key moments. Beyond these familiar motifs, the music is forgettable and uninspired.
-Ultimately, *Gladiator 2* leaves little impression. While it boasts technical polish, it’s a hollow, soulless product unworthy of its predecessor’s legacy.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2024-11-17 10:23:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Anatomy of a fall</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>This is not a murder mystery.
 It is the criticism on dissection of human life to the point of absurdity. 
@@ -1742,19 +1763,19 @@
 So which one is right? Who is the most 'moral' person? The answer is, none. Samuel and Sandra are just products of their life experiences and sufferings, they acted according to their values. Nobody can judge nobody even when they are closest to them, let alone strangers, a.k.a court.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2024-01-25 13:22:51</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>“The Taste of Things” is an extraordinary film, and its 38-minute long opening sequence is one for the ages</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>I just watched “The Taste of Things”, a remarkable film that hasn't been discussed much around here. It was France’s Oscar submission last year, picked over presumed frontrunner “Anatomy of a Fall” – both masterpieces in their own right. It's also an obvious instant classic for the realm of culinary movies.
 “The Taste of Things” is centered on the relationship of a cook (Juliette Binoche) and her gourmand employer (Benoit Magimel). They live in a French country house at the end of the 19th century. Both have worked together for 20 years, sharing their passion for food, experimenting with recipes, marveling at the era's gastronomic breakthroughs, and overall completing each other in the kitchen.
@@ -1766,19 +1787,19 @@
 What did you guys think?</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>2024-04-15 00:58:27</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Thoughts on 'The Hateful Eight' (2016)?</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Tarantino's 8th film is certainly not amongst his best ones as per popular consensus. And while he has been keen on revisiting specific eras in the second half of his filmography such as WW2 and 70s LA, I feel that he almost repeats the era in TH8 as in Django. Whereas in Django he clearly had a theme and story he wanted to tell, this time around one wonders what exactly was he trying to convey through TH8.
 I for one am a huge fan of the film. A 3hr film set in a single cabin for 80% of the movie (and in a carriage for the next 20%) and to turn out as entertaining as it is, that takes skill in the writing department. I don't think any other QT cast had as much fun as the actors in TH8. Kurt Russel, Walton Goggins, Tim Roth, Sam Jackson &amp; Jennifer Jason Leigh all seem to be having the time of their lives, making the most out of Tarantino's witty dialogues. Every single one of them is in their best form. 
@@ -1788,115 +1809,57 @@
 What are your thoughts on this film?</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>2023-12-31 12:56:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Just watched Salò, or the 120 Days of Sodom, What's the Message?</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>So I just watched this movie and I'm not really sure what I just watched. the movie didn't necessarily disturb me very much, but most of the time I was just trying to figure out why this was made. I've heard people just say the movie is about how bad fascism was but im not sure. I'm not trying to put the movie down because I feel there has to be some overall message its trying to convey but I can't help but say "I just watched a movie about a whole bunch of teens get sexually abused for 2 hours." if anyone can give me a rundown on this. ive heard people call it a masterpiece and i heard people just call it a bad torture porn movie?</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2024-06-05 17:33:02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Why Dune Part II shows the importance of weirdness</t>
+          <t>Just watched Salò, or the 120 Days of Sodom, What's the Message?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">I rewatched the first Dune in anticipation of seeing the new one this past Sunday. Above all else, the most striking image to me was Baron Harkonnen. 
-His submergence into the healing oil, dark as petroleum, and then subsequent levitation above it, was so alien to anything I have seen before. The largest and most grotesque character in the film has the most graceful and effortless movement. This, combined with the “minimalist maximalism” of the production design, created an image that burned into my minds eye as something so uniquely foreign.
-Now enter Dune Part II. Any notions I had of the strangeness of Part I were completely blown open. While the first half of the film is a somewhat straight forward story of a fish-out-of-water character learning about his new environment, the introduction of the water of life throws the story—thematically, totally, and in terms of pace—in an entirely new direction.
-Simply put, the movie gets weird. Fast.
-Because of its confidence to lean into the weirdness, and its seeming disregard to cater to a pre-teen audience, this film became one of my instant favorites. I am so tired of the monotony of conformity that has long ran rampant in Hollywood blockbusters, most notably exemplified in the MCU. Conformity was the thing that audiences seemed to seek out, as a common narrative was “well, if I’m going to spend money to go to the theater, I want to know it will be worth it”. These films also had to make sure they won over every demographic, so they come across as safe as possible.
-This idea of conformity can be beneficial for attracting a mass audience, and clearly bore fruit for Marvel for almost two decades. Yet with the recent performance of the MCU in the box office, it’s clear audiences are hungry for something new.
-Dune provides this fresh film going experience, but disguises it in a clever way—casting.
-Can you think of a more conventional cast for a modern Hollywood blockbuster? My shortlist of the most popular rising actors in Hollywood would be topped by Chamalet, Zendaya, Pugh, Taylor Joy, and Butler. They allow a more casual film fan a way into Dune, which otherwise might seem too weird to even try and watch. And on as a cherry on top, the performances are legitimately great.
-The box office success of Dune Part II proves the filmgoing audience was ready for something fresh.  Who would have guessed that the new thing they wanted was a story about how theology can be weaponized to brainwash a vulnerable population, and how worm piss can give you clairvoyance.
-Dune Part II had so many weird moments that it felt like I was watching something entirely new, even in comparison to Villeneuve’s other work. The story blossomed into something larger than the borders of the screen, and now seems to have existed forever in the American film ethos. I feel so grateful to have been able to see this movie in theaters, and to have experienced the power of what truly original filmmaking can do. 
-As an aside, the score was unbelievable as well
-</t>
+          <t>So I just watched this movie and I'm not really sure what I just watched. the movie didn't necessarily disturb me very much, but most of the time I was just trying to figure out why this was made. I've heard people just say the movie is about how bad fascism was but im not sure. I'm not trying to put the movie down because I feel there has to be some overall message its trying to convey but I can't help but say "I just watched a movie about a whole bunch of teens get sexually abused for 2 hours." if anyone can give me a rundown on this. ive heard people call it a masterpiece and i heard people just call it a bad torture porn movie?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-03-11 13:11:14</t>
+          <t>2024-06-05 17:33:02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dune part II was fantastic, however…</t>
+          <t>Making Sense of "The Substance." What does it mean to be a Mommy? (Spoilers Ahead)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The sound design and score, the set pieces and costumes, effects, acting, cinematography, all brilliant as one would expect.
-However I’m conflicted about the pacing.
-Whilst it was highly engaging and never had a dull moment ( as many argue part I had a surplus of - I disagree ) , I couldn’t help but feel that the pacing was a bit too frenetic for its own good and slightly diminished from the impact of certain scenes and events in the latter half. It almost lent it a sort of deus ex machina effect: this happened, then this happened, then this was resolved neatly and so on.
-I wouldn’t necessarily want the film to be a whole lot longer but I think they could have fleshed it out by another 15-20 minutes to better convey the gravity of certain events and give us a minute to digest them. There was too much ‘hold up when the fuck did he learn that? How the hell did they get here so quickly? How did they pull that off so easily?’ 
-Does anyone else feel the same way?
-</t>
+          <t>While I was watching this movie with my wife last night, there was something that continued to bother me that almost took me out of the film, at least until the carnage and bloodbath began in the final 30 minutes or so (then I just enjoyed the absurdity and gore). What kept bothering me was that I didn't see the appeal of taking the substance because it seemed to me that, once Elisabeth "split" into two bodies, that neither of the identities were conscious of what the other was doing. Elisabeth didn't get to experience living as Sue, she only was able to eke out any enjoyment from looking at a billboard, or watching "Pump it Up" on television. She didn't get to have sex as Sue, or enjoy her new perfect body. Now, Sue obviously appreciated her new form, as she retained Elisabeth's memories, but from the time of the split, Elisabeth didn't get to share in Sue's joy, at least not directly. And Sue was not experiencing the horror of Elisabeth, seeing her body quickly degrade. Any enjoyment Elisabeth gained from Sue's experience was gained merely vicariously and as an observer.
+These thought bothered me throughout the film, and especially once we learned that Elisabeth could terminate this Devil's bargain at any time. Elisabeth's statements to the voice on the phone, that "I don't know what she was thinking," the first time Sue overstayed her welcome was when it dawned on me that Elisabeth was not experiencing Sue-ness first-hand. This was buttressed when Sue awakened later to see the mess Elisabeth had made of the apartment, shouting "Control yourself," or something to that effect. The Substance instructions, that the two are one, seemed glaringly false at this point: There were clearly two separate consciousnesses with no shared thoughts or memories. This bothered me because this situation had no appeal to me, giving up whatever enjoyment you can wrest from life for the enjoyment of a newer, better You, which is essentially an "other." Once the film was over, and I was walking home and discussing it with my wife, I think I understood what the movie was trying to say.
+The substance is not subtle in its depiction of the Motherhood/Parenthood theme: Elisabeth "births" Sue from her own body. My observation is not simply that motherhood is a theme in "The Substance," along with criticisms of consumer culture, the worship of youth, misogyny inherent in society and the entertainment industry, etc. I'm pointing out what the movie is saying about motherhood. You give birth, damaging your body, in the hope of creating a newer, better you. But it is not you. it is something separate completely. This new entity cares for you, but only because of your continued sacrifice. In the best case scenario, you watch it succeed, but can only enjoy its accomplishments vicariously, as your own form continues to degrade. Ultimately you are forgotten and only engaged with when the entity needs you. The movie, to me, seems to be saying that having a child, or the desire to have a child, is at least in part, the desire to hold onto your own youth and can be a selfish act, one that ultimately can strip you of the very youth you were desperately trying to cling to. This is the real horror the movie is trying to portray. A bleak take, indeed.
+I'm sure others have reached similar conclusions, but I haven't seen them expressed so I am sharing my thought. I'd be interested in what the community thinks.
+Thanks.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-03-08 17:01:54</t>
+          <t>2024-10-02 15:45:41</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Burning (2018) is as ambiguous as a movie can get</t>
+          <t>Sicario (2015) - The brilliance of making a side character the main character</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>I just recently watched the Korean film Burning (2018) and I was blown away. The movie has easily got into my list of all-time favourites. I know the movie has many haters who disagree with how the movie progressed and ended, but it is just the ambiguity that scares off these people. I personally love movies that require a lot of personalized thoughts and theories. The cast and visuals are brilliant. I like Steven Yeun as an actor, and his performance was flawless. He is just so naturally charismatic. Here are some of my thoughts on the movie:-
-I think this is an interesting observation of how audiences perceive movies. In a thriller like this, foul play is expected, and therefore, Ben is "obviously" the killer. It's similar to how people criticize horror movie characters for doing silly things, but those actions only seem foolish because of the context of a horror movie where something dreadful is bound to happen in the dark basement.
-The clarity unravels once I start to pay attention to all the possible explanations. It's possible Hae-Mi did skip town, after all, the two closest men in her life treated her like trash and used her as a ruler in a dick-measuring contest. Maybe it was her previously hinted at financial troubles. She could be gone for any number of reasons. The movie shifts itself to whatever truth you put the most weight on, and we all know which one Jong-su believed in, as we were deceptively nudged there along with him.
-The movie warns us right at the beginning about the movie's ambiguity. Hae-mi's monologue about how one has to forget that there "isn't" a tangerine is obviously very important and acts as a forecast about where the rest of the movie leads.
-I couldn't help but draw a parallel to a scene in Jordan Peele's "Get Out" when Ben's new girl explains her trip to China to the guests at the party just like Hae-mi. Maybe, it is possible that all the guests at his party were his top clients or something, that is if we believe that Ben is a human trafficker.
-It is very easy to see Ben as the killer as he seems very anti-social and struggles to talk without creating a sense of awkwardness. He also says that he has trouble expressing emotions like sadness and has never been able to cry before. These signs are possible indicators that he is a serial killer but it could just be that he is antisocial because he likely grew up in a very rich family and therefore lacks the skills required to make small talk with poorer people.
-In the end, what you make of the film is completely up to you, since, it is discreetly a very ambiguous film. I'm sure that is what Lee Chang-dong wanted. You are forced to believe that Ben is the antagonist, but the more you think about it the more you realize that there is no hundred percent reliable clue or information that tells us about Ben's nature. We need to remember that we only see what Jong-su sees(unreliable narrator).
-It is also worth noting that Jong-su's dad is in prison for assault because they're poor and stuck in the system whereas Ben who according to Jong-su has killed Hae-mi escapes all legal action because he is rich. This thought is something that must've crossed through Jong-su's mind and might have been a factor in Jong-su's hostility towards Ben.
-Burning is so mercurial and atmospheric, I love it so much. The naturalistic look and the eerie background music work perfectly. Great performances from all three leads.
-PS. The Porsche was sexy af.
-What are your thoughts on the movie? Who do you think was in the right? Did you find any possible hints that led you to your conclusion?
-Edit: did not expect this post to get this much reception but since it did, please check out my letterboxd. I can't paste the link here, but the username is azzuuu. Thank you.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2024-03-04 13:10:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sicario (2015) - The brilliance of making a side character the main character</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
         <is>
           <t>(spoilers for the entire movie)
 In another universe, Sicario is a movie that begins with Benicio Del Toro's character's wife and daughter being murdered by a rival cartel, proceeds with him striking a deal with the CIA and Josh Brolin's character, capturing Guillermo, and ultimately hunting down the two jefes in a bittersweet ending. Emily Blunt's character would have been a minor antagonist presented as a naive government agent that gets in the way of real justice carried out by our beloved anti-hero Alejandro.
@@ -1913,47 +1876,88 @@
 * Kate is also faced with the choice of killing Alejandro. She chooses not to: both of them understand, after everything that's happened, that the choice makes literally no difference to the massive war being fought. She realizes that, at least some of the time, she can act according to her principles, and she chooses her principles. In the chess game of life the pieces aren't just pieces: they're the people and values we hold dear. And sometimes it makes sense to sacrifice them, but how can we ever know it's the right thing to do? This is the absurd joke of life.</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-05-16 20:16:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Why Dune Part II shows the importance of weirdness</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I rewatched the first Dune in anticipation of seeing the new one this past Sunday. Above all else, the most striking image to me was Baron Harkonnen. 
+His submergence into the healing oil, dark as petroleum, and then subsequent levitation above it, was so alien to anything I have seen before. The largest and most grotesque character in the film has the most graceful and effortless movement. This, combined with the “minimalist maximalism” of the production design, created an image that burned into my minds eye as something so uniquely foreign.
+Now enter Dune Part II. Any notions I had of the strangeness of Part I were completely blown open. While the first half of the film is a somewhat straight forward story of a fish-out-of-water character learning about his new environment, the introduction of the water of life throws the story—thematically, totally, and in terms of pace—in an entirely new direction.
+Simply put, the movie gets weird. Fast.
+Because of its confidence to lean into the weirdness, and its seeming disregard to cater to a pre-teen audience, this film became one of my instant favorites. I am so tired of the monotony of conformity that has long ran rampant in Hollywood blockbusters, most notably exemplified in the MCU. Conformity was the thing that audiences seemed to seek out, as a common narrative was “well, if I’m going to spend money to go to the theater, I want to know it will be worth it”. These films also had to make sure they won over every demographic, so they come across as safe as possible.
+This idea of conformity can be beneficial for attracting a mass audience, and clearly bore fruit for Marvel for almost two decades. Yet with the recent performance of the MCU in the box office, it’s clear audiences are hungry for something new.
+Dune provides this fresh film going experience, but disguises it in a clever way—casting.
+Can you think of a more conventional cast for a modern Hollywood blockbuster? My shortlist of the most popular rising actors in Hollywood would be topped by Chamalet, Zendaya, Pugh, Taylor Joy, and Butler. They allow a more casual film fan a way into Dune, which otherwise might seem too weird to even try and watch. And on as a cherry on top, the performances are legitimately great.
+The box office success of Dune Part II proves the filmgoing audience was ready for something fresh.  Who would have guessed that the new thing they wanted was a story about how theology can be weaponized to brainwash a vulnerable population, and how worm piss can give you clairvoyance.
+Dune Part II had so many weird moments that it felt like I was watching something entirely new, even in comparison to Villeneuve’s other work. The story blossomed into something larger than the borders of the screen, and now seems to have existed forever in the American film ethos. I feel so grateful to have been able to see this movie in theaters, and to have experienced the power of what truly original filmmaking can do. 
+As an aside, the score was unbelievable as well
+</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-05-16 20:16:06</t>
+          <t>2024-03-11 13:11:14</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A quote from director Akira Kurosawa’s autobiography</t>
+          <t>Dune part II was fantastic, however…</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>This is from 1981, and I think it’s aged quite well.
- “This is one of the bad points about commercialism… These people continually remake films that were successful in the past. They don’t attempt to dream new dreams; only repeat the old ones. Even though it has been proved that a remake never outdoes the original, they persist in their foolishness. I would call it foolishness of the first order. A director filming a remake does so with great deference toward the original work, so it’s like cooking up something strange out of leftovers, and the audience who have to eat this concoction are in an unenviable position, too.”</t>
+          <t xml:space="preserve">
+The sound design and score, the set pieces and costumes, effects, acting, cinematography, all brilliant as one would expect.
+However I’m conflicted about the pacing.
+Whilst it was highly engaging and never had a dull moment ( as many argue part I had a surplus of - I disagree ) , I couldn’t help but feel that the pacing was a bit too frenetic for its own good and slightly diminished from the impact of certain scenes and events in the latter half. It almost lent it a sort of deus ex machina effect: this happened, then this happened, then this was resolved neatly and so on.
+I wouldn’t necessarily want the film to be a whole lot longer but I think they could have fleshed it out by another 15-20 minutes to better convey the gravity of certain events and give us a minute to digest them. There was too much ‘hold up when the fuck did he learn that? How the hell did they get here so quickly? How did they pull that off so easily?’ 
+Does anyone else feel the same way?
+</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-02-23 06:34:34</t>
+          <t>2024-03-08 17:01:54</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Is shooting films digitally having an effect on the actors' performances?</t>
+          <t>Burning (2018) is as ambiguous as a movie can get</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>I saw a [quote](https://www.thepopverse.com/movies-my-cousin-vinny-marisa-tomei-courtroom-scene) about *My Cousin Vinnie* from Marisa Tomei:
-&gt; Tomei then spoke about the memorable courtroom scene. "I don’t really remember how many times we did it. Now everything is shot on digital. That one was on film, so that takes longer in a good way, because you have more time to drop in. **The idea behind digital was that we would have more time as actors, but actually you’re just speeding along at the speed of the digital instead.** But at that time it was film, so it was probably a couple of days, because that was just the pace of how those things would happen."
-That's the first I've heard of that argument; that shooting digitally rushes the actors and their performances.
-Is that true? Anyone heard anything else of a similar nature?</t>
+          <t>I just recently watched the Korean film Burning (2018) and I was blown away. The movie has easily got into my list of all-time favourites. I know the movie has many haters who disagree with how the movie progressed and ended, but it is just the ambiguity that scares off these people. I personally love movies that require a lot of personalized thoughts and theories. The cast and visuals are brilliant. I like Steven Yeun as an actor, and his performance was flawless. He is just so naturally charismatic. Here are some of my thoughts on the movie:-
+I think this is an interesting observation of how audiences perceive movies. In a thriller like this, foul play is expected, and therefore, Ben is "obviously" the killer. It's similar to how people criticize horror movie characters for doing silly things, but those actions only seem foolish because of the context of a horror movie where something dreadful is bound to happen in the dark basement.
+The clarity unravels once I start to pay attention to all the possible explanations. It's possible Hae-Mi did skip town, after all, the two closest men in her life treated her like trash and used her as a ruler in a dick-measuring contest. Maybe it was her previously hinted at financial troubles. She could be gone for any number of reasons. The movie shifts itself to whatever truth you put the most weight on, and we all know which one Jong-su believed in, as we were deceptively nudged there along with him.
+The movie warns us right at the beginning about the movie's ambiguity. Hae-mi's monologue about how one has to forget that there "isn't" a tangerine is obviously very important and acts as a forecast about where the rest of the movie leads.
+I couldn't help but draw a parallel to a scene in Jordan Peele's "Get Out" when Ben's new girl explains her trip to China to the guests at the party just like Hae-mi. Maybe, it is possible that all the guests at his party were his top clients or something, that is if we believe that Ben is a human trafficker.
+It is very easy to see Ben as the killer as he seems very anti-social and struggles to talk without creating a sense of awkwardness. He also says that he has trouble expressing emotions like sadness and has never been able to cry before. These signs are possible indicators that he is a serial killer but it could just be that he is antisocial because he likely grew up in a very rich family and therefore lacks the skills required to make small talk with poorer people.
+In the end, what you make of the film is completely up to you, since, it is discreetly a very ambiguous film. I'm sure that is what Lee Chang-dong wanted. You are forced to believe that Ben is the antagonist, but the more you think about it the more you realize that there is no hundred percent reliable clue or information that tells us about Ben's nature. We need to remember that we only see what Jong-su sees(unreliable narrator).
+It is also worth noting that Jong-su's dad is in prison for assault because they're poor and stuck in the system whereas Ben who according to Jong-su has killed Hae-mi escapes all legal action because he is rich. This thought is something that must've crossed through Jong-su's mind and might have been a factor in Jong-su's hostility towards Ben.
+Burning is so mercurial and atmospheric, I love it so much. The naturalistic look and the eerie background music work perfectly. Great performances from all three leads.
+PS. The Porsche was sexy af.
+What are your thoughts on the movie? Who do you think was in the right? Did you find any possible hints that led you to your conclusion?
+Edit: did not expect this post to get this much reception but since it did, please check out my letterboxd. I can't paste the link here, but the username is azzuuu. Thank you.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-11-06 16:20:09</t>
+          <t>2024-03-04 13:10:35</t>
         </is>
       </c>
     </row>
@@ -1985,31 +1989,48 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Making Sense of "The Substance." What does it mean to be a Mommy? (Spoilers Ahead)</t>
+          <t>A quote from director Akira Kurosawa’s autobiography</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>While I was watching this movie with my wife last night, there was something that continued to bother me that almost took me out of the film, at least until the carnage and bloodbath began in the final 30 minutes or so (then I just enjoyed the absurdity and gore). What kept bothering me was that I didn't see the appeal of taking the substance because it seemed to me that, once Elisabeth "split" into two bodies, that neither of the identities were conscious of what the other was doing. Elisabeth didn't get to experience living as Sue, she only was able to eke out any enjoyment from looking at a billboard, or watching "Pump it Up" on television. She didn't get to have sex as Sue, or enjoy her new perfect body. Now, Sue obviously appreciated her new form, as she retained Elisabeth's memories, but from the time of the split, Elisabeth didn't get to share in Sue's joy, at least not directly. And Sue was not experiencing the horror of Elisabeth, seeing her body quickly degrade. Any enjoyment Elisabeth gained from Sue's experience was gained merely vicariously and as an observer.
-These thought bothered me throughout the film, and especially once we learned that Elisabeth could terminate this Devil's bargain at any time. Elisabeth's statements to the voice on the phone, that "I don't know what she was thinking," the first time Sue overstayed her welcome was when it dawned on me that Elisabeth was not experiencing Sue-ness first-hand. This was buttressed when Sue awakened later to see the mess Elisabeth had made of the apartment, shouting "Control yourself," or something to that effect. The Substance instructions, that the two are one, seemed glaringly false at this point: There were clearly two separate consciousnesses with no shared thoughts or memories. This bothered me because this situation had no appeal to me, giving up whatever enjoyment you can wrest from life for the enjoyment of a newer, better You, which is essentially an "other." Once the film was over, and I was walking home and discussing it with my wife, I think I understood what the movie was trying to say.
-The substance is not subtle in its depiction of the Motherhood/Parenthood theme: Elisabeth "births" Sue from her own body. My observation is not simply that motherhood is a theme in "The Substance," along with criticisms of consumer culture, the worship of youth, misogyny inherent in society and the entertainment industry, etc. I'm pointing out what the movie is saying about motherhood. You give birth, damaging your body, in the hope of creating a newer, better you. But it is not you. it is something separate completely. This new entity cares for you, but only because of your continued sacrifice. In the best case scenario, you watch it succeed, but can only enjoy its accomplishments vicariously, as your own form continues to degrade. Ultimately you are forgotten and only engaged with when the entity needs you. The movie, to me, seems to be saying that having a child, or the desire to have a child, is at least in part, the desire to hold onto your own youth and can be a selfish act, one that ultimately can strip you of the very youth you were desperately trying to cling to. This is the real horror the movie is trying to portray. A bleak take, indeed.
-I'm sure others have reached similar conclusions, but I haven't seen them expressed so I am sharing my thought. I'd be interested in what the community thinks.
-Thanks.</t>
+          <t>This is from 1981, and I think it’s aged quite well.
+ “This is one of the bad points about commercialism… These people continually remake films that were successful in the past. They don’t attempt to dream new dreams; only repeat the old ones. Even though it has been proved that a remake never outdoes the original, they persist in their foolishness. I would call it foolishness of the first order. A director filming a remake does so with great deference toward the original work, so it’s like cooking up something strange out of leftovers, and the audience who have to eat this concoction are in an unenviable position, too.”</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-10-02 15:45:41</t>
+          <t>2024-02-23 06:34:34</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>Is shooting films digitally having an effect on the actors' performances?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>I saw a [quote](https://www.thepopverse.com/movies-my-cousin-vinny-marisa-tomei-courtroom-scene) about *My Cousin Vinnie* from Marisa Tomei:
+&gt; Tomei then spoke about the memorable courtroom scene. "I don’t really remember how many times we did it. Now everything is shot on digital. That one was on film, so that takes longer in a good way, because you have more time to drop in. **The idea behind digital was that we would have more time as actors, but actually you’re just speeding along at the speed of the digital instead.** But at that time it was film, so it was probably a couple of days, because that was just the pace of how those things would happen."
+That's the first I've heard of that argument; that shooting digitally rushes the actors and their performances.
+Is that true? Anyone heard anything else of a similar nature?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-11-06 16:20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>Civil War (2024) from the perspective of a war journalist</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>I saw Civil War a few days ago, and as someone who has reported on war up close it hit me hard and stuck with me. So I thought I'd share some thoughts. From listening to some of the conversations surrounding this film, it seems that some of the film's subtleties are not so subtle if you've been a war reporter before.
 First off, a little about me. I've been a journalist for just over a decade. Most of it hasn't been war journalism, and I don't plan to keep doing it (my wife would kill me herself for one thing). But when Russia invaded in Ukraine, I found myself in Ukraine shortly afterward for various reasons. Over the course of several trips, I've spent around six months reporting in Ukraine since the invasion started, most of it in and around active combat zones. So I'm not a seasoned war journalist like Lee jumping from war to war, but what I did experience was pretty damned intense. 
@@ -2026,19 +2047,19 @@
 &amp;#x200B;</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>2024-04-29 23:35:00</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Past Lives, and My Indifference Towards Cinematic Love</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Yesterday I watched *Past Lives*, Celine Song's critically acclaimed directorial debut, and I... didn't like it very much ([my review](https://letterboxd.com/glasshalftrue/film/past-lives/), in case anyone is interested in my more detailed thoughts). Which disappointed me; I think over the years I've become more and more able to appreciate these sorts of slow-paced, gentle, meditative kinds of movies (a few I enjoyed recently include *Perfect Days*, *Aftersun*, and *First Cow*). But for some reason, *Past Lives* just didn't click with me. By the end of the film, when Nora finally cries for the first time in decades and Hae Sun drives away from the girl he's pined after for just as long, all I could think was: that was it?
 Looking back, I think I've noticed a personal trend where I have trouble enjoying movies about love, specifically romantic love; *In The Mood for Love* and *Portrait of a Lady on Fire* are two other highly rated films that I just didn't vibe with. And I'm trying to interrogate why exactly this is. I'm not inherently allergic to love as a thematic focus; there are plenty of stories in other mediums (e.g. books and television) about love that I really like. But as I browsed through my letterboxd film list, I realized that I could count on one hand the movies focused around love that I honestly could say I really enjoyed, and most of them I mostly enjoyed for reasons outside of their central romance.  One of the only movies centered around romantic love - and in which I was particularly captivated by the protagonists' relationship - that I really liked was *Phantom Thread*, which is definitely a much more twisted and atypical take on love than the other films I listed.
@@ -2046,26 +2067,9 @@
 Does anyone else feel like this? And does anyone have any good recommendations for films about love which they think might be able to change my mind?</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>2024-03-19 21:35:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why does Michael Haneke think movie violence is a such a serious issue? </t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I saw about a quote from Micheal Haneke that he was disgusted by people laughing when marvin got shot in the face in Pulp Fiction and I just really cant comprehend why? Does he really think that violence and death being treated in a non-serious way makes people more accepting of violence in the real world? I don't see any remote evidence for this and it seems pretty similar to agruements people make agaisnt video games and rap music.  </t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2024-10-09 19:03:51</t>
         </is>
       </c>
     </row>
@@ -2093,50 +2097,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sorry, another Civil War (2024) post - I think people are really missing the point of this movie, and its not what you think</t>
+          <t xml:space="preserve">Why does Michael Haneke think movie violence is a such a serious issue? </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reading the discourse around this movie is, frankly, fascinating. Whether people liked it or not, its been really interesting to read the different takes on it. Some are bothered by "both sides-ism", while others correct that their missing the point, and instead its a reflection on how destructive our identities can be. I actually think this is missing the point, *this movie is about the death of journalism*.
-I think the background plot of a Civil War was chosen simply because its the most divided a nation can possibly be. But pay attention to our main characters, notably Lee, Joel, and how they influence Jessie.
-Lee, imo, represents the noble profession of journalism. She takes no joy in the violence she sees, in fact she's haunted and traumatized by it. She states that she must remain impartial and detached for the sake of accurately recording events for people to see. She never says much about picking a side in the conflict.
-Joel, on the other hand, is pretty obvious that he favors the WF and hates the President. He gleefully jokes with journalists when asked "where are you going?" and "what are you doing here?". He seems to be an adrenaline junky, excited that he gets to be in the thick of it and totally unbothered by the violence he sees (until its directed at him, of course, in the brilliant scene with Jessie Plemons). We also learn Jessie knows how to stow away with them in the car, because he drunkenly boasts to her where he's going and what he's doing while hitting on her at the hotel. 
-And then we have Jessie, the young journalist being influenced by these two. There's the scene where Joel hits on her after the first day of violence, which seemed strangely out of place to me at first. However, looking back on it, I think this represents the temptation of his "sexier" style of journalism. Meanwhile, Lee's influence seems colder, yet deep down comes off as more caring to the point she sacrifices herself to save Jessie. 
-The tragedy takes place during the final assault on the Oval Office in which Jessie disregards Lee's sacrifice and pushes on with Joel, and they both are rewarded with "the scoop" - Joel gets the President's last words, and Jessie gets what will no doubt become an iconic photo. This scene is not supposed to feel good, as we are watching Jessie fall into Joel's style of journalism. I think of it like a devil and an angel on her shoulders, and sadly the Devil's "sexier" style of journalism wins.
-I def want to rewatch and think there are many other ways to interpret this, but I really do think the movie is supposed to be a focus on journalism and the whole "Civil War" angle was just a back drop simply because its the most divided a nation can be, which is why there's no real politics or reasons for it, as we aren't really meant to be focusing on that. </t>
+          <t xml:space="preserve">I saw about a quote from Micheal Haneke that he was disgusted by people laughing when marvin got shot in the face in Pulp Fiction and I just really cant comprehend why? Does he really think that violence and death being treated in a non-serious way makes people more accepting of violence in the real world? I don't see any remote evidence for this and it seems pretty similar to agruements people make agaisnt video games and rap music.  </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-04-16 14:54:38</t>
+          <t>2024-10-09 19:03:51</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Filmmakers like Wong kar wai and Andrei Tarkovsky who explore time,loneliness and melancholy</t>
+          <t>Eyes Wide Shut Is The Perfect Horror Movie</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>I really love wong kar wai and Andrei tarkovsky(I know very controversial take). They both are definitely very distant. But one thing that runs common throughout their films(or atleast in some of them) is the theme of time throughout them. They both seem to be obsessed with the idea of capturing the essence of time through their films. They both do it very differently but they both seem to be interested in capturing time as it feels rather than how it works. They both also frequently explore the ideas of longing and loneliness. Their characters are always looking for something and many times even they couldn't understand what it is. It naturally gives their films a layer of melancholy. And to put it simply I have never really found any artist who makes me feel the same way they make me feel. I have tried to get into bella tar and ozu(two filmmakers who I heard could scratch that itch)but sadly I couldn't persevere. The closest thing I have ever came across is probably the books of Orhan pamuk and Virginia Woolf and the paintings of John singer Sargent. Is there any filmmaker(or writer or painter)who is even remotely like them?</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2024-03-31 11:33:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Eyes Wide Shut Is The Perfect Horror Movie</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
         <is>
           <t>Did you ever experience a moment when you realized that your reality wasn’t what you thought it was, when something that was supposed to be familiar ends up shocking you? It can be something small, like learning that your perception of someone or something was wrong, or finding out that there are things going on around you, parallel to your day-to-day life, you never had any idea about. Sometimes these realizations, no matter how insignificant, shake you up, make you doubt your own position in this world and replace your sense of safety with anxiety. 
 Most people probably did experience this on some smaller scale, and even if not, we are all aware that everything we perceive might be perceived differently by people around us. Our sense of social reality depends on the idea that we see and know the same things, that people we trust are on the same page. Otherwise, maybe we can never really know anyone, and the world around us is unfamiliar. Normal life has the constant potential to become a horror movie, people around us imposters, and our sense of self is destroyed the moment you look through someone else’s eyes and see that everything, including yourself, looks completely different. 
@@ -2157,56 +2138,96 @@
 Overall, a memorable and original movie that is also pure horror for me.</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-04-11 07:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sorry, another Civil War (2024) post - I think people are really missing the point of this movie, and its not what you think</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reading the discourse around this movie is, frankly, fascinating. Whether people liked it or not, its been really interesting to read the different takes on it. Some are bothered by "both sides-ism", while others correct that their missing the point, and instead its a reflection on how destructive our identities can be. I actually think this is missing the point, *this movie is about the death of journalism*.
+I think the background plot of a Civil War was chosen simply because its the most divided a nation can possibly be. But pay attention to our main characters, notably Lee, Joel, and how they influence Jessie.
+Lee, imo, represents the noble profession of journalism. She takes no joy in the violence she sees, in fact she's haunted and traumatized by it. She states that she must remain impartial and detached for the sake of accurately recording events for people to see. She never says much about picking a side in the conflict.
+Joel, on the other hand, is pretty obvious that he favors the WF and hates the President. He gleefully jokes with journalists when asked "where are you going?" and "what are you doing here?". He seems to be an adrenaline junky, excited that he gets to be in the thick of it and totally unbothered by the violence he sees (until its directed at him, of course, in the brilliant scene with Jessie Plemons). We also learn Jessie knows how to stow away with them in the car, because he drunkenly boasts to her where he's going and what he's doing while hitting on her at the hotel. 
+And then we have Jessie, the young journalist being influenced by these two. There's the scene where Joel hits on her after the first day of violence, which seemed strangely out of place to me at first. However, looking back on it, I think this represents the temptation of his "sexier" style of journalism. Meanwhile, Lee's influence seems colder, yet deep down comes off as more caring to the point she sacrifices herself to save Jessie. 
+The tragedy takes place during the final assault on the Oval Office in which Jessie disregards Lee's sacrifice and pushes on with Joel, and they both are rewarded with "the scoop" - Joel gets the President's last words, and Jessie gets what will no doubt become an iconic photo. This scene is not supposed to feel good, as we are watching Jessie fall into Joel's style of journalism. I think of it like a devil and an angel on her shoulders, and sadly the Devil's "sexier" style of journalism wins.
+I def want to rewatch and think there are many other ways to interpret this, but I really do think the movie is supposed to be a focus on journalism and the whole "Civil War" angle was just a back drop simply because its the most divided a nation can be, which is why there's no real politics or reasons for it, as we aren't really meant to be focusing on that. </t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-04-11 07:21:22</t>
+          <t>2024-04-16 14:54:38</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>Filmmakers like Wong kar wai and Andrei Tarkovsky who explore time,loneliness and melancholy</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>I really love wong kar wai and Andrei tarkovsky(I know very controversial take). They both are definitely very distant. But one thing that runs common throughout their films(or atleast in some of them) is the theme of time throughout them. They both seem to be obsessed with the idea of capturing the essence of time through their films. They both do it very differently but they both seem to be interested in capturing time as it feels rather than how it works. They both also frequently explore the ideas of longing and loneliness. Their characters are always looking for something and many times even they couldn't understand what it is. It naturally gives their films a layer of melancholy. And to put it simply I have never really found any artist who makes me feel the same way they make me feel. I have tried to get into bella tar and ozu(two filmmakers who I heard could scratch that itch)but sadly I couldn't persevere. The closest thing I have ever came across is probably the books of Orhan pamuk and Virginia Woolf and the paintings of John singer Sargent. Is there any filmmaker(or writer or painter)who is even remotely like them?</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-03-31 11:33:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>Has Leo ever spoken about Ray Liotta’s influence on his acting style?</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>I never realized it until I watched this clip from Something Wild. The way he holds his cigarette and his mannerisms/body language are unmistakably Leo’s trademarks he employs in his “tough guy” and grifter type roles.  
 I am also certain that Scorsese has helped mold these characteristics as he picked Liotta specifically for this performance. It all sort of came together for me when I watched this and I’m sort of surprised no one ever talks about it. I have a newfound respect and appreciation for Liotta now, he truly was a gifted and under appreciated actor who never really saw the success he probably should have. Fortunately he was immortalized by Goodfellas. RIP. 
 https://youtu.be/IrWJ3tuI4yo?si=yvWTIG3AH0CQEgQ6</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>2024-03-01 01:42:48</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Am I missing something with Past Lives?</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>I watched both All of Us Strangers and Past Lives yesterday (nothing is wrong with me, those just happened to be on my list), and I liked All of Us Strangers quite a bit, but Past Lives had me feel a little cold.
 I think Celine Song is clearly very talented and there are a lot of good parts there, but I’m not sure if “quiet indie” is the best way to showcase that talent. I found the characters too insipid to latch onto, which would cause it’s minimalist dialogue to do more heavy lifting than it should. I couldn’t help but think such a simple setup based on “what if” should have taken more creative risks, or contribute something that would introduce some real stakes or genuine tension. On paper, the idea of watching a movie based on a young NYC playwright caught in a love circle makes me kind of gag, but this definitely did not do that. I am wondering if there is something subtle that I just didn’t catch or didn’t understand that could maybe help me appreciate it more? What are your thoughts?</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>2024-02-24 16:35:04</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>What the death of physical media portends for the future of cinema</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Best Buy officially no longer carries DVDs and Blu-Rays. This wasn't a surprise (Kotaku r[eported on it in January](https://kotaku.com/best-buy-dvd-blu-ray-games-sales-stop-2024-1851136668), and others beforehand), but it was still sad to see the reports, the empty shelves, and to know that yet another location previously heralded for its physical media selection has decided to move on.
 This, after numerous films have failed to get physical releases despite box office success (Zach Cregger's *Barbarian* is the poster child of this reality). This, after Disney has made clear strides to discontinue physical media, including [killing all DVD and Blu-Ray sales](https://collider.com/disney-physical-media-release-discontinue-australia/) in Australia, not to mention their refusal to release Searchlight Picture films to physical media (including *All of Us Strangers*).
@@ -2224,19 +2245,19 @@
 I don't know, to be clear. But I worry about it, and I wonder about the films I'll never get to see, about the film's I'll never discover, because there was no way to watch them.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>2024-02-17 19:39:35</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Barbie and the Oscars</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>So, Oscar nominations were announced this morning. As usual, the online kerfuffle belies the pretty standard results (were there any nominations that truly surprised anyone? Not for me), but the curious thing I've seen crop up time and time again are *Barbie* fans angry that the film didn't get even more nominations.
 This tweet from Shannon Watts was what sparked this post initially:  
@@ -2252,19 +2273,19 @@
 My point is not that *Barbie* is a bad film (it isn't) or that it's not deserving of some award-season love (it is), but rather that the conversation around this film is so unusually antagonistic that, even when it succeeds beyond anyone's wildest dreams -- likely including Gerwig and Robbie's -- it *still* isn't enough.</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>2024-01-23 16:44:05</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Why do some movies look soulless to me?</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Like I was looking at the Wicked trailer, and there's just something about the set designs and overall look that doesn't seem right.
 Or not just wicked, other moviea I've seen where the set designs and look just look too clean or polished or too much.
@@ -2273,19 +2294,19 @@
 I don't think it's CGI, I think CGI can be used super well in movies. Maybe I think sometimes there's just way too much going in a scene visually it's distracting.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>2024-08-15 16:30:22</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Anybody else find the discussion around "The Apprentice" sort of sad and cynical ??</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">This looks like a really interesting movie, I've been interested to see it for a while since Jeremy Strong described Abassis directing as a "punk rock David Lynch" , plus they used the Barry Lyndon music in the trailer!! 
 Then I go on reddit (movies and fauxmoi specifically) and it's just mountains of hundreds of brainless comments saying the same exact thing, "who is this movie even FORR?" . Look I understand being burnt out on Trump, I get not wanting to see the movie, hating the guy, all of that. But just the attitude and weird entitled sort of comments I'm reading make me wonder if people have like a five year olds conception of how films are made. 
@@ -2294,19 +2315,19 @@
 It honestly reminds me of when Id be so excited that movies like Hereditary or The Witch came out and try to talk to people about it and reccomend them and so many people would just be like "lol it was boring". As an artist myself I guess it just fills me with this really weird creeping dread, or some kind of cynical reminder that the people around me have no interest in or capacity to engage with art in good faith. </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>2024-10-12 16:07:20</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Dissecting Megalopolis</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>On first viewing, I can confidently say Francis Ford Coppola's *Megalopolis* is a lot of things, but it is not "bad." In all fairness, it's not really "good," either. It is, nonetheless, a film that celebrates its own dissonance by way of ignoring that dichotomous notion altogether. It is also a wildly infuriating, inconsistent experience that hides its genius among a sea of eye-roll-worthy dialogue. There are mixed genres. Ignored guns. Masturbatory diatribes. Unnecessarily convoluted plot points. Self inserts. It is everything film students are told not to do. Which is exactly what makes *Megalopolis* so interesting. It is, despite its many flaws, a potential masterpiece.
 There are moments where *Megalopolis* shows Coppola's breathless genius, once again cementing his status as a classic™️ "teachable American filmmaker®️" for generations to come. There are other, many other, moments where we are instead forced to engage with Coppola's apparent inability to tie together a cohesive thread in his own philosophy, revealing nothing but the depths of his ignorance on that scene's given topic; only to lift the veil with the next line. Trite, outdated observations are woven together alongside moments of timeless brilliance without an inch of irony or the burden of self-awareness. Emerson and Shakespeare are quoted in the same film that birthed Aubrey Plaza reading the line "You're anal as hell, Caesar. But I'm oral as hell."
@@ -2326,72 +2347,36 @@
 Here, there is no polish to make the film more accessible, no sheen that will make it easier to sell. *Megalopolis* is a challenging watch, especially for a culture that is quick to reject authentic gestures as contrived. But in this way, Coppola has crafted a perfect encapsulation of the American fable. The nature of *Megalopolis*, the fact that it is a self-funded and long-awaited passion project from a famed American celebrity, is woven into its very essence. It is the sole thing that sets it apart from other films that operate in this area; Coppola is considered to be one of the untouchable directors, a name that itself is a secret code amongst film bros that communicates "I have taste." Instead, in what is likely to be Coppola's last and most divisive project, we see the man himself pulling back the curtain to reveal that there is no grand director. Just an imperfect individual with a story to tell, and ideas to share. It seems as though the only correct takeaway is offered by Cesar in the last few minutes of the film — "We're in need of a great debate about the future."</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>2024-09-29 07:18:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>What do people mean when say they've outgrown Tarintino films?</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>I've heard several people say this online and I don't really understand what they mean, outgrown to what exactly? It seems to me the idea of outgrowing tarintino films comes from them being  playful and not taking themselves entirely seriously, but then you could say exactly the same of Hitchcock, Fellini, Kubrick, Lynch, Early Godard. I mean all there films are nor meant to be entirely taken seriously, none of there films attempt to replicate reality and they don't have obvious meanings and messages on the surface. The depth comes from the film itself not from its relation to reality, there films aren't about real life, there about filmmaking and art the same as Tarintino. So what exactly is there to outgrow with Tarintino, unless you think that good filmmaking should be realistic and about actual human issues like Cassavetes or Rosselini, but I don't really see how you can argue Tarintino films are bad because they don't take themselves seriously and turn around and tell me you like Hitchcock or Lynch. It seems to me its more of a perception issue people have with Tarintino then any actual concrete criticisms, even the stuff about him taking from other films has been done by great filmmakers since cinema started. Blue Velvet for example is absolutely a riff on a rear window but I guess less people have seen that compared to the films Tarintino has allegedly ripped off. I honestly think a lot of this comes from not actually having seen stuff by filmmakers like Hiitchock and Fellini and not realising that the kind of superficiality that Tarintino films have exists in there films too</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2024-03-14 06:23:18</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Daniel Plainview waking up in “There Will be Blood”</t>
+          <t>What do people mean when say they've outgrown Tarintino films?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>What’s your opinion on Daniel Plainview being so hard to wake up? I noticed that the director put a real emphasis on the fact that Daniel Plainview is nearly impossible to wake. What I immediately thought of was that he’s simply exhausted and needs his sleep, however, with the amount of times that we’re shown him being woken up, I feel like there’s a lot more meaning to this, particularly towards the end of his movie where it almost seems like he’s dead on the floor of his bowling alley before Eli arrives. One other interpretation I’ve thought of is that he simply hates life and that the only time he’s at peace is when he’s asleep. This would make him reluctant to wake up and return to his real life. I’m curious to see what other people think.</t>
+          <t>I've heard several people say this online and I don't really understand what they mean, outgrown to what exactly? It seems to me the idea of outgrowing tarintino films comes from them being  playful and not taking themselves entirely seriously, but then you could say exactly the same of Hitchcock, Fellini, Kubrick, Lynch, Early Godard. I mean all there films are nor meant to be entirely taken seriously, none of there films attempt to replicate reality and they don't have obvious meanings and messages on the surface. The depth comes from the film itself not from its relation to reality, there films aren't about real life, there about filmmaking and art the same as Tarintino. So what exactly is there to outgrow with Tarintino, unless you think that good filmmaking should be realistic and about actual human issues like Cassavetes or Rosselini, but I don't really see how you can argue Tarintino films are bad because they don't take themselves seriously and turn around and tell me you like Hitchcock or Lynch. It seems to me its more of a perception issue people have with Tarintino then any actual concrete criticisms, even the stuff about him taking from other films has been done by great filmmakers since cinema started. Blue Velvet for example is absolutely a riff on a rear window but I guess less people have seen that compared to the films Tarintino has allegedly ripped off. I honestly think a lot of this comes from not actually having seen stuff by filmmakers like Hiitchock and Fellini and not realising that the kind of superficiality that Tarintino films have exists in there films too</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-10-13 09:58:03</t>
+          <t>2024-03-14 06:23:18</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Why do directors insist on making their movies look so bland? (Napoleon, Ferrari etc)</t>
+          <t>What is Civil War (2024) really about?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>I watched Ferrari last night and couldn't believe how bland it looked. The movie was very boring but what also didn't help were the drab visuals. I would expect much better from Mann. Even his least favourite movie of mine previously, Ali looked great visually. I would blame it on Mann shooting Ferrari on digital but he made that format look fantastic in the past with Miami Vice and Collateral. 
-Additionally, it seems to me that Ridley Scott and Dariusz Wolski made a pact that states they have to make their movies as drab as possible. It only worked for the excellent Last Duel because it added to its bleak atmosphere. But Napoleon, Alien Covenant, House of Gucci and All the Money in the World were majorally dragged down by the washed out cinematography. Especially, Huse of Gucci which should've been a movie with a lot of flair.
-Even Fincher is guilty of this. People called the Killer stylish but to me it looked very visually uninteresting apart from some establishing shots. The digital cinematography was very bland to me and dragged the movie down. To me Truck Turner, a blaxploitation movie which I watched yesterday looked much better than all the movies I mentioned in this post. Or a movie that I watched the day before that, Cockfighter. These are exploitarion movies but they look much better than fairly big budget modern productions. Even stupid Chuck Norris movies like the Missing in Action trilogy look more interesting than Napoleon. A big part of this is all older movies being shot on film but many directors can make digital look good. So why don't they? Why do directors want their movies to look so uninteresting?</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2023-12-19 19:50:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>What is Civil War (2024) really about?</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
         <is>
           <t>Just got done watching Civil War. I know the movie's been talked to death since its release lots of polarizing opinions all over and I just wanted to share my takeaway from the film.
 Personally, I think this movie is beautiful. The way it's filmed is absolutely incredible, especially the final assault on DC towards the end. I don't know if the military tactics displayed are accurate or not, but either way, it was filmed well enough to immerse me in it completely and take in the horror of having to be an in active warzone. The sadness and melancholy of seeing a once vibrant USA look so barren and hopeless is captured so well here.
@@ -2403,19 +2388,56 @@
 What do you think of the movie? I think it was marvelous. I think I'd rate it a solid 8/10.</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Pre-Marvel superhero movies were superior in terms of cinematic value and re-watchability</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>I was recently re-watching the Sam Raimi Spider Man trilogy as well as the old X-Men movies and I realise that the conclusion that I came to is somewhat influenced by nostalgia but I genuinely think those movies had more to offer than the recent entries in the genre do. The first Spider-Man and X-Men movies are very basic but they work fine at setting up the origins of the characters. A movie like this couldn’t be made these days, nor do I think it would work because superhero origin stories are played out. The sequels, however which are Spider-Man 2 and X2 are very good movies that up the stakes and have a resounding emotional impact. The great thing about them is that they can also serve as stand-alone movies. Someone could watch either of these sequels and find enjoyment in them without having seen the first instalment. The third movies in each franchise weren’t as good. X-Men Last Stand is not a movie that I can enjoy a lot but it has some decent moments. As despicable as Brian Singer is, his absence probably hurt the final instalment of the trilogy. On the other hand, Sam Raimi did direct the third Spider-Man movie and whilst I think that the film was a bit of a mess and could’ve been much better, it’s still something that I can somewhat enjoy. If I had to choose between watching Spider-Man 3 or either of the first two Marvel Spider-Man movies, I would certainly pick the former. The third Marvel Spider-Man entry, No Way Home is a great spectacle movie but it heavily relies on the viewer having seen all the previous Spider-Man films and preferably most Marvel movies too. I certainly don’t have the urge to re-visit it again like I do the first two Raimi movies.
+The crux of the matter lies in the episodic nature of Marvel. I enjoyed mostly everything leading up to Endgame and that movie was a great culmination of the saga but every movie, except maybe the first Iron Man feels like an episode of a TV show that is designed to set up the next stage. These movies, as great as some of them were to watch at the time don’t have as much re-watch value. I, personally never felt like revisiting either Endgame or Infinity War since they came out in cinemas. Re-watching them would sort of feel like watching the last episode of the Sopranos or Breaking Bad. On the other hand, I have a great urge to re-watch superhero movies that feel like their own stand-alone story. Of course, the peak of the genre, at least to me was the Dark Knight which can be considered a great thriller movie that transcends superhero tropes but even Batman Begins is in my opinion a very complete movie that I love re-visiting. I am not a fan of the Dark Knight Rises and can level a lot of criticism at it but I can’t fault it for not feeling like a complete movie that isn’t just designed to set up other things. These movies were released around the same time as Phase 1 of Marvel, before everyone was trying to do a cinematic universe but even after that trend became a thing we got movies like Logan.
+What also stands out to me in the older superhero movies is that whilst the action might have dated CGI, it feels like every action scene has a point to it. For example, in the first Spider-Man every time we see Spider-Man fight and every appearance of the Green Goblin have a purpose to them. The climax of the movie is Spider-Man trying to save Mary Jane and the children which is then followed by a fight between him and the Goblin in an abandoned house. It’s so small scale but so much better for it in comparison to what the genre became after. In most Marvel movies the fights are prolonged and each hero is off doing their own thing. The fights are just loud noises and an abundance of CGI that seem very inconsequential and designed solely by computer animators. The last fight in Spider-Man feels like it is actually directed and thought out by Sam Raimi. In the older films, it also feels like the heroes are actually taking the fight seriously instead of spouting witty one-liners every chance they get. If there is a joke, it is usually earned and doesn’t feel out of place.
+The state of the genre post-Endgame is especially dire. I did enjoy the new Batman movie because that mostly felt like an actual movie. It does try to set up a few things for the future but it’s not egregious. Everything that Marvel is churning out these days is really dire, however. I somewhat enjoyed Deadpool &amp; Wolverine but I could not understand the praise that it received. It’s a movie that relies solely on cameos and callbacks. A lot of the jokes were unfunny to me and the battles bored me with their endless barrage of obvious CGI. It was fine but it didn’t feel like a proper film to me. Rather it was a glorified cameo-fest used as the next building block in the bloated multiverse saga. People are celebrating that X-Men will start appearing in the MCU from now on but to me it’s not a cause for celebration. I have no faith in Marvel doing anything interesting with these characters. People criticise Fox for the way they handled the X-Men and they certainly deserve a lot of that criticism for the later entries but many of the Fox movies, especially at the start are much more re-watchable to me than any Marvel movie will ever be. I don’t want Marvel to have every character available to them. I wish X-Men were still separate from Marvel because then we might’ve eventually gotten an interesting movie like Logan whereas I know Marvel will never take a risk like that. Instead, Marvel paid Hugh Jackman big money to return to the role which in turn, at least in my opinion ruined the ending of Logan. And now they are bringing back Chris Evans and Robert Donwey Jr in their desperate attempt at steering the ship in the right direction. The next Avengers movies will be full of cameos and call-backs which I’m sure many will enjoy but I am completely fine with skipping them. Maybe, I’m just getting older and the genre isn’t doing as much for me any more but I don’t think that’s necessarily the case as I am looking forward to the next Batman movie. I can’t say that I am anticipating anything else that the genre has to offer at the moment and I certainly don’t feel like I miss out on much if I don’t watch most of the new superhero releases. Many might disagree with me but I think that superhero movies had more cinematic value before Marvel came along with their shared universe, inconsequential CGI-filled action scenes and stupid quips.</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024-10-09 11:20:07</t>
+          <t>2024-12-18 13:58:05</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Daniel Plainview waking up in “There Will be Blood”</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>What’s your opinion on Daniel Plainview being so hard to wake up? I noticed that the director put a real emphasis on the fact that Daniel Plainview is nearly impossible to wake. What I immediately thought of was that he’s simply exhausted and needs his sleep, however, with the amount of times that we’re shown him being woken up, I feel like there’s a lot more meaning to this, particularly towards the end of his movie where it almost seems like he’s dead on the floor of his bowling alley before Eli arrives. One other interpretation I’ve thought of is that he simply hates life and that the only time he’s at peace is when he’s asleep. This would make him reluctant to wake up and return to his real life. I’m curious to see what other people think.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-10-13 09:58:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>“Almost Famous” feels more unsatisfying as the years go on for me, do you feel this?</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">
 I first saw it back in 2007 and it became a quick favorite of mine for the reasons it likely has for many people in the years since 2000 (even though it’s box office turnout was low). It was enchanting, warm, funny, wistful, you name it. This was the theatrical version, it wasn’t until maybe a decade ago that I actually bought the Untitled directors cut.
@@ -2428,19 +2450,19 @@
 I wonder how fresh and richer I might find the movie had the early 00s gone differently and our world unfurled in another direction. I think anyone could still see issues, but they might feel more forgiving. What might the movie have felt like if Crowe wrote and started filming in 2002? Would we have felt the complexity and prescience in his 70s setting of today’s broad pessimism? Would he have reoriented his view of his time working for Rolling Stone, that William Miller is being set up only to later to have the world knock him down?</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>2024-06-15 14:47:17</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>As a survivor of SA, I think Spotlight (2015) is a perfect film of accountability.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>I was SA'ed when I was a child and for years I felt absolutely powerless, or should I say, I felt like there was no sense of understanding from others or closure for me. It's a hard subject to tackle in film and it's often ham fisted. My experience was decades ago and there's no recourse for me. The "characters" in this film (based on the Boston Globe writers) are people who are not skeptical or cynical of the Catholic Church when they started investigating -  they're taking the information as it's coming to them. There are establishment folks who are trying to coerce them to stop their story/investigation because they don't want to upset the status quo, but the more the Spotlight writers discover the harder they push towards resolution. 
 I cannot tell you how invigorating it is to watch this film as an SA survivor - you feel like they are fighting for *you*, because you feel like no one has been fighting for you. I watch this film every six months and I'm always absolutely memorized by not only the performances and the pace, but the honesty and bravery of this film. I mean, to go against the Catholic Church in Boston is no small feat. It's not a tour-de-force for Mark Ruffalo or Michael Keaton, it's a kind of reckoning of the human spirit. You can tell all the actors involved feel strongly about this and are the embodiment of absolute good. Hard working journalists who just want to uncover the truth.
@@ -2448,19 +2470,19 @@
 Amazing film.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>2024-03-24 08:55:54</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>What happened to Tony Kaye, director of American History X?</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>I watched his most recent film, Detachment. 13 years ago. One of his projects was shown at Cannes and then never released. 
 Another seemed to be full steam ahead 2 years ago, but there's no info about it's current status. 
@@ -2469,19 +2491,19 @@
 Anyone have further insight into what's going on here? Is it just the unseen unfortunate side of Hollywood? He makes great work and we'd benefit from seeing more.</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>2024-04-12 22:40:52</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Climax(2018) makes you feel filthy</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">
 So i've watched this Noé movie yesterday with my girlfriend and wow.
@@ -2491,19 +2513,49 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>2024-09-13 14:24:02</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>"I Saw the TV Glow" and "im thinking of ending things" - When the Bubble Bursts</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So one of the films I've thought about the most this year was definitely *I Saw the TV Glow*. It's had one of the most polarizing reactions I've seen from just about anything in recent memory, and I can totally see why; anyone who went into it expecting a horror movie was likely disappointed or confused. The 'horror' here is more Twin Peaks than Blumhouse. I didn't really watch it as a horror movie, though, as much as I did sort of a surreal, dreamlike parable. 
+The ending of this film, however, really shook me in a way I can't quite articulate. Even though I'm not trans, I did grow up closeted, and the moment where Owen 'snaps' and suddenly sees everyone around him as just silently standing there with their eyes closed, it felt like the closest literal approximation to that feeling I've seen depicted visually, and I just immediately started crying. The angle and composition of the shot is so eerie to me as well, it's not even just like time freezes, you can see people gently swaying back and forth, the lights still dancing around the walls, and, perhaps most noticeably, **the sparkler on the birthday cake going out**. I believe this moment in particular represents the moment where Owen's ability to dissociate from his pain and repression finally burns out and he's forced to see what his life became as a result of inaction. 
+There's also definitely parallels to a sort of "birth" happening in this moment, with a shot slowly lingering on the words "birthday boy", the fact that Owen falls to the floor in a sort-of fetal position and screams "mommy", as well as the fact that the 'carving' he makes in his chest at the end definitely feels like a sort of 'tearing the veil/opening up into a new world'. 
+While this film is canonically a metaphor for being trans, I do think one of the films it most closely resembles is Charlie Kaufman's *i'm thinking of ending things*, a really excellent character piece that I can only imagine hasn't been seen by more people due to just how oppressively bleak and psychological it is. 
+However, when we look at these two films, there's actually quite a few parallels in the structure.
+\* In *I Saw the TV Glow*, Owen deals with the denial of his reality by only identifying his "true self" through media until one day he realizes he has forgotten to live in the real world and do anything with his life. 
+\* In *i'm thinking of ending things*, the main character suffers a loneliness induced mental breakdown at the end of the film where he realizes his entire existence has been little more than rote physical labor and mindless media consumption. 
+Both characters create a female presence in their lives to comfort themselves. I think there's reason to believe the "Maddy" that returns when Owen is an adult is more a figment of his imagination and/or his inner voice trying to grapple with the horrifying prospect of coming out and transitioning. 
+In *ending things*, the janitor copes with his loneliness by imagining himself as a younger man taking home his new girlfriend to meet his parents at their distant, isolated farmhouse. 
+In *TV Glow*, Owen is faced with the inescapable reality that he must "bury himself" (face his fear of coming out) and chooses to run away back to the familiar comfort of his false existence.
+In *ending things*, the main character is filled with so much self-hatred that even in their imagined version of a relationship, the girl of his dreams still doesn't like him. 
+Both of these films represent characters with such profound hatred for themselves that they need to construct an entire false reality around themselves, with the ultimate message of both films serving (in my opinion) fundamentally as cautionary tales against the dangers of drowning in escapism, that these bubbles we build for ourselves cannot replace true connection; a message which I feel becomes more relevant with the growing isolation and mental health issues/overconsumption of entertainment that's becoming increasingly commonplace, especially since the pandemic. 
+The biggest difference, I believe, is that *I Saw the TV Glow* does have something slightly more resembling a 'hopeful' note, if you could call it that, with the message that "there is still time" etched in sidewalk chalk. Whether you see the actual ending as hopeful I think is more up for interpretation, but in my opinion I see the choices that Owen and Maddy make as essentially the two options you have when you realize a part of you is fundamentally incompatible with the world around you. 
+Both of these films have been structurally analyzed by many others, but I just wanted to take a more subjective take on it as I feel both films are meant to function on a sort of abstract/dream logic that's not really meant to be "solved" as much as it is experienced, but looking forward to seeing what y'all gleaned from either of these titles. </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2024-12-13 19:12:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Mamoru Oshii's review of 'Porco Rosso'</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t># A Hundred Percent Excuse Film
 Watanabe: This time, the theme is "Porco Rosso". It's a movie where Mr. Miyazaki himself transforms into a pig and flies a plane.
@@ -2573,19 +2625,19 @@
 Interviewer: Maki Watanabe</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>2024-07-23 09:58:30</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>“Will the People Who Say They Love Cinema the Most Come Back to the Movies?”</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">What are people’s thoughts on this article:
 https://variety.com/2024/film/columns/where-have-all-the-cinema-lovers-gone-deadpool-wolverine-tar-1236108202/
@@ -2595,36 +2647,36 @@
 Also, a side of me thought the success of Parasite would usher in a new era of semi-mainstream interest in “auteur cinema” similar to what prevailed in the 60s and 70s, but things didn’t pan out that way. </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>2024-08-21 13:13:07</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">The court scenes in anatomy of a fall are taking me out of the movie. Is this how french courts really operate? </t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">I'm just paused after a little over an hour into anatomy of a fall, and the courtroom scenes are really pulling me out of the movie. The prosecutor (the subtitles label him the advocate general) is asking wildly speculative and leading questions, and the judge has said Sandra needs to answer the speculative and leading question. Is this how french courts actually work? Because the way this movies treats courts is the prosecution makes a plausible case, the courts treat it as true, and then asks the defense why the case couldn't be true. </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>2024-10-10 07:08:46</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>How do you become film literate?</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">I watch a lot of movies, often repeatedly. Some of my favourite movies I'll watch 5-10 times before I truly understand them. 
 What frustrates me is I'll watch a movie, make mental notes about all of the imagery, themes, and references and essentially boil it down to "what it all meant." I'll feel clever in the moment.
@@ -2633,19 +2685,38 @@
 Surely I can't be alone in feeling like a massive moron watching movies despite loving the craft more than anything else.  </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>2024-01-25 20:14:57</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>After watching Parasite, The Talented Mr. Ripley and Saltburn I would like to view more good movies about Class? Any recommendations?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thoroughly enjoyed Saltburn btw, with its shocking twists in the end. It was artsy just enough for my liking.
+The talented Mr. Ripley was also amazing, Jude Law really captured perfectly the easy and alluring confidence of a truly wealthy guy. You can't fake it, its deeply embedded in his body language, mannerism, speech, goals and etc.
+Looking more for good movies that focus on the very affluent or super high class interacting with the poor/regular folks. </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2024-12-16 13:59:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>I watched "Ran" (1985) for the first time two nights ago...</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>...and wow, what an incredible experience.
 *Ran* might be the most overwhelming cinematic experience of my lifetime. Never before had I seen colors on display with such vividness and striking composition. Nothing can quite compare to the clashing yellow and red bannisters and uniforms as Taro's and Jiro's armies assaulted Hidetora's castle. And despite *Ran*'s visual beauty, it paints such a contrastingly brutal, bleak vision of the world. Definitely doesn't grant its audience a good time: turns out that nothing is sacrilege in the face of human greed.
@@ -2655,19 +2726,37 @@
 *Ran* was an especially welcomed viewing because I've recently been on a quest to come across a movie that will supplant my current number one favorite for the past four years: *Ordet*. *Ran* has come to closest by far. It now ranks as my fifth favorite movie ever, only behind *Ordet*, *Apocalypse Now*, *The Battle of Algiers*, and *Barry Lyndon*, and directly in front of *Parasite*, *Schindler's List*, *Badlands*, *Once Upon a Time in the West*, and *Dune: Part Two* (the only other time a movie entered within my top ten favorites over the past four years).</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>2024-07-13 20:14:21</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>How does one distinguish between good acting and bad acting?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>I have been watching films since I was a kid, and though I have no problem in distinguishing good films from bad ones, I've always had a tough time concluding which actor is acting good and which one's not.
+So please enlighten me with what are the nuances one needs to keep in mind while watching an act and how to draw a line between a good acting and a bad one.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-04-15 22:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Was Col. Kurtz the most rational character in Apocalypse Now?</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>After watching "Apocalypse Now," I was struck by the irony that someone as "insane" as Kurtz was quite possibly the most rational (maybe honest is a better descriptor) character in the movie. Kurtz realizes he may deserve to die, which is why he accepts Willard's arrival and his own assassination. In his final monologue, he asserts that we are individuals filled with both love and hate, regardless of which side of the war we are on. The other side's military isn't filled with "monsters," as the North Vietnamese are depicted throughout the film. They are people with families and children, inspired by their cause. By humanizing them Kurtz does not shy away from the weight of what it means to kill and fight another human being.
 Kurtz speaks of his "perfect" soldier, one who retains his morality and remains conscious of the weight of his actions, yet still does what the situation requires. This contrasts with what is said multiple times in the movie by Willard and the French lady at the outpost: that soldiers have two sides, one that loves and one that kills. This is dishonest. They try to cope with killing others by splitting their sense of self into a side capable of violent murder and one capable of love, cheating themselves into remaining within their own moral boundaries. Kurtz's perfect soldier does not do this, understanding morality is deeply altered during war. Their retained morality is not a hindrance but a source of power, allowing the soldier to act with conviction and purpose, unclouded by the confusion that plague others in war.
@@ -2676,19 +2765,19 @@
 Kurtz is coldly conscious of all his actions, understanding that morality does not apply to war, an inherently immoral act, as it does to normal life. In contrast, Kilgore copes with this fact through false bravado, turning it into a sport, both figuratively and literally. As the other Americans can't bare the weight of their actions, Kurtz is the only rational character in the film, except for maybe Willard who we explore the film "with".</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>2024-06-21 11:51:04</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>Probably late to Saltburn hate-wagon.</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Worst of all the film was disappointing. The cast was great. Cinematographer probably needs a back surgery from carrying the whole picture. But stunning images and "shocking" scenes, can't really carry storytelling issues.
 I think one of the problems is the narrative approach. We didn't follow Oliver from his perspective, the way we do in Talented Mr. Ripley, nor we discover Oliver objectively, nor he's an unreliable narrator. It's kind of an awkward mix of both - so as a viewer you are not surprised by any of the twists. Either show me the process how he did it or just leave me wondering. Don't go "aha - just as you expected - it was all a sick and twisted ploy to get the mansion.
@@ -2697,19 +2786,19 @@
 What I can't understand though - here the "provocative" scenes just didn't land. And I'm not bragging - I'm squeamish AF. Films by Lanthimos is basically horror cinema for me. Why this film seemed less impactful than it was supposed to be?</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>2023-12-30 00:47:10</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Critical discussion of many of 2023's films is completely hampered by horrid distribution</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>This is sort of a rant/business observation, but 2023 was an absolutely astounding year for film, no doubt. It was astounding film after astounding film and discussions around awards have been diverse and pretty interesting (despite the few obvious front runners). 
 But trying to discuss many of these films with people (online or in person) has been nigh impossible because outside the few big films in the mix, most haven't been seen by anyone. Has anyone else noticed this? Do you feel (wherever you live) that you've been offered the chance to see many of the raved about films?
@@ -2719,37 +2808,41 @@
 I'm sure there's complex strategic and economic reasons behind these decisions. Or at least I really hope there is. But it is frustrating that an enormous part of our cultural discussion around film is restricted to a small handful of "blockbuster art", because only a select few elites (academics, film critics, or circuit pundits) ever get to see a bunch of the rest. I live in Edinburgh Scotland currently. A pretty notable city, with a major world-class University, enormous international tourism &amp; student body, and a huge arts scene. But most of these films haven't even had Edinburgh releases yet. It's just bizarre (or if they did, it's like... 2 and they're instantly booked out).</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>2024-01-15 10:52:50</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>How does one distinguish between good acting and bad acting?</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>I have been watching films since I was a kid, and though I have no problem in distinguishing good films from bad ones, I've always had a tough time concluding which actor is acting good and which one's not.
-So please enlighten me with what are the nuances one needs to keep in mind while watching an act and how to draw a line between a good acting and a bad one.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2024-04-15 22:11:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>What's the best depiction of God you've seen in a film?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">While religion/spirituality is prevalent throughout film history, there seems to be little in the way of overt depictions of God.  I think the typical way of expressing such an idea is through personification and cartoon, often both at the same time, typically with a veil of irony.  For instance, we've all seen in film a man who is at first plainly average but later revealed to be God.  This seems to be a byproduct of the zeitgeist that's been permeating throughout the world and gaining a firm footing around the same time as the invention of film itself, that being...the idea that perhaps God is a creation of man and nothing more.  He simply doesn't exist, so to depict God as literally 'just some guy' seems fitting and obvious and comes into being without any effort.  
+So I'd further the question by asking...where's a notable depiction of God in film that isn't 'just some guy'?  
+After all, and as an aside, it's the Enferno that is most relatable and popular rather than the Paradiso, because depictions of suffering are much more fitting with reality than any utopia or eternal bliss.  A world consisting of eternal bliss has no stories of overcoming, has no mountains to climb, nor Cyclops to flee from, and no problems to solve.  A world devoid of suffering isn't much of any world at all, at least to tell a relatable story about.  
+I'm looking for an overt an obvious depiction rather than an inferred feeling. Malick and Bergman come to mind, but examples don't other than a general feeling about their movies and the ethics of the characters that imply spirituality, particularly with Bergman who inferred God conceptually through things like love, brilliantly and beautifully.  
+And it could be a demiurgic God, so long as it's a depiction of what is the undeniable Creator. It could be a river, or clouds, or music, or tablecloth, or void, you name it.  The possibilities are endless, and it seems to me that the creative possibilities of this are mostly untapped, which is understandable given the era we live in paired with the daunting nature of such a task.  
+Please be respectful to eachother, I know how this topic can mutate.  </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-12-09 03:48:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">Environmentalists should watch Princess Mononoke </t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">**Princess Mononoke (1997)** is one of the few films that does justice to humanity’s struggle to coexist with nature. Most environmental films, especially documentaries, ( Ex: *food inc*, *Blackfish*) tend to set up a familiar conflict: a small, environmentally conscious figure standing against a powerful, polluting corporation. Other environmentally conscious films, such as National Geographic nature documentaries or *Planet Earth*, succeed only in installing a sense of hopelessness about the environment with their disheartening predictions that are usually phrased “the rare and beautiful spotted frog has had over 90% of its habitat destroyed by development and without your donation of $20.00 it will go extinct”.  *Princess Mononoke*, on the other hand, captures the complex, nuanced relationship that humans have with nature.
 The story follows Prince Ashitaka, who comes from a small village deep in the wilderness, seemingly untouched by the outside world. His peaceful life is disrupted when a diseased Boar God attacks and curses him with a mortal wound. This curse forces him to leave his village in search of answers and a cure for his mysterious affliction.
@@ -2762,19 +2855,19 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>2024-11-12 06:25:45</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>For almost 2 years my friends and I have had a weekly movie night where on rotation we each choose a film or everyone to watch. The only rule is that most people there can't have seen the movie before.</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>We are coming up on the 2 year anniversary of this weekly movie night commencing. There are 8 of us in the group and it's been a really great weekly ritual. We've all been exposed to some amazing (and some not so amazing) new films. Even the less loved ones have been interesting and worthwhile in their own way and have given us lots to talk about. It's consistently a highlight of my week.
 We finally compiled all the films into a list (in no particular order) and it's a pretty diverse and wide ranging encapsulation of our tastes. They range from beloved classics to really bizarre esoteric choices. The most loved and most disliked ones by the group have been quite surprising.
@@ -2782,58 +2875,37 @@
 [https://boxd.it/pgH8q](https://boxd.it/pgH8q)</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>2024-09-18 00:20:58</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>What movies should I watch to get into less accessible movies?</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">What should I watch to get into less accessible films?
 I want to watch things like The holy mountain (1973). Or Tarkovsky films or bergmans more complicated films. Is it simply just watching more movies to get used to them or are there certain movies I could watch to prepare me for less accessible films. Satantango is another one I want to watch. Jean dielman (1975). Persona (1966). </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>2024-05-03 11:48:35</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>"Rosemary's Baby" (1968) - the way pregnancy steals a woman's personhood</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>*Rosemary's Baby* asks provocative questions about pregnancy that you don't really expect from an American movie in the 60s. In it, Rosemary Woodhouse is newly married to Guy, and their new neighbors -- a very stereotypical upper west side older couple, who also happen to be Satanists --convince Guy to have Rosemary be impregnated by Satan without her knowledge. Rosemary is thrilled by the pregnancy until she starts realizing how strange they all act about her baby.
-That's a compelling concept on it's own. But if you take out the supernatural elements, you're still left with the terrifying ordeal of a non-Satanic pregnancy. People commandeering your body, offering you 'pregnancy smoothies' and health advice you didn't ask for, the way your long-time doctor suddenly doesn't trust you because now he's also responsible for the anonymous being growing inside you, and the growing divide between the pregnant woman and her her partner. Throughout the movie, people presume to know what's best about Rosemary as if she is a child herself and the only reason she (and the audience) don't know this is due to the Satanic neighbors is because *this is just how we treat pregnant women* (or at least back then.)
-Rosemary isn't even really the title character - her baby is, and he's never on-screen. It's not as if Rosemary is shown to be a career woman who has to give up her interests or career for the infant; she instead loses her very personhood. I don't want to list examples of this because the movie isn't very subtle, and I'd suggest you just watch it to experience this. 
-I'm fairly confident in this analysis because the movie is an extremely faithful adaptation of Ira Levin's book (it's *fascinating* how closely Polanski adapted it, in fact - you can read the book side-by-side with the movie like a script), and Levin famously wrote quite a few novels with similar themes in the 60s and 70s.
-&amp;#x200B;</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2024-01-09 10:28:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>High and Low (1963) - Japan's post-war class struggles in film</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>This might be the best Japanese film from all I've watched! I still have to watch *Throne of Blood* but *High and Low* is better than *Seven Samurai*. However, I need to revisit Mizoguchi's *The Crucified Lovers* and Naruse's late romances.
 It's a return from Kurosawa to his early police/detective films and a depart from the Samurai stuff he was doing in the 1960s. Philosophically is above all other Kurosawa films I've seen.
@@ -2846,38 +2918,62 @@
 P.S.: As always I've compiled my thoughts visually in a [video](https://www.youtube.com/watch?v=FUuaTtQaaLc) on my YT channel - if you don't mind the shameless advertising.</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>2024-04-02 10:29:30</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Joker: Folie a Deux - Todd phillips falls for the self-awareness trap</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>The allure of fantasy. The jungian shadow only works in the presence of a personality. It already gave off a warning sign in the form of an obnoxious meta-narration that turns the film into a clumsy, dispassionate novel. The creativity starts and ends with the classic animation intro. Todd phillips, out of ideas, points the finger at the original's discourse and the media sensationalism in a self-aware swing for the fences but is nowhere competent or imaginative in dealing with heady themes.
-Every scene is an excuse to launch into a musical number to represent a pedestrian-level depth of reality and fantasy. All the negative reviews of the original become true - it's all just lip-service to concepts while having the depth of a swimming pool. This is made worse of the overly self-conscious perspective of the film - arthur fleck becomes aware of what we, as the audience want to see - the real joker and its no surprise that it kills itself in the end where it has nowhere to go and the biggest disrespect of all - The great heath ledger's joker was just an admirer of arthur fleck, a fanboy who got mad that his idol wasn't what he had imagined.
-Arthur fleck, as the film itself, breaks down and admits it doesn't live up to everyone's perfect image of the Joker.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2024-10-02 13:56:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>"Rosemary's Baby" (1968) - the way pregnancy steals a woman's personhood</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>*Rosemary's Baby* asks provocative questions about pregnancy that you don't really expect from an American movie in the 60s. In it, Rosemary Woodhouse is newly married to Guy, and their new neighbors -- a very stereotypical upper west side older couple, who also happen to be Satanists --convince Guy to have Rosemary be impregnated by Satan without her knowledge. Rosemary is thrilled by the pregnancy until she starts realizing how strange they all act about her baby.
+That's a compelling concept on it's own. But if you take out the supernatural elements, you're still left with the terrifying ordeal of a non-Satanic pregnancy. People commandeering your body, offering you 'pregnancy smoothies' and health advice you didn't ask for, the way your long-time doctor suddenly doesn't trust you because now he's also responsible for the anonymous being growing inside you, and the growing divide between the pregnant woman and her her partner. Throughout the movie, people presume to know what's best about Rosemary as if she is a child herself and the only reason she (and the audience) don't know this is due to the Satanic neighbors is because *this is just how we treat pregnant women* (or at least back then.)
+Rosemary isn't even really the title character - her baby is, and he's never on-screen. It's not as if Rosemary is shown to be a career woman who has to give up her interests or career for the infant; she instead loses her very personhood. I don't want to list examples of this because the movie isn't very subtle, and I'd suggest you just watch it to experience this. 
+I'm fairly confident in this analysis because the movie is an extremely faithful adaptation of Ira Levin's book (it's *fascinating* how closely Polanski adapted it, in fact - you can read the book side-by-side with the movie like a script), and Levin famously wrote quite a few novels with similar themes in the 60s and 70s.
+&amp;#x200B;</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2024-01-09 10:28:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>For those that have seen Perfect Days (2023) - seeking views on the final scene (spoilers in post)..</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Watched Perfect Days (new film by Wim Wenders) yesterday and i loved its simplicity, the softness and still the hint of darkness and sadness
+The last scene initially confused me, i wasnt sure if he was forcing the happiness but the sadness kept slipping through or something else.
+I saw a write up, that referenced the fact at the end, the mix of pain and smiles was a reflection that its been a tough journey to create his simple life, and its been a hard won but worthwhile journey.  That really spoke to me in the way the movie is presented, and how he has found his peace....
+It touched me, as i can relate to that searching....and hope....
+anyway, just sharing to see what others made of it
+thank you    ...</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2024-02-25 09:41:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>Once Upon A Time in Hollywood is such a strange and interesting little film…</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>So it’s been some time and finally had a chance to revisit this film after all the dust settled.
 The film sticks out in so many interesting and different ways now.
@@ -2895,19 +2991,38 @@
 Looking at the film through this lens to me at least served as a reasoning behind every odd idiosyncratic choice we see in it. Its wishfullment, a fairy tale.</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>2024-02-08 23:30:37</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Joker: Folie a Deux - Todd phillips falls for the self-awareness trap</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>The allure of fantasy. The jungian shadow only works in the presence of a personality. It already gave off a warning sign in the form of an obnoxious meta-narration that turns the film into a clumsy, dispassionate novel. The creativity starts and ends with the classic animation intro. Todd phillips, out of ideas, points the finger at the original's discourse and the media sensationalism in a self-aware swing for the fences but is nowhere competent or imaginative in dealing with heady themes.
+Every scene is an excuse to launch into a musical number to represent a pedestrian-level depth of reality and fantasy. All the negative reviews of the original become true - it's all just lip-service to concepts while having the depth of a swimming pool. This is made worse of the overly self-conscious perspective of the film - arthur fleck becomes aware of what we, as the audience want to see - the real joker and its no surprise that it kills itself in the end where it has nowhere to go and the biggest disrespect of all - The great heath ledger's joker was just an admirer of arthur fleck, a fanboy who got mad that his idol wasn't what he had imagined.
+Arthur fleck, as the film itself, breaks down and admits it doesn't live up to everyone's perfect image of the Joker.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2024-10-02 13:56:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>The Deliverance (2024)</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>What in the grindhouse, tedious, just out of college indie, Walmart version of The Amityville Horror, poorly edited film did I just watch? How do you get the Dollar Tree version of The Exorcist? Get Lee Daniels to direct, apparently. When a film has a cast list that includes Glenn Close and Mo’Nique, you go in expecting good acting. The work of the adult actors in this piece is let down by the director, the script, and the editor.
 Our lead, Ebony Jackson. For starters that’s a character name you’d expect from a junior in high school doing a creative writing exercise. Ebony is a very angry person. They absolutely want to hit the viewer over the head with how angry she constantly is. She will snap at any moment, but we’re also expected to believe this person wants to be the head of a loving family and wants to keep her kids. Ok. How can she afford to rent this big house doing hair part time? So they’re admittedly broke, but can throw parties, Ebony can go out drinking, she pays for her mother’s chemotherapy out of pocket in America… did the writer not sit down with a calculator? The father is fighting in Iraq, pays child support (?), and he has hundreds of extra dollars each month to send to the eldest son to eventually escape from his mother?
@@ -2922,19 +3037,19 @@
 I would love to hear your views on this film.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>2024-09-02 08:15:05</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>Saw 2001 : A Space Odyssey in a Theatre and it finally clicked for me.</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>I first watched 2001 : A Space Odyssey in 2019 and when I first watched it, I really wasn't a fan. I had come in expecting this big epic space fantasy movie with a lot of action and drama. I had seen Hal's death scene before when I was younger and enjoyed that. It made me excited for the movie even though it ended up failing to meet my expecations. I was 23. I didn't really have a large knowledge of classic film outside of blockbusters at the time. And this was so much unlike them.
 When I revisited the movie in 2022, when I was 26, I did so with a better understanding of how to not come into a movie with expectations of what it should be and just trying to understand and enjoy it for what it is was. And I understood it a little more. Especially because I was watching in 4k on an OLED TV. Visually it was stunning, very hypnotic and with some shots with a very epic scope in feeling.
@@ -2946,41 +3061,19 @@
 It's just crazy how much watching a movie in a different environment can change it for you. It's why I always try to see classics in theatres when I can.</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>2024-05-13 07:23:44</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>For those that have seen Perfect Days (2023) - seeking views on the final scene (spoilers in post)..</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Watched Perfect Days (new film by Wim Wenders) yesterday and i loved its simplicity, the softness and still the hint of darkness and sadness
-The last scene initially confused me, i wasnt sure if he was forcing the happiness but the sadness kept slipping through or something else.
-I saw a write up, that referenced the fact at the end, the mix of pain and smiles was a reflection that its been a tough journey to create his simple life, and its been a hard won but worthwhile journey.  That really spoke to me in the way the movie is presented, and how he has found his peace....
-It touched me, as i can relate to that searching....and hope....
-anyway, just sharing to see what others made of it
-thank you    ...</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2024-02-25 09:41:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">As a Black Writer, I Really Wish I Liked 'American Fiction' More Than I Do </t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t xml:space="preserve">For starters, I get what Cord Jefferson was going for here. In a story about a Black writer protesting against stereotypical depictions of Black folk, he has an almost separate universal story about family involving a Black family. It's not a bad idea at all and I think it's a very clever subversion. The problem is neither the satire nor the family drama feel particularly fleshed out. The scenes with the family and his girlfriend are fine but I feel like they're getting held back by an overall premise that doesn't serve them. Get more into the gay brother and his journey and how he navigates things. Explore the romance more and give us some more insight into the love interest and where she's coming from. What kind of Black folk is Monk's family? They strike me as the Jack n Jill type and you could do a lot with that. The film does occasionally breach deeper waters but then the other 30 to 40 percent of the film is spent on the satire which brings me to my biggest problem. 
 This should've just been a period piece because the criticisms the film is bringing up aren't as relevant as they were. Hood films haven't been made en masse since the late 90's and the book this is based on came out in 2001. The type of book he's parodying, think the novel Push, ain't really being published like that either. Had the film been set in the early 2000's or even the 90's, I think it would've worked better. The type of film and books the source material is based on hasn't really held the Black community in a chokehold in a while. If anything we make fun of them. If you're Black you've definitely seen those memes making fun of books/films like 'I Got Pregnant by My Gay Grandaddy's Boyfriend' or 'I Slept With a Down Low Gangbanger'. Now if you wanted to talk about Black media consumption habits you could mention how we complain we want more Sci-fi and fantasy and what not but those projects don't make money. The fifteen different versions of Power do. You could talk about how themes of Black liberation and independence are often tempered by studios with subtle conservative themes to keep white audiences comfortable. You could even make fun of the current stream of Black horror films that are trying so hard to be the next Get Out. The list goes on of *modern* Black media tropes you could lampoon and pick apart. This is like someone making Not Another Teen Movie but in 2023. It's just not relevant anymore. 
@@ -2988,19 +3081,19 @@
 The cast assembled is great. Jeffrey Wright in particular is great and it's lovely to see him in a lead role. The jokes really work when they do work. I enjoyed the concept behind it but the execution is sorely lacking. I think the source material held it back because you really could've done an original script with this concept and not really lost much. I don't think the family drama worked in regards to getting the message across. Either chuck it or blend it in better. Maybe have his family mirror characters from his book or Black literature in general. As is, this could've been two entirely separate movies. Overall, I didn't have a bad time but I very much was underwhelmed. 5/10. I hope his next movie is more cohesive. </t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>2024-03-07 02:04:08</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>Children of Men</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t xml:space="preserve">I saw the film yesterday after more than fifteen years and it deeply deeply touched me on this viewing. There’s a lot discussed already about the the technical aspects of the cinematography - the tones, the palette, complex long single shots and basically how Alfonso Cuarón and Emmanuel Lubezki pull you in and never let you ease. 
 What blew me away on this viewing were three aspects: 
@@ -3010,19 +3103,19 @@
 Bravo! Definitely pushed me to watch Cuarón’s entire filmography again now </t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>2024-08-08 05:59:09</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>A dirge for the slow death of media literacy</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>I admit to a fair amount of my hyperbole in my title, but with each year that passes I can't help but recognize the slow march we make with media literacy, taking stories and art and pushing it ever closer to the same, formless gray gloop -- a cinematic form of Soylent Green. Or maybe it's better to liken it to "the stuff" in Larry Cohen's 1985 film of the same name.
 Someone reignites the debate about the veracity of sex scenes every other week, arguing that film should be a "never-nude" medium, cleansed of the slightest kiss, touch, or caress. To these folks, the Hays Code should never have gone away, and we should have remained in the nostalgia-smeared plasticity of Old Hollywood. Themes are increasingly spoon-fed to us through buzzword-laden monologues and voiceovers, and when there is even the slightest bit of tonal nuance (i.e. *May December*) people raise armies and lob pot-shots via quote tweets, criticizing the film for daring to exist in a liminal moral space, to ask of its audience nothing more than a little thought and some honest engagement.
@@ -3041,19 +3134,19 @@
 The dirge for Media Literacy is slow. She is wasting away. Sometimes I slide ice chips across her lips and keep hope that we will breathe new life into her lungs. But the wrinkles are clear, and all I can hear are people arguing that Todd Haynes shouldn't have made *May December* funny when the subject matter was so serious.</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>2024-01-08 00:32:54</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>I think some people misinterpret the meaning of Eternal Sunshine of the Spotless Mind (2004)</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>I think it's a great movie, and of course, art is subjective in general. But it's not entirely the case here. I've seen many people talking about some time loop, that Clem and Joel are going to repeat the cycle, erase each other all over again, etc.
 And I don't understand where this thing with cycle and time loop is coming from. I mean, I watched the movie, and there's this very particular storyline where Mary (Kirsten Dunst), who is at the beginning of the movie is charmed by the idea of erasing memory. But then we find out that she's in love with her boss, Dr. Mierzwiak. And pretty fast she finds out the truth that they've already had an affair and that she agreed to erase her memory.
@@ -3078,19 +3171,19 @@
 I still prefer the script that ended up in the movie though.</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>2024-07-08 18:53:28</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">Just Saw the Film “The Substance” &amp; Discussions on the Impact of the Theater Experience </t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">So I just saw “The Substance” tonight on a whim, never watched a trailer for it or read anything about it. I just read that it was a sci-fi horror flick and was down to see it whether good or bad. I bought tickets only to find out it was almost completely sold out so I settled in in the second row from the screen not knowing what to expect.
 I have to say, hands down this was one of the best theater going experiences I’ve ever had watching a film. This film is so insane, especially going in blind. There were collective gasps at the horror and belly laughs at the absurdity which turned back into to gasps of horror. And I don’t mean that in a bad way. The film is great, when the end finally came about I turned to the guy next to me while still slightly laughing/grinning but also still shocked and asked “wtf did we just watch” and he was like “I know”. 
@@ -3098,19 +3191,19 @@
 Also opening up discussions for those that have seen “The Substance”, I think it’s a true masterpiece of its genre. </t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>2024-09-19 08:09:56</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>Other films like 'Perfect Days'?</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Found the Wim Wenders film pretty interesting . Maybe it's a little slow at times but it's one that kind of stays in my mind even days after seeing it. 
  Perhaps the relatability of having routines that maybe give you some escape in life and being in your own little world with little things that change over time. 
@@ -3118,37 +3211,37 @@
 Thanks</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>2024-02-29 03:22:09</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">Do you believe A24 is a major contributor to independent film, equivalent to Miramax in the 90s? </t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve">I ask this question, because I believe a major part of film culture that's missing is an independent film scene. Which in the context of this streaming era, I don't know if there are any emerging group of films or filmmakers, that are emerging as a counter to mainstream film with the same impact of past decades. A lot of the Netflix exclusives, that get a huge marketing push are from established directors. There aren't filmmakers that have been discovered through these streaming services, or at least I don't know about, or have created a wider independent film culture. Which made me think about A24. I think A24 has done the best with giving newly discovered talent, a marketing budget to get their films some name recognition, within a cohort of film enthusiats and at times real mainstream success. However, I can't be certain that cinephiles who love A24 films is equivalent to an independent film scene or moment. It all could be the same love for a brand in the vein of "Disney Adults", I'm just not sure. This analysis brought me to my memories of Miramax and their contributions to emerging independent filmmakers in the 90s, the same way A24 is doing right now. Yet, there are degrees to which the comparison might fall flat, due to impact of 90s independent film. I just want to explore this comparison a little deeper. 
 </t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>2024-08-05 13:11:35</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">Watching the Seven Samurai 4K Restoration in a packed cinema was one of the most magical experiences of my life.  </t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve">Laughing, crying and gripping our armrests together - unforgettable. It's the progenitor of multiple genres – the medieval epic, the 'band of brothers' trope, the heist narrative – yet it remains unsurpassed, just as rousing, thrilling, and deeply felt as ever. 
 This is largely due to the screenplay, where each new detail expands the emotional landscape and propels the narrative forward. Every action has a consequence, every life crossed off the battle plan felt deeply. 
@@ -3159,19 +3252,19 @@
 Has anyone else seen the 4K Restoration? Do you feel it remains as crowdpleasing today, and what makes it such an enduring classic? </t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>2024-10-06 21:50:43</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>As much as 'Uncut Gems' is known for being stressful, I also find it uniquely hilarious</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>A big part of the Safdie's style is their overlapping dialogue and real-sounding environments that don't feel excessively scripted or "movie-y", for lack of a better term. I think it gives their locations a real sense of feeling lived in and actualized, and also makes the experience of watching it stressful when the tension starts to rise.
 However, there's another angle to their realism which is something I feel has really grown on me on repeat viewing. I've seen it four times now, most recently at the IMAX re-release, and I find the more times I watch it, the funnier it gets. Not constantly, but enough that it had me laughing out loud a number of times.
@@ -3181,19 +3274,19 @@
 There's also other moments like the infamous "holy shit I'm gonna cum", or him seeing the gray-haired guy outside on the camera and yelling "OH THIS FFFUCKIN GUY", which are more traditionally funny just because of how absurd they are, but I just absolutely love the way the Safdie's can blend tension, drama, humor, sleaze and character development into such a unique experience.</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>2024-11-19 22:02:35</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>In his documentary, Brian DePalma says that he uses a lot of Hitchockian visuals because Hitchcock invented a visual language and nobody took advantage of it. What other directors do you think have a specific visual language that could be reused?</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>My answer to this is Sam Raimi.
 Every time I see a Sam Raimi film, I am blown away by the sheer creativity of his transitions, his angles, his zooms and the just the sheer commitment of making a film that, in every shot, seems to ask "How can I make a scene people have seen before look more interesting?" I still think about that shot of Ash waking up in the puddle and the camera does that insane pull out with all the spins. I don't know how they did it, I almost don't want to know, it was magic.
@@ -3202,19 +3295,19 @@
 So, what filmmaker do you think made tools that would be worth using by other filmmakers?</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>2024-06-01 08:04:34</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>The Baffling Discourse around "Poor Things"</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>I've been away from film circles for a while, but after finally getting around to *Poor Things* last night (gotta be there for Yorgos), I decided to check out some of the discussion going around online about the film. Generally the kind of stuff I agree with or can see the perspective on, but one thing that I found sort of odd was the frequency of feminist criticism that boils down to "The film presents feminist ideas but doesn't go further with them and doesn't show Bella doing any meaningful societal changes to improve the lives of other women".
 This type of criticism has a point and speaks to some broader issues regarding feminism in American cinema (Yorgos is greek, yes, but his films are funded by Americans), but this criticism baffles me in the sense that it implies that every story that involves feminism should always be totally about dismounting the patriarchy and making sweeping societal changes.
@@ -3226,41 +3319,19 @@
 EDIT: It has been pointed out to me that Yorgos' films aren't made with a ton of American funding, so let's just say "western cinema that's a shade above being the much more obscure indie stuff". I felt compelled to say "mainstream western cinema", but I can't bring myself to call *Poor Things* mainstream. It's got a bunch of famous actors in it, it's Oscar Nominated, it made a decent amount of money, but calling it mainstream seems odd.</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>2024-02-24 09:06:08</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>What's the best depiction of God you've seen in a film?</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">While religion/spirituality is prevalent throughout film history, there seems to be little in the way of overt depictions of God.  I think the typical way of expressing such an idea is through personification and cartoon, often both at the same time, typically with a veil of irony.  For instance, we've all seen in film a man who is at first plainly average but later revealed to be God.  This seems to be a byproduct of the zeitgeist that's been permeating throughout the world and gaining a firm footing around the same time as the invention of film itself, that being...the idea that perhaps God is a creation of man and nothing more.  He simply doesn't exist, so to depict God as literally 'just some guy' seems fitting and obvious and comes into being without any effort.  
-So I'd further the question by asking...where's a notable depiction of God in film that isn't 'just some guy'?  
-After all, and as an aside, it's the Enferno that is most relatable and popular rather than the Paradiso, because depictions of suffering are much more fitting with reality than any utopia or eternal bliss.  A world consisting of eternal bliss has no stories of overcoming, has no mountains to climb, nor Cyclops to flee from, and no problems to solve.  A world devoid of suffering isn't much of any world at all, at least to tell a relatable story about.  
-I'm looking for an overt an obvious depiction rather than an inferred feeling. Malick and Bergman come to mind, but examples don't other than a general feeling about their movies and the ethics of the characters that imply spirituality, particularly with Bergman who inferred God conceptually through things like love, brilliantly and beautifully.  
-And it could be a demiurgic God, so long as it's a depiction of what is the undeniable Creator. It could be a river, or clouds, or music, or tablecloth, or void, you name it.  The possibilities are endless, and it seems to me that the creative possibilities of this are mostly untapped, which is understandable given the era we live in paired with the daunting nature of such a task.  
-Please be respectful to eachother, I know how this topic can mutate.  </t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2024-12-09 03:48:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>What movies feature loneliness and social isolation in elderly people?</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>I need to create a video for a university project about loneliness and social isolation among people older than ca. 65 years. I would like to feature some popular and famous movie scenes in my video. Some of my choices for this would be...
 * Up (2009)
@@ -3271,41 +3342,41 @@
 **Can you give me more ideas?** (The deadline to hand in a first brainstorm is in 3,5hrs 🥲)</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>2024-05-02 18:23:09</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Women Directors who often struggle to get a second film to direct, even if their first movie was critically acclaimed.</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Years ago, I read a Premiere Issue focusing on Women directors and how much of a struggle it was for them to make another movie after their first movie, and they pointed out a number of female directors who've either never done another movie after their first one or crossed over into TV where they have more opportunities.
-I think of Darnell Martin (I Like It Like That), the first African-American woman to release a studio picture. It got good reviews. Never directed another movie. 
-Nicole Kassell's "The Woodsman" got a ton of praise but she hasn't directed another feature film (that I know of). 
-Other female directors will get a second or third change and then will disappear from the scene. Kimberly Peirce did "Boys Don't Cry" and "Stop Loss" but after the "Carrie" remake, kaputt. 
-Jocelyn Moorhouse had great difficulty in getting any of her projects green-lit after "A Thousand Acres" tanked. It took her almost two decades to release "The Dressmaker". 
-Jodie Foster also never got to direct her dream project, "Flora Plum" with Claire Danes, though she did direct two movies after "Home for the Holidays": "The Beaver" and "Money Monster".</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2024-10-16 18:23:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>I struggled with May December after learning more about the true story</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>I want to preface this post by saying that I thought May December was a nuanced, excellently acted, and engaging drama. The characters were fascinating: Joe (Melton) confused and forced as an adult to reevaluate the not-a-victim narrative he's clinging to, Gracie (Moore) choosing self-delusion to justify her actions, and Elizabeth (Portman) crossing boundaries while taking on the persona of a reviled character.
+The movie was a huge critical hit and landed on hundreds of critic top 10 lists. The script is winning awards for original screenplay and Melton's performance in particular is receiving massive praise. I noticed that a lot of critics point specifically to one part of the performance, which is the way in which Melton carries a very subtle slouch and immaturity in his posture, and a certain pleading childishness in the way he talks. The point is that because Joe's relationship began with Gracie when he was still a middle schooler, he never grew up and she had essentially infantilized him.
+You may or may not know that the movie is "inspired" by the true story of Mary Kay Letourneau. I heard about this and looked it up, and found this interview with Mary Kay Letourneau ("Gracie") and her husband Vili Fualaau ("Joe"). [https://www.youtube.com/watch?v=7mowKsGWuW4](https://www.youtube.com/watch?v=7mowKsGWuW4) I was surprised to see how closely the film followed the story. The themes of the film and some of the key moments are ripped almost line for line from the interview. The memorable "who was the boss?" line from the film is in the interview (at the 10 minute mark) and Julianne Moore clearly modelled everything including her lisp on Mary Kay Letourneau. At the same time, there is something clearly \*not\* in the interview. Vili has none of the childishness that Melton shows in his performance. In fact, he presents as I see it as a hardened man, aged and overly matured by his experiences.
+It is easier to digest a movie on its own terms when it is an invention of the writer's imagination, but there is something more complicated when it is based on a true story. On the one hand, there is now a greater responsibility to be truthful. And on the other hand, you want to add some originality (otherwise you'd just make a documentary). After watching the interview, I questioned the movie on both counts. On the one hand, could we really praise this as an amazing original screenplay when some of its most memorable moments are taken word for word from an interview? Then on the other hand, I felt uneasy about the fact that so many people are leaving this film with a new insight that child sexual abuse infantilizes its victims and prevents them from growing up. That might be true in some cases, but I don't think that was the case with Vili Fualaau - if anything, to my eyes, the opposite was the case. So it feels wrong to make a movie so heavily based on this event with a message that is not in the real story.
+Again, I liked the movie, but I am not sure how to feel about it anymore. How do you approach films like this that borrow so heavily from true stories? I'm curious to hear what you all think.
+Note that I later realized the above video is heavily and arguably misleadingly edited and here is the full unedited interview [https://www.youtube.com/watch?v=RezOEn0daNU](https://www.youtube.com/watch?v=RezOEn0daNU) The point of the post remains the same though.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2024-01-10 03:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t xml:space="preserve">In the Mood for Love (2000) Ending Passage Mistranslation </t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>The movie ends with a passage of Chinese, describing of the longing of the couple not meant to be. The English translation misses a decent amount of that heartache, which I didn’t realize until I read the original.
 The movie translation is:
@@ -3336,19 +3407,41 @@
 Hope someone finds this interesting!</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>2024-05-28 22:34:52</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Women Directors who often struggle to get a second film to direct, even if their first movie was critically acclaimed.</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Years ago, I read a Premiere Issue focusing on Women directors and how much of a struggle it was for them to make another movie after their first movie, and they pointed out a number of female directors who've either never done another movie after their first one or crossed over into TV where they have more opportunities.
+I think of Darnell Martin (I Like It Like That), the first African-American woman to release a studio picture. It got good reviews. Never directed another movie. 
+Nicole Kassell's "The Woodsman" got a ton of praise but she hasn't directed another feature film (that I know of). 
+Other female directors will get a second or third change and then will disappear from the scene. Kimberly Peirce did "Boys Don't Cry" and "Stop Loss" but after the "Carrie" remake, kaputt. 
+Jocelyn Moorhouse had great difficulty in getting any of her projects green-lit after "A Thousand Acres" tanked. It took her almost two decades to release "The Dressmaker". 
+Jodie Foster also never got to direct her dream project, "Flora Plum" with Claire Danes, though she did direct two movies after "Home for the Holidays": "The Beaver" and "Money Monster".</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>Looking at "Lost Highway" as a loose OJ Simpson biopic</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Recently saw David Lynch's fantastic movie Lost Highway. Absolutely fantastic film and instantly my favorite from Lynch. But going into the movie I knew nothing about it outside of Lynch stating that the film was partially inspired by OJ Simpson, and how he could live with that psychologically. So I went into the film sort of expecting a movie about a wife killer who can't deal with what he'd done and it worked wonderfully in this regard. There are many moments of the film I think can be interpreted as a jealous husband mentally justifying killing his wife.
 Assuming Pete is Fred's fantasy character, I noticed a number of elements in the film that line up with this. When Pete's girlfriend catches him cheating, she starts hitting *him* while he just takes it on the chin as if *he's* the victim. Great moment of delusion, I doubt it was intentional but I do remember OJ had a history of abuse. The multiple scenes in the dream world where she cheats on him, further "justification" for the act.
@@ -3356,19 +3449,19 @@
 Thoughts on this film though? What'd you get out of it?</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>2024-04-18 16:37:18</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>On what level is Poor Things operating as a satire? Or: my take on Poor Things, which I really did not like—and I'm trying to figure out if I'm missing something or just disagree with the film. Can someone help me understand?</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>To preface, I thought Poor Films had great performances (my favorite Emma Stone performance to date) and absolutely fantastic production design. It looked fantastic. Also, my issue is not with the sexual content—if anything, I think Poor Things had a pretty shallow investigation into sex compared to what I was expecting after all of the buzz. Actually, when I first saw Poor Things, I kind of liked it, because I thought it was potentially a pretty vigorous satire of the naive bourgeoisie playing pretend at transcendentalist before returning unchanged to the safe confines of her life.
 But as time has gone on since seeing this movie, I keep seeing review after review taking it completely earnestly, and I've started to wonder: am I missing something, or do I just not like it after all? If Bella's story is not satirical, I really dislike the messaging.
@@ -3382,19 +3475,19 @@
 And yet, it seems like everyone I talk to and every review I read stops at the first part—that this is a movie about joy and discovery and rebellion. I *liked* it as a satire, critical of Bella's character. But is the film being earnest, and do I just not like what it's saying? Am I missing something here, am I misunderstanding what other people are saying (and it really is this dark), or do I just not like it?</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>2024-05-02 15:18:16</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>The Thing's ending interpretation: It doesn't matter who is who</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Look, I know that even Carpenter doesn't know if Childs/MacReady is the Thing, and he intentionally prefers to keep the ending open. However, I have a small interpretation of my own based on everything we hear and see in the movie.  
 I think the final scenes of the movie aren't about who is the Thing, and who isn't. In the same way Inception's ending is not about the question if Cobb made it to the real world or not. Although in 2018 Michael Kaine confirmed that all the scenes he's in are in the real world.
@@ -3415,41 +3508,19 @@
 At the end of the movie, the Thing is back to square one. If McReady doesn't have a flamethrower under his ass, once the fire will die out, they both will be frozen, including the Thing. And it means the conflict hasn't ended. It's literally frozen, and the Thing will be able to try again in the future.</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>2024-09-22 21:36:41</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>I struggled with May December after learning more about the true story</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>I want to preface this post by saying that I thought May December was a nuanced, excellently acted, and engaging drama. The characters were fascinating: Joe (Melton) confused and forced as an adult to reevaluate the not-a-victim narrative he's clinging to, Gracie (Moore) choosing self-delusion to justify her actions, and Elizabeth (Portman) crossing boundaries while taking on the persona of a reviled character.
-The movie was a huge critical hit and landed on hundreds of critic top 10 lists. The script is winning awards for original screenplay and Melton's performance in particular is receiving massive praise. I noticed that a lot of critics point specifically to one part of the performance, which is the way in which Melton carries a very subtle slouch and immaturity in his posture, and a certain pleading childishness in the way he talks. The point is that because Joe's relationship began with Gracie when he was still a middle schooler, he never grew up and she had essentially infantilized him.
-You may or may not know that the movie is "inspired" by the true story of Mary Kay Letourneau. I heard about this and looked it up, and found this interview with Mary Kay Letourneau ("Gracie") and her husband Vili Fualaau ("Joe"). [https://www.youtube.com/watch?v=7mowKsGWuW4](https://www.youtube.com/watch?v=7mowKsGWuW4) I was surprised to see how closely the film followed the story. The themes of the film and some of the key moments are ripped almost line for line from the interview. The memorable "who was the boss?" line from the film is in the interview (at the 10 minute mark) and Julianne Moore clearly modelled everything including her lisp on Mary Kay Letourneau. At the same time, there is something clearly \*not\* in the interview. Vili has none of the childishness that Melton shows in his performance. In fact, he presents as I see it as a hardened man, aged and overly matured by his experiences.
-It is easier to digest a movie on its own terms when it is an invention of the writer's imagination, but there is something more complicated when it is based on a true story. On the one hand, there is now a greater responsibility to be truthful. And on the other hand, you want to add some originality (otherwise you'd just make a documentary). After watching the interview, I questioned the movie on both counts. On the one hand, could we really praise this as an amazing original screenplay when some of its most memorable moments are taken word for word from an interview? Then on the other hand, I felt uneasy about the fact that so many people are leaving this film with a new insight that child sexual abuse infantilizes its victims and prevents them from growing up. That might be true in some cases, but I don't think that was the case with Vili Fualaau - if anything, to my eyes, the opposite was the case. So it feels wrong to make a movie so heavily based on this event with a message that is not in the real story.
-Again, I liked the movie, but I am not sure how to feel about it anymore. How do you approach films like this that borrow so heavily from true stories? I'm curious to hear what you all think.
-Note that I later realized the above video is heavily and arguably misleadingly edited and here is the full unedited interview [https://www.youtube.com/watch?v=RezOEn0daNU](https://www.youtube.com/watch?v=RezOEn0daNU) The point of the post remains the same though.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2024-01-10 03:00:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>RIP Roger Corman</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">[RIP to a legend of the industry and my sixth most-watched director.](https://www.indiewire.com/news/obituary/roger-corman-dead-1234741395/)
 **RANKED**    
@@ -3490,40 +3561,19 @@
 </t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>2024-05-12 06:34:18</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>I just watched NOPE by jordan peele</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>The chapters were all horse names. As to why im not entirely sure, but they are a dwindling resource, a mean of survival and a legacy.
-Ive seen this film being said as being about animals, but i think its about humans as much as animals. Being about animals makes it easier to digest and relate to at times. Like how people prefer to love animals than humans. You can see that with how OJ has lived his whole life with animals, and is kind of cold and stoic. Not because he is a bad person but he has so much anxiety with people. This is portrayed really well at the hollywood studio where he was trying to remain calm as he was overwhelmed by so many people. And his horse was the one who snapped at the white folks around him kicking a womans bag startling her to tears. Because the horse wasnt being respected, given distance, consideration, etc. I saw a black man in pain who couldnt advocate for himself and his sister showed up, did a song and dance and made everyone feel comfortable for hopefully the promise of pay.
-I think its pretty easy to see how OJ is received by the people there its very disrespectful. The old actress comes onto set with a lot of fanfare and pandering. She is disappointed that Otis Junior introduces himself as OJ and her assistant asks for his father not knowing that he died. They act this way because OJ doesnt carry himself with a strong presence but more importantly he doesnt pander to the people there. His sister panders to everyone they are very much opposing forces because they have different responses to their situation and cope differently. **The family relationship between the siblings is so good!** I laughed out loud at every line between these two characters. They were so relatable when they were at home, in someones office, at a department store. They both wanted to be together but at the same time they had baggage and didnt want to really occupy the same space. Distance breeds resentment.
-There is alot of foreshadowing in this film, i think Jordan Peele knows that he is seen as a horror director, so this film is not expected to shock and jumpscare. So he allows us to just listen to audio playback of the live-action accident before the movie even started. We get to see the chimp, the blood, the spectacle. Because its not really about the spectacle i think its about everything that led to the violence. Also this foreshadowing works really well because we do get a jumpscare later in the film. We strangely also get foreshadowing from inside the ufo for some reason, i think its also about the audio mainly. We listen to something that sounds like wailing in agony to the ecstatic joy of being on a rollercoaster. Again i think this the violence of spectacle or the spectacle of violence, kind of the same thing an orchestration that we create ourselves whether with intention or ignorance, none the wiser.
-I think that all of the themes are already there in the first 15 minutes of the film. Its just the rest of the film that needs to be played out into quite honestly a fascinating portral of alien life. This film has so many great details that im sure i dont have the ability to make connections to. When Otis father died i cant say for certain if he was being hunted. But we did hear that uncomfortable silence, and he looked up and was shot down with money and debris. This is the same uncomfortable silence when Otis Junior was asked to give a safety meeting on set, he didnt look up once.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2024-10-25 18:17:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>Never Let me Go (2011), A masterpiece that everyone must watch</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>NB:spoiler in the 5th,6th and 7th paragraph
 Modern science fiction films tend to be big, brassy, noisy affairs, filled with bug-eyed aliens, intergalactic battle scenes, and sense-assaulting special effects. But "Never Let Me Go," based on a 2005 novel by Kazuo Ishiguro, is here to remind us of just how profound and thought-provoking the genre can be when played in a minor key.
@@ -3536,19 +3586,40 @@
 Filled with unforgettable performances, "Never Let Me Go" is, without a doubt, one of the finest films of the new century.</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>2024-03-31 22:34:03</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>I just watched NOPE by jordan peele</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>The chapters were all horse names. As to why im not entirely sure, but they are a dwindling resource, a mean of survival and a legacy.
+Ive seen this film being said as being about animals, but i think its about humans as much as animals. Being about animals makes it easier to digest and relate to at times. Like how people prefer to love animals than humans. You can see that with how OJ has lived his whole life with animals, and is kind of cold and stoic. Not because he is a bad person but he has so much anxiety with people. This is portrayed really well at the hollywood studio where he was trying to remain calm as he was overwhelmed by so many people. And his horse was the one who snapped at the white folks around him kicking a womans bag startling her to tears. Because the horse wasnt being respected, given distance, consideration, etc. I saw a black man in pain who couldnt advocate for himself and his sister showed up, did a song and dance and made everyone feel comfortable for hopefully the promise of pay.
+I think its pretty easy to see how OJ is received by the people there its very disrespectful. The old actress comes onto set with a lot of fanfare and pandering. She is disappointed that Otis Junior introduces himself as OJ and her assistant asks for his father not knowing that he died. They act this way because OJ doesnt carry himself with a strong presence but more importantly he doesnt pander to the people there. His sister panders to everyone they are very much opposing forces because they have different responses to their situation and cope differently. **The family relationship between the siblings is so good!** I laughed out loud at every line between these two characters. They were so relatable when they were at home, in someones office, at a department store. They both wanted to be together but at the same time they had baggage and didnt want to really occupy the same space. Distance breeds resentment.
+There is alot of foreshadowing in this film, i think Jordan Peele knows that he is seen as a horror director, so this film is not expected to shock and jumpscare. So he allows us to just listen to audio playback of the live-action accident before the movie even started. We get to see the chimp, the blood, the spectacle. Because its not really about the spectacle i think its about everything that led to the violence. Also this foreshadowing works really well because we do get a jumpscare later in the film. We strangely also get foreshadowing from inside the ufo for some reason, i think its also about the audio mainly. We listen to something that sounds like wailing in agony to the ecstatic joy of being on a rollercoaster. Again i think this the violence of spectacle or the spectacle of violence, kind of the same thing an orchestration that we create ourselves whether with intention or ignorance, none the wiser.
+I think that all of the themes are already there in the first 15 minutes of the film. Its just the rest of the film that needs to be played out into quite honestly a fascinating portral of alien life. This film has so many great details that im sure i dont have the ability to make connections to. When Otis father died i cant say for certain if he was being hunted. But we did hear that uncomfortable silence, and he looked up and was shot down with money and debris. This is the same uncomfortable silence when Otis Junior was asked to give a safety meeting on set, he didnt look up once.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-10-25 18:17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>“Vanilla Sky” Deserves to Be Revisited</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve">Spoilers for the movie. If you haven’t seen it yet, I highly recommend going in blind and watching it.
 I remember it being almost 6 years ago now that I first watched the movie. I had a lot on my plate at the time school-wise. I was studying nonstop, but while doing so, I would find enjoyment out of putting a movie on to turn to every 10 minutes or so to catch a break. I didn’t pay attention to them too much, but I’d catch glimpses of some good dialogue or scenes and it satisfied me. I’ve always loved watching movies, as it always helped me feel connected to the world at a time when I struggled to.
@@ -3562,37 +3633,37 @@
 Thank you for reading, just wanted to share my feelings about this movie and how much it means to me. </t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>2024-03-23 00:29:23</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t xml:space="preserve">Are there still dark and whimsical children’s films like those of the 80s and 90s? </t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t xml:space="preserve">It seems like there were quite a few films from the period that had surprisingly unsettling elements - examples would include Return to Oz, A Little Princess, The Secret Garden, Labryinth and the 90s Matilda. They all seem to share a certain kind of quality - gothic overtones, themes of loss, romantic visuals and a portrayal of childhood as sometimes lonely and scary. Also they seem like films that adults could enjoy too. 
 Are there still films like this made for children now? I’m very out of touch with what children watch now, but the concept of a ‘family film’ that’s not action or a cartoon seems much less significant than in the 80s/90s. The closest recent  equivalent might be Studio Ghibli films - but I’m curious if these kinds of films are still being made and I just don’t hear of them? </t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>2024-05-25 09:44:52</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Midnight in Paris (2011), Woody Allen's modern masterpiece</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t xml:space="preserve">  The successful Hollywood screenplay writer Gil Pender(Owen Wilson) is spending vacation in Paris with his fiancée Inez (Rachael McAdams) and her parents since his future father-in-law is doing a merging business with a French company. Gil is an aspirant writer that loves Paris, and dreams on living in the city after getting married with Inez. Further, the romantic Gil believes that the golden age of Paris was in the 20's and he loves to walk on the rain through the streets of the City of Light.
 When the shallow Inez meets her former boyfriend, the pseudo-intellectual Paul (Michael Sheen) with his girlfriend Carol (Nina Arianda), they spend sometime together visiting touristic places. In the night, they drink wine in a party and Paul invites the couple to go dancing with Carol and him. However, Gil prefers to return walking alone to the hotel. At midnight, an old car stops and the passengers invite him to go a party and sooner he realizes that he is back to the 20's, where he meets his favorite writers, musicians and artists and lives his dream.  
@@ -3601,46 +3672,41 @@
 The soundtrack with (1) Let's do it – Cole Porter; (2) Si tu vois ma mère – Sidney Bechet; (3) You do something to me – Cole Porter; (4) Ain't she sweet – Enoch Light and the Light Brigade (5) Charleston – Enoch Light and the Light Brigade; (6) La Conga Blicoti – Jospéhine Baker; (7) You've Got That Thing – Cole Porter (8) Cancan – Offenbach; and (9) Parlez moi d'Amour – Juliette Greco; is nostalgic and magnificent. There are many jokes and my favorite is Gil suggest Buñuel to think about a film with aristocrats trapped in a room without finding a way out. However, this film demands a minimum culture and sensitivity to be appreciated.</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>2024-04-02 19:43:59</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Accessibility to the best of 2023 has been TERRIBLE</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What is up with the terrible distribution and release this year? Some people say that the film industry is still totally normal and there's something for everyone. A moviegoer can either go see a blockbuster or an original drama (as if they're not usually much lower-budget than they were before). That's not even taking into account how hard they are to see to begin with. Aside from the mainstream films, you can't find the rest of 2023's best films below anywhere: 
-Fallen Leaves
-The Taste of Things
-About Dry Grasses
-The Zone of Interest
-Monster
-Occupied City
-Menus-Plaisirs--Les Troisgros
-Perfect Days
-And on and on
-What are the studios and distributors even doing? Do better... </t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2024-01-05 15:18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Thoughts on the ending of La Chimera (2024)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Just saw La Chimera and enjoyed it well enough, but that ending threw me for a loop and I'm wondering if other people feel the same way or if I'm perhaps misreading it. I'm gonna go into details below so if you haven't seen it, stop here.
+So as I'm sure you know if you're still reading this, Josh O'Connor's Arthur spends much of the movie periodically flashing back to a lost love, Beniamina, who we eventually find out has died. Toward the end of the film, he leaves his merry band of grave-robbing friends behind in favor of Italia, a woman who'd briefly become friendly with the group before witnessing them on one of their "digs" and criticizing their ways. This seems to be borne of a crisis of conscience, as he re-uses a line of hers ("You're not meant for human eyes") before tossing the statue head he and his crew found in the sea, after which he's basically dead to them. 
+Anyway, these guys being obsessed with digging up the past, to me, seemed to parallel Arthur's obsession with this lost love of his. And based on the warm, whimsical tone of much of the movie, and *especially* after he tosses out the statue head, I was expecting it to go in the direction of "embrace the present, leave the past alone". The movie seems to be headed in this direction too: Arthur goes to the squatter house where Italia is living with some other characters we've met, and they invite him to stay. 
+But then he leaves while they're all asleep and goes grave-digging with another crew, who accidentally bury him alive. Walking through the tomb, he hallucinates a string being pulled up through the ceiling by someone on the surface, we cut to the surface and see it's Beniamina pulling the string, suddenly he's up there with her, he embraces her, cut to black. 
+To which my immediate reaction is: Wait, so he *dies*? I mean, maybe I'm taking it too literally. But in the final scene he's buried alive and the movie ends on him embracing his deceased lost love. That points to death to me, and it's a pretty dark ending to what at this point had been a fairly whimsical romantic comedy-ish thing. Unless I seriously misread the tone of the rest of the movie lol. 
+Again, I may be taking it a bit too literally - this is magical realism, after all - but even symbolically, the film seems to end with Arthur embracing the past instead of the present, which is not where I thought things were pointing. An interesting ending for sure, one I'm gonna have to sit with. In the meantime, though, curious to get some other thoughts on it, or anything else in the movie as well.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2024-04-17 03:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Joker: Folie à Deux : Subverting Expectations or Follow the Previous Film to it's Logical Conclusion?</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>A movie putting it's main character through hell does not mean they dislike them or just want to make them suffer. Sometimes that suffering is important as, through them, we can get a better look at a darker aspect of humanity that is often not explored and doesn't have a neat happy ending at the end.
 One thing Joaquin Phoenix and Todd Phillips made sure to point out multiple times in interviews and during the filming of this film was that this Joker wasn't the Comedy Crime Prince and never was going to be. Arthur Fleck was a pitiful mad who snapped one day and committed some atrocious crimes as a result of being let down by a society who didn't really understand to deal with him. From the ending of the first one, you can take what follows in two different ways. This man stays locked in Arkham and inspired the Joker movement years later, or maybe he escapes somehow and becomes the iconic Joker down the line. If you stop the story there either of those work.
@@ -3657,60 +3723,65 @@
 The movie knows this isn't what the audience wanted or expected. The point of the film is that this was never on the cards for this version of The Joker. He was a man let down by the world, and in the sequel the world continues to fail him up until the moment he dies. It's a bleak film but it's bleakness is a reflection of the genuine reality around us. And I thank them for going this route and taking this risk.</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>2024-10-06 20:59:53</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Thoughts on the ending of La Chimera (2024)</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Just saw La Chimera and enjoyed it well enough, but that ending threw me for a loop and I'm wondering if other people feel the same way or if I'm perhaps misreading it. I'm gonna go into details below so if you haven't seen it, stop here.
-So as I'm sure you know if you're still reading this, Josh O'Connor's Arthur spends much of the movie periodically flashing back to a lost love, Beniamina, who we eventually find out has died. Toward the end of the film, he leaves his merry band of grave-robbing friends behind in favor of Italia, a woman who'd briefly become friendly with the group before witnessing them on one of their "digs" and criticizing their ways. This seems to be borne of a crisis of conscience, as he re-uses a line of hers ("You're not meant for human eyes") before tossing the statue head he and his crew found in the sea, after which he's basically dead to them. 
-Anyway, these guys being obsessed with digging up the past, to me, seemed to parallel Arthur's obsession with this lost love of his. And based on the warm, whimsical tone of much of the movie, and *especially* after he tosses out the statue head, I was expecting it to go in the direction of "embrace the present, leave the past alone". The movie seems to be headed in this direction too: Arthur goes to the squatter house where Italia is living with some other characters we've met, and they invite him to stay. 
-But then he leaves while they're all asleep and goes grave-digging with another crew, who accidentally bury him alive. Walking through the tomb, he hallucinates a string being pulled up through the ceiling by someone on the surface, we cut to the surface and see it's Beniamina pulling the string, suddenly he's up there with her, he embraces her, cut to black. 
-To which my immediate reaction is: Wait, so he *dies*? I mean, maybe I'm taking it too literally. But in the final scene he's buried alive and the movie ends on him embracing his deceased lost love. That points to death to me, and it's a pretty dark ending to what at this point had been a fairly whimsical romantic comedy-ish thing. Unless I seriously misread the tone of the rest of the movie lol. 
-Again, I may be taking it a bit too literally - this is magical realism, after all - but even symbolically, the film seems to end with Arthur embracing the past instead of the present, which is not where I thought things were pointing. An interesting ending for sure, one I'm gonna have to sit with. In the meantime, though, curious to get some other thoughts on it, or anything else in the movie as well.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2024-04-17 03:54:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Accessibility to the best of 2023 has been TERRIBLE</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is up with the terrible distribution and release this year? Some people say that the film industry is still totally normal and there's something for everyone. A moviegoer can either go see a blockbuster or an original drama (as if they're not usually much lower-budget than they were before). That's not even taking into account how hard they are to see to begin with. Aside from the mainstream films, you can't find the rest of 2023's best films below anywhere: 
+Fallen Leaves
+The Taste of Things
+About Dry Grasses
+The Zone of Interest
+Monster
+Occupied City
+Menus-Plaisirs--Les Troisgros
+Perfect Days
+And on and on
+What are the studios and distributors even doing? Do better... </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2024-01-05 15:18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>Why is Christopher Walken in Dune 2?</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>His appearance in the film felt extremely out of place. I feel like Dennis' only directing note to Christopher Walken was "Don't sound like Christopher Walken". But that clearly didn't work.
 It really took me out of the film, to have this weird, low brow American New York City Bronx Italian accent in a space opera about dynastic families set 10,000 years in the future.
 Anyone else feel like this?</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>2024-03-02 11:10:19</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>2001: A Space Odyssey is a film that has no affection towards humanity.</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>This isn't a criticism; it's an observation.
 The first segment, *Dawn of Man*, shows how our beginnings translate to who we become in the future, especially with the famous match cut from a bone, used by an ape to club a fellow ape to death, to a nuclear satellite in the future. All that Stanley Kubrick has to say about us as a species, he tells it in a few seconds without any dialogue, and with a simple cut. There's also how we've abused the knowledge the obelisk provided us. We used what it gave us and transformed (or devolved) from peaceful vegetarians into carnivorous murderers.
@@ -3718,69 +3789,9 @@
 It brings us the question: what does it mean to be human? Are we destined to be as violent as our ancestors were? Kubrick famously kept the film ambiguous but there's no denying the cynicism it has toward us and where we're going as a species.</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>2024-02-04 14:03:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>The Third Man (1949) - A cinematic masterpiece that perfectly epitomizes the noir genre</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Carol Reed’s cinematic masterpiece, The Third Man, embodies the noir genre in its purest form, showcasing and capturing all its defining characteristics.
-Holly Martins (Joseph Cotten), an unemployed pulp novelist, travels to postwar Vienna, a city divided into four sectors by the victorious allies, at the behest of his childhood friend Harry Lime, who has promised him work. Upon his arrival, Holly learns that Harry is killed by a car while crossing the street. Following his conversations with Harry's friends, who were present at the crime scene, and the locals, Holly concludes that something's fishy and the details don't add up. As a result, he goes against the orders of the Military police officer, Major Calloway (Trevor Howard), and resolves to explore further into what happened to his friend Harry. While doing so, he falls in love with Harry's lover, Anna (Alida Valli), which does not result in the outcome he had anticipated.
-[Read the full review here](https://thegenrejunkie.com/the-third-man-1949-review/)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2024-10-31 17:52:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>How does running an independent theater actually work?</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Me and a friend have talked about owning a theater at some point in the future, just as a dream y’know? But we don’t actually know how a lot of it works. I’ve seen this YouTube [video](https://youtu.be/zNmkjL2os-o?si=lbvosPcD1vyTcfmP) but am still unclear about some things. Hopefully someone knowledgeable can answer some of these questions. 
-How do you get in contact with distributors to get/license films? How does showing older movies (as in ones not currently doing a theatrical run) work? A theater local to me will sometimes show movies and have them preceded by the Janus Films logo, is that who you’d get into contact with for the Criterion editions of certain movies? The same theater also shows 35mm prints sometimes, how does that work? Would those be leased from a distributor or borrowed from some kind of film archive or private collector? Can I show older movies whenever I want to program them or do distributors only want things shown at certain times? Are there certain distributors who don’t work with indie theaters? 
-I appreciate any responses</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2024-07-05 15:20:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>"Starship Troopers" and hostile adaptations</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>I find *Starship Troopers* really interesting because it's a (fairly) faithful adaptation of Heinlein's novel, and yet Paul Verhoeven and screenwriter Edward Neumeier have an evident dislike for Heinlein and the novel's themes and ideology, and they make zero attempt to disguise it. The movie is painfully unsubtle (and yet somehow when it was released, people still mistook it for brainless shlock. It's only *pretending* to be brainless).
-I'll explain this really quickly because "*Starship Troopers* is actually an anti-fascist movie!" has been discussed for like twenty years at this point and the movie has been thoroughly re-evaluated -
-Heinlein's novel of the same name from the 50s is about a young man in a future South America who signs up with a worldwide federal army to fight alien bugs. Heinlein unironically seems enamored with the fascist, authoritarian future he imagines, and posits a sort of mandatory service for young people as a very good thing, and a Darwinian theory of the world. He was almost certainly reacting to the emerging youth culture of the time in an "old man yells at cloud" sort of way. The novel is entertaining as an action story so it is well-known for that.
-Verhoeven and Neuimer's treatment of the story show contempt for the world Heinlein's proposes, but they do this by presenting the story painfully straight. The big operatic moments of military victory are played for heroics, the cast is mostly white and all beautiful, almost Aryan, the federation is all-powerful, and the main character ends the movie by unironically running into battle as if that's his greatest goal - the love stories, love triangle, character relationships are barely featured in the climax. Neil Patrick Harris's character, without a hint of in-story irony, uses scientific theory to justify total war. Verhoeven could only be accused of changing the story to make it more cinematic (introducing character plotlines and removing exposition), but he present Heinlein's views as is.
-The fact that it all comes across as very silly when you think about it for even a second is the point. It is embaressing to think that critics confused Verhoeven -- who by this point had been using sci-fi for social critic very bluntly for decades -- for a Michael Bay type of filmmaker when the movie came out. His point of view is established obviously without subverting the original author directly.
-Anyway, I find that very interesting -- the idea of a major studio financing millions of dollars to adapt a source text that the filmmaker hates (Verhoeven is quotes as finding the story/concept ridiculous). I can't think of any other examples quite like this (except maybe when biblical stories are adapted to criticize Christian themes etc).</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2024-04-28 02:19:29</t>
         </is>
       </c>
     </row>
@@ -3812,10 +3823,70 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>The Third Man (1949) - A cinematic masterpiece that perfectly epitomizes the noir genre</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Carol Reed’s cinematic masterpiece, The Third Man, embodies the noir genre in its purest form, showcasing and capturing all its defining characteristics.
+Holly Martins (Joseph Cotten), an unemployed pulp novelist, travels to postwar Vienna, a city divided into four sectors by the victorious allies, at the behest of his childhood friend Harry Lime, who has promised him work. Upon his arrival, Holly learns that Harry is killed by a car while crossing the street. Following his conversations with Harry's friends, who were present at the crime scene, and the locals, Holly concludes that something's fishy and the details don't add up. As a result, he goes against the orders of the Military police officer, Major Calloway (Trevor Howard), and resolves to explore further into what happened to his friend Harry. While doing so, he falls in love with Harry's lover, Anna (Alida Valli), which does not result in the outcome he had anticipated.
+[Read the full review here](https://thegenrejunkie.com/the-third-man-1949-review/)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2024-10-31 17:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>How does running an independent theater actually work?</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Me and a friend have talked about owning a theater at some point in the future, just as a dream y’know? But we don’t actually know how a lot of it works. I’ve seen this YouTube [video](https://youtu.be/zNmkjL2os-o?si=lbvosPcD1vyTcfmP) but am still unclear about some things. Hopefully someone knowledgeable can answer some of these questions. 
+How do you get in contact with distributors to get/license films? How does showing older movies (as in ones not currently doing a theatrical run) work? A theater local to me will sometimes show movies and have them preceded by the Janus Films logo, is that who you’d get into contact with for the Criterion editions of certain movies? The same theater also shows 35mm prints sometimes, how does that work? Would those be leased from a distributor or borrowed from some kind of film archive or private collector? Can I show older movies whenever I want to program them or do distributors only want things shown at certain times? Are there certain distributors who don’t work with indie theaters? 
+I appreciate any responses</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2024-07-05 15:20:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>"Starship Troopers" and hostile adaptations</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>I find *Starship Troopers* really interesting because it's a (fairly) faithful adaptation of Heinlein's novel, and yet Paul Verhoeven and screenwriter Edward Neumeier have an evident dislike for Heinlein and the novel's themes and ideology, and they make zero attempt to disguise it. The movie is painfully unsubtle (and yet somehow when it was released, people still mistook it for brainless shlock. It's only *pretending* to be brainless).
+I'll explain this really quickly because "*Starship Troopers* is actually an anti-fascist movie!" has been discussed for like twenty years at this point and the movie has been thoroughly re-evaluated -
+Heinlein's novel of the same name from the 50s is about a young man in a future South America who signs up with a worldwide federal army to fight alien bugs. Heinlein unironically seems enamored with the fascist, authoritarian future he imagines, and posits a sort of mandatory service for young people as a very good thing, and a Darwinian theory of the world. He was almost certainly reacting to the emerging youth culture of the time in an "old man yells at cloud" sort of way. The novel is entertaining as an action story so it is well-known for that.
+Verhoeven and Neuimer's treatment of the story show contempt for the world Heinlein's proposes, but they do this by presenting the story painfully straight. The big operatic moments of military victory are played for heroics, the cast is mostly white and all beautiful, almost Aryan, the federation is all-powerful, and the main character ends the movie by unironically running into battle as if that's his greatest goal - the love stories, love triangle, character relationships are barely featured in the climax. Neil Patrick Harris's character, without a hint of in-story irony, uses scientific theory to justify total war. Verhoeven could only be accused of changing the story to make it more cinematic (introducing character plotlines and removing exposition), but he present Heinlein's views as is.
+The fact that it all comes across as very silly when you think about it for even a second is the point. It is embaressing to think that critics confused Verhoeven -- who by this point had been using sci-fi for social critic very bluntly for decades -- for a Michael Bay type of filmmaker when the movie came out. His point of view is established obviously without subverting the original author directly.
+Anyway, I find that very interesting -- the idea of a major studio financing millions of dollars to adapt a source text that the filmmaker hates (Verhoeven is quotes as finding the story/concept ridiculous). I can't think of any other examples quite like this (except maybe when biblical stories are adapted to criticize Christian themes etc).</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2024-04-28 02:19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>'Under the Skin' is kind of like the photo negative of 'Poor Things'</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>I was thinking about both of these after seeing UTS last year for the first time and being incredibly impacted by it. In terms of the core concept of both of these films, they're both about a new form of life taking over the form of a fully-grown adult woman, and learning the extent to which they can control the influence they have by developing their sexuality, their physical appearance, and studying the world around them.
 In *Poor Things*, you have the protagonist replaced with the brain of an infant by a mad scientist, while in *Under the Skin*, you have a woman's physical appearance being co-opted by an alien to study/devour humans. In both cases, they essentially represent a "reset" or clean slate for our respective protagonists (though calling the alien in *Under the Skin* a protagonist definitely doesn't feel quite right lol). Both of these could also be seen as kind of a general amnesia metaphor, just done in much more high-concept fashion.
@@ -3826,19 +3897,19 @@
 I'm sure others will probably have interesting insights/comparisons on these two, and I'd love to hear anyone else's thoughts on this. I think they're both very quality films and I really love finding similarities like this.</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>2024-10-09 19:54:46</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>I watched and ranked every Buster Keaton film (88 total films)</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t xml:space="preserve">*Check out my full ranked list here* [*https://boxd.it/ymAXY*](https://boxd.it/ymAXY)
 I was rewatching a few Buster Keaton films I've already seen last December and it made me realize how much fun it was watching him that I figured it would be fun to dive deep into his entire filmography, from the 'Fatty' Arbuckle shorts starting in 1917 to the final industrial shorts ending in 1966. Most were easy to find on YouTube and [archive.org](http://archive.org) if anyone wants to do this as well. I'm hoping to provide this as an easy guide of what to check out and what to avoid (or at least prepare yourself for). Here's what my top 10 looks like:  
@@ -3855,19 +3926,19 @@
 </t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>2024-09-05 16:56:43</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>The Grand Budapest Hotel as an Elegy for Liberal Humanism</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>*The Grand Budapest Hotel* is a tale of tragic love, a rags-to-riches story, a political satire, a reflection on the transitory nature of institutions. Recently, I watched it in another way, and wanted to share what I found. When things are going well, I look to challenging pieces written from different points of view but when things are dire and stressful, I reach for a few comforts I keep in reserve, to escape for a little while and remember that there’s good in the world. My favorite films all involve imagination in an immediate way. Additionally, I must admit that, running a hotel with a partner, I found the love of my life. A few days ago, I reached for *Budapest*, not only for comfort but because it represents a particular strain of liberal humanism that resonates with me. I’d anticipated blink-and-you'll-miss-it jokes and beautiful design, but I didn’t expect to find new depths in its storytelling. Beyond its miniature effects, and lateral tracking shots is a fierce commitment to its own premise, followed to its logical conclusion with fearless zeal.
 “Against what is stupid, nonsensical, erroneous, and evil, liberalism fights with the weapons of the mind, and not with brute force and repression,” says Ludwig von Mises in Liberalism: The Classical Tradition. Liberalism’s enemies are abundant, and not just in the forms of Nazis and Stalinists. They are all around us as stupidity, as nonsense, and in erroneous suggestions. Liberalism believes in the individual in whatever color or sex he comes in. Liberalism believes in systems, in factories and trains and certainly hotels. But most of all, Liberalism believes in Work. To be a liberal is to believe that anyone with a kind face and a natural talent can amass a great fortune if he’s willing to put in the hours.
@@ -3878,19 +3949,38 @@
 The film is neither a critique nor an apology for liberalism. An apology would invite the audience into the ornate chambers of the wealthy, treat us to skiing and luxury dining. It doesn’t care for these things, but only delights in the operations of the aerial tramways and kitchens that make these luxuries possible. It doesn’t hide away the small indignities of capitalism, but asks us to weigh them against its beautiful constructions (the film itself, a prime example). *The Grand Budapest Hotel* only asks that, after we’ve defunded the arts and our streets are stormed by brutish people with tiki torches, we give a thought to a world that was beautiful for a brief moment, even if it never existed.</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>2024-11-11 21:50:02</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>How did Sweden go from a cinematic powerhouse country to pushing out relatively low quality of cinema as of 2000</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Even back in the 1920 and 30s there were a lot of great Swedish movies being released by talented directors (The Phantom Carriage etc) Gustaf Molander, Per lindberg and even the Bergman movies being released in the later part of the century along sith Jan Troell, Bo Widerburg, Vilgot Skoman, Mai Zetterling, Lasse Hallstrom.
+Yet it seems past 2000, there's been a low quality cinema output compared to before. With the only movies comparable being The Girl with the Dragon Tattoo series (The original one not the Hwood remakes)
+Even countries like Japan or the US that kept with their quality cinema outfit during the mid century have continued it. Yet why is it that Sweden has had very few movies since then that are of the same quality? Let's discuss.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2024-01-22 15:35:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>"We engage with all kinds of art without requiring a clear single interpretation and meaning, but for some reason that's the way most people like to engage with film" - Thomas Flight (from his video on David Lynch)</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>[Why Are David Lynch Movies So Weird?](https://www.youtube.com/watch?v=v0T2aE7QQSs)
 Why is it that we get so obsessed with finding the "right" interpretation of a film when we (or many of us) are open to multiple interpretations of music, painting, sculpture, dance and other art forms?  
@@ -3898,120 +3988,55 @@
 Is this wrong?  Or is there a reason this happens?</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>2023-12-27 03:48:49</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Some of Tarkovsky's films are a struggle of will and patience</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t xml:space="preserve">For the record, I love some of his films like Solaris, Stalker, and Ivan's Childhood. Even Andrei Rublev had incredible moments. However, his other films like Mirror and Nostalghia are just cinematic fog. Characters ramble on. Tarkovsky forces his father's poems in. What are they talking about? 
 Why am I aimlessly watching this? I get that Tarkovsky spoke of watching his films more spiritually than analytically, which is almost impossible for me because I'm a strictly analytical viewer/fan and far from religious or spiritual. It's okay. 
 I'm just curious of what others think when they watch these films without any knowledge of Tarkovsky or any prior research. Do you genuinely find the films engaging? Comprehensible? </t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>2024-02-21 05:15:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>How did Sweden go from a cinematic powerhouse country to pushing out relatively low quality of cinema as of 2000</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Even back in the 1920 and 30s there were a lot of great Swedish movies being released by talented directors (The Phantom Carriage etc) Gustaf Molander, Per lindberg and even the Bergman movies being released in the later part of the century along sith Jan Troell, Bo Widerburg, Vilgot Skoman, Mai Zetterling, Lasse Hallstrom.
-Yet it seems past 2000, there's been a low quality cinema output compared to before. With the only movies comparable being The Girl with the Dragon Tattoo series (The original one not the Hwood remakes)
-Even countries like Japan or the US that kept with their quality cinema outfit during the mid century have continued it. Yet why is it that Sweden has had very few movies since then that are of the same quality? Let's discuss.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2024-01-22 15:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Why did Steven Spielberg falter in the 2010s?</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Steven Spielberg is almost universally considered to be one of the greatest directors of all time. If we go decade by decade we can divide his career into six phases.
-The 1970s where in the first half Spielberg was just breaking into the industry and finding his voice. In the second half he immediately became one of the biggest filmmakers in the industry with Jaws and then Close Encounters.
-The 1980s and 1990s where he is the king of Hollywood. In the 80s he is putting out beloved blockbusters which will become generation defining classics liek E.T. and Indiana Jones trilogy while still figuring out how to work in a more mature prestigious genres with The Color Purple. In the 90s he has finally figured out prestigious films and is able to achieve a perfect balance between both of them with Schindler's List, Jurassic Park and Saving Private Ryan.
-The 2000s are bit of his underrated era. Yes Crystal Skull was a big misfire but everything other than that was from good to great. A.I., Catch me If you Can, Minority Report, Munich have all become beloved and respected films that show off Spielbergs versality and his willingness to go beyond his comfort zone. The Terminal while not a risky movie is still highly enjoyable and War of the Worlds even with all its flaws still has a lot of exceptional direction in its first two-thirds that seems to be gaining some re-evaluation in recent times.
-The 2020s seem to be a comeback of a sort for him. Both West Side Story and The Fabelmans have been critically acclaimed, got a load of awards nominations and seem to signal a return to form for him. He is also working on a Napoleon minseries for HBO based on Kubricks orignal screenplay. 
-It is the 2010s however that interests me right now . It is universally considered to be Spielbergs weakest decade. He still made well recieved films yes but it seems he lost a lot of his lustre in this decade due to underwhelming films like The BFG, Ready Player One, War Horse. Even the films that are well recieved like Lincoln, Tintin, Bridge of Spies and The Post seem to be seen as a tier below his biggest classics.
-Spielberg has always been an inconsistent director to be honest. Its not like there is a single decade where every film he has made has been a banger. And that seems impossible for him to do considering he averages about 5 to 7 films per decade. Yet it seems the 2010s seem to be decade where it hurt him the most. Why did Spielberg falter in this decade compared to previous decades?</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2023-12-20 16:52:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>An analysis of a moment from "Aftersun"</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There was one moment in this movie that I thought was interesting which I haven't seen many people comment on. I was wondering if anyone else interpreted it the same way that I did. It's the scene where Sophie is angry that her father didn't join her onstage for karaoke, and she ends up making a cutting comment about how he should stop offering to pay for things when she knows he doesn't have the money. We can see earlier in the movie that she's aware of his financial troubles and is sensitive to them (apologizing for dropping the diving mask that she knew was expensive, etc.), but in the scene I'm talking about she's upset with him, and so she uses that insecurity that she knows he has to hurt him. And  you can really see how that comment hurt him, even though he tries to suppress his pain. The comment is especially hurtful to him in that moment because he was feeling especially down that night (probably because it was the night before his birthday), and he was clearly feeling a sense of self loathing during the Karaoke scene because he couldn't will himself to go up on stage and sing with his daughter. This sense of self loathing stemmed from the fact that his limitations were preventing him from giving his daughter what she wanted, and Sophie unknowingly twisted the knife with her comment because it reminded him that he also can't financially provide for her. The comment presumably made him feel like a total failure as a father.
-Another thing to note is that Welles is very careful to delineate moments that are actual memories from moments that adult Sophie is imagining. Any time Sophie doesn't see something happen it seems like we're supposed to understand that the moment being depicted is imagined. Notably, it seems like Sophie isn't party to most of the moments where her father is most clearly suffering (Calum spitting into the mirror, Calum walking into the ocean, Calum crying on the bed, etc.) so it's almost like those scenes reflect the fact that adult Sophie is trying to imagine the side of him that she never saw.
-Anyway, having said all that, I was struck by the staging of [this shot.](https://imgur.com/a/NvIn1a3)
-After Sophie says that line to her father, she faces forward and he continues to look at her. In other words, the audience sees Calum's reaction to her comment, but young Sophie doesn't. This implies that adult Sophie is imagining what his reaction to her comment might have been, and how the comment must have hurt him. Adult Sophie then imagines that the comment sent her father into a depressive spiral which culminated in him walking into the ocean, which is how she imagines he might have ended up naked in bed. Again, none of that necessarily happened, but the point is that Sophie made a passive aggressive comment that she thought nothing of at the time, and given the fact that her father committed suicide shortly afterwards, that comment still haunts her decades later. She imagines how that comment might have added to his pain, and feels guilt about it.
-I really like this shot because it shows how much thought went into every little detail of this movie. Even the smallest, most seemingly insignificant detail (ie the decision to position the actors so that the audience sees Calum's reaction but Sophie doesn't) conveys so much about adult Sophie's character. It's also impressive how much the movie is able to develop adult Sophie's character despite the fact that she's barely onscreen. In fact, it seems to me like she's the main character; the audience is in her perspective the entire movie. We are seeing moments as she remembers them or imagines them and not as they actually happened, which means that every decision about how to depict a moment reflects something about her character and how she relates to that moment. Aftersun has a very unique way of conveying information which adds to its power; it's the epitome of showing and not telling. The movie doesn't *tell* us that adult Sophie feels guilt about that comment through ie dialogue, it *shows* us by showing us the reaction she imagines her father had to what she said.
-Did anyone interpret the scene similarly or am I stretching?
-</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2023-12-14 20:37:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Raising Arizona</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>I’ve been rewatching and catching up on some Coen Brothers’ films and one that I’ve missed out on until now was Raising Arizona. I was genuinely shocked at how funny and heartwarming it was and I thought Nicholas Cage gave the performance of his career (Wild at Heart is close). The cinematography was obviously fantastic, especially for a comedy. In my opinion it was one of the most touching romances I’ve seen on screen in awhile, and although some of the metaphors were pretty unsubtle like the biker representing HI’s irresponsible nature, I fucking loved it. I know it’s well regarded but I don’t see it considered among the best of the Coen Brothers, when I think it should be. Just wondering what people’s general thoughts are on this film. Is it one of their best?</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2024-03-16 05:54:24</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>Raising Arizona</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>I’ve been rewatching and catching up on some Coen Brothers’ films and one that I’ve missed out on until now was Raising Arizona. I was genuinely shocked at how funny and heartwarming it was and I thought Nicholas Cage gave the performance of his career (Wild at Heart is close). The cinematography was obviously fantastic, especially for a comedy. In my opinion it was one of the most touching romances I’ve seen on screen in awhile, and although some of the metaphors were pretty unsubtle like the biker representing HI’s irresponsible nature, I fucking loved it. I know it’s well regarded but I don’t see it considered among the best of the Coen Brothers, when I think it should be. Just wondering what people’s general thoughts are on this film. Is it one of their best?</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2024-03-16 05:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>I just watched Harakiri (1962) for the first time and...(SPOILERS)</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t xml:space="preserve">I am blown away. 
 What an absolute nail-biter of a story. Those opening 30 minutes retelling Chijiwa's death (and the grueling way in which he is made to kill himself) were so perfect as a tense, perfectly concentrated slice of cinematic narrative. I saw it in a sold-out theater and the audience was palpably tense and horrified at the brutal way the seppuku is depicted (the audience was also audibly irate at the disrespectful way Chijiwa's corpse is treated when it is delivered back to his family). I am glad I saw this for the first time in a theater.
@@ -4022,19 +4047,19 @@
 What do you think? Have you seen this movie? </t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>2024-04-17 22:16:19</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t xml:space="preserve">Can you reccomend me movies that feel genuinely very naturalistic, intimate and take their time to let you consume the scenery? </t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>To let you understand what I am looking for, here are some beautiful examples:
 • Shiki-Jitsu/Ritual (My favorite)
@@ -4054,19 +4079,19 @@
 I would really appreciate it! :&gt; I want something that touches me softly and hard. If you notice, a lot of these movies deal with loneliness, depression, trauma and other personal matters.</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>2024-08-10 18:44:52</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Anyone hear Wesley Morris' appearance on The Big Picture: "Wes Anderson is a COWARD! Everyone else is a FRAUD! What is "Talk To Me"?"</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>To hear a New York Times critic speak with the language of faux-populist hostility and grievance towards filmmakers was slightly disturbing.
 Previously, he appeared on a podcast about "May December" and didn't know who Michel Legrand was.
@@ -4082,57 +4107,19 @@
 Is this just what film criticism is now? The domain of Hot Take merchants with no affinity towards cinema and grievance towards filmmakers? Is it too much to ask that film critics care about cinema?</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>2024-03-09 01:09:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>How did the old-school Hollywood filmmakers react to the French New Wave?</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>I'm talking about Alfred Hitchcock, Billy Wilder, Howard Hawks, John Ford, David Lean, Otto Preminger, Orson Welles, etc...
-Are there any existing records or interviews of their reactions to Godard and Truffaut's Nouvelle Vague films? Did they admire their rebellious creativity? They found it amateurish? 
-I'm aware that Hitchcock did an entire book with Truffaut, but anywhere in it does Hitchcock state, for example, his opinions on The 400 Blows, The Soft Skin, Shoot the Piano Player, etc???</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2023-12-22 19:51:49</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Let Me In has one of the most subtly horrifying moments I’ve seen in a horror film.</t>
+          <t>Films that explore the Banality of Evil ...</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>I think this is a pretty underrated movie and in some ways it’s even it more disturbing than the Swedish film, and is actually telling a different story as it indicates that Abby is manipulating Owen and doesn’t truly love him (whereas in the original Eli really does seem to love Oskar). The most chilling scene for me is when Abby kills the policeman (who we’ve come to sympathize with) while Owen refuses to help the guy and leaves him to his fate. Until then I was conflicted about her character, but the way she tears this innocent man apart with no remorse while Owen just lets it happen made me realize she really is a monster and she’s basically brainwashed Owen to take her side.
-The most chilling part of the scene for me is when Abby comes back out and slowly creeps up behind Owen in the dark and then just wraps her arms around him without a word, still soaked in blood, while Owen just stands there helpless. There’s something really horrifying about that image because it cements the tragedy of what’s happened, that Owen has fallen completely under her spell and is trapped with her now, and she knows it. Here’s the image:
-[https://chloemoretzbrasil.com/galeria/albums/userpics/10001/CMBR\_2864229\~0.jpg](https://chloemoretzbrasil.com/galeria/albums/userpics/10001/CMBR_2864229~0.jpg)</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2024-04-12 17:05:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Films that explore the Banality of Evil ...</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
         <is>
           <t>Hello there fellow cinephiles -
 I'd appreciate your collective knowledge for some film viewing suggestions. I'm writing a thesis on the Banality of Evil examined in modern cinema.
@@ -4142,9 +4129,28 @@
 Any and all suggestions are greatly appreciated!</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2024-03-07 20:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>How did the old-school Hollywood filmmakers react to the French New Wave?</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>I'm talking about Alfred Hitchcock, Billy Wilder, Howard Hawks, John Ford, David Lean, Otto Preminger, Orson Welles, etc...
+Are there any existing records or interviews of their reactions to Godard and Truffaut's Nouvelle Vague films? Did they admire their rebellious creativity? They found it amateurish? 
+I'm aware that Hitchcock did an entire book with Truffaut, but anywhere in it does Hitchcock state, for example, his opinions on The 400 Blows, The Soft Skin, Shoot the Piano Player, etc???</t>
+        </is>
+      </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2024-03-07 20:20:32</t>
+          <t>2023-12-22 19:51:49</t>
         </is>
       </c>
     </row>
@@ -4176,10 +4182,51 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>Let Me In has one of the most subtly horrifying moments I’ve seen in a horror film.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>I think this is a pretty underrated movie and in some ways it’s even it more disturbing than the Swedish film, and is actually telling a different story as it indicates that Abby is manipulating Owen and doesn’t truly love him (whereas in the original Eli really does seem to love Oskar). The most chilling scene for me is when Abby kills the policeman (who we’ve come to sympathize with) while Owen refuses to help the guy and leaves him to his fate. Until then I was conflicted about her character, but the way she tears this innocent man apart with no remorse while Owen just lets it happen made me realize she really is a monster and she’s basically brainwashed Owen to take her side.
+The most chilling part of the scene for me is when Abby comes back out and slowly creeps up behind Owen in the dark and then just wraps her arms around him without a word, still soaked in blood, while Owen just stands there helpless. There’s something really horrifying about that image because it cements the tragedy of what’s happened, that Owen has fallen completely under her spell and is trapped with her now, and she knows it. Here’s the image:
+[https://chloemoretzbrasil.com/galeria/albums/userpics/10001/CMBR\_2864229\~0.jpg](https://chloemoretzbrasil.com/galeria/albums/userpics/10001/CMBR_2864229~0.jpg)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2024-04-12 17:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Past lives (2023) and In-Yun</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>"This is where I ended up, this is where I am supposed to be."
+This is a quote from the movie I think encapsulates the movie's major theme, of accepting WHAT IS and not asking what if. The movie goes through a lot of instances we think it might go one way because that is what we are used to see in romance genre, but subverts our expectations and gives us a more beautiful love story.
+The characters in the story (specifically Arthur(husband) and Hae sung(childhood crush)) are troubled by their past life decisions and wonder whether they were the right ones to make. And they are in deep agony thinking what could have been. Nae Yung (Nora Moon) is someone who accepts her fate and loves it all the same. She doesn't question her decisions in life, she does not neither have fantasies about a fancy love story, nor have a regret of marrying someone whom she met by pure chance. She embraces her fate with all her heart.
+In-Yun is stated to be a korean belief of providence which is specifically between two people and every person who meets or even sit in the bench together has some In-Yun between them from their past lives. When the In-Yun is layered 8000 times the two people are destined to be married/or is to live happily ever after. This solves an important dilemma in the previous romance movies, one that of fate, where the love between two people is only special when their current love story is incredible. Now they have their 8000 past lives worth of stories in them (I am half joking). The story of Arthur and Nora began with one of the ordinary chance event and followed by more of them, in which any of them could have occurred with another man and Arthur and Nora would not be together. The movie tells us not to worry about what could have been, because you cannot change it and because it was destined to be and tells us to embrace the life we have, to love those who are near more dearly because this is fruition of desires of 7999 past lives and to not worry about the future.
+I really loved the movie, I feel like it has a thematic connection with Everything, Everywhere, All At Once of loving who and where you are now.
+This is a love story between Nora Moon and Arthur.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2024-01-27 20:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
           <t>"Partlabor 2" is honestly one of the most overlooked animated movies I've ever seen.</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>I just now finished this movie just yesterday and I actually really, really liked it. After a long while, I finally watched the first two Patlabor movies directed by Mamori Oshii and lemme tell you, they're both incredibly different from each other.
 The first movie is a rather conventional mecha anime about the police trying to stop like a terrorist attack where robots are hacked into and stuff and both the animation and general tone of the film are rather light-hearted despite this particular aspect. It's entertaining and I found myself kinda enjoying much of the drama in it but it's one of those films that I feel doesn't really go to deeply on anything and exists as basically as the futuristic police procedure film with no greater point to the nature about them.
@@ -4189,41 +4236,19 @@
 While it may not be my absolute favorite by Mamori Oshii, this is certainly the 2nd best film I've seen from him so far just behind "Angel's Egg" and definitely above "Ghost In The Shell" in my opinion.</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>2024-05-09 12:59:45</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Past lives (2023) and In-Yun</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>"This is where I ended up, this is where I am supposed to be."
-This is a quote from the movie I think encapsulates the movie's major theme, of accepting WHAT IS and not asking what if. The movie goes through a lot of instances we think it might go one way because that is what we are used to see in romance genre, but subverts our expectations and gives us a more beautiful love story.
-The characters in the story (specifically Arthur(husband) and Hae sung(childhood crush)) are troubled by their past life decisions and wonder whether they were the right ones to make. And they are in deep agony thinking what could have been. Nae Yung (Nora Moon) is someone who accepts her fate and loves it all the same. She doesn't question her decisions in life, she does not neither have fantasies about a fancy love story, nor have a regret of marrying someone whom she met by pure chance. She embraces her fate with all her heart.
-In-Yun is stated to be a korean belief of providence which is specifically between two people and every person who meets or even sit in the bench together has some In-Yun between them from their past lives. When the In-Yun is layered 8000 times the two people are destined to be married/or is to live happily ever after. This solves an important dilemma in the previous romance movies, one that of fate, where the love between two people is only special when their current love story is incredible. Now they have their 8000 past lives worth of stories in them (I am half joking). The story of Arthur and Nora began with one of the ordinary chance event and followed by more of them, in which any of them could have occurred with another man and Arthur and Nora would not be together. The movie tells us not to worry about what could have been, because you cannot change it and because it was destined to be and tells us to embrace the life we have, to love those who are near more dearly because this is fruition of desires of 7999 past lives and to not worry about the future.
-I really loved the movie, I feel like it has a thematic connection with Everything, Everywhere, All At Once of loving who and where you are now.
-This is a love story between Nora Moon and Arthur.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2024-01-27 20:18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Masterpiece vs Magnum Opus: Thoughts on Megalopolis [No Spoilers]</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Megalopolis proclaims itself a fable on the title card. As the movie began to come to a close, I was asking myself, “What is the moral of this fable?”
 This was a joy to see on the big screen. One of cinema’s Masters exhausted his imagination to convey a paradoxical, forward-thinking homage to Hollywood’s golden era that is consistently compelling and at times breathtaking. The cinematography elicits a fantastical setting of a faux-New York (New Rome), illuminated as if the Sun is as close as our Moon. That is until you reach the depths of this urban civilization, which gives way to darkness, red and blue hues, and crumbling law and order. The latter conveyed via living statues falling to their knees. 
@@ -4236,38 +4261,38 @@
 TL;DR I loved it. It’s not going to win Best Picture. But I don’t think that is Coppola’s intent, but he met his goal wholeheartedly. And it’s a gorgeous film.</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>2024-09-27 15:46:07</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Best way to study film</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>I like to just watch movies. Whichever ones interest me at the time. If I like them, I will watch a few more times to get fully immersed in the movie and start studying the little details. 
 Do you have a more interesting or even better way to go about studying movies? Like maybe watching a few movies at a time according to genre or era of film history? 
 I appreciate your responses 😊</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>2024-09-06 06:12:29</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">Civil War (2024) a forceful warning to those who presume they can help themselves to power </t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>I've read commentary that Civil War does a good job of not demonizing any particular block of citizens. This may be true, however it is a strong denunciation of tyranny, in particular the type the USA has recently flirted with. The movie signals this message during the very first scene. As the president (well-played by Nick Offerman) practices his speech, he smirks, as if the civil war the USA is currently experiencing is just a fun prank he's playing. He then goes on to use very Trumpian language, bragging that he's won a great military victory, "some would say, the greatest military victory in history."
 I've also seen comments that the journalists who comprise the core ensemble in the movie behave in a neutral manner. I refute this viewpoint. Their entire motivation in embarking upon a harrowing and dangerous road trip is to confront the president forcefully about his excesses against the people of the USA. In particular there's a scene where the journalists are discussing the questions they'll ask the president if they do indeed score an interview. Their behavior and language during that scene clearly shows concern and indeed disgust towards the president for engaging in a campaign of violence against the citizens. In the final moments of the film, in one of the finest displays of dialogue I can recall seeing in a film, one of the journalists implies that the president is indeed a cowardly tyrant, as he'd known all along, and deserves the fate he's about to recieve.
@@ -4275,19 +4300,19 @@
 This is the guy Offerman played: https://apnews.com/article/trump-military-border-civil-unrest-domestic-use-a136c69cc85184b07f161c4c09b46c50</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>2024-05-26 15:56:03</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Making sense of Challengers (2024)</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t xml:space="preserve">Loved the film, especially the ending. It felt like I watched a 2 hour set up for a singular gag. So good! I think Guadagnino was hinting at it through out the movie, but that absurd ending really cemented to me that it was an entirely non-literal, parabalistic tale. 
 So, to me, the film is all about Tashi. Her internal struggle is represented by the final tennis match that anchors the plot. Even the poster, mirroring similar shots from the movie, shows her in the crowd, with sunglasses, one lens reflecting Art, and the other reflecting Patrick, as if we have a window into her mind.
@@ -4297,50 +4322,30 @@
 Thats the broadest reading I had of the film that maybe explains the ending, maybe not. What does everyone else think about this reading or that ending or the movie in general? </t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>2024-05-13 03:44:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Thematically, stylistically speaking, and perhaps story-wise what are your thoughts on cinema in the 2020s so far?</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>The question isn't so much how do you like movies so far this decade, what did you think was good or not bad. I want this discussion to be more about your thoughts and reflections on the films and how they've been so far in terms of styles and perhaps themes and messages. 
-Like how the cinematography is, the kinds of stories we're seeing and the writing style, maybe even the types of characters? In different genres? 
-From big blockbusters like Top Gun: Maverick, Oppenheimer, Barbie, to surprise hits like Everything Everywhere All At Once; noteworthy international films like The Worst Person in the World and Anatomy of a Fall; horror films such as Pearl and Talk To Me. 
-Every decade of films have a certain 'something' about them, that separate them from other decades and eras. 
-Thematically, cinematically, and story-wise, do you notice anything about the 2020s in particular so far that stand out, or maybe there's "more of" than before? Any patterns, however slight?</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2024-07-11 22:57:20</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>What are your thoughts on why Werner Herzog's "Aguirre, The Wrath of God" is so captivating all these years later?</t>
+          <t>What's the most a film has ever been changed in post? (Studio interference, bad test screenings, etc)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>I made this video essay to examine why we watch people do terrible things? What is so captivating about watching a person become a dictator, a killer, a monster corrupted by power? Do these characters reveal something hidden inside us? A raw, animal instinct?
-Werner Herzog’s 1972 cult classic "Aguirre, the Wrath of God" explores these questions. The film is based on the harrowing journey of Spanish conquistadors seeking El Dorado in 16th-century South America. As the lead character Aguirre spirals into madness, his descent is both horrifying and mesmerizing, embodying the seductive nature of power and its corrupting influence.
-What are your thoughts on why films and characters with such terrible morals are so enduring and exciting to watch?
-EDIT: Here's the video essay I just made about Aguirre btw: [https://www.youtube.com/watch?v=4eG-jidKR3M](https://www.youtube.com/watch?v=4eG-jidKR3M)</t>
+          <t>I was watching the RedLetterMedia video about *Galaxy Quest*, and of course they mention how the film was heavily edited down from a raunchier PG-13/maybe light R to a PG on the grounds that the studio had a hit with the PG rated *Rugrats Movie* and wanted to go after that same crowd. This of course fails to consider that perhaps a Nickelodeon cartoon and a 1960's meta-comedy homage to a science fiction show might have slightly different crowds, but from everything I've read about studios in the 80s and 90s, it seems like there was much more of a 'dog chasing cars' element of literally just attempting to copy what the #1 movie of the last weekend was doing, regardless of how different it was from the film in question being produced.
+Of course, plenty of good films changed radically from their original screenplay, so that I wouldn't really count (*Beetlejuice* was originally about a winged dwarf who spoke AAVE, which I'm sure in no way was influenced by or the result of cocaine), but what I'm more interested in is **films that changed radically after a significant amount of it had already been made** (even if it was just principal photography and not necessarily a fully finished version). 
+The other best example of this I could think of was *Kangaroo Jack*, a Bruckheimer-produced comedy that began its life as an R rated crime comedy, before being shot as something a little less raunchy, tested poorly (with the only positives being a single scene with an animatronic kangaroo), leading the studio to re-edit it down into a PG rated "family" movie with a CGI, rapping kangaroo taking the place of its original animatronic counterpart, as well as being inserted into enough scenes to make it the centerpiece of the marketing campaign in an attempt to trick families into thinking they were getting another talking animal movie, inspired by the famously misleading *Snow Dogs* trailer. 
+Are there any other examples of this? I feel like this is the closest I can think of for a major production essentially being sold for parts and cleaned out like a game of Operation. I know *Alien 3* was originally going to be set on Earth, apparently so far into production that the original theatrical teaser said "In 1992, on Earth, *everyone* can hear you scream", which coincidentally is the premise of the upcoming TV show. From what I understand, they had spent several million dollars on sets that weren't used in the final product and generally had plenty of frustration and interference, but as far as I know I don't think they were actually shooting any footage on the unused sets. 
+Any good articles about these would be highly appreciated as well, I love reading stuff about difficult/chaotic film productions.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2024-06-22 15:45:55</t>
+          <t>2024-12-06 19:17:37</t>
         </is>
       </c>
     </row>
@@ -4374,10 +4379,72 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>The Lady from Shanghai blew me away</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>The film is often considered one of Welles' lesser works, if not an outright failure. It was meant to be an hour longer but Columbia cut it to pieces because they just wanted it to be a simple star vehicle for Hayworth. So many believe that it's just an empty shell of an unrealized vision.
+But somehow I feel it's part of what makes it brilliant, the entire film is Welles constantly fighting against the constraints of a straightforward mainstream suspense picture and so many beautiful eccentricities and contrasts come out of it as a result. 
+The whole beginning with the horse carriage among a sea of cars; the bizarre Caribbean cruise, where Welles' sweaty and paranoid glances are juxtaposed with studio-mandated ultra-glamorous inserts of Hayworth singing the title song; a hysterical scenery-chewing Glenn Anders baiting him into an increasingly implausible and convoluted murder plot that basically completely dissolves into dreamlike surreality at the end; the satirical court scenes that foreshadow Welles' own adaptation of The Trial. And then, of course, the funhouse and unforgettable hall of mirrors shootout, which is breathtaking to this day.
+It's absolutely insane and essentially plays like a high budget version of Detour, where instead of every shot being held together by duct tape the film has the full backing of a major studio with pristine on-location work and elaborate sets. It basically shouldn't exist but does. I'm sure Welles' intended version would have been great too but I still think it's very special in its current form.
+So many great lines too - "Everybody is somebody's fool", "I've always found it very sanitary to be broke", ...</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2024-03-13 03:45:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Thematically, stylistically speaking, and perhaps story-wise what are your thoughts on cinema in the 2020s so far?</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>The question isn't so much how do you like movies so far this decade, what did you think was good or not bad. I want this discussion to be more about your thoughts and reflections on the films and how they've been so far in terms of styles and perhaps themes and messages. 
+Like how the cinematography is, the kinds of stories we're seeing and the writing style, maybe even the types of characters? In different genres? 
+From big blockbusters like Top Gun: Maverick, Oppenheimer, Barbie, to surprise hits like Everything Everywhere All At Once; noteworthy international films like The Worst Person in the World and Anatomy of a Fall; horror films such as Pearl and Talk To Me. 
+Every decade of films have a certain 'something' about them, that separate them from other decades and eras. 
+Thematically, cinematically, and story-wise, do you notice anything about the 2020s in particular so far that stand out, or maybe there's "more of" than before? Any patterns, however slight?</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2024-07-11 22:57:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>What are your thoughts on why Werner Herzog's "Aguirre, The Wrath of God" is so captivating all these years later?</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>I made this video essay to examine why we watch people do terrible things? What is so captivating about watching a person become a dictator, a killer, a monster corrupted by power? Do these characters reveal something hidden inside us? A raw, animal instinct?
+Werner Herzog’s 1972 cult classic "Aguirre, the Wrath of God" explores these questions. The film is based on the harrowing journey of Spanish conquistadors seeking El Dorado in 16th-century South America. As the lead character Aguirre spirals into madness, his descent is both horrifying and mesmerizing, embodying the seductive nature of power and its corrupting influence.
+What are your thoughts on why films and characters with such terrible morals are so enduring and exciting to watch?
+EDIT: Here's the video essay I just made about Aguirre btw: [https://www.youtube.com/watch?v=4eG-jidKR3M](https://www.youtube.com/watch?v=4eG-jidKR3M)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2024-06-22 15:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>Montgomery Clift was a phenomenal actor who deserves to be better remembered.</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>I have been re-watching his 17 films he made during his brief film career and I continue to be blown away by just how great he was. He was never a showy actor and his subtlety was very realistic and moving. I also loved that he was never a scene stealer and he also never tried to make his characters more sympathetic and interesting than they were. He just focused on making them human and that was what continues to make his performances captivating today. 
 I feel sad that given what a huge and unique talent he was that he is not as well remembered today. He was the first method actor to debut in films and yet Marlon Brando is mistakenly credited by many people as the first likely for 2 reasons. Brando's performances were more loud and in your face whereas Clift was much more subtle in his work. Brando also got a huge revival in his career in The 1970's with iconic roles in The Godfather and Apocalypse Now that strengthened and cemented his reputation as an iconic actor. Clift died prematurely at the age of 45 in 1966 so he never lived to see the old age or the 1970's and receive that career revival that Brando enjoyed. It's a shame because I feel Clift would
@@ -4385,19 +4452,19 @@
 Anyone else here a fan of his work?</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>2024-04-28 20:13:20</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>The Zone of Interest and benign totems</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Apologies if this exact angle has been discussed a lot, but having just seen *The Zone of Interest* for the first time 4 days ago, there's something quietly monumental that Glazer and his team pulled off here that I remain floored by.
 The horror of the film, for me, is in its use of commonplace objects and places- things familiar to just about anyone- to represent how atrocity stains and encroaches on everyday life. These small signifiers are present in the Höss home, innocent on their own, but in the context of this film are horrifying. 
@@ -4408,40 +4475,19 @@
 I'll never look at an apple the same way again, and even if this isn't a new observation, I think that's a powerful achievement.</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>2024-03-13 18:26:43</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>The Lady from Shanghai blew me away</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>The film is often considered one of Welles' lesser works, if not an outright failure. It was meant to be an hour longer but Columbia cut it to pieces because they just wanted it to be a simple star vehicle for Hayworth. So many believe that it's just an empty shell of an unrealized vision.
-But somehow I feel it's part of what makes it brilliant, the entire film is Welles constantly fighting against the constraints of a straightforward mainstream suspense picture and so many beautiful eccentricities and contrasts come out of it as a result. 
-The whole beginning with the horse carriage among a sea of cars; the bizarre Caribbean cruise, where Welles' sweaty and paranoid glances are juxtaposed with studio-mandated ultra-glamorous inserts of Hayworth singing the title song; a hysterical scenery-chewing Glenn Anders baiting him into an increasingly implausible and convoluted murder plot that basically completely dissolves into dreamlike surreality at the end; the satirical court scenes that foreshadow Welles' own adaptation of The Trial. And then, of course, the funhouse and unforgettable hall of mirrors shootout, which is breathtaking to this day.
-It's absolutely insane and essentially plays like a high budget version of Detour, where instead of every shot being held together by duct tape the film has the full backing of a major studio with pristine on-location work and elaborate sets. It basically shouldn't exist but does. I'm sure Welles' intended version would have been great too but I still think it's very special in its current form.
-So many great lines too - "Everybody is somebody's fool", "I've always found it very sanitary to be broke", ...</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2024-03-13 03:45:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Is it even arguable that the sound design of pre 2000-ish was vastly superior?</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Anyone that makes a habit of watching older films knows what I’m talking about. The almost asmr inducing dialogue, the way you can very faintly hear almost radio static when they start to talk, they used adr a lot more, making the contrast of sounds even more pronounced. The stock sound of cities is always loud and booming, followed by a stark contrast of silent homes and the best foley work you could imagine, every foot step echoing through the house. You can feel every cigarette being lit. Every drink being poured. Every single action has its designated sound. And it’s wonderful. It’s cinema. 
 Somewhere along the way, it stopped. Maybe the change in fashion, more sneakers instead of dress shoes, no more matches for cigarettes, etc. I think the advances in technology has dramatically affected basic sound design. It all sounds too smooth. Too plastic. Too produced, which is ironic considering I think it’s less produced now.
@@ -4449,38 +4495,38 @@
 Edit: Guys, there are TONS of movies over the last 20 years that have amazing sound design. Tons. My point is that the average movie in 1978 has a much better sound design, for my tastes, than the average movie in 2024. And I don’t think it’s particularly close.</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>2024-10-02 11:49:46</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Is Ernest Burkhart Scorsese’s first unsympathetic protagonist?</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>A reoccurring aspect in Scorsese’s films is the aim to make you sympathize with very deeply flawed, even monstrous men.
 Travis Bickle is a deeply unhinged and disturbed individual that’s also very strongly implied to be partially motivated by an underlying racism, pretty much the exact type you’d expect to end up as a mass shooter. Yet his loneliness and isolation is something easily relatable to many. Scorsese is utterly unflinching in his portrayal of Jake Lamotta as an abusive, violent, possessive mess of a man. Yet by depicting his life with such raw honesty, it’s a portrait of a sad and pitiful man that comes through whose inability to overcome his deep flaws can hit quite close to home for viewers. In his rise and fall movies like Goodfellas and Wolf of Wall Street, the sympathy comes from making the viewer get just as caught up in the allure of these lifestyles as their protagonist. Yet while these movies ultimately serve as a critique of these types of men, it’s also made very easy to see why someone would be seduced by that type of power in the first place. 
 There’s nothing sympathetic about Ernest Burkhartnor at least if there is, I found nothing. He has the basic human traits of loving his children and wife, and it’s questionable how much that’s even worth when he’s slowly poisoning her to death. There’s no rise and fall story for viewers to get caught in, the ugliness he’s depicted with is far too banal for it to ever be sympathetic, he’s just portrayed as an unadulterated scumbag. Is this the first time Scorsese has deemed his protagonist unworthy of sympathy? Are the historical injustices committed against the Osage people and other tribes so deplorable that he felt it wasn’t appropriate here?</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>2024-03-26 20:44:13</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Challengers: The Corruption of Art</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>A quick thought on Challengers that I haven't quite seen voiced quite this way yet:
 So the whole movie is this psychosexual drama between Tashi, Patrick, and Art, and their desire for each other that keeps drawing them towards this toxic, complicated mess of a threesome. Clearly Tashi never got over her career-ending injury, and so constantly strives to live vicariously through Art and/or Patrick; and Patrick, having lost Tashi to Art, lives in a limbo state of self-imposed destitution as he pines for both his woman and his best friend. So at the beginning of the movie, both Tashi and Patrick are profoundly unsatisfied with their lives.
@@ -4489,37 +4535,57 @@
 So when the film ends with Art embracing Patrick, having been ironically reinvigorated by Patrick and Tashi's infidelity, it's not a triumph. For Tashi and Patrick, this game - this back and forth of constant conflict and tension - is the only thing that will ever make them happy. Art, though, could've been perfectly content with a simpler, calmer, less aggressive life; the tragedy is not that he'd lost his love for tennis, but that there was still enough left in him that he let himself get dragged right back into the mess he thought he'd left behind.</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>2024-05-14 09:53:15</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>What The Heck Was Sofia Coppola Going For in The Bling Ring?</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 years late to this conversation, but I just watched The Bling Ring and it's been a long time since I''ve seen a movie that misses the mark for me by such a wide margin. 
+The direction and cinematography is exceptionally and aggressively bland, right down to the selection of opening credit font. The acting is atrociously stilted, and the narrative structure bizarre and off-putting, with non-sequitors devoid of character development.
+I respect and mostly enjoy Sofia Coppola's vision in her other films, and know what she's capable of, so I'm giving the movie the benefit of the doubt that all of this is purposeful...but I'm just not getting it. And this is even acknowledging that the characters are intended to be oblivious airhead. But this is the insipid filmmaking supposed to be juxtaposed to the soulessness of privileged adolescence? It's as if Coppola set out to make an anti-movie for purposes that is beyond my comprehension, and maybe she just took it too far.
+Or am I giving this too much credit and it's just not a very good movie? </t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024-04-13 03:13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Desperately looking for a film podcast that isn't so vanilla.</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>I love podcasts and I love movies, but I cannot find a good film podcast. No offense to anyone, but I've listened to the big podcasts like "Show Me the Meaning" (this one I kinda like) or "The Big Picture" and I find the humor and content to be really bland at times. They tiptoe around difficult subjects and generally just regurgitate what I've read in Rotten Tomatoes reviews. While they do have a lot of knowledge about film/the industry (which I totally respect), I just feel like I'm eavesdropping on a couple of 38 y.o. tech bro's at the local bar. I think I might just be a little young for their vibe.
 Any recommendations for film podcasts that are a little more provocative, funny, or colorful?</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>2024-01-22 23:38:32</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>I've just finished a 2 month Alfred Hitchcock film festival. Here are my 3 main takeaways:</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Here's how the festival worked:
 Two movies would play back to back Thursday/Friday and two different movies would do the same Saturday/Sunday. So in essence I watched 4 Alfred Hitchcock movies every week. These were organized mostly chronologically (starting with 39 Steps from 1935 up to Marine from 1964) but also thematically (Strangers on a Train and Psycho were in the same day as "Psycopath" movies).
@@ -4541,70 +4607,9 @@
 Hope you enjoy the read!</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>2024-07-05 18:40:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>What's the most a film has ever been changed in post? (Studio interference, bad test screenings, etc)</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>I was watching the RedLetterMedia video about *Galaxy Quest*, and of course they mention how the film was heavily edited down from a raunchier PG-13/maybe light R to a PG on the grounds that the studio had a hit with the PG rated *Rugrats Movie* and wanted to go after that same crowd. This of course fails to consider that perhaps a Nickelodeon cartoon and a 1960's meta-comedy homage to a science fiction show might have slightly different crowds, but from everything I've read about studios in the 80s and 90s, it seems like there was much more of a 'dog chasing cars' element of literally just attempting to copy what the #1 movie of the last weekend was doing, regardless of how different it was from the film in question being produced.
-Of course, plenty of good films changed radically from their original screenplay, so that I wouldn't really count (*Beetlejuice* was originally about a winged dwarf who spoke AAVE, which I'm sure in no way was influenced by or the result of cocaine), but what I'm more interested in is **films that changed radically after a significant amount of it had already been made** (even if it was just principal photography and not necessarily a fully finished version). 
-The other best example of this I could think of was *Kangaroo Jack*, a Bruckheimer-produced comedy that began its life as an R rated crime comedy, before being shot as something a little less raunchy, tested poorly (with the only positives being a single scene with an animatronic kangaroo), leading the studio to re-edit it down into a PG rated "family" movie with a CGI, rapping kangaroo taking the place of its original animatronic counterpart, as well as being inserted into enough scenes to make it the centerpiece of the marketing campaign in an attempt to trick families into thinking they were getting another talking animal movie, inspired by the famously misleading *Snow Dogs* trailer. 
-Are there any other examples of this? I feel like this is the closest I can think of for a major production essentially being sold for parts and cleaned out like a game of Operation. I know *Alien 3* was originally going to be set on Earth, apparently so far into production that the original theatrical teaser said "In 1992, on Earth, *everyone* can hear you scream", which coincidentally is the premise of the upcoming TV show. From what I understand, they had spent several million dollars on sets that weren't used in the final product and generally had plenty of frustration and interference, but as far as I know I don't think they were actually shooting any footage on the unused sets. 
-Any good articles about these would be highly appreciated as well, I love reading stuff about difficult/chaotic film productions.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2024-12-06 19:17:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>I Watched Melancholia for the First Time</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I found it a fascinating exploration of two very different psychological dispositions. One characterised by meaningless, and one characterised by purpose. It was interesting that Trier used an existential crisis to explore the various reactions that such dispositions create, where Justine's outlook of meaningless allows her to accept death because the world has nothing of value, while Claire experiences paralyzing anxiety as she fears losing the world because she can see its value. 
-And damn some of those images had the power to conjure some serious anxiety from a sense of existential dread. The first 'pass by' sequence perfectly captured the terrifying reality of an existential catastrophe and how if these events occur, humans are at the complete mercy of forces beyond their control. 
-Anyway, great film. 
-</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2024-10-30 18:34:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>What The Heck Was Sofia Coppola Going For in The Bling Ring?</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 years late to this conversation, but I just watched The Bling Ring and it's been a long time since I''ve seen a movie that misses the mark for me by such a wide margin. 
-The direction and cinematography is exceptionally and aggressively bland, right down to the selection of opening credit font. The acting is atrociously stilted, and the narrative structure bizarre and off-putting, with non-sequitors devoid of character development.
-I respect and mostly enjoy Sofia Coppola's vision in her other films, and know what she's capable of, so I'm giving the movie the benefit of the doubt that all of this is purposeful...but I'm just not getting it. And this is even acknowledging that the characters are intended to be oblivious airhead. But this is the insipid filmmaking supposed to be juxtaposed to the soulessness of privileged adolescence? It's as if Coppola set out to make an anti-movie for purposes that is beyond my comprehension, and maybe she just took it too far.
-Or am I giving this too much credit and it's just not a very good movie? </t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2024-04-13 03:13:08</t>
         </is>
       </c>
     </row>
@@ -4642,47 +4647,71 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>The Deer Hunter just might be the best film about Vietnam, even better than Apocalypse Now</t>
+          <t>I Watched Melancholia for the First Time</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Apocalypse now is superior in many respects, but thematically The Deer Hunter is a much more human story and thematically a much richer and more personal film. 
-It explores the most important and perhaps least addressed facet of the war, and that is the devastating psychological impact the conflict had on its participants. In Apocalypse Now, we see some of these effects in the brief interactions with Kurtz but as a whole The Deer Hunter covers this much more thoroughly and anchors its entire story on this phenomenon.</t>
+          <t xml:space="preserve">I found it a fascinating exploration of two very different psychological dispositions. One characterised by meaningless, and one characterised by purpose. It was interesting that Trier used an existential crisis to explore the various reactions that such dispositions create, where Justine's outlook of meaningless allows her to accept death because the world has nothing of value, while Claire experiences paralyzing anxiety as she fears losing the world because she can see its value. 
+And damn some of those images had the power to conjure some serious anxiety from a sense of existential dread. The first 'pass by' sequence perfectly captured the terrifying reality of an existential catastrophe and how if these events occur, humans are at the complete mercy of forces beyond their control. 
+Anyway, great film. 
+</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2023-12-21 20:03:46</t>
+          <t>2024-10-30 18:34:10</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>(500) Days of Summer</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Summer’s final conversation with Tom underscores the essential difference between her relationship with Tom and her eventual husband.
+Authentic Connection: Summer’s relationship with her husband started with him showing genuine interest in her as a person. This initial connection, based on curiosity and mutual interests, set a good starting foundation for their relationship. In contrast, Tom’s connection with Summer was more about his own idealization and the fulfillment of his romantic fantasies.
+First Meeting Comparison: When Summer first shows interest in Tom by mentioning The Smiths, it suggests she was open to him based on shared interests. However, Tom did not reciprocate by exploring Summer’s interests or thoughts in a meaningful way throughout their relationship.
+Emotional Depth: The scene where Summer shares personal stories with Tom, and he fails to truly listen, highlights a missed opportunity for emotional depth. Tom’s focus on how lucky he was to be with Summer, rather than on what she was sharing, points to his inability to see her as a complete person with her own experiences and feelings.
+Summer’s Clarity: In her final conversation with Tom, Summer explains that she felt a certainty with her husband that she never felt with Tom. This certainty likely stemmed from feeling seen and understood on a deeper level, which was something Tom didn’t provide due to his preoccupation with his idealized version of her.
+Growth and Realization: Tom’s journey throughout the film involves coming to terms with the difference between infatuation and true love. Summer’s revelation about her husband serves as a pivotal moment for Tom, illustrating the importance of genuine emotional connection over superficial or idealized notions of love.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2024-07-15 07:04:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t>Just watched Nashville (1975) and I need someone to tell me I’m not crazy for adoring this movie.</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t xml:space="preserve">Felt like it was a warm blanket wrapped around me for most of the movie (obviously excluding the ending). But the way you just feel inserted directly into Nashville and into these people’s lives is astounding to me. Almost 3 hours wasn’t enough- I could have watched 10 hours of it. All the talking over each other, the cast-created songs, the political drama. Loved it all. 
 But my husband and I are watching IMDBs top 100 greatest movies of all time and we discuss with each other after each movie-and I was so shocked to find he hated it. Despised it!!! Now I just need someone to validate me and tell me how much they loved this movie so I feel less crazy!!! If you’ve seen Nashville, what did you think?
 Edit: a snippet of our argument [here](https://www.instagram.com/reel/C3QjK-YO9Gn/?igsh=MXFhamNmNHhhM2licw==)if you want to hear my poor husband’s side. </t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>2024-02-12 21:37:28</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Anatomy of a Fall - why doesn't the movie mention the only real motive?</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>I enjoyed this movie a lot, but I don't understand why it is presented as ambiguous. It was completely clear that she didn't do it. 
 Considering everything the movie chooses to focus on and represent, the physical evidence initially seemed incriminating but then seemed to support the suicide/fall version much better. 
@@ -4698,19 +4727,19 @@
 EDIT: One more off topic thing, I'm with her about that point that using the idea to develop a totally different story across 300 pages isn't stealing. It's not hard to have good ideas, it's much harder to write a good story around them, he didn't have shit. I'm pretty sure she's right that he let her use it. At least that made something out of it, so he can always say he had potential.</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>2024-02-08 07:29:10</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>A Personal Experience with Coralie Fargeat's The Substance.</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>One of the films that generated a lot of buzz at this year’s Cannes Film Festival was Coralie Fargeat’s The Substance; it even won the Best Screenplay award. Words like provocative, gnarly, and Cronenbergian were used to describe the film, so naturally, I knew I had to watch it. Finally, last night, I got to see it, and honestly, more than being a gruesome and titillating affair, I found it surprisingly relatable.
 The Substance is about a middle-aged, has-been star named Elisabeth Sparkles (Demi Moore), who realizes she is soon going to be replaced by someone younger in the show she has been a part of. She decides to experiment with a mysterious substance that can generate a younger, more attractive version of herself. Without going into much detail, in case you haven’t seen the film and plan to, things go sideways for Elisabeth when she begins disobeying the rules of the experimental substance. The rest of the film explores what happens between Elisabeth and her new body (wonderfully played by Margaret Qualley).
@@ -4720,31 +4749,9 @@
 I highly recommend The Substance. Fargeat skillfully blends the styles of David Cronenberg and Baz Luhrmann while paying homage to Stanley Kubrick, all while maintaining her own vision. It’s fun, gruesome, titillating, but most importantly, thought-provoking.</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>2024-10-15 09:38:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>(500) Days of Summer</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Summer’s final conversation with Tom underscores the essential difference between her relationship with Tom and her eventual husband.
-Authentic Connection: Summer’s relationship with her husband started with him showing genuine interest in her as a person. This initial connection, based on curiosity and mutual interests, set a good starting foundation for their relationship. In contrast, Tom’s connection with Summer was more about his own idealization and the fulfillment of his romantic fantasies.
-First Meeting Comparison: When Summer first shows interest in Tom by mentioning The Smiths, it suggests she was open to him based on shared interests. However, Tom did not reciprocate by exploring Summer’s interests or thoughts in a meaningful way throughout their relationship.
-Emotional Depth: The scene where Summer shares personal stories with Tom, and he fails to truly listen, highlights a missed opportunity for emotional depth. Tom’s focus on how lucky he was to be with Summer, rather than on what she was sharing, points to his inability to see her as a complete person with her own experiences and feelings.
-Summer’s Clarity: In her final conversation with Tom, Summer explains that she felt a certainty with her husband that she never felt with Tom. This certainty likely stemmed from feeling seen and understood on a deeper level, which was something Tom didn’t provide due to his preoccupation with his idealized version of her.
-Growth and Realization: Tom’s journey throughout the film involves coming to terms with the difference between infatuation and true love. Summer’s revelation about her husband serves as a pivotal moment for Tom, illustrating the importance of genuine emotional connection over superficial or idealized notions of love.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2024-07-15 07:04:36</t>
         </is>
       </c>
     </row>
@@ -4819,10 +4826,53 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>Starship Troopers - The Battle of Klendathu is one of the most harrowing war sequences ever filmed</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For context, I’ve seen about every war/military movie under the sun. This is not a joke post.
+I watched Starship Troopers last night for the first time in at least 15 years, and part of its success in holding up as a really really good satire is its depiction of the brutality of war. 
+Paul Verhoeven’s direction is excellent in building this fascist-propagandist world up to the point where by the time the soldiers are sent to Klendathu to kill some bugs, we the viewers are fully expecting them to kick some ass. But what Verhoeven does especially well in this sequence is showcase the FEAR and horror of the reality these soldiers have not yet been faced with. Everyone, from the starfleet to the ground soldiers have been misled to believe this will be an easy fight, but the bugs are far bigger in numbers and intelligence than anyone ever expected - leading to an absolutely horrifying bloodblath. 
+The sequence in question begins with a grandiose “Ride-of-the-Valkyrie’s” type action where these soldiers we’ve gotten to know since bootcamp are finally being sent off to war, and the viewer can absolutely feel this nervousness and sense of anxiety as the ships make their way down to the planet. Once on the planet, suddenly characters we know and were expecting to be larger parts of the story are being picked off in brutal fashion. That’s war. No one is a main character. Everything leading up to this moment makes this sudden carnage so shocking and almost heartbreaking, as we see the fear of these young soldiers as they realize they’re dead-meat. 
+This whole sequence is very effective to me, and even if this is a pseudo-comedy satire about giant bugs, I find it to be one of the most effective battle sequences I’ve ever seen. 
+What are ya’lls thoughts on this sequence, or in Starship Troopers in general? I find it to be an excellent film </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2024-05-15 14:34:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Paris, Texas - critique or earnest?</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I just rewatched Paris, Texas last night for the first time in a long, long time. I remember LOVING it when I was younger but this time, by the time Travis and Jane start their exposition, I was struggling and very, very uncomfortable. 
+Travis is a monster. In his selfish attempt at self-absolution he essentially kidnaps Hunter from a comfortable life with a loving family and hands him off to his mom who, though she loves him, does NOT have the capacity to raise him well. The ending, this time around, was not heartwarming as much as disgusting to me. 
+But it got me thinking- is that what Wenders / Shepard were saying? That the narrative of individualist self-actualization and redemption, common themes in movies and media, can be dangerous and dubious? That the archetype of the laconic drifter is incompatible with complexities of real life? And that if that person were to exist, they’d drift from circle to circle and disrupt everytjing like whirlwind that then moves on free from consequence?
+I’m not confident enough to think that this is what Wenders was going for - and the whole reading may be cope to reconcile a movie that I loved with my now-lukewarm reception to it, but I do think Wenders was very intentional to show the quiet, everyday, functional love that Walt and Anne had for Hunter- they raised him, enforced rules on him and loved him unconditionally,  as real parents do whereas Travis is like the cool uncle who we all KNOW cannot raise a kid. Additionally, Wenders seems to characterize Travis as a pathetic chickenshit coward, always unable to face his problems. He can’t face Anne in the phonebooth, he can’t face telling Hunter the truth so elects to do it via recording, he can’t face Jane in the club and he can’t face the aftermath of his actions at the end. 
+It just seemed like Wenders was condemning or judging Travis, in a way. So why then is he so commonly seen as such a sympathetic character? Is it just HDS’ je ne sais quoi? </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2024-03-19 22:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>Megalopolis, or the Rise of Stupid Criticism</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Megalopolis premieres tonight. It's a wide release (around 1700 theaters, last I checked), nationwide, with a cast of stars and a famous director. It is not expected to make any money at all. Why is that?
 I recently came across a particular scathing review from SFGate (which Reddit, undoubtedly for some very important reason, will not let me link), written by a Mr. Drew Magary. Entitled "Megalopolis is a piece of s--t" (a classy title if there ever was one), it is a long-winded and loud tirade against this picture. The writer explains (after a long series of paragraphs detailing Mr. Coppola's various misdeeds, verified and falsified alike) that you should not watch this picture. No matter how good it sounds (and, rather hilariously, he cannot prevent it from sounding at least a tiny bit good), you should resist the urge. Stay away, he says, for something dreadful lies before you.
@@ -4832,60 +4882,9 @@
 NOTE: I have not seen the picture yet. I am seeing it tomorrow. Will update with my own thoughts (if they end up being worth anything), but this isn't about whether the picture is good or not. It's about the principle of the thing. Telling people to stay away from something at all costs (besides being a peculiarly narrowing way of looking at art) is a great way to make people want to see it. And Coppola possibly being a sex pest (which they're litigating, so we'll see what the outcome is) doesn't make the picture bad. Half of the bigwigs in Hollywood do this crap every day. If you won't look at a piece of art made by a bad person, then you won't have any art left to look at. Not excusing it, but powerful people are generally pretty corrupt. Shouldn't be, but there it is.</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>2024-09-26 18:18:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>FIGHT CLUB (1999) The twist in Fight Club is pertinent to it's key message and by no means a "Cop out".</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>So, this applies to the book itself- but when I was younger, I saw, liked and appreciated Fight Club for a myriad of reasons. Later on when I finally encountered others who saw the film to hear a common take: "It's REALLY good until the twist at the end, then it falls apart." I was so suprised to hear this again and again and again. 
-The idea being that it's a really strong premise about alienation in modern day society and people, men namely, railing against it. But later in the story the author seems to run out of things to say and resorts to this insane paradigm shifts that serves as an out for the remainder of the story.
-To me, this is missing the story ENTIRELY. Okay so let's say the remainder of the story is just two real guys, Narrator and Tyler taking over the world through domestic terrorism. Ok. That's sort- something I guess.
-But the real crux of FIght Club isn't actually about fist fights and changing the world through explosive soap. It's actually all about the ID. It's a meditation around the idea of the human ego, what it actually is in it's purest form and how we should responsibly treat it.
-The story starts out with "Jack" aka "Narrator" aka Ed Norton who is a suit, working in a safe, predefined world that shaves off every hard edge and any sense of self or danger.
-Norton has fallen into a cookie cutter role of "Working man"  without any ability to indulge himself in any sort of original thought or identity.
-As the story progresses what we learn later, is Ed Norton's character is letting his Ego, his ID completely loose on society. The ID as it's described by philosphers is the purest, primal self. Sexual desires, core needs and wants as they pertain to the immediate mindset devoid of any other consequence is what comes out.
-Back in the day you could argue Genghis Khan was an ID maximalist, dominating, destroying, taking, having sex with everything and anything he ever wanted, eating, embibing with no other consideration. Now take that mindset and set it into modern day, where does that belong? Anywhere? To what extent? These are the questions fight club is asking.
-By the final act of Fight Club we realize the entire story is about Norton discovering his ID has gotten totally loose and is compleyley out of control. To me this is a much deeper, much more interesting premise than just guys who are anarchists. It's philsosophical thought experiment.
-Breaking Bad explored this to an extent- we learn it's not really about Meth with Walter White, but rather a man who has chosen to become an unstoppable object and plow past the word "No" by unleashing his ID on society.
-FIght clubs thesis is starting with the plaintiff complaint of "Why can't we just be ourselves? Why do we have to midigate who we are, truly?" and then slowly evolves it into "Wait- maybe that's a terrible idea. Maybe we are not great by nature and should curb certain parts of our deepest ID at all costs if we live within a modern society"
-The story also hilariously tackles the issue that we as a society actually seem to seek someone to tell us what to do- at least to a certain extent. The shee satirical irony that the followers of Tyler ultimately end up as nameless worker drones who have no identity is evidence of this and kind of hihglights the same thing we've seen in history where revolution leads to opression over and over again.
-All in all, I think the story is far deeper and superior for following this thread of the true driving forces of the inner self versus guys simply railing against a sytem.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2024-11-06 15:40:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Starship Troopers - The Battle of Klendathu is one of the most harrowing war sequences ever filmed</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For context, I’ve seen about every war/military movie under the sun. This is not a joke post.
-I watched Starship Troopers last night for the first time in at least 15 years, and part of its success in holding up as a really really good satire is its depiction of the brutality of war. 
-Paul Verhoeven’s direction is excellent in building this fascist-propagandist world up to the point where by the time the soldiers are sent to Klendathu to kill some bugs, we the viewers are fully expecting them to kick some ass. But what Verhoeven does especially well in this sequence is showcase the FEAR and horror of the reality these soldiers have not yet been faced with. Everyone, from the starfleet to the ground soldiers have been misled to believe this will be an easy fight, but the bugs are far bigger in numbers and intelligence than anyone ever expected - leading to an absolutely horrifying bloodblath. 
-The sequence in question begins with a grandiose “Ride-of-the-Valkyrie’s” type action where these soldiers we’ve gotten to know since bootcamp are finally being sent off to war, and the viewer can absolutely feel this nervousness and sense of anxiety as the ships make their way down to the planet. Once on the planet, suddenly characters we know and were expecting to be larger parts of the story are being picked off in brutal fashion. That’s war. No one is a main character. Everything leading up to this moment makes this sudden carnage so shocking and almost heartbreaking, as we see the fear of these young soldiers as they realize they’re dead-meat. 
-This whole sequence is very effective to me, and even if this is a pseudo-comedy satire about giant bugs, I find it to be one of the most effective battle sequences I’ve ever seen. 
-What are ya’lls thoughts on this sequence, or in Starship Troopers in general? I find it to be an excellent film </t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2024-05-15 14:34:32</t>
         </is>
       </c>
     </row>
@@ -4922,27 +4921,29 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Aguirre, the Wrath of God (1972)</t>
+          <t>FIGHT CLUB (1999) The twist in Fight Club is pertinent to it's key message and by no means a "Cop out".</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>This film was my introduction to Werner Herzog's ouevre, and what an introduction! From the first scene with the conquistadors coming down the mountain, to the final scene of Aguirre finally confirming his madness alone on the raft, one thing comes to mind: this is absurd! Brilliantly absurd.
-Their quest is futile from the very start - there is no El Dorado. The ladies dressed in beautiful dresses, carried up and down mountains into and through the hostile jungle, the mutineers' letter to the King (that obviously no one will ever read), the mock trial, the "official" claiming of the land around the river... it's all so wonderfully absurd.
-Klaus Kinski's performance is great, his evil scheming and then his increasingly obvious madness is played very well.
-Some of my favourite scenes:
-* The mutiny
-* Aguirre speaks to his prisoner in the cage
-* The horse is left on land
-* The conquistadors find salt
-* The finale
-I finish the film thinking "what are they even doing there?", so out of their element, both literally and figuratively.
-What were your takeaways of *Aguirre, the Wrath of God*?</t>
+          <t>So, this applies to the book itself- but when I was younger, I saw, liked and appreciated Fight Club for a myriad of reasons. Later on when I finally encountered others who saw the film to hear a common take: "It's REALLY good until the twist at the end, then it falls apart." I was so suprised to hear this again and again and again. 
+The idea being that it's a really strong premise about alienation in modern day society and people, men namely, railing against it. But later in the story the author seems to run out of things to say and resorts to this insane paradigm shifts that serves as an out for the remainder of the story.
+To me, this is missing the story ENTIRELY. Okay so let's say the remainder of the story is just two real guys, Narrator and Tyler taking over the world through domestic terrorism. Ok. That's sort- something I guess.
+But the real crux of FIght Club isn't actually about fist fights and changing the world through explosive soap. It's actually all about the ID. It's a meditation around the idea of the human ego, what it actually is in it's purest form and how we should responsibly treat it.
+The story starts out with "Jack" aka "Narrator" aka Ed Norton who is a suit, working in a safe, predefined world that shaves off every hard edge and any sense of self or danger.
+Norton has fallen into a cookie cutter role of "Working man"  without any ability to indulge himself in any sort of original thought or identity.
+As the story progresses what we learn later, is Ed Norton's character is letting his Ego, his ID completely loose on society. The ID as it's described by philosphers is the purest, primal self. Sexual desires, core needs and wants as they pertain to the immediate mindset devoid of any other consequence is what comes out.
+Back in the day you could argue Genghis Khan was an ID maximalist, dominating, destroying, taking, having sex with everything and anything he ever wanted, eating, embibing with no other consideration. Now take that mindset and set it into modern day, where does that belong? Anywhere? To what extent? These are the questions fight club is asking.
+By the final act of Fight Club we realize the entire story is about Norton discovering his ID has gotten totally loose and is compleyley out of control. To me this is a much deeper, much more interesting premise than just guys who are anarchists. It's philsosophical thought experiment.
+Breaking Bad explored this to an extent- we learn it's not really about Meth with Walter White, but rather a man who has chosen to become an unstoppable object and plow past the word "No" by unleashing his ID on society.
+FIght clubs thesis is starting with the plaintiff complaint of "Why can't we just be ourselves? Why do we have to midigate who we are, truly?" and then slowly evolves it into "Wait- maybe that's a terrible idea. Maybe we are not great by nature and should curb certain parts of our deepest ID at all costs if we live within a modern society"
+The story also hilariously tackles the issue that we as a society actually seem to seek someone to tell us what to do- at least to a certain extent. The shee satirical irony that the followers of Tyler ultimately end up as nameless worker drones who have no identity is evidence of this and kind of hihglights the same thing we've seen in history where revolution leads to opression over and over again.
+All in all, I think the story is far deeper and superior for following this thread of the true driving forces of the inner self versus guys simply railing against a sytem.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2024-02-15 13:25:01</t>
+          <t>2024-11-06 15:40:31</t>
         </is>
       </c>
     </row>
@@ -4977,116 +4978,37 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Paris, Texas - critique or earnest?</t>
+          <t>Aguirre, the Wrath of God (1972)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve">I just rewatched Paris, Texas last night for the first time in a long, long time. I remember LOVING it when I was younger but this time, by the time Travis and Jane start their exposition, I was struggling and very, very uncomfortable. 
-Travis is a monster. In his selfish attempt at self-absolution he essentially kidnaps Hunter from a comfortable life with a loving family and hands him off to his mom who, though she loves him, does NOT have the capacity to raise him well. The ending, this time around, was not heartwarming as much as disgusting to me. 
-But it got me thinking- is that what Wenders / Shepard were saying? That the narrative of individualist self-actualization and redemption, common themes in movies and media, can be dangerous and dubious? That the archetype of the laconic drifter is incompatible with complexities of real life? And that if that person were to exist, they’d drift from circle to circle and disrupt everytjing like whirlwind that then moves on free from consequence?
-I’m not confident enough to think that this is what Wenders was going for - and the whole reading may be cope to reconcile a movie that I loved with my now-lukewarm reception to it, but I do think Wenders was very intentional to show the quiet, everyday, functional love that Walt and Anne had for Hunter- they raised him, enforced rules on him and loved him unconditionally,  as real parents do whereas Travis is like the cool uncle who we all KNOW cannot raise a kid. Additionally, Wenders seems to characterize Travis as a pathetic chickenshit coward, always unable to face his problems. He can’t face Anne in the phonebooth, he can’t face telling Hunter the truth so elects to do it via recording, he can’t face Jane in the club and he can’t face the aftermath of his actions at the end. 
-It just seemed like Wenders was condemning or judging Travis, in a way. So why then is he so commonly seen as such a sympathetic character? Is it just HDS’ je ne sais quoi? </t>
+          <t>This film was my introduction to Werner Herzog's ouevre, and what an introduction! From the first scene with the conquistadors coming down the mountain, to the final scene of Aguirre finally confirming his madness alone on the raft, one thing comes to mind: this is absurd! Brilliantly absurd.
+Their quest is futile from the very start - there is no El Dorado. The ladies dressed in beautiful dresses, carried up and down mountains into and through the hostile jungle, the mutineers' letter to the King (that obviously no one will ever read), the mock trial, the "official" claiming of the land around the river... it's all so wonderfully absurd.
+Klaus Kinski's performance is great, his evil scheming and then his increasingly obvious madness is played very well.
+Some of my favourite scenes:
+* The mutiny
+* Aguirre speaks to his prisoner in the cage
+* The horse is left on land
+* The conquistadors find salt
+* The finale
+I finish the film thinking "what are they even doing there?", so out of their element, both literally and figuratively.
+What were your takeaways of *Aguirre, the Wrath of God*?</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2024-03-19 22:49:55</t>
+          <t>2024-02-15 13:25:01</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Zadie Smith's Pulitzer finalist review of Tar</t>
+          <t xml:space="preserve">I can't remember the last time a movie got such a purely emotional reaction out of me as 'The Iron Claw' </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
-        <is>
-          <t>Having heard that Zadie Smith's [review of Tar](https://www.nybooks.com/articles/2023/01/19/the-instrumentalist-tar-todd-field-zadie-smith/#fn-2) in The New York Review of Books was a finalist for the Pulitzer Prize, I read it with great curiosity, but kinda found myself wondering what the big deal was and why it merited such a grand honor.
-There is not much criticism in it, if any (Blanchett's performance comes in for praise and we can kinda generally tell she likes the way the film deals with the themes, but that's about it), though it is categorized as a review on the NYRB's site. It is perhaps more accurately described as an essay, but then it doesn't really make any point or argue for anything. It is essentially retells the film and explains how particular moments and beats relate to particular themes the film deals with.
-Am I just not understanding or appreciating what's great about this review/essay? What are your thoughts?</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2024-05-21 23:16:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Poor Things: A near-perfect film that felt like discovering life anew.</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Simply blown away by this movie, may well be my favorite of 2023. Would've been more or less flawless if the third act wasn't as bloated and languidly paced, but it wasn't enough to ruin the film. I'm so glad I went in more or less blind to this movie - I knew the basic premise, but the details were all the most pleasant of surprises.
-Emma Stone deserves all the awards for this performance. Even within the opening minutes this clearly felt like a role that any actor would leap at the chance to play, but I can't imagine anyone else doing it now. Watching her evolve from a child pieced together with spare parts to a mature woman was enthralling, and both she and the movie immediately made you fall in love with her weirdness. Some part of me was slightly dismayed to see her become more "normal" (especially as she began to see the ugliness of the world), since her sweet naivete seemed to function as a mirror to deconstruct much of the pointless misery and cynicism we as a species trade in. Watching her felt like discovering life anew. I wish I could be a fly on the wall during her sessions crafting this character alongside Lanthimos and Tony McNamara. It was both spontaneous and specific to a degree only the most skillful of artists could conceive of.
-Nearly everyone else brought their A-game too. Dafoe was predictably marvelous, and his character had a lot more warmth and kindness than I expected. Watching him casually rationalize his father's deranged cruelty in the name of science provided some of the film's most quietly devastating moments. Ruffalo was an absolute revelation, taking a character that could've become a grating caricature and making him a hilariously watchable presence. It was the mix of primal rage and self-debasing comedy that his last few Hulk appearances have not properly afforded him. I loved Christopher Abbott in his brief scenes even though I feel his character's inclusion in the story was extraneous - he was equal parts charming and horrifying. Carmichael was the one miscast. Felt totally out of place, and his line readings were devoid of any personality.
-The art direction and visual style came as a complete surprise to me. I figured the black and white portions would take some aesthetic liberties, but that first shot of Lisbon with all the paper-cutout backgrounds and steampunk elements seriously took me aback, and I realized the world of this movie was 10x as imaginative as it already was. More or less every shot in this movie was a visual feast, making painterly use of vibrant colors to create gorgeous, surreal, magnificently weird worlds. Many of the establishing shots reminded me of the work of [Erik Johansson](https://www.erikjo.com/work/loyalmail). The movie's visual inventiveness extended beyond just the cinematography and set design but also the font choices, the way the credits were arranged onscreen (wrapping around the borders of the frame), and of course those incredible title cards which I couldn't get enough of. Worlds within worlds.
-I didn't want the movie to end during the first 2/3rds. I expected the movie to be at least somewhat funny, but it was fucking HILARIOUS, with me and my whole row in the theater laughing out loud at so many points. The humor in the movie worked mainly because it came from physical gags and inherently funny situations rather than just canned one-liners like you see in most Hollywood comedies. Dafoe burping those fucking bubbles for one, lost it every time. Most of the funniest moments were between Stone and Ruffalo (an incredible comic duo), especially the scene where she spits out her food during a dinner with another couple and the women joke about their partners' penises. It sounds so basic on paper and yet the script and actors made it uniquely brilliant. So much humor in Bella's many ingenious, adorable phrases for things. "Furious jumping" needs to become a meme.
-The movie did sag a fair bit once it hit the brothel section in Paris, though this felt intentional. Much of the movie was an allegory for the disappointments of adulthood, and we could see both Bella's eccentricities and the movie's visual flair tone down as she matured. Though there was something very inspiring (perhaps even zen) about seeing Bella treat her own misfortune and depression about the world as yet another thing to be experienced and explored rather than avoided. Her foray into philosophy could've easily become hamfisted and sermonlike, but it felt authentic and genuine in the hands of McNamara and Stone. Still, the movie spent so long in that brothel that it became visually monotonous after the varied cadence established during the first half. 
-The whole sequence with the first husband could've been cut out entirely - again, Abbott was magnificent and completely took command of the screen in the final stretch, but those scenes hammered home points that had already been thoroughly made by then, and fucked with the pace of the movie a lot. I understand Bella's curiosity about her "past" life, but her decision to simply ditch Max and Godwin to go with this guy felt reckless and out of character, and in either case I don't think the movie needed to "explain" Victoria's suicide. The film already examined its themes of men's possessiveness over women in far more elegant fashion during the first half, and didn't need an abusive maniac husband character to drive that point home any further. Still though, the bit with the goat was a fantastic way to end the movie.
-Hope this wins a bunch of major awards. I think it has Barbie beat not just thematically but even in the art direction/production design/cinematography department, and Stone handily deserves Best Actress. I loved her in The Favourite and La La Land, but this is far and away her best performance. It's always wonderful seeing a partnership between a director and an actor blossom like this, and the Lanthimos-Stone collaboration has the potential to go down in history as one of cinema's great creative pairings. They really bring out the best in each other, and this movie channeled their talents into one of the most vividly alive pieces of filmmaking I've watched.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2024-02-04 10:27:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What’s your take on Cronenberg’s Crash? </t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think the film is incredibly well directed with a great score and really well done cinematography - whether it’s a build up to a literal crash scene or the camera being that voyeuristic audience. It’s lean, well acted for the subject matter. Elias Koteas was simultaneously creepy and hilarious.   
-Almost 30 years after the release, what’s your take on the themes of the film? I mean in today’s world, kink/fetish is relatively more accepted than say 70s or 80s or 90s. For me, the film (or rather the book upon which it’s based) - I didn’t understand or connect to what the author/ director wanted to say.   
-If I look at a film like Peter Strickland’s The Duke of Burgundy, as the film progresses it really goes deep and explores the D/s dynamic where one partner wants to play out extremes while the other is feeling forced to act as a tough Dom. There’s a psychological role reversal.   
-But Crash - yeah sure, there are seriously well done scenes but if it’s just a small group of people horned up by car accidents and it’s their story then it really isn’t interesting. What am I missing? </t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2024-07-02 18:43:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>What are your thoughts on Klaus Kinski?</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Question, What are your thoughts on Klaus Kinski?
-I said it before and I will say it again, Klaus Kinski is without a doubt on the craziest actors to have ever grazed the cinemas. This guy is probably more know for his violent temper tantrums, and proned to be violent in his outbursts directed by anyone who dared to come into his presence.
-Despite this, he was really a great actor, but one where he would do anything for a paycheck and was basically a prostitute for films. However, even in a film that is bad, Kinski will be the best thing in the film regardless if it was bad or not.
-His I think his best performances are when he is directed by Werner Herzog. Aguirre, Wrath of God, Nosferatu, Woyzeck, Fitzcarraldo, and Cobra Verde are genuinely great films, in large part because Werner knew exactly how to harness the beast that is Klaus Kinski and get him to give probably the best performances that he could of made in his career. I also think Werner is just as crazy as Klaus, but more subtle to neutral crazy and at least has good working relationships with his peers.
-However I also think Kinski is also great in The Great Silence, And God Said To Cain, Crawlspace Exc. I also recommend people to see Kinski in other Spaghetti Westerns.
-Overall, What are your thoughts on Klaus Kinski?</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2024-01-13 19:15:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I can't remember the last time a movie got such a purely emotional reaction out of me as 'The Iron Claw' </t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
         <is>
           <t>I feel like this film somewhat got swept under the rug last year amidst a *very* busy Oscar season, understandably as there was a lot going on that year, but I was still a little disappointed to see that it was basically completely ignored. A cursory glance at the poster or trailer probably lead most to thinking this would be a pretty standard sports biopic/'bro'-ish movie, which honestly I kind of thought it would be as well (although seeing that A24 was producing/distributing it obviously clued me in that it would probably be something different than that), but I was convinced after a friend of mine who was much more familiar with the Von Erich's told me to go in knowing as little as possible. 
 That being said, I wasn't expecting a goddamn Greek-epic-by-way-of-Americana-folklore complete with some of the most effecting moments I've seen in anything in a long time. 
@@ -5099,38 +5021,62 @@
 Part of it is also knowing that the emotional aspect is infinitely more personal and subjective from one person to another, whereas it's a lot easier for most people to agree that something like *Anora* is, overall, a very well assembled film. Is it a 'better' film? Maybe. Did it get the same emotional response out of me? Not at all. Still an incredible film and one I really did think was really exceptional, but I guess I'm just surprised that any modern movie managed to elicit that kind of response from my crusty, swollen heart. Maybe this sounds a little overly dramatic or cheesy, but I'm just genuinely glad that I can still sometimes go to a movie and have an experience with a crowd that feels special, and not just 'Content Delivery System #243252'. Cheers to you, Sean Durkin.</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>2024-12-04 22:41:02</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Where do you guys get your film recommendations?</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Nowadays, it seems harder than ever to get a hold of good movie recommendations. Everywhere I look online I find either people reccomending the usual Hollywood blockbuster movies (from Tarantino to the MCU) or more alternative "historical cinema" lists, which go over the timeless Hitchcock, Tarkovsky, Fellini, and all that.
-Yet I find it increasingly hard to find "deep dives" into more obscure stuff. Movies like Ape (Joel Potrykus), Close Up, Tropical Malady, or Black Metal Veins are just some examples of films that would probably *never* show up on any normal list — and the more movies I watch, the more I find that these deeper dives are needed. 
-All four of these movies came into my life by mere chance, but I'd love to have all my recommendations centralized in a few places, so any tips are appreciated!</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2024-05-05 23:21:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Zadie Smith's Pulitzer finalist review of Tar</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Having heard that Zadie Smith's [review of Tar](https://www.nybooks.com/articles/2023/01/19/the-instrumentalist-tar-todd-field-zadie-smith/#fn-2) in The New York Review of Books was a finalist for the Pulitzer Prize, I read it with great curiosity, but kinda found myself wondering what the big deal was and why it merited such a grand honor.
+There is not much criticism in it, if any (Blanchett's performance comes in for praise and we can kinda generally tell she likes the way the film deals with the themes, but that's about it), though it is categorized as a review on the NYRB's site. It is perhaps more accurately described as an essay, but then it doesn't really make any point or argue for anything. It is essentially retells the film and explains how particular moments and beats relate to particular themes the film deals with.
+Am I just not understanding or appreciating what's great about this review/essay? What are your thoughts?</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2024-05-21 23:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Poor Things: A near-perfect film that felt like discovering life anew.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Simply blown away by this movie, may well be my favorite of 2023. Would've been more or less flawless if the third act wasn't as bloated and languidly paced, but it wasn't enough to ruin the film. I'm so glad I went in more or less blind to this movie - I knew the basic premise, but the details were all the most pleasant of surprises.
+Emma Stone deserves all the awards for this performance. Even within the opening minutes this clearly felt like a role that any actor would leap at the chance to play, but I can't imagine anyone else doing it now. Watching her evolve from a child pieced together with spare parts to a mature woman was enthralling, and both she and the movie immediately made you fall in love with her weirdness. Some part of me was slightly dismayed to see her become more "normal" (especially as she began to see the ugliness of the world), since her sweet naivete seemed to function as a mirror to deconstruct much of the pointless misery and cynicism we as a species trade in. Watching her felt like discovering life anew. I wish I could be a fly on the wall during her sessions crafting this character alongside Lanthimos and Tony McNamara. It was both spontaneous and specific to a degree only the most skillful of artists could conceive of.
+Nearly everyone else brought their A-game too. Dafoe was predictably marvelous, and his character had a lot more warmth and kindness than I expected. Watching him casually rationalize his father's deranged cruelty in the name of science provided some of the film's most quietly devastating moments. Ruffalo was an absolute revelation, taking a character that could've become a grating caricature and making him a hilariously watchable presence. It was the mix of primal rage and self-debasing comedy that his last few Hulk appearances have not properly afforded him. I loved Christopher Abbott in his brief scenes even though I feel his character's inclusion in the story was extraneous - he was equal parts charming and horrifying. Carmichael was the one miscast. Felt totally out of place, and his line readings were devoid of any personality.
+The art direction and visual style came as a complete surprise to me. I figured the black and white portions would take some aesthetic liberties, but that first shot of Lisbon with all the paper-cutout backgrounds and steampunk elements seriously took me aback, and I realized the world of this movie was 10x as imaginative as it already was. More or less every shot in this movie was a visual feast, making painterly use of vibrant colors to create gorgeous, surreal, magnificently weird worlds. Many of the establishing shots reminded me of the work of [Erik Johansson](https://www.erikjo.com/work/loyalmail). The movie's visual inventiveness extended beyond just the cinematography and set design but also the font choices, the way the credits were arranged onscreen (wrapping around the borders of the frame), and of course those incredible title cards which I couldn't get enough of. Worlds within worlds.
+I didn't want the movie to end during the first 2/3rds. I expected the movie to be at least somewhat funny, but it was fucking HILARIOUS, with me and my whole row in the theater laughing out loud at so many points. The humor in the movie worked mainly because it came from physical gags and inherently funny situations rather than just canned one-liners like you see in most Hollywood comedies. Dafoe burping those fucking bubbles for one, lost it every time. Most of the funniest moments were between Stone and Ruffalo (an incredible comic duo), especially the scene where she spits out her food during a dinner with another couple and the women joke about their partners' penises. It sounds so basic on paper and yet the script and actors made it uniquely brilliant. So much humor in Bella's many ingenious, adorable phrases for things. "Furious jumping" needs to become a meme.
+The movie did sag a fair bit once it hit the brothel section in Paris, though this felt intentional. Much of the movie was an allegory for the disappointments of adulthood, and we could see both Bella's eccentricities and the movie's visual flair tone down as she matured. Though there was something very inspiring (perhaps even zen) about seeing Bella treat her own misfortune and depression about the world as yet another thing to be experienced and explored rather than avoided. Her foray into philosophy could've easily become hamfisted and sermonlike, but it felt authentic and genuine in the hands of McNamara and Stone. Still, the movie spent so long in that brothel that it became visually monotonous after the varied cadence established during the first half. 
+The whole sequence with the first husband could've been cut out entirely - again, Abbott was magnificent and completely took command of the screen in the final stretch, but those scenes hammered home points that had already been thoroughly made by then, and fucked with the pace of the movie a lot. I understand Bella's curiosity about her "past" life, but her decision to simply ditch Max and Godwin to go with this guy felt reckless and out of character, and in either case I don't think the movie needed to "explain" Victoria's suicide. The film already examined its themes of men's possessiveness over women in far more elegant fashion during the first half, and didn't need an abusive maniac husband character to drive that point home any further. Still though, the bit with the goat was a fantastic way to end the movie.
+Hope this wins a bunch of major awards. I think it has Barbie beat not just thematically but even in the art direction/production design/cinematography department, and Stone handily deserves Best Actress. I loved her in The Favourite and La La Land, but this is far and away her best performance. It's always wonderful seeing a partnership between a director and an actor blossom like this, and the Lanthimos-Stone collaboration has the potential to go down in history as one of cinema's great creative pairings. They really bring out the best in each other, and this movie channeled their talents into one of the most vividly alive pieces of filmmaking I've watched.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2024-02-04 10:27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t xml:space="preserve">Park Chan-wook's Decision to Leave and how it embraces modern tech </t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>This is my second time watching this movie and it was a whole new experience. This film excels in the art of subtle foreshadowing and communication with excellent directing. This is clearlyPark Chan-wook's most subtle film for sure. Among all the admirable qualities, I wanna talk about the use of technology in this film.
 Decision to Leaveis hardly the only film that embraces the use of modern technology such as smartphones, laptops, wireless headphones, and "smart" cars with touch screens. This film stands out because of how essential 2020s tech is, *despite* the fact that the relationship between humanity and technology is not the central theme of the narrative.
@@ -5157,19 +5103,125 @@
 Overall, I'm pretty sure people already noticed this; I just wanted to articulate my appreciation for this.</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2024-12-04 05:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What’s your take on Cronenberg’s Crash? </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think the film is incredibly well directed with a great score and really well done cinematography - whether it’s a build up to a literal crash scene or the camera being that voyeuristic audience. It’s lean, well acted for the subject matter. Elias Koteas was simultaneously creepy and hilarious.   
+Almost 30 years after the release, what’s your take on the themes of the film? I mean in today’s world, kink/fetish is relatively more accepted than say 70s or 80s or 90s. For me, the film (or rather the book upon which it’s based) - I didn’t understand or connect to what the author/ director wanted to say.   
+If I look at a film like Peter Strickland’s The Duke of Burgundy, as the film progresses it really goes deep and explores the D/s dynamic where one partner wants to play out extremes while the other is feeling forced to act as a tough Dom. There’s a psychological role reversal.   
+But Crash - yeah sure, there are seriously well done scenes but if it’s just a small group of people horned up by car accidents and it’s their story then it really isn’t interesting. What am I missing? </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2024-07-02 18:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Why is the car scene in Denis Villeneuve's 'Prisoners' so captivating?</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>I just finished watching Prisoners for the first time yesterday and there's one scene in it that I've been watching on repeat since. 
+It's the scene when Detective Loki finally finds Anna and rushes her to the hospital. I can't quite grasp what it is about this scene that's so captivating to me. Somehow, a regular shot of an American highway suddenly looked so surreal to me in that moment. All those flashing lights, the blue lights of the car flashing on Loki's blood stained face. And the music, my God the music by Jóhann Jóhannsson (RIP), just elevates this scene beyond words for me. Just the sheer determinism of our protagonist to race against time in the end, combined with the visuals and music, has imprinted this scene in my mind.
+But why? Flashy well made car chases are not anything new to cinema, so why is this relatively simply made scene so enthralling?</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2024-05-10 11:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>What are your thoughts on Klaus Kinski?</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Question, What are your thoughts on Klaus Kinski?
+I said it before and I will say it again, Klaus Kinski is without a doubt on the craziest actors to have ever grazed the cinemas. This guy is probably more know for his violent temper tantrums, and proned to be violent in his outbursts directed by anyone who dared to come into his presence.
+Despite this, he was really a great actor, but one where he would do anything for a paycheck and was basically a prostitute for films. However, even in a film that is bad, Kinski will be the best thing in the film regardless if it was bad or not.
+His I think his best performances are when he is directed by Werner Herzog. Aguirre, Wrath of God, Nosferatu, Woyzeck, Fitzcarraldo, and Cobra Verde are genuinely great films, in large part because Werner knew exactly how to harness the beast that is Klaus Kinski and get him to give probably the best performances that he could of made in his career. I also think Werner is just as crazy as Klaus, but more subtle to neutral crazy and at least has good working relationships with his peers.
+However I also think Kinski is also great in The Great Silence, And God Said To Cain, Crawlspace Exc. I also recommend people to see Kinski in other Spaghetti Westerns.
+Overall, What are your thoughts on Klaus Kinski?</t>
+        </is>
+      </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2024-12-04 05:19:07</t>
+          <t>2024-01-13 19:15:42</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>Where do you guys get your film recommendations?</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Nowadays, it seems harder than ever to get a hold of good movie recommendations. Everywhere I look online I find either people reccomending the usual Hollywood blockbuster movies (from Tarantino to the MCU) or more alternative "historical cinema" lists, which go over the timeless Hitchcock, Tarkovsky, Fellini, and all that.
+Yet I find it increasingly hard to find "deep dives" into more obscure stuff. Movies like Ape (Joel Potrykus), Close Up, Tropical Malady, or Black Metal Veins are just some examples of films that would probably *never* show up on any normal list — and the more movies I watch, the more I find that these deeper dives are needed. 
+All four of these movies came into my life by mere chance, but I'd love to have all my recommendations centralized in a few places, so any tips are appreciated!</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024-05-05 23:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perfectly Normal - The Devastating Reality of Patrick Bateman
+</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  
+[https://youtu.be/OFUbVsGKRaU?feature=shared](https://youtu.be/OFUbVsGKRaU?feature=shared)  
+I discovered this theory about five years ago when studying evolutionary psychology and neuroscience. The core idea is that consciousness evolved a split architecture to solve a fundamental survival problem: we need to belong to groups to survive, yet those same group members can harm us.
+The theory suggests two fundamental equations hardwired into human consciousness: CONTROL = SURVIVAL BELONGING = SURVIVAL
+When trauma occurs within attachment relationships (especially early ones), the consciousness system makes a devastating choice: hide the authentic self that wasn't receiving attention/love, and create a new self designed specifically for belonging. This 'mask' then needs constant maintenance, generating chronic anxiety.
+What's fascinating is that this anxiety can't be investigated internally - the system is specifically designed to prevent looking inward because that might expose what the mask was created to hide. Instead, the anxiety gets blamed on external targets. This explains why introspection is often impossible for people with personality disorders.
+I used American Psycho to demonstrate this theory because Patrick Bateman perfectly illustrates these mechanisms. His morning routine isn't vanity - it's identity construction. His violence isn't random - it's a desperate attempt to achieve homeostasis through control when belonging fails.
+The most compelling support for this theory came accidentally through research on the Autonomic Nervous System. The constant anxiety from maintaining the mask creates chronic sympathetic nervous system activation. Antisocial behavior or risk-taking can force parasympathetic activation, providing temporary relief - but ultimately increases the anxiety it was trying to resolve.
+This framework helps explain personality disorders, addiction patterns, trauma responses, and why traditional therapy often fails with these cases.</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024-12-02 19:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
           <t>Zone of Interest is not as challenging as it could be</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>First, I want to say that I liked *Zone of Interest*. It deserves the praise it got, especially with regard to the sound design.
 But the thing I kept hearing about the film was how it humanizes the characters.  Christian Friedel, the actor who played Rudolf Höss, said: "As soon as I met Jonathan [Glazer, the director], I was convinced of his vision, of his approach, to show him as a boring bureaucrat in everyday situations, to give this monstrous person a human face. The challenge is always the same: How do I transform myself to play the human behind the character and not the cliché?"
@@ -5188,57 +5240,38 @@
 Both *Olympia* and *The Zone of Interest* portray Nazis. Riefenstahl tried to make them appear superhuman and extraordinary; with our historical perspective, we know that they’re not, certainly morally. Glazer wants them to appear “human,” but still not *ordinary*. Counterintuitively, this means the old propaganda film has more complexity (at least for modern viewers). *Zone* simply reaffirms our belief that Nazis=bad. It’s simple, banal, and let’s us off the hook.</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>2024-08-14 14:32:34</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Why is the car scene in Denis Villeneuve's 'Prisoners' so captivating?</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>I just finished watching Prisoners for the first time yesterday and there's one scene in it that I've been watching on repeat since. 
-It's the scene when Detective Loki finally finds Anna and rushes her to the hospital. I can't quite grasp what it is about this scene that's so captivating to me. Somehow, a regular shot of an American highway suddenly looked so surreal to me in that moment. All those flashing lights, the blue lights of the car flashing on Loki's blood stained face. And the music, my God the music by Jóhann Jóhannsson (RIP), just elevates this scene beyond words for me. Just the sheer determinism of our protagonist to race against time in the end, combined with the visuals and music, has imprinted this scene in my mind.
-But why? Flashy well made car chases are not anything new to cinema, so why is this relatively simply made scene so enthralling?</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>2024-05-10 11:18:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Do we still have cult films?</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t xml:space="preserve">When I was a teenager I’d always hear Big Lebowski labeled a cult film. Even in 2008, when I first saw it, that didn’t seem like the case, the movie just seemed like a classic. I’d see guys in “The Dude Abides” shirts when I went downtown, my school’s bowling club had Lebowski references in all their flyers, and any time I’d quote the movie people would recognize it. Fast forward a few years and The Dude had become one of the most beloved movie protagonists. The other “cult films” I’d hear about included Blade Runner, Eraserhead, Donnie Darko, Dazed and Confused, Rocky Horror, etc. and those all seemed pretty ubiquitous. I began to doubt that cult films actually exist and feel that way more than ever. I sort of feel like Southland Tales is one of the last true cult films since its had a pretty devoted fanbase for 20 years but is still not widely discussed or regarded as a great film. Or even a good one.
 Nowadays, when anyone can watch anything at any time, do we still have cult movies? What are some examples in the streaming era?
 EDIT: I’m fine with the downvotes and appreciate the really good examples of modern cult films </t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>2024-01-02 03:48:12</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t xml:space="preserve">Wife and I had disagreements about the themes surrounding the Devil Wears Prada (2006). I still feel that this movie has very similar theming to American Psycho (2000). Please tell me if I am looking too much into it. </t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>My wife expected me to hate The Devil Wears Prada but after watching it I absolutely loved it. I think I took the completely wrong message from it though, making me very confused about why people like/dislike it.
 To me, we see multiple characters on 'the ladder' attempting to climb higher. Andy starts off as a nice girl who prioritizes her personal life over her career, and then begins to take traits off Miranda as she attempts to further her career. She begins to prioritize learning the business of fashion and sacrifices her personal life. I noticed that the people that seem to be closer to Miranda seem to emulate her. Andy sacrifices her ideals and  her morals because 'Everybody wants to be one of us' (and 'millions would kill for this job') much like how Patrick Bateman 'wants to fit in'. When Andy suggests that Miranda take 'personal time' immediately after the divorce, she replies with 'why?', as if the entire concept of personal time stops meaning anything when your identity becomes one with a corporation.
@@ -5249,54 +5282,28 @@
 The other thing that struck me was the parallel between the young girls I have met clearly attempting to be Miranda Priestly despite the warnings of this movie, similarly to how many young boys seem to be attempting to pull a Patrick Bateman lmao.</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>2024-05-17 07:01:15</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Films portraying artists as normal people</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>I watched Kelly Reichardt's Showing Up this week and loved the film. In particular, I liked the fact that the film portrays the artist as a normal human being with normal problems (like her running out of hot water).
 It's a far cry from the depiction of the artist as an exuberant, drug-addled being who's unhappy because her talent is a curse. We're a long way from depicting the creative process as a moment of pure, indescribable magic, or as a macho, virilist process (as in Whiplash, a film that  I don't like very much). The other director I like for his portrayal of artists is Hong Sang Soo. "she forgives you because you're an artist." (Phrase derived from the film Right Now, Wrong Then) he insinuates that there isn't anything inherent in the artist pushing him to be extravagant but rather that it's because society expects and accepts this extravagance from the artist that he decides to be extravagant.
 So I'd like to ask you if you can recommend some filmmakers who have a similar representation of artists. And also what's your favorite film about an artist?</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>2023-12-23 08:56:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perfectly Normal - The Devastating Reality of Patrick Bateman
-</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  
-[https://youtu.be/OFUbVsGKRaU?feature=shared](https://youtu.be/OFUbVsGKRaU?feature=shared)  
-I discovered this theory about five years ago when studying evolutionary psychology and neuroscience. The core idea is that consciousness evolved a split architecture to solve a fundamental survival problem: we need to belong to groups to survive, yet those same group members can harm us.
-The theory suggests two fundamental equations hardwired into human consciousness: CONTROL = SURVIVAL BELONGING = SURVIVAL
-When trauma occurs within attachment relationships (especially early ones), the consciousness system makes a devastating choice: hide the authentic self that wasn't receiving attention/love, and create a new self designed specifically for belonging. This 'mask' then needs constant maintenance, generating chronic anxiety.
-What's fascinating is that this anxiety can't be investigated internally - the system is specifically designed to prevent looking inward because that might expose what the mask was created to hide. Instead, the anxiety gets blamed on external targets. This explains why introspection is often impossible for people with personality disorders.
-I used American Psycho to demonstrate this theory because Patrick Bateman perfectly illustrates these mechanisms. His morning routine isn't vanity - it's identity construction. His violence isn't random - it's a desperate attempt to achieve homeostasis through control when belonging fails.
-The most compelling support for this theory came accidentally through research on the Autonomic Nervous System. The constant anxiety from maintaining the mask creates chronic sympathetic nervous system activation. Antisocial behavior or risk-taking can force parasympathetic activation, providing temporary relief - but ultimately increases the anxiety it was trying to resolve.
-This framework helps explain personality disorders, addiction patterns, trauma responses, and why traditional therapy often fails with these cases.</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>2024-12-02 19:52:01</t>
         </is>
       </c>
     </row>
@@ -5742,30 +5749,10 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">How did Ingmar Bergman pull this off? </t>
+          <t>Challengers analysis</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hi - I was thinking about Ingmar Bergman today, and what really blew me away is how much he could pack into a relatively brief timeframe. 
-His films are full of *great* qualities - fantastic cinematography (to the point where merely pausing a scene could reveal exceptional usages of blocking, lighting, color, etc.), memorable characters, poetic/thought-provoking dialogue, tons and tons of depth - religion, aging, nostalgia, memories, death, family (specifically the troubled mother-daughter relationship in Autumn Sonata) and more…..Through a Glass Darkly, Winter Light &amp; The Silence alone formed a thematic trilogy that focused on the silence (excuse the pun haha) of God, while delving into mental illness, tragedy, sexuality, etc. 
-Watching one of his (many) classics is almost like reading a classic novel…..and yet, a bunch of his movies are under 100 minutes! Winter Light is only about 81 minutes long, but it is **such** a dark &amp; bleak experience…..you could actually watch Persona, Wild Strawberries, The Seventh Seal &amp; Cries and Whispers in a day (or a weekend), and yet there’s so much to talk about! 
-I’m amazed at how Bergman made so many great movies that are around 95 minutes long or less! How did he do that? </t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2024-09-17 19:07:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Challengers analysis</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
         <is>
           <t xml:space="preserve">Trying to figure out how I feel about the challengers. I really think the soundtrack’s closing track sort of sums it all up. Compress, Repress, and then just surrender. The whole story follows moments of repressed emotions, that we don’t really get a clear emotional resolution until the end, (art and patrick kissing, patrick and tashi’s fight during college, all of the mess in tashi’s and art relationship when they are older).
  Every flashback ends up being about something missing in the relationship. We have art and Patrick kissing, the missing third here being Tashi, the conduit they need to explore their feelings for each other, and without her attention or direction they end up repressing the feelings they have for each other. Of course there's the other secret third thing in the relationship. Tennis. Honestly I’m not a sports person but I get what Tashi meant by talking about the conversational nature of tennis. For iv always had the best conversations where each person can bounce back off of each other. A good rhythm to follow. And it really is fascinating to go from the scene where they're playing for Tashi’s number and to their most recent match. Not really interesting but depressing. I mean this sort of context that we built in the movie has taken up a good chunk of the run time and so to go from this incredible game of tennis to something so flat is jarring (ofc intentionally jarring). But it forces the audience to wonder what happened between all three of them. Maybe what i'm saying is obvious, but as someone who didn't know much about tennis i thought the start of the match we see at the beginning of the movie was already pretty exciting, seeing that and then real tennis and then having to go back to something that's so lackluster makes you wanna stay in your seat just to see how the spark could die. 
@@ -5775,9 +5762,29 @@
 </t>
         </is>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024-05-04 05:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How did Ingmar Bergman pull this off? </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi - I was thinking about Ingmar Bergman today, and what really blew me away is how much he could pack into a relatively brief timeframe. 
+His films are full of *great* qualities - fantastic cinematography (to the point where merely pausing a scene could reveal exceptional usages of blocking, lighting, color, etc.), memorable characters, poetic/thought-provoking dialogue, tons and tons of depth - religion, aging, nostalgia, memories, death, family (specifically the troubled mother-daughter relationship in Autumn Sonata) and more…..Through a Glass Darkly, Winter Light &amp; The Silence alone formed a thematic trilogy that focused on the silence (excuse the pun haha) of God, while delving into mental illness, tragedy, sexuality, etc. 
+Watching one of his (many) classics is almost like reading a classic novel…..and yet, a bunch of his movies are under 100 minutes! Winter Light is only about 81 minutes long, but it is **such** a dark &amp; bleak experience…..you could actually watch Persona, Wild Strawberries, The Seventh Seal &amp; Cries and Whispers in a day (or a weekend), and yet there’s so much to talk about! 
+I’m amazed at how Bergman made so many great movies that are around 95 minutes long or less! How did he do that? </t>
+        </is>
+      </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2024-05-04 05:31:56</t>
+          <t>2024-09-17 19:07:43</t>
         </is>
       </c>
     </row>
@@ -5804,78 +5811,10 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>In search of more Christmas films like It's a Wonderful Life</t>
+          <t>Megalopolis: Differences between the Original Script &amp; The Finished Film</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It's a Wonderful Life is obviously usually considered the best Christmas film because it captures the very essence and meaning of Christmas; Community, familial love and being with the ones you love and knowing that the true meaning of Christmas comes from togetherness and being in each others lives.   
-I'm looking for more Christmas films that focus on the true meaning of Christmas that aren't complete drivel and soppy pandering to sentimentality but are genuinely thought provoking and compelling. </t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>2023-12-18 22:23:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>The Vanishing (George Sluizer, 1988) illustrates that a hero is indeed capable of terrible deeds</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>&gt;Spoilers ahead. I strongly encourage you to watch it, as it's the best film I've ever seen about a kidnapping, and one of the most memorable portrayals of a criminal because of how realistic and well executed it is.
-There are films that prove that the scariest ones do not come with the "horror" label on the cover. _Funny Games_ (Michael Haneke, 1997) is the first of this group that comes to mind, along with _The Vanishing_ (also known as _Spoorloos_ in Dutch), based on the book _The Golden Egg_ by Tim Krabbé. Both feature the most clinical killers I've ever seen in the history of cinema, who have different underlying motives for their crimes. In the case of Raymond (Bernard-Pierre Donnadieu), the antagonist of _The Vanishing_, the urge to kill is born in contrast to the honorable act of saving a little girl from drowning. By his own account, his daughter was bursting with pride at such a heroic act, so he felt that her admiration was worthless unless he could prove himself capable of doing something evil, since black cannot exist without white.
-The title is an apt description of the entire plot, as it deals with the disappearance of Saskia (Johanna ter Steege), the girlfriend of Rex (Gene Bervoets). This terrible event has left such a mark on him that even 3 years after that fateful day, he's still hoping to find her. This scenario is the vehicle to introduce us to Raymond and, thanks to the naturalistic storytelling that George Sluizer employs, to delve into the mind of the most methodical killer I've ever seen in a film. No detail goes unnoticed by him as he does things like scream and then ask a neighbor if he heard anything to make sure that no one can hear screams from his cottage, the place where he plans to commit the crime, or apply somniferous to himself to make sure the victim remains asleep during the drive to the location. He's an intelligent, well-dressed, well-spoken man with a family and a home who works as a chemistry teacher. No one would think of him as a psychopath obsessed with kidnapping a woman. He doesn't even stain himself with blood for his crimes, but as intelligent as he is, he is not portrayed as an infallible criminal. He fails. A lot. In fact, the kidnapping of Saskia happened by chance just as Raymond was about to retire for another day without having caught his martyr for his cause. Everything is so believable and so well acted that it seems real and plausible, which makes the film all the more terrifying.
-There's no linear narration of the events, as the film is divided into two story arcs that eventually converge into one. On the one hand, we see the disappearance of Saskia from Rex's point of view, from which we can feel the increasingly anxious situation he has to endure. On the other hand, we see the frivolous and frustrated kidnapping attempts of Raymond, who finally achieves his goal, as if it were predestined by fate.
-&gt;The best plans can be wiped out at any moment by what we call fate.  
-&gt;— Raymond
-We also see time jumps into the future, where Rex is with his apparent new girlfriend Lieneke (Gwen Eckhaus), who is an irrelevant character in the plot, adding rather superfluous moments to the footage. At this point, however, both Rex's and Raymond's plots are finally brought together by the meeting of the two characters, where further details of the story are revealed through their conversations. Even though the murderer is revealed fairly soon, it isn't detrimental to the development of the plot, because the interesting aspect is the dismantling of Raymond's ruthless psyche and the reasoning behind his actions, which finally leads to the revelation of what he did to Saskia and how Rex finds out about it.
-_The Vanishing_ doesn't end happily with Saskia still alive, or at least with Raymond being punished for his crimes. Actually, that would spoil all the calculated blocks that make up the whole structure in which the plot lies, since there is not a single piece of evidence that could lead Rex to incriminate Raymond. There isn't a moment in the story that would make us think that Rex could have done more to catch the culprit. If anything, we might think he could have done more with the letters Raymond sent him to meet him at the cafe, but what could he have done? Call the police? Would they have changed anything at all? Raymond would still be safe on his balcony, laughing at Rex's futile efforts to catch him.
-In a delirious attempt to learn Saskia's fate, Rex volunteers to share her fate by going against what is predestined, accepting Raymond's offer to drink a sleeping pill dissolved in coffee in order to experience for himself what happened to Saskia. When he wakes up, he lights his lighter and realizes that he has been buried alive, causing him to laugh and scream hysterically. When the flame of Rex's lighter goes out, any glimmer of hope vanishes, fading into a faint memory of seeing the light at the end of the tunnel, where Saskia was still alive. What was once a comfortable reality now becomes a desperate, mute cry for hopeless hope.
-It's certainly difficult to make a film that manages to deal with such a recurring theme in film as kidnapping without feeling manipulative or presenting the antagonist as a figure who can only be defeated by the powerful, morally superior main protagonist who rescues the girl and makes the film end with a happy conclusion to the conflict. However, in this exercise of exploring a psychopathic mind, George Sluizer knows that the world is flawed and far removed from the perfect world that many films fraudulently try to portray.
-Simply put, _The Vanishing_ is the best and most realistic film I've ever seen on such a complicated subject. As frightening as it is, don't forget that there are real killers out there who, like Raymond, will never be caught for their terrible deeds.
----
-Attribution: https://enosiophobia.substack.com/p/the-vanishing-george-sluizer-1988</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2024-07-17 22:40:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Eternal Sunshine Of The Spotless Mind, How Cruel Love Can Be</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>I love this film so much it's become a tradition of mine to watch it every valentine's day. Overall this film is actually fairly simple but because of the way the story is structured it really seems more complicated than it is.
-I like the premise of if you could erase someone you had a bad break up with from your memory should you do it? Seeing early on in the film the interactions between Joel and Clementine seems fairly like a standard romantic drama and nothing all that special but with the nature of this film when we see their actual first encounter it makes it so weird. Skipping ahead a little after the visit to Dr Mierzwiak and the start of the procedure when we see how toxic Joel and Clementine's relationship has gotten and the beginning of the toxic memories breaking down is something I'm sure a lot of people would want. Some things are better to forget.
-It's interesting how this film turns from a story about romance into straight up psychological horror. The realisation that this was a mistake and Joel has no way to stop it no matter how much he tries, and he gets to see all of the pleasant memories he has with Clementine crumble. I also think child Joel being rescued by child Clementine is sweet but also adult Joel being bullied by children is quite funny.
-My favourite scene is at the beach house where it all started and Joel acquiescing to the fact that it's all going to disappear so he might as well enjoy it. That scene in my opinion is brutal. I also liked how the film led up to that scene with the interactions between Mary, Stan, Howard and his wife not to mention how much of a creep Patrick is. You really have to feel sorry for Mary. The ending is strange but imagine listening to a tape where you are saying absolutely awful things about someone you just met who you are interested in would be. Not having enough whiskey would be a problem.
-The ending is obviously up for debate but I like to think Joel and Clementine are important people in each other's lives but they aren't going to work out long term however they can grow from their relationship with one another.</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>2024-02-21 17:40:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Megalopolis: Differences between the Original Script &amp; The Finished Film</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
         <is>
           <t>Here is am telling the difference between the script that is out online and what is in the finished film. There are some similarities between them and the plot beats are overall the same, but the script is very different then what is in the finished film. 
 * &gt;!The Names were different. Serge Catiline, Frank Cicero, Gene Hamilton, Claude Hamilton. The only names that stayed the same are Julia Cicero, Vesta Sweetwater, Fundi Romaine, Stanley Hart, Terry Cicero!&lt;
@@ -5893,139 +5832,88 @@
 Also here is the script- [Megalopolis | PDF](https://www.scribd.com/document/414098534/Megalopolis)</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>2024-10-19 20:10:41</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>The Vanishing (George Sluizer, 1988) illustrates that a hero is indeed capable of terrible deeds</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>&gt;Spoilers ahead. I strongly encourage you to watch it, as it's the best film I've ever seen about a kidnapping, and one of the most memorable portrayals of a criminal because of how realistic and well executed it is.
+There are films that prove that the scariest ones do not come with the "horror" label on the cover. _Funny Games_ (Michael Haneke, 1997) is the first of this group that comes to mind, along with _The Vanishing_ (also known as _Spoorloos_ in Dutch), based on the book _The Golden Egg_ by Tim Krabbé. Both feature the most clinical killers I've ever seen in the history of cinema, who have different underlying motives for their crimes. In the case of Raymond (Bernard-Pierre Donnadieu), the antagonist of _The Vanishing_, the urge to kill is born in contrast to the honorable act of saving a little girl from drowning. By his own account, his daughter was bursting with pride at such a heroic act, so he felt that her admiration was worthless unless he could prove himself capable of doing something evil, since black cannot exist without white.
+The title is an apt description of the entire plot, as it deals with the disappearance of Saskia (Johanna ter Steege), the girlfriend of Rex (Gene Bervoets). This terrible event has left such a mark on him that even 3 years after that fateful day, he's still hoping to find her. This scenario is the vehicle to introduce us to Raymond and, thanks to the naturalistic storytelling that George Sluizer employs, to delve into the mind of the most methodical killer I've ever seen in a film. No detail goes unnoticed by him as he does things like scream and then ask a neighbor if he heard anything to make sure that no one can hear screams from his cottage, the place where he plans to commit the crime, or apply somniferous to himself to make sure the victim remains asleep during the drive to the location. He's an intelligent, well-dressed, well-spoken man with a family and a home who works as a chemistry teacher. No one would think of him as a psychopath obsessed with kidnapping a woman. He doesn't even stain himself with blood for his crimes, but as intelligent as he is, he is not portrayed as an infallible criminal. He fails. A lot. In fact, the kidnapping of Saskia happened by chance just as Raymond was about to retire for another day without having caught his martyr for his cause. Everything is so believable and so well acted that it seems real and plausible, which makes the film all the more terrifying.
+There's no linear narration of the events, as the film is divided into two story arcs that eventually converge into one. On the one hand, we see the disappearance of Saskia from Rex's point of view, from which we can feel the increasingly anxious situation he has to endure. On the other hand, we see the frivolous and frustrated kidnapping attempts of Raymond, who finally achieves his goal, as if it were predestined by fate.
+&gt;The best plans can be wiped out at any moment by what we call fate.  
+&gt;— Raymond
+We also see time jumps into the future, where Rex is with his apparent new girlfriend Lieneke (Gwen Eckhaus), who is an irrelevant character in the plot, adding rather superfluous moments to the footage. At this point, however, both Rex's and Raymond's plots are finally brought together by the meeting of the two characters, where further details of the story are revealed through their conversations. Even though the murderer is revealed fairly soon, it isn't detrimental to the development of the plot, because the interesting aspect is the dismantling of Raymond's ruthless psyche and the reasoning behind his actions, which finally leads to the revelation of what he did to Saskia and how Rex finds out about it.
+_The Vanishing_ doesn't end happily with Saskia still alive, or at least with Raymond being punished for his crimes. Actually, that would spoil all the calculated blocks that make up the whole structure in which the plot lies, since there is not a single piece of evidence that could lead Rex to incriminate Raymond. There isn't a moment in the story that would make us think that Rex could have done more to catch the culprit. If anything, we might think he could have done more with the letters Raymond sent him to meet him at the cafe, but what could he have done? Call the police? Would they have changed anything at all? Raymond would still be safe on his balcony, laughing at Rex's futile efforts to catch him.
+In a delirious attempt to learn Saskia's fate, Rex volunteers to share her fate by going against what is predestined, accepting Raymond's offer to drink a sleeping pill dissolved in coffee in order to experience for himself what happened to Saskia. When he wakes up, he lights his lighter and realizes that he has been buried alive, causing him to laugh and scream hysterically. When the flame of Rex's lighter goes out, any glimmer of hope vanishes, fading into a faint memory of seeing the light at the end of the tunnel, where Saskia was still alive. What was once a comfortable reality now becomes a desperate, mute cry for hopeless hope.
+It's certainly difficult to make a film that manages to deal with such a recurring theme in film as kidnapping without feeling manipulative or presenting the antagonist as a figure who can only be defeated by the powerful, morally superior main protagonist who rescues the girl and makes the film end with a happy conclusion to the conflict. However, in this exercise of exploring a psychopathic mind, George Sluizer knows that the world is flawed and far removed from the perfect world that many films fraudulently try to portray.
+Simply put, _The Vanishing_ is the best and most realistic film I've ever seen on such a complicated subject. As frightening as it is, don't forget that there are real killers out there who, like Raymond, will never be caught for their terrible deeds.
+---
+Attribution: https://enosiophobia.substack.com/p/the-vanishing-george-sluizer-1988</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024-07-17 22:40:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Eternal Sunshine Of The Spotless Mind, How Cruel Love Can Be</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>I love this film so much it's become a tradition of mine to watch it every valentine's day. Overall this film is actually fairly simple but because of the way the story is structured it really seems more complicated than it is.
+I like the premise of if you could erase someone you had a bad break up with from your memory should you do it? Seeing early on in the film the interactions between Joel and Clementine seems fairly like a standard romantic drama and nothing all that special but with the nature of this film when we see their actual first encounter it makes it so weird. Skipping ahead a little after the visit to Dr Mierzwiak and the start of the procedure when we see how toxic Joel and Clementine's relationship has gotten and the beginning of the toxic memories breaking down is something I'm sure a lot of people would want. Some things are better to forget.
+It's interesting how this film turns from a story about romance into straight up psychological horror. The realisation that this was a mistake and Joel has no way to stop it no matter how much he tries, and he gets to see all of the pleasant memories he has with Clementine crumble. I also think child Joel being rescued by child Clementine is sweet but also adult Joel being bullied by children is quite funny.
+My favourite scene is at the beach house where it all started and Joel acquiescing to the fact that it's all going to disappear so he might as well enjoy it. That scene in my opinion is brutal. I also liked how the film led up to that scene with the interactions between Mary, Stan, Howard and his wife not to mention how much of a creep Patrick is. You really have to feel sorry for Mary. The ending is strange but imagine listening to a tape where you are saying absolutely awful things about someone you just met who you are interested in would be. Not having enough whiskey would be a problem.
+The ending is obviously up for debate but I like to think Joel and Clementine are important people in each other's lives but they aren't going to work out long term however they can grow from their relationship with one another.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024-02-21 17:40:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>I’m a film journalist who has been in Cannes for the full festival. AMA</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>I’m on a long train back from the riviera and thought this might be of interest to people.
 For further context I’m an editor at an international film magazine which has a focus on art house cinema. I’ve been attending Cannes since 2022.
 I think I might not have hit the word count required for a post yet so I’m just going to keep on typing some words here but feel free to ignore them.</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>2024-05-26 13:15:18</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>"Ali" and "The Insider"; Michael Mann as a radical filmmaker</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Most people are disappointed by Michael Mann's "Ali" when first watching it, but I think subsequent viewings reveal it as an excellent film.
-I think what helps is the realization that it's a kind of religious movie. It begins with paintings of Jesus, and Ali resenting his father's submissiveness to a white God and white power. The film then watches as Ali seeks out a black God via the Nation of Islam. This, he thinks, constitutes a form of black empowerment markedly different from Christ and Christianity, which he associates with the submissiveness of African Americans.
-But of course the Nation of Islam quickly reveals itself to be similarly exploitative and dependent upon subjugation. It puts Ali in various straitjackets, leading to Ali slowly drifting away from it.
-The final act of the film then sees Ali come across paintings of himself on a wall in Africa. Echoing the depictions of Christ his father did for money at the start of the film, Ali realizes he's become a God in the eyes of his followers. More than this, he realizes he's become like all the Gods and icons he's grown to despise throughout the film. Like they've abused him, he's abused women and forced them to submit to him and venerate him as a God. 
-It is this realization that Ali takes with him into his final fight. Realizing he hates the aforementioned consequences of power, he submits - like the Christ images his father once painted - and takes abuse in his final fight like Christ did on the cross. He lets his opponent whip him and whip him, and then turns this to his advantage.
-I think a lot of the hate "Ali" received came down to people not really seeing what the film was doing. But it's quite single-minded in its intentions, intentions which become more clear with rewatches. It's also gorgeously scored and edited, and with hindsight Will Smith's performance as Ali is quite special.
-It's also worth comparing "Ali" to the Michael Mann masterpiece "The Insider". Most view "The Insider" as a film about Russell Crowe, a corporate insider who spills Big Tobacco secrets. But the film's chief insider is really a character played by Al Pacino, a newsman who leaks corporate secrets about his own news company and its owners. Both characters believe they are stealing secret truths from the "inside", and leaking them to the "outside". They believe they are smuggling information from inside Power, to the outside wider world.
-But what Pacino learns at the end of the film is that there is no longer an outside. Everything is owned. Every sphere is under corporate control; even the media that promises to speak truth to power is itself an arm of Power. Hence why the film ends with a long tracking shot of Pacino exiting a building; he's quit his job and beginning a search for an existence outside the system. This contrasts with the opening of the film, where a similar long shot tracks Pacino as he is brought inside a building. You see a stark dichotomy here; a belief in an ability to penetrate the inside, giving way to disillusionment and then a search for a mythical outside, a search for that elusive freedom which all Mann protagonists seem to seek out (often associated with long horizons or shots of the ocean).
-Note too that the film is book-ended by terrorists. It opens with Hezbollah terrorists who want to expel Americans from the Middle East, and ends with the terrorist acts (which pepper the film) of the Unabomber, whose anarchic manifesto ("Industrial Society and Its Future") espoused the belief that modern society was perverted (by a fusion of technology, corporations and money) and needed to be destroyed.
-Both terrorist "groups" are deemed outsiders by Power, and both in a sense seek the destruction of modern America. Fittingly, Pacino's character mentions being a student of Herbert Marcuse, a consummate outsider whose work critiqued capitalism (and the way it co-opts technology), and who is famous for writing "The One-Dimensional Man", a book about the totalitarian nature of our economic system, and how it shapes and limits human behavior, and removes autonomy.
-So in both "Ali" and "The Insider", you get the sense of male heroes becoming disillusions with the systems they find themselves in. They open their eyes to the ways Power traps and limits human beings, and make the decision to become outsiders.  In this way they bridge the gap between docile citizens and the outright criminals of Mann's other films ("Heat", "Thief", "Public Enemies" etc).
-Interestingly, Mann's obsession with "outside" and "inside" extends way back to the beginning of his career. Think his 1980s crime flick "Manhunter". That film mirrored two plot lines. In the first, a serial killer watches normal American families from outside the glass windows of the homes in which he eventually kills them. Gradually, however, he becomes an "insider"; he builds a relationship with a woman, invites her into his own house, and becomes less of a monster and more of a "normal" guy.
-The film's second plotline does the opposite. It watches as a criminal profiler leaves his happy, big-windowed family home behind and enters the mind-space of a criminal. By the film's end, he will begin to act like the serial killer he's tracking. He will become a monster stalking outside the serial killer's house, watching his prey through glass that separates both worlds. The film climaxes with this glass being broken, inside and outside briefly becoming one. 
-In "Manhunter", the delineations between inside and outside are fairly simple; cops are good and criminals are bad. By the time we get to "Insider" and "Ali", however, Mann's films have become a bit more sophisticated. Ali and Crowe may commit crimes, but they're more heroes than criminals. And where state power is unquestioningly good in "Manhunter", in "Ali" its oppressive and at times outright criminal. The Inside/Outside, Law/Order dichotomy of his early films break down entirely in his later career, though his heroes always retain a romantic yearning for escape.</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>2024-02-14 21:11:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>I think people really over-analyze Perfect Days</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>First of all, I would like to give kudos to the creators for making a film that can be understood in different ways while still being appreciated by everyone. Some films get polarizing reactions, with some people hating them and others loving them, but in this case, everyone seems to like the movie, even if they interpret it differently. That’s what art is supposed to do.
-That said, I’ve read a lot about this movie, mainly on Reddit, with opinions ranging from "he chose a life of solitude, intentionally staying away from others and is happy" to "he is a miserable man, deluding himself into thinking he's happy and one change away from completely breaking." I think the film is simpler than we make it out to be.
-Hirayama does NOT keep himself away from others. I think he’s a bit introverted and shy. If he were truly forcing himself into solitude, he would probably avoid others completely, but we see that he doesn’t. For example, he regularly goes to the restaurant, and he doesn’t isolate himself from friendships. He’s just shy and introverted, perhaps lacking some social skills—that’s all. When he eats his meal during work, he nods at the same woman every day. It’s clear throughout the film that he enjoys the company of others as much as he enjoys being alone. He just doesn’t talk much with many people, that’s all. He enjoys his work, his routine, and the small things in life. The movie is calming, and at no point did I really feel like he was lonely. He has routines and hobbies he enjoys. The 80s-style music and his reading habits are just him being a boomer, nothing more.
-However, there are some contradictions to what I’m saying. I think if we didn’t know he came from a wealthy family and had a strained relationship with his father, this interpretation would be clearer. But in none of his dreams do we see him longing for anything he doesn’t already have, so I don’t think he’s missing a lifestyle he once had.
-In the first half of the movie, we barely see him speak at all. But as soon as his niece enters the picture, this changes. I was a little taken aback by the tonal shift, but this part is also the most wholesome moment in the film. The fact that his spoiled, wealthy niece isn’t repulsed by his job and even offers to help is heartwarming. After she leaves, we see him break down. Soon after, he loses his temper when his coworker suddenly quits. Later, after seeing the restaurant owner, he gets drunk and tries to smoke. He forms a bond with a dying man—something we hadn’t seen him do before. And then, in the final scene, he breaks down again. These moments likely contribute to the various interpretations of the film, and rightly so.
-However, I feel the film is simply showing that he experiences joy and sorrow like anyone else. He’s not overwhelmed by either. He’s not someone who deludes himself with false happiness to avoid his sorrows. Again, he’s never truly lonely. People like him, and he enjoys their company, as well as his hobbies. Ironically, in a melancholy way, I felt that his life seemed more joyful than mine, simply because he enjoys the things he does—his hobbies and his time with others. I’m Indian, so while I don’t know much about Japanese culture, in Asian religions like Buddhism and Hinduism, there’s a strong emphasis on accepting both pleasure and pain, sorrow and happiness equally. This film seems to reflect that.
-So, when he doesn’t speak much but engages with his niece, it doesn’t mean he subconsciously longs for human companionship but chooses solitude. It simply means she’s family, and he treats her as such. You can’t have a 1-on-1 situation with family and not speak to them. Introverted or “unsocial” people don’t avoid everyone entirely. When he bonds with the dying man, it’s because he’s already having a bad day and is under the influence of alcohol. The man also approaches him first. When he’s upset about the coworker leaving, it’s because it means more work for him. Once the replacement arrives, he’s back to his usual self—genuine human reactions. He’s not forcing anything. There’s no need to overanalyze.
-As for the final scene, I admit I didn’t fully understand it at first, mainly because I wanted to see more since there wasn’t an overarching plot or clear ending. But after reading some discussions, it’s clear the film is simply showing that you can experience both joy and sadness without being overwhelmed by either.</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>2024-09-29 16:14:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Papillon (1973) is a great film that contains Steve McQueen's best performance of his career and one of my personal favourite scenes ever shot</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>I'm not saying anything new by stating that the original 1973 Papillon is a great film. It is, in my opinion Steve McQueen's best performance and his best overall movie. I'm a huge McQueen fan and I've seen all of his movies apart from a couple and I really think this was his magnum opus. Some other great, less seen performances of his that I recommend are in an Enemy of the People in which he plays against type and in Tom Horn which was his second to last film. His performance in Papillon, however was the one that should've at least been nominated for an academy award, in my opinion. 
-I love how Papillon is a continuation of themes McQueen was associated with in his previous movies. He is no stranger to quests for freedom and escaping captivity as he's done that in his most famous film which was of course the Great Escape. In-between the Great Escape and Papillon he also made Nevada Smith in which breaking out of prison is a major plot point. I love the Great Escape and Papillon can sort of be seen as a gritty, grimy version of that film. Of course, Papillon is more about the pursuit of freedom and purpose in general rather than about staging a prison break and the thrill of the escape.
-In Papillon, we as the viewers are really immeresed in to how hellish the conditions were for the prisoners in the French Guyana. The scenes of Papillon being locked away in solitary truly get across how horrific it was. It is during this time when the scene that I mentioned in the title of the post happens. That scene is the one where Papillon has a surreal dream of himself walking through the desert and being confronted by a judge and jury. Papillon claims that he is innocent of murder but the judge tells him that his crime is larger than that, the biggest crime a man can commit which is that of a wasted life to which Papillon admits his guilt multiple times like a penance. That scene, in my opinion is very well shot and scored but I wouldn't rank it as one of my favourites scenes because of that as there are certainly many more scenes which I can say have better composition. Instead, it's because of how poignant it is and how much it speaks to me personally. It makes me contemplate whether I lived my life well and to what extent I'm guilty of the same verdict. I'm sure most people feel that way about their life to some extent sometimes and I'm not saying I feel that always but there are times when my mind brings that scene up and makes me ponder. The ability of this scene to linger on my mind and recall it from time to time truly makes it special. 
-Finally it goes without saying that Dustin Hoffman is absolutely fantastic in the movie too. Also, I am not at all bothered about how much of this movie is true and whether the whole story is fiction. What matters to me, and this is a case with most films is how much I enjoy it and how well it gets it's themes across. To me, Papillon does all that exceptionally well and it deserves its status as a great film.</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>2024-09-10 22:51:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Princess Mononoke (1997) and the nature of existence</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>I re-watched Princess Mononoke in theaters for Ghibli Fest last week and the experience left me with a lot of feelings that I now feel like I can articulate into words.
-Princess Mononoke resolves the paradoxical conflict of nature vs. humanity. A conservationist points to a beautiful forest and says “it deserves to survive”, vowing to protect it with their life. A pioneer points to the huddled masses who yearn to build a town over the forest and says “they deserve to survive too”. Who’s right?
-The movie tells us that that life is not a noun, but a verb. Death is no less a part of life than birth in the same way that in order to inhale you must also exhale: both are breath. Conflict is inevitable and part of the process in the same way that storms give way to clear skies. All of nature — all of reality — is like this. Waves break against shores only to pull back and rejoin the sea but in the process it leaves the land ever so slightly changed. In the final shot of the movie we watch verdant grass growing back over the scars of war.
-Some thoughts:
-* For me, the most emotionally salient shot of the film — even when I watched it a long time ago, much younger with no idea how to make sense of it — was when we first see the God of the Forest. We see it take a few slow steps and with each one we watch life be birthed, grow, die, and decompose. Miyazaki’s choice to make the viewer’s first impression of the God of the Forest this strikingly beautiful and surprising shot was my window into understanding what the movie’s trying to tell us.
-* The God of the Forest does not provide any favorable treatment to trees or animals, nor does it put up any special resistance against humanity. Such blind justice is awe-inspiring and allowed me to understand that viewing ourselves as separate from animals and plants is absurd, the conflict — and even the entire boundary — is imaginary. No more are we at war with the forest when we build a town than we are with our own skin when we exfoliate.
-* Another scene that stood out to me was when the conniving Jiko-bô talked about a town that was abandoned after a landslide killed many of the people living there. Humanity’s exploitation of its surroundings is a push and pull with nature. If we are subject to nature’s inscrutable whims then it’s incumbent upon us to act according to our nature and fight to thrive, not just survive.
-* By the time Lady Eboshi says "Watch closely everyone. I'm going to show you how to kill a god.” I no longer found her to be possessed by evil or championing a righteous cause. The line struck me with the same kind of resignation to destiny and immutable nature as I feel when I think of a white blood cell rallying the immune system to attack perceived threats, not able to understand that in doing so it’s killing its host and its home.
-* While the movie does not venerate either side of the conflict between nature and humans (because it’s trying to tell us the conflict is imaginary) it does venerate moments of empathy and acts of compassion: Ashitaka risking himself to save two townspeople, Lady Eboshi’s genuine respect of the lepers and their adoration of her, Yakul and Ashitaka’s bond. The God of the Forest rewards Ashitaka’s sacrifice for San with a second chance at life.
-* The film shows us that it’s possible to go too far and upset the balance within nature and that by doing so everything inside of it suffers. If Lady Eboshi was successful in her quest then both her people and the forest would have been wiped out. 
-* The film takes great care to spend time on the tender acts of kindness between and among animals and humans: Ashitaka pulling the covers over San, San’s devotion to Moro, Moro’s camaraderie with Okkoto, Yakul’s loyalty to Ashitaka, Toki’s adorable love of her husband Kohroku. By letting the emotional warmth of these moments wash over me I gained an intuitive understanding that compassion for all living beings is the answer to thriving and maintaining balance with the rest of nature.</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>2024-07-22 19:22:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>Thoughts on Stalker (1979) directed by Andrei Tarkovsky</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>I enjoy doing some reading, thinking, and writing after watching a thoughtful film.  A friend who enjoys arthouse cinema introduced me to Tarkovsky's work, and **"Stalker" (1979)** was the first of his films I ever watched.  It proved to be enigmatic and thought-provoking, and I've now watched it three times.  I'd love to get some interaction from others on my thoughts below about the film, or any key aspects I missed.
 First, a brief introduction to Tarkovsky himself.  Russian director and screenwriter Andrei Tarkovsky is highly regarded by fans of arthouse cinema, and is widely considered one of the most influential directors in the history of cinema. His greatness is evident from what famous director Ingmar Bergman said about him: "*Tarkovsky for me is the greatest \[director\], the one who invented a new language, true to the nature of film, as it captures life as a reflection, life as a dream*". He received critical praise for films like Andrei Rublev (1966), Solaris (1972), Mirror (1975), Stalker (1979), Nostalghia (1983), and The Sacrifice (1986). Unlike all his other films the latter two were filmed outside the Soviet Union.
@@ -6051,80 +5939,141 @@
 Stalker is an excellent place to get introduced to Tarkovsky’s creative, artistic, and thoughtful genius. While parts of it will remain perplexing, it has enough narrative to keep you interested, and it’s not so opaque that it defies comprehension on first viewing. As has well be said: "*Only in the hands of a genius like Tarkovsky can the simple narrative structure of three men on a journey be transformed to a complicated moral and spiritual examination of humanity, anchored to references of classical poetry, literature, music and art*."</t>
         </is>
       </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024-05-23 09:39:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>it feels like critics are complete bullshitters after i watched poor things</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yes i did go in almost blind i knew there was going to be sexual content but i was not prepared to how much pedophelia i witnessed during this film as a woman it made me very uncomfortable the effects were gorgeous but mid way through the film i almost walked out of the theatre
+the themes of a baby being inside of its own mothers head and how she basically followed the path the men in her life wanted her to follow made me uneasy how she was having relationships with men who knew that she was a baby technically i don’t want people being like oh she matured quickly but that’s not the point it felt like honest to god pedophilia because i for one grew up very mature for my age but that didn’t mean i deserved all the creepy men in my life
+ i found it weird how people where hyping up how “bad” saltburn was but when i watched that film i loved it in all honesty it was genuinely well written funny  and people online kept talking about how disturbing it was they’ve clearly not seen the shit show that is poor things 
+i don’t want anyone being like i don’t see your point this is just the perspective of a woman who’s experienced the patriarchy 
+plus the music made me very uneasy the whole time 2/10 at best loved the effects but the plot did not deliver i wanted to vomit at the end </t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2024-03-02 17:59:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>"Ali" and "The Insider"; Michael Mann as a radical filmmaker</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Most people are disappointed by Michael Mann's "Ali" when first watching it, but I think subsequent viewings reveal it as an excellent film.
+I think what helps is the realization that it's a kind of religious movie. It begins with paintings of Jesus, and Ali resenting his father's submissiveness to a white God and white power. The film then watches as Ali seeks out a black God via the Nation of Islam. This, he thinks, constitutes a form of black empowerment markedly different from Christ and Christianity, which he associates with the submissiveness of African Americans.
+But of course the Nation of Islam quickly reveals itself to be similarly exploitative and dependent upon subjugation. It puts Ali in various straitjackets, leading to Ali slowly drifting away from it.
+The final act of the film then sees Ali come across paintings of himself on a wall in Africa. Echoing the depictions of Christ his father did for money at the start of the film, Ali realizes he's become a God in the eyes of his followers. More than this, he realizes he's become like all the Gods and icons he's grown to despise throughout the film. Like they've abused him, he's abused women and forced them to submit to him and venerate him as a God. 
+It is this realization that Ali takes with him into his final fight. Realizing he hates the aforementioned consequences of power, he submits - like the Christ images his father once painted - and takes abuse in his final fight like Christ did on the cross. He lets his opponent whip him and whip him, and then turns this to his advantage.
+I think a lot of the hate "Ali" received came down to people not really seeing what the film was doing. But it's quite single-minded in its intentions, intentions which become more clear with rewatches. It's also gorgeously scored and edited, and with hindsight Will Smith's performance as Ali is quite special.
+It's also worth comparing "Ali" to the Michael Mann masterpiece "The Insider". Most view "The Insider" as a film about Russell Crowe, a corporate insider who spills Big Tobacco secrets. But the film's chief insider is really a character played by Al Pacino, a newsman who leaks corporate secrets about his own news company and its owners. Both characters believe they are stealing secret truths from the "inside", and leaking them to the "outside". They believe they are smuggling information from inside Power, to the outside wider world.
+But what Pacino learns at the end of the film is that there is no longer an outside. Everything is owned. Every sphere is under corporate control; even the media that promises to speak truth to power is itself an arm of Power. Hence why the film ends with a long tracking shot of Pacino exiting a building; he's quit his job and beginning a search for an existence outside the system. This contrasts with the opening of the film, where a similar long shot tracks Pacino as he is brought inside a building. You see a stark dichotomy here; a belief in an ability to penetrate the inside, giving way to disillusionment and then a search for a mythical outside, a search for that elusive freedom which all Mann protagonists seem to seek out (often associated with long horizons or shots of the ocean).
+Note too that the film is book-ended by terrorists. It opens with Hezbollah terrorists who want to expel Americans from the Middle East, and ends with the terrorist acts (which pepper the film) of the Unabomber, whose anarchic manifesto ("Industrial Society and Its Future") espoused the belief that modern society was perverted (by a fusion of technology, corporations and money) and needed to be destroyed.
+Both terrorist "groups" are deemed outsiders by Power, and both in a sense seek the destruction of modern America. Fittingly, Pacino's character mentions being a student of Herbert Marcuse, a consummate outsider whose work critiqued capitalism (and the way it co-opts technology), and who is famous for writing "The One-Dimensional Man", a book about the totalitarian nature of our economic system, and how it shapes and limits human behavior, and removes autonomy.
+So in both "Ali" and "The Insider", you get the sense of male heroes becoming disillusions with the systems they find themselves in. They open their eyes to the ways Power traps and limits human beings, and make the decision to become outsiders.  In this way they bridge the gap between docile citizens and the outright criminals of Mann's other films ("Heat", "Thief", "Public Enemies" etc).
+Interestingly, Mann's obsession with "outside" and "inside" extends way back to the beginning of his career. Think his 1980s crime flick "Manhunter". That film mirrored two plot lines. In the first, a serial killer watches normal American families from outside the glass windows of the homes in which he eventually kills them. Gradually, however, he becomes an "insider"; he builds a relationship with a woman, invites her into his own house, and becomes less of a monster and more of a "normal" guy.
+The film's second plotline does the opposite. It watches as a criminal profiler leaves his happy, big-windowed family home behind and enters the mind-space of a criminal. By the film's end, he will begin to act like the serial killer he's tracking. He will become a monster stalking outside the serial killer's house, watching his prey through glass that separates both worlds. The film climaxes with this glass being broken, inside and outside briefly becoming one. 
+In "Manhunter", the delineations between inside and outside are fairly simple; cops are good and criminals are bad. By the time we get to "Insider" and "Ali", however, Mann's films have become a bit more sophisticated. Ali and Crowe may commit crimes, but they're more heroes than criminals. And where state power is unquestioningly good in "Manhunter", in "Ali" its oppressive and at times outright criminal. The Inside/Outside, Law/Order dichotomy of his early films break down entirely in his later career, though his heroes always retain a romantic yearning for escape.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024-02-14 21:11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>I think people really over-analyze Perfect Days</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>First of all, I would like to give kudos to the creators for making a film that can be understood in different ways while still being appreciated by everyone. Some films get polarizing reactions, with some people hating them and others loving them, but in this case, everyone seems to like the movie, even if they interpret it differently. That’s what art is supposed to do.
+That said, I’ve read a lot about this movie, mainly on Reddit, with opinions ranging from "he chose a life of solitude, intentionally staying away from others and is happy" to "he is a miserable man, deluding himself into thinking he's happy and one change away from completely breaking." I think the film is simpler than we make it out to be.
+Hirayama does NOT keep himself away from others. I think he’s a bit introverted and shy. If he were truly forcing himself into solitude, he would probably avoid others completely, but we see that he doesn’t. For example, he regularly goes to the restaurant, and he doesn’t isolate himself from friendships. He’s just shy and introverted, perhaps lacking some social skills—that’s all. When he eats his meal during work, he nods at the same woman every day. It’s clear throughout the film that he enjoys the company of others as much as he enjoys being alone. He just doesn’t talk much with many people, that’s all. He enjoys his work, his routine, and the small things in life. The movie is calming, and at no point did I really feel like he was lonely. He has routines and hobbies he enjoys. The 80s-style music and his reading habits are just him being a boomer, nothing more.
+However, there are some contradictions to what I’m saying. I think if we didn’t know he came from a wealthy family and had a strained relationship with his father, this interpretation would be clearer. But in none of his dreams do we see him longing for anything he doesn’t already have, so I don’t think he’s missing a lifestyle he once had.
+In the first half of the movie, we barely see him speak at all. But as soon as his niece enters the picture, this changes. I was a little taken aback by the tonal shift, but this part is also the most wholesome moment in the film. The fact that his spoiled, wealthy niece isn’t repulsed by his job and even offers to help is heartwarming. After she leaves, we see him break down. Soon after, he loses his temper when his coworker suddenly quits. Later, after seeing the restaurant owner, he gets drunk and tries to smoke. He forms a bond with a dying man—something we hadn’t seen him do before. And then, in the final scene, he breaks down again. These moments likely contribute to the various interpretations of the film, and rightly so.
+However, I feel the film is simply showing that he experiences joy and sorrow like anyone else. He’s not overwhelmed by either. He’s not someone who deludes himself with false happiness to avoid his sorrows. Again, he’s never truly lonely. People like him, and he enjoys their company, as well as his hobbies. Ironically, in a melancholy way, I felt that his life seemed more joyful than mine, simply because he enjoys the things he does—his hobbies and his time with others. I’m Indian, so while I don’t know much about Japanese culture, in Asian religions like Buddhism and Hinduism, there’s a strong emphasis on accepting both pleasure and pain, sorrow and happiness equally. This film seems to reflect that.
+So, when he doesn’t speak much but engages with his niece, it doesn’t mean he subconsciously longs for human companionship but chooses solitude. It simply means she’s family, and he treats her as such. You can’t have a 1-on-1 situation with family and not speak to them. Introverted or “unsocial” people don’t avoid everyone entirely. When he bonds with the dying man, it’s because he’s already having a bad day and is under the influence of alcohol. The man also approaches him first. When he’s upset about the coworker leaving, it’s because it means more work for him. Once the replacement arrives, he’s back to his usual self—genuine human reactions. He’s not forcing anything. There’s no need to overanalyze.
+As for the final scene, I admit I didn’t fully understand it at first, mainly because I wanted to see more since there wasn’t an overarching plot or clear ending. But after reading some discussions, it’s clear the film is simply showing that you can experience both joy and sadness without being overwhelmed by either.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024-09-29 16:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Papillon (1973) is a great film that contains Steve McQueen's best performance of his career and one of my personal favourite scenes ever shot</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>I'm not saying anything new by stating that the original 1973 Papillon is a great film. It is, in my opinion Steve McQueen's best performance and his best overall movie. I'm a huge McQueen fan and I've seen all of his movies apart from a couple and I really think this was his magnum opus. Some other great, less seen performances of his that I recommend are in an Enemy of the People in which he plays against type and in Tom Horn which was his second to last film. His performance in Papillon, however was the one that should've at least been nominated for an academy award, in my opinion. 
+I love how Papillon is a continuation of themes McQueen was associated with in his previous movies. He is no stranger to quests for freedom and escaping captivity as he's done that in his most famous film which was of course the Great Escape. In-between the Great Escape and Papillon he also made Nevada Smith in which breaking out of prison is a major plot point. I love the Great Escape and Papillon can sort of be seen as a gritty, grimy version of that film. Of course, Papillon is more about the pursuit of freedom and purpose in general rather than about staging a prison break and the thrill of the escape.
+In Papillon, we as the viewers are really immeresed in to how hellish the conditions were for the prisoners in the French Guyana. The scenes of Papillon being locked away in solitary truly get across how horrific it was. It is during this time when the scene that I mentioned in the title of the post happens. That scene is the one where Papillon has a surreal dream of himself walking through the desert and being confronted by a judge and jury. Papillon claims that he is innocent of murder but the judge tells him that his crime is larger than that, the biggest crime a man can commit which is that of a wasted life to which Papillon admits his guilt multiple times like a penance. That scene, in my opinion is very well shot and scored but I wouldn't rank it as one of my favourites scenes because of that as there are certainly many more scenes which I can say have better composition. Instead, it's because of how poignant it is and how much it speaks to me personally. It makes me contemplate whether I lived my life well and to what extent I'm guilty of the same verdict. I'm sure most people feel that way about their life to some extent sometimes and I'm not saying I feel that always but there are times when my mind brings that scene up and makes me ponder. The ability of this scene to linger on my mind and recall it from time to time truly makes it special. 
+Finally it goes without saying that Dustin Hoffman is absolutely fantastic in the movie too. Also, I am not at all bothered about how much of this movie is true and whether the whole story is fiction. What matters to me, and this is a case with most films is how much I enjoy it and how well it gets it's themes across. To me, Papillon does all that exceptionally well and it deserves its status as a great film.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024-09-10 22:51:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Princess Mononoke (1997) and the nature of existence</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>I re-watched Princess Mononoke in theaters for Ghibli Fest last week and the experience left me with a lot of feelings that I now feel like I can articulate into words.
+Princess Mononoke resolves the paradoxical conflict of nature vs. humanity. A conservationist points to a beautiful forest and says “it deserves to survive”, vowing to protect it with their life. A pioneer points to the huddled masses who yearn to build a town over the forest and says “they deserve to survive too”. Who’s right?
+The movie tells us that that life is not a noun, but a verb. Death is no less a part of life than birth in the same way that in order to inhale you must also exhale: both are breath. Conflict is inevitable and part of the process in the same way that storms give way to clear skies. All of nature — all of reality — is like this. Waves break against shores only to pull back and rejoin the sea but in the process it leaves the land ever so slightly changed. In the final shot of the movie we watch verdant grass growing back over the scars of war.
+Some thoughts:
+* For me, the most emotionally salient shot of the film — even when I watched it a long time ago, much younger with no idea how to make sense of it — was when we first see the God of the Forest. We see it take a few slow steps and with each one we watch life be birthed, grow, die, and decompose. Miyazaki’s choice to make the viewer’s first impression of the God of the Forest this strikingly beautiful and surprising shot was my window into understanding what the movie’s trying to tell us.
+* The God of the Forest does not provide any favorable treatment to trees or animals, nor does it put up any special resistance against humanity. Such blind justice is awe-inspiring and allowed me to understand that viewing ourselves as separate from animals and plants is absurd, the conflict — and even the entire boundary — is imaginary. No more are we at war with the forest when we build a town than we are with our own skin when we exfoliate.
+* Another scene that stood out to me was when the conniving Jiko-bô talked about a town that was abandoned after a landslide killed many of the people living there. Humanity’s exploitation of its surroundings is a push and pull with nature. If we are subject to nature’s inscrutable whims then it’s incumbent upon us to act according to our nature and fight to thrive, not just survive.
+* By the time Lady Eboshi says "Watch closely everyone. I'm going to show you how to kill a god.” I no longer found her to be possessed by evil or championing a righteous cause. The line struck me with the same kind of resignation to destiny and immutable nature as I feel when I think of a white blood cell rallying the immune system to attack perceived threats, not able to understand that in doing so it’s killing its host and its home.
+* While the movie does not venerate either side of the conflict between nature and humans (because it’s trying to tell us the conflict is imaginary) it does venerate moments of empathy and acts of compassion: Ashitaka risking himself to save two townspeople, Lady Eboshi’s genuine respect of the lepers and their adoration of her, Yakul and Ashitaka’s bond. The God of the Forest rewards Ashitaka’s sacrifice for San with a second chance at life.
+* The film shows us that it’s possible to go too far and upset the balance within nature and that by doing so everything inside of it suffers. If Lady Eboshi was successful in her quest then both her people and the forest would have been wiped out. 
+* The film takes great care to spend time on the tender acts of kindness between and among animals and humans: Ashitaka pulling the covers over San, San’s devotion to Moro, Moro’s camaraderie with Okkoto, Yakul’s loyalty to Ashitaka, Toki’s adorable love of her husband Kohroku. By letting the emotional warmth of these moments wash over me I gained an intuitive understanding that compassion for all living beings is the answer to thriving and maintaining balance with the rest of nature.</t>
+        </is>
+      </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2024-05-23 09:39:03</t>
+          <t>2024-07-22 19:22:37</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>wow Johnny Mnemonic in Black &amp; White is kind-of a revelation!</t>
+          <t>“Blow Out” (1981) Review. Let’s discuss!</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
-        <is>
-          <t>It's been mentioned a few times in old interview that the film was intended to be black and white, then pumped up as a colour mini-blockbuster after Keanu hit big with Speed.
-On seeing the 2021 black and white version, ***I think the film was actually designed for black and white*** and the shift to colour came really late in pre-production.
-I have always wondered how the director, who came from high-end (mostly B&amp;W) art photography, could have shot such a cheap, tepid-looking film. On the original version, the colours are wan and the sets look crummy and outdated.
-In black and white, the sets look universally better, and the most of the costumes are conspicuously contrasty (which means they look much better monochrome). ***The visual design finally makes sense.***
-And so like 25+ years later, we see that Johnny Mnemonic was/is one of that crop of indie-chic '90s black and whites like Dead Man, La Haine, Twenty Four Seven etc... and it was the cyberpunk wannabe action flick one of that group!</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>2024-01-31 06:05:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Appreciation for Wong Kar-wai, after watching In the Mood for Love (2000)</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>I've not yet gone through his entire filmography, but watching **In the Mood for Love** has certainly left me with a newfound admiration for WKW's cinematic style, as I previously jostled to figure out what made Fallen Angels so great.
-There's no semblance of a definite narrative structure or even a proper, drawn-out story. Neither do you get any rich or layered writing, nor are you treated to any kind of character exploration. But the movie works regardless, as the colors, music, aesthetics, and even the pervading silences slowly let you soak in the mood and atmosphere of the world created.
-The minimalistic artistic expression, heavily drenched in sorrow and melancholia, subtly captures the characters' effervescing inner feelings and their unrequited love, which is underpinned by yearning and longing. The movie by itself doesn't have much to think about, but the way it masterfully conveys the emotions strangely has me still thinking about it nonetheless.
-&amp;#x200B;
-Another thing I find noteworthy is the *aftertaste* you experience long after you've seen the movie. One might not like it when the credits start rolling but once the initial thoughts subside, this lingering aftertaste takes over and leaves you with a desire to go back and rewatch the movie. This, for me, is the case with Fallen Angels too, given that I'm keen on revisiting it someday in the future despite knowing that I wasn't really a big fan when I watched it.
-The idea that 'people don't remember what you said but remember how you made them feel' is what the essence of WKW's cinematic genius is all about, in my opinion. What do you think, is the magic dust that somehow manages to make his work so alluring?</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>2024-01-26 21:55:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Appreciation for Mishima: A Life in Four Chapters</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>With the Criterion Channel recently highlighting a collection of the films of Paul Schrader, I decided to revisit this film. I remember watching it a year or so ago and it leaving me cold - it's (purposely) surrealist imagery leaving a sense of tackiness, instead of the hightened emotions I was *supposed* to be feeling. However, this re-watch hit me like a sledgehammer. Perhaps it might be because I am now more acutely aware of the political divide in my country (the US) and the role that fanaticism plays in our current politics. Perhaps I was simply just in a better and more open mood this time around, with no deeper reasoning. All I can say is by the end of the film, I was transfixed and could not stop thinking about it for days.
-I now consider it among the greatest films I've ever seen, and am currently on my third viewing. Yes, the Philip Glass score is incredible and adds a lot to the movie, but the writing and incongruent narrative is so hypnotic. I honestly believe the film demands 2 viewings to fully take in everything it is saying. What do you think of the film, appreciation or otherwise, and how it has stood the test of time? With First Reformed and Mishima alone, Schrader has shown me personally he is more than just a scribe who is not an interesting director -- a critique I see often. This is a total masterpiece.</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>2024-06-03 02:01:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>“Blow Out” (1981) Review. Let’s discuss!</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
         <is>
           <t xml:space="preserve">Brian De Palma *hates* boring openings. He’s gone on record saying as much. De Palma thinks that opening shots consisting of either a) aerials of a city or b) a car driving somewhere are creatively bankrupt. How does he solve this?
 He creates a devastating, electric opening—that’s how. The opening to *Blow Out* is nothing short of attention-grabbing. Two things make it so: a downright deadly Steadicam and De Palma playing into the sexist stereotypes of his filmography. Sleazy, total horror in prelude to a much more subtle, much more sophisticated horror.
@@ -6147,19 +6096,103 @@
 </t>
         </is>
       </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024-05-07 12:16:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>wow Johnny Mnemonic in Black &amp; White is kind-of a revelation!</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>It's been mentioned a few times in old interview that the film was intended to be black and white, then pumped up as a colour mini-blockbuster after Keanu hit big with Speed.
+On seeing the 2021 black and white version, ***I think the film was actually designed for black and white*** and the shift to colour came really late in pre-production.
+I have always wondered how the director, who came from high-end (mostly B&amp;W) art photography, could have shot such a cheap, tepid-looking film. On the original version, the colours are wan and the sets look crummy and outdated.
+In black and white, the sets look universally better, and the most of the costumes are conspicuously contrasty (which means they look much better monochrome). ***The visual design finally makes sense.***
+And so like 25+ years later, we see that Johnny Mnemonic was/is one of that crop of indie-chic '90s black and whites like Dead Man, La Haine, Twenty Four Seven etc... and it was the cyberpunk wannabe action flick one of that group!</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024-01-31 06:05:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Appreciation for Wong Kar-wai, after watching In the Mood for Love (2000)</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>I've not yet gone through his entire filmography, but watching **In the Mood for Love** has certainly left me with a newfound admiration for WKW's cinematic style, as I previously jostled to figure out what made Fallen Angels so great.
+There's no semblance of a definite narrative structure or even a proper, drawn-out story. Neither do you get any rich or layered writing, nor are you treated to any kind of character exploration. But the movie works regardless, as the colors, music, aesthetics, and even the pervading silences slowly let you soak in the mood and atmosphere of the world created.
+The minimalistic artistic expression, heavily drenched in sorrow and melancholia, subtly captures the characters' effervescing inner feelings and their unrequited love, which is underpinned by yearning and longing. The movie by itself doesn't have much to think about, but the way it masterfully conveys the emotions strangely has me still thinking about it nonetheless.
+&amp;#x200B;
+Another thing I find noteworthy is the *aftertaste* you experience long after you've seen the movie. One might not like it when the credits start rolling but once the initial thoughts subside, this lingering aftertaste takes over and leaves you with a desire to go back and rewatch the movie. This, for me, is the case with Fallen Angels too, given that I'm keen on revisiting it someday in the future despite knowing that I wasn't really a big fan when I watched it.
+The idea that 'people don't remember what you said but remember how you made them feel' is what the essence of WKW's cinematic genius is all about, in my opinion. What do you think, is the magic dust that somehow manages to make his work so alluring?</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024-01-26 21:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sight and Sound Magazine - The 50 best films of 2024 </t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://www.bfi.org.uk/sight-and-sound/polls/50-best-films-2024](https://www.bfi.org.uk/sight-and-sound/polls/50-best-films-2024)
+As always, an interesting and eclectic list that features titles that have typically received scant media attention and/or are unlikely (or yet) to be released in theatres. 
+I can only assume film festivals and/or word of mouth are the main way voters - and people like us - are invariably exposed to (m)any of these films.
+It is also interesting to read the complaints about this list on the movies subreddit - their comments confirm that the 'average' - yet seemingly dedicated - movie goer will remain blissfully unaware of (let alone interested in) any of these films. Indeed, they appear angry that the list doesn't valorise their interest in mainstream films, and they appear to have little interest in seeking out films without widespread media attention or wide release (indicating the nature of a negatively reinforcing feedback loop amongst supposed film lovers/goers). 
+So unless a film has already been 'sanctioned' by the marketplace most of these films will remain relatively obscure or unseen. 
+[https://sh.reddit.com/r/movies/comments/1h81b3w/sight\_and\_sound\_magazine\_the\_50\_best\_films\_of\_2024/](https://sh.reddit.com/r/movies/comments/1h81b3w/sight_and_sound_magazine_the_50_best_films_of_2024/)
+</t>
+        </is>
+      </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2024-05-07 12:16:35</t>
+          <t>2024-12-06 23:58:18</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>Appreciation for Mishima: A Life in Four Chapters</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>With the Criterion Channel recently highlighting a collection of the films of Paul Schrader, I decided to revisit this film. I remember watching it a year or so ago and it leaving me cold - it's (purposely) surrealist imagery leaving a sense of tackiness, instead of the hightened emotions I was *supposed* to be feeling. However, this re-watch hit me like a sledgehammer. Perhaps it might be because I am now more acutely aware of the political divide in my country (the US) and the role that fanaticism plays in our current politics. Perhaps I was simply just in a better and more open mood this time around, with no deeper reasoning. All I can say is by the end of the film, I was transfixed and could not stop thinking about it for days.
+I now consider it among the greatest films I've ever seen, and am currently on my third viewing. Yes, the Philip Glass score is incredible and adds a lot to the movie, but the writing and incongruent narrative is so hypnotic. I honestly believe the film demands 2 viewings to fully take in everything it is saying. What do you think of the film, appreciation or otherwise, and how it has stood the test of time? With First Reformed and Mishima alone, Schrader has shown me personally he is more than just a scribe who is not an interesting director -- a critique I see often. This is a total masterpiece.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024-06-03 02:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
           <t xml:space="preserve">The main driving force in every Ari Aster film is the absence of someone, rather than a protagonist. </t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>I noticed this when I was watching the IMAX re-release of *Hereditary* last week, a film I've seen a number of times, as well as *Midsommar* (only seen *Beau is Afraid* twice, but so far that's enough lol). I've been a big fan of his since *Hereditary* first came out, and this theme totally stuck out to me watching it last week that the driving force in all of these films is essentially the absence of a character that dies early on, while the actual choices and decisions made by our on-screen protagonists are essentially meaningless to the overall inevitability the stories build towards.
 With *Hereditary*, we open with the obituary and always feel the looming presence of the grandmother, a character who's never actually on screen outside of as an apparition or a corpse. (EDIT: and of course, for the remaining 3/4ths of the film, the entire tone is set by/the result of Charlie's absence.)
@@ -6167,30 +6200,9 @@
 With *Beau is Afraid*, the entire film is based on the ticking-clock element that Beau is already too late for the funeral, and every second being added is more guilt for him to endure. Of course, this one subverts it by revealing that Monna was actually alive the entire time, but the point still stands; rather than a force that drives the story forward, we begin with a vacuum that essentially caves in the rest of the story around it like a slowly growing sinkhole. I just found this interesting, and definitely adds a layer of context to the overall powerlessness/inaction that I think *Beau* is really about. Curious to hear if others have interpreted this at all in a similar manner or if anyone has a different take on the material. I know all of these films are ripe for discussion and this is a very broad, general overview of this idea but I thought it was interesting as a throughline for these films I've thought about a lot over the years.</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>2024-04-29 19:17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>it feels like critics are complete bullshitters after i watched poor things</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">yes i did go in almost blind i knew there was going to be sexual content but i was not prepared to how much pedophelia i witnessed during this film as a woman it made me very uncomfortable the effects were gorgeous but mid way through the film i almost walked out of the theatre
-the themes of a baby being inside of its own mothers head and how she basically followed the path the men in her life wanted her to follow made me uneasy how she was having relationships with men who knew that she was a baby technically i don’t want people being like oh she matured quickly but that’s not the point it felt like honest to god pedophilia because i for one grew up very mature for my age but that didn’t mean i deserved all the creepy men in my life
- i found it weird how people where hyping up how “bad” saltburn was but when i watched that film i loved it in all honesty it was genuinely well written funny  and people online kept talking about how disturbing it was they’ve clearly not seen the shit show that is poor things 
-i don’t want anyone being like i don’t see your point this is just the perspective of a woman who’s experienced the patriarchy 
-plus the music made me very uneasy the whole time 2/10 at best loved the effects but the plot did not deliver i wanted to vomit at the end </t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>2024-03-02 17:59:39</t>
         </is>
       </c>
     </row>
@@ -6243,10 +6255,29 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
+          <t>Other Movies That Show How One Can Slip Into Being a "Nazi"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There aren't a lot of movies that show how a culture can be led down a path similiar to pre-Nazi Germany and frankly I think it's weird that the best example I know of is Starship Troopers. I mean, I think it's an underrated masterpiece in that regard but, still, it's pretty campy and not a serious drama.
+Am I just being oblivious?--are there more serious examples of how people can be brainwashed into wanting to eradicate another "people". 
+I mean, in a way, the starship troopers example might work as well as it does because the bugs *aren't* people and that's kind of the mentality that one adopts in cases of severe discrimination. </t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024-12-20 16:01:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
           <t>New wave of French Female Directors?</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Seeing the universal acclaim Coralie Fargeat is getting for her satirical body horror The Substance, I can't help but wonder if we're witnessing a new movement in cinema, driven by female french auteurs.
 Over the last couple of years french directors like Julia Ducournau, Justine Triet, Céline Sciamma and now Coralie Fargeat have delivered provocative, refreshing, and thematically focused films, that have been met with much critical acclaim. With both Triet and Docurnau winning the Palme D´Or at Cannes, and Fargeat seemingly poised for a successful awards race, I can't help but wonder where this surge of female french talent is coming from. Of course France has had great female directors in the past (Agnes Varda, and the great, great Claire Denis) but I don't think there's been a time in French cinema when you had this many  female critical darlings, also capable of making box office returns.
@@ -6254,61 +6285,58 @@
 Hopefully this trend will continue in other countries as well.</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>2024-10-23 21:52:58</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>What exactly is it about Herzog’s work?</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>What defines his oeuvre? He is kind of hard for me to figure out; I’m speaking particularly about his work as a documentarian. 
 I’m especially curious about his visual style and techniques. Though it generally seems rather subtle, there is something that *feels* distinctive, but I can’t seem to put into words. 
 Thematically, I know he often explores the indifference of nature and the “ecstatic truth.”</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>2024-10-02 18:53:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sight and Sound Magazine - The 50 best films of 2024 </t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[https://www.bfi.org.uk/sight-and-sound/polls/50-best-films-2024](https://www.bfi.org.uk/sight-and-sound/polls/50-best-films-2024)
-As always, an interesting and eclectic list that features titles that have typically received scant media attention and/or are unlikely (or yet) to be released in theatres. 
-I can only assume film festivals and/or word of mouth are the main way voters - and people like us - are invariably exposed to (m)any of these films.
-It is also interesting to read the complaints about this list on the movies subreddit - their comments confirm that the 'average' - yet seemingly dedicated - movie goer will remain blissfully unaware of (let alone interested in) any of these films. Indeed, they appear angry that the list doesn't valorise their interest in mainstream films, and they appear to have little interest in seeking out films without widespread media attention or wide release (indicating the nature of a negatively reinforcing feedback loop amongst supposed film lovers/goers). 
-So unless a film has already been 'sanctioned' by the marketplace most of these films will remain relatively obscure or unseen. 
-[https://sh.reddit.com/r/movies/comments/1h81b3w/sight\_and\_sound\_magazine\_the\_50\_best\_films\_of\_2024/](https://sh.reddit.com/r/movies/comments/1h81b3w/sight_and_sound_magazine_the_50_best_films_of_2024/)
-</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2024-12-06 23:58:18</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
+          <t>I liked Anora, but should Sean Baker start working with an editor?</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Especially in the first chapter (before the 'house invasion' scene) I felt like the film was repeating itself a little too often. I had similar thoughts in the section where Anora and the Russians were searching for Ivan. I'm a big fan of Baker's films, but this is the first where I was conscious of repetition in the narrative. He always edits his own work, something I have never really felt to be significant in the past. But with Anora, I felt for the first time the need for an outside eye, maybe an editor who could hone the story telling to create just a little more economy. 
+Baker's films are always around two hours in length, and Anora is no exception. But unlike the others, this one felt like two hours. I wondered if maybe one reason for this was the relatively small cast of characters. In previous films, Baker has established a core ensemble of supporting roles, with the action shifting between characters. Here the focus was very much on Anora and Ivan in the first chapter, and Anora and the Russians in the rest. There was just less happening - fewer relationships, fewer stories to tell. I wasn't bored at all, but I was aware of the run time - does that make sense? I can't help wondering if Baker had lost maybe 15 minutes or so, this terrific film could have been even better. Perhaps an editor would have brought that edge of discipline I felt was missing. 
+Did anyone else feel this way? 
+(To be clear - despite this criticism, I very much admired the film!)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024-11-21 00:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
           <t>My thoughts on Melancholia; Its excellent, authentic portrayal of depression and my disagreements with the worldview presented in the film by Von Trier.</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>I had posted a version of this article on this sub a few years back and in the past week decided to update the article with a few more information that I've learned since then.
 https://www.highonfilms.com/melancholia-2011-and-the-end-of-everything-exploring-depression-despair-and-the-human-condition/
@@ -6319,39 +6347,9 @@
 Tell me what you guys think.</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>2024-10-02 11:50:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Burn After Reading</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>I just watched **Burn After Reading** last night. This is around my fourth or fifth time watching it, and I was struck by the idea that the whole film is about change and how it affects our lives, whether random or not. There's also a component about desire and how it creates or catalyzes that change in our lives.
-All of the central characters are going through massive changes in their lives or have the desire to change or alter their lives in some way. We have characters who desire to make physical changes to their appearance (Frances McDormand), jump into the fantasy of being a CIA agent (Brad Pitt), or have their lives fall apart due to their actions (John Malkovich). These central characters illustrate that people have a desire to be anything other than themselves. Half of the movie is even based in a gym (Hard Bodies), where people go to become different versions of themselves.
-From here, I feel the CIA represents some type of universal character, where they parse out why things happen to people. Throughout the film, everything happens very randomly, with dire consequences for the film's central characters from the perspective of our all-knowing agency. It’s a tally of actions and results via the reports David Rasche's character delivers to J.K. Simmons, who represents this all-knowing figure, yet doesn't know why any of this is happening or what they learn from it. To me, this represents the randomness of life and the universe we live in.
-The other two main characters, played by George Clooney and Richard Jenkins, are catalysts or agents of change in the universe with contrasting points of view.
-George Clooney's character is like the devil on your shoulder. He takes what he can get and disrupts people's lives with his constant desire to sleep around. He has a past that seems shady but could also be exaggerated. He appears to have everything under control; he calls the shots and decides what happens. He embodies desire throughout the film, and his whole purpose in life seems to be satisfaction. You see this in his sleeping around, his constant need to go for runs, and the sex chair he constructs in his basement. Everything falls apart for him in the last act of the movie when he kills Brad Pitt and learns of his divorce.
-Richard Jenkins' character, the manager at Hard Bodies, is a constant force throughout the movie of not getting involved and stopping meddling—a voice of trepidation, stability, and acceptance. You see this in how he doesn’t want Brad messing with the files; he just keeps saying he wants that out of Hard Bodies. He assures Frances McDormand that she doesn’t need any cosmetic surgeries and that this whole idea is pointless and she’s fine as she is. He was previously a priest and now the manager of a gym, two institutions based around helping people find some type of peace. As a priest, he guided people towards acceptance in spirituality, and as a gym manager, he helps people put in the work to accept themselves. His character breaks down around the same time George Clooney's does, as his desire for Frances McDormand leads him to act completely out of character and break into John Malkovich's home. He represents control in a different way and is killed randomly for following desire.
-Our main characters desire to be anything but themselves, and in their pursuit, the most unlikely of scenarios happen.
-John Malkovich is the recipient of change brought on by his own actions. He loses his job due to being an alcoholic and gets divorced. He wants to keep the illusion of being a Princeton graduate CIA agent intact. He never seems more out of place than when he is at the Princeton dinner. At this dinner, we also see he’s not unique; all of his peers appear to be completely drunk. It just so happens that he unfairly and randomly gets fired from his job. He hits rock bottom when he is forced to live on his boat, and what does he start doing? He starts working out and tells himself he's back and better. He tries to recreate himself, changing into a better version of himself. He ends up killing Richard Jenkins, our gym manager, as he is "one of the morons" he’s been fighting his whole life. The thing is, Richard Jenkins is acting completely out of character here; he isn’t one of those morons always chasing something else. There's something here where our ex-agent of the all-knowing entity thinks he knows exactly who this person is, but he's completely wrong and destroys the film’s representation of acceptance and stability.
-Brad Pitt's character has everything most of the people in the film want. He’s fit and happy; he is the result of what the people in the gym are seeking. I don’t get the feeling that he's bored or unsatisfied with his life at all, but when the opportunity randomly comes along for him to escape into something else, be someone else, he jumps in with both feet. He can’t wait to not be who he is. When John Malkovich calls Richard Jenkins a moron, I feel like, as the viewer, you’re thinking, "No, he’s not the moron, it’s Brad Pitt! Brad’s the moron!" John Malkovich is an ex-agent of our all-knowing entity that's trying to sort through the events of the universe and add order and reasons to these events. He has constantly been fighting this randomness, which Brad Pitt represents—someone who doesn’t seek or desire anything rational but jumps at the opportunity to be chaotic and extract personal gain from the situation. Brad is then killed by George, our character that represents the perils of desire.
-Frances McDormand’s character, right from the start of the film, isn’t satisfied with herself. She wants to completely change, as we see in the scene where she lists off all the surgeries she wants to have with her plastic surgeon. She wants to find a partner, and the obvious match in the film is George Clooney, the character of desire, who sees nothing wrong with her and makes comments about how he likes her physical appearance. She has this irrational desire to change into a version of herself that she sees in her mind. She partners with our moron, Brad Pitt, to take advantage of the situation in hopes it gets her closer to her goal of changing herself with plastic surgery. She’s much more calculated than any other character in the movie. She goes to the Russians when things aren’t working out with John Malkovich. She runs all the operations and schemes she gets into with Brad Pitt. Despite all the misfortune brought onto the other characters, she’s the only one who gets what she wants in the end, as the CIA rewards her for her involvement. She took advantage of Richard Jenkins, Brad Pitt, and even George Clooney to some extent to satisfy her irrational desire to be something else. In fact, she is so good at controlling her destiny that George Clooney even confronts her in the park about being a CIA agent—a member of our all-knowing, all-controlling entity. I think Frances McDormand’s character represents how random events work out for some people and how it truly seems the universe is on their side, even though they are the most selfish.
-Throughout the film, there's a constant sense of men in cars that all of our characters notice. This, to me, is the idea that there’s a constant force watching over you, dictating what can and should happen based on your actions and choices. These men are always perceived as a threat and as members of the CIA (the universe). Our characters, in their pursuit of change, are always monitoring and watching for these figures, as all of their actions seem to constantly question what they will be allowed to get away with.
-The Coen brothers’ films, to me, always have this air of something larger, sometimes cosmic. I feel this film is one of their most ambitious artistic projects, depicting the randomness of the universe and how desires and wants get lost in the mess of life, all packaged into this tight little film. I think it's a cautionary tale of how reinvention or the lack of acceptance of oneself can cause unexpected changes in our lives, as the universe is random and doesn’t care what you want.
-I totally left out the Tilda Swinton character, as I feel she represents the "hammering" pressure of life, and I didn’t have too many additional thoughts there.
-I'd love to hear any thoughts on this movie in general. If you think I’m totally off base, I’d love to hear that too. I’ve never posted before on this sub, so I hope this is the kind of thing you do here.</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>2024-06-21 19:40:24</t>
         </is>
       </c>
     </row>
